--- a/Excels/Language_多语言表.xlsx
+++ b/Excels/Language_多语言表.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>int</t>
   </si>
@@ -42,6 +42,9 @@
     <t>id</t>
   </si>
   <si>
+    <t>名称</t>
+  </si>
+  <si>
     <t>英文</t>
   </si>
   <si>
@@ -64,6 +67,12 @@
   </si>
   <si>
     <t>TestLanguageKey000001</t>
+  </si>
+  <si>
+    <t>Test000001</t>
+  </si>
+  <si>
+    <t>测试000001</t>
   </si>
 </sst>
 </file>
@@ -1517,36 +1526,38 @@
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1">
@@ -1554,10 +1565,14 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" s="2" customFormat="1">
       <c r="A6" s="2"/>

--- a/Excels/Language_多语言表.xlsx
+++ b/Excels/Language_多语言表.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>int</t>
   </si>
@@ -73,6 +73,39 @@
   </si>
   <si>
     <t>测试000001</t>
+  </si>
+  <si>
+    <t>TestQualityName0001</t>
+  </si>
+  <si>
+    <t>TestQuality</t>
+  </si>
+  <si>
+    <t>测试质量</t>
+  </si>
+  <si>
+    <t>TestBagItemName0001</t>
+  </si>
+  <si>
+    <t>TestBagItem</t>
+  </si>
+  <si>
+    <t>测试背包物品</t>
+  </si>
+  <si>
+    <t>TestBagItemDesc0001</t>
+  </si>
+  <si>
+    <t>TestBagItemDescTestBagItemDescTestBagItemDescTestBagItemDescTestBagItemDesc</t>
+  </si>
+  <si>
+    <t>测试背包描述测试背包描述测试背包描述测试背包描述测试背包描述</t>
+  </si>
+  <si>
+    <t>TestAreaName0001</t>
+  </si>
+  <si>
+    <t>TestArea</t>
   </si>
 </sst>
 </file>
@@ -1564,7 +1597,7 @@
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1575,27 +1608,57 @@
       </c>
     </row>
     <row r="6" s="2" customFormat="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" s="2" customFormat="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" s="2" customFormat="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" s="2" customFormat="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="19" customHeight="1">

--- a/Excels/Language_多语言表.xlsx
+++ b/Excels/Language_多语言表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0137D5-748D-44F8-BF88-D8C58B164AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E089217-1ACA-4168-A9DA-11A8C0E89034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2430" yWindow="5115" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="246">
   <si>
     <t>int</t>
   </si>
@@ -151,10 +151,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Code在手咯，我要体验DragonVerse Neo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>我还没有Code，立即获取Code</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -163,9 +159,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Welcome to DragonVerse Neo and be a part of it!</t>
-  </si>
-  <si>
     <t>What kind of world is DragonVerse Neo?</t>
   </si>
   <si>
@@ -176,9 +169,6 @@
   </si>
   <si>
     <t>Enter your code to experience it right away, don't have a code yet? Head over to Landing Page to get it now!</t>
-  </si>
-  <si>
-    <t>Code in hand, I'm going to experience DragonVerse Neo</t>
   </si>
   <si>
     <t>I don't have a code yet, get the code now</t>
@@ -462,6 +452,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>ネオってどんな世界?</t>
     </r>
@@ -835,6 +827,35 @@
   </si>
   <si>
     <t>Dunkel</t>
+  </si>
+  <si>
+    <t>Welcome to DragonVerse Neo and be a part of it!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0008</t>
+  </si>
+  <si>
+    <t>Code在手咯，我要探索DragonVerse Neo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code in my hand, I'm going to explore DragonVerse Neo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证···成功！恭喜你可以走出新手村落，尽情探索DragonVerse Neo吧~</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verification ··· Succeed! Congratulations on getting out of the beginner village and exploring DragonVerse Neo~</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>検証 ···継ぐ！初心者の村を出て、ドラゴンバースネオを探索したおめでとうございます~</t>
+  </si>
+  <si>
+    <t>Verifizierung ··· Gelingen! Herzlichen Glückwunsch, dass du das Anfängerdorf verlassen und DragonVerse Neo erkundet hast~</t>
   </si>
 </sst>
 </file>
@@ -905,39 +926,6 @@
   </cellStyles>
   <dxfs count="17">
     <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79995117038483843"/>
@@ -974,15 +962,13 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
         <color theme="1"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
       <border>
         <left/>
         <right/>
@@ -991,6 +977,12 @@
           <color theme="4" tint="0.39994506668294322"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1009,9 +1001,54 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
+        <b/>
         <color theme="1"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
       <border>
         <left/>
         <right/>
@@ -1039,6 +1076,44 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="1"/>
       </font>
       <border>
@@ -1059,82 +1134,28 @@
         </horizontal>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="10"/>
-      <tableStyleElement type="headerRow" dxfId="13"/>
-      <tableStyleElement type="totalRow" dxfId="11"/>
-      <tableStyleElement type="firstColumn" dxfId="16"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
       <tableStyleElement type="lastColumn" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="0"/>
-      <tableStyleElement type="firstRowStripe" dxfId="8"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="9"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="6"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="1"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
       <tableStyleElement type="secondRowSubheading" dxfId="2"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="4"/>
-      <tableStyleElement type="pageFieldValues" dxfId="3"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1358,10 +1379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F550"/>
+  <dimension ref="A1:F551"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1463,10 +1484,10 @@
         <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1483,10 +1504,10 @@
         <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1494,7 +1515,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>23</v>
@@ -1503,10 +1524,10 @@
         <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1514,7 +1535,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>25</v>
@@ -1523,10 +1544,10 @@
         <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1540,13 +1561,13 @@
         <v>28</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -1556,17 +1577,17 @@
       <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>44</v>
+      <c r="C10" s="3" t="s">
+        <v>238</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -1577,16 +1598,16 @@
         <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1597,16 +1618,16 @@
         <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1617,16 +1638,16 @@
         <v>32</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -1637,16 +1658,16 @@
         <v>33</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1656,17 +1677,17 @@
       <c r="B15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>41</v>
+      <c r="C15" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>240</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1677,16 +1698,16 @@
         <v>35</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1694,675 +1715,694 @@
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>82</v>
+        <v>239</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>242</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>131</v>
+        <v>244</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>51</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>152</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>73</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>153</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="D27" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>117</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>164</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
-        <v>34</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>186</v>
+        <v>33</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>194</v>
+        <v>109</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>206</v>
+        <v>148</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>200</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C39" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="C39" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="D39" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>196</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>111</v>
+        <v>218</v>
       </c>
       <c r="D48" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="F48" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
+        <v>44</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="2">
         <v>45</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D49" s="3" t="s">
+      <c r="B50" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+      <c r="F50" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
     <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="52" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="54" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="55" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="56" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="57" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="58" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="59" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="60" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="61" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="63" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="64" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="65" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="66" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2394,10 +2434,10 @@
     <row r="92" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="93" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="94" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="96" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="98" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="95" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="97" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="99" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="100" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="101" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2409,31 +2449,31 @@
     <row r="107" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="108" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="109" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="111" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="110" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="112" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="113" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="114" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="115" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="117" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="116" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="118" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="119" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="120" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="121" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="122" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="123" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="124" s="2" customFormat="1" ht="26.85" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="125" s="2" customFormat="1" ht="23.85" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="126" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="124" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="125" s="2" customFormat="1" ht="26.85" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="126" s="2" customFormat="1" ht="23.85" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="127" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="128" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="129" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="130" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="131" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="132" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="133" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="134" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="133" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="134" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="135" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="136" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="137" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2441,13 +2481,13 @@
     <row r="139" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="140" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="141" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="142" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="142" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="143" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="144" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="144" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="145" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="146" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="147" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="148" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="147" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="148" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="149" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="150" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="151" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2482,7 +2522,7 @@
     <row r="180" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="181" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="182" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="183" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="183" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="184" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="185" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="186" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -2750,13 +2790,13 @@
     <row r="448" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="449" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="450" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="451" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="451" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="452" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="453" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="454" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="455" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="456" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="457" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="457" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="458" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="459" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="460" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -2823,8 +2863,8 @@
     <row r="521" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="522" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="523" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="524" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="525" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="524" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="525" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="526" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="527" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="528" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -2850,6 +2890,7 @@
     <row r="548" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="549" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="550" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="551" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51181102362204689" footer="0.51181102362204689"/>

--- a/Excels/Language_多语言表.xlsx
+++ b/Excels/Language_多语言表.xlsx
@@ -1,31 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AF11F7-531F-491E-BACE-A602E458BE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="10380" yWindow="4020" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24045" windowHeight="12375" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="325">
   <si>
     <t>int</t>
   </si>
@@ -182,7 +184,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>ドラゴンバース</t>
@@ -192,7 +193,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="MS Gothic"/>
-        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>・</t>
@@ -202,7 +202,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>ネオってどんな世界?</t>
@@ -1024,12 +1023,24 @@
   <si>
     <t>过肩摔</t>
   </si>
+  <si>
+    <t>Dragontip_Content_0001</t>
+  </si>
+  <si>
+    <t>需要*元素龙才能解开该法阵！</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1039,38 +1050,367 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="MS Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="MS Gothic"/>
+      <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1078,9 +1418,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1090,22 +1672,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1154,7 +1780,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1187,26 +1813,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1239,23 +1848,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1397,24 +1989,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F551"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="2" max="2" width="34.625" customWidth="1"/>
@@ -1422,7 +2009,7 @@
     <col min="5" max="6" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1442,7 +2029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" s="1" customFormat="1" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1462,7 +2049,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" s="1" customFormat="1" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1482,7 +2069,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" s="2" customFormat="1" spans="2:6">
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1499,7 +2086,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" s="2" customFormat="1" spans="1:6">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1519,7 +2106,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" s="2" customFormat="1" spans="1:6">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1539,7 +2126,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" s="2" customFormat="1" spans="1:6">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1559,7 +2146,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" s="2" customFormat="1" spans="1:6">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1579,7 +2166,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" s="2" customFormat="1" spans="1:6">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -1599,7 +2186,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:6">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -1619,7 +2206,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:6">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -1639,7 +2226,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" s="2" customFormat="1" spans="1:6">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -1659,7 +2246,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" s="2" customFormat="1" spans="1:6">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -1679,7 +2266,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:6">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -1699,7 +2286,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" s="2" customFormat="1" spans="1:6">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -1719,7 +2306,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" s="2" customFormat="1" spans="1:6">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -1739,7 +2326,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" s="2" customFormat="1" spans="1:6">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -1759,7 +2346,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" s="2" customFormat="1" spans="1:6">
       <c r="A18" s="2">
         <v>14</v>
       </c>
@@ -1779,7 +2366,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" s="2" customFormat="1" spans="1:6">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -1799,7 +2386,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" s="2" customFormat="1" spans="1:6">
       <c r="A20" s="2">
         <v>16</v>
       </c>
@@ -1819,7 +2406,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" s="2" customFormat="1" spans="1:6">
       <c r="A21" s="2">
         <v>17</v>
       </c>
@@ -1839,7 +2426,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" s="2" customFormat="1" spans="1:6">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -1859,7 +2446,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" s="2" customFormat="1" spans="1:6">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -1879,7 +2466,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" s="2" customFormat="1" spans="1:6">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -1899,7 +2486,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" s="2" customFormat="1" spans="1:6">
       <c r="A25" s="2">
         <v>21</v>
       </c>
@@ -1919,7 +2506,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" s="2" customFormat="1" spans="1:6">
       <c r="A26" s="2">
         <v>22</v>
       </c>
@@ -1939,7 +2526,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" s="2" customFormat="1" spans="1:6">
       <c r="A27" s="2">
         <v>23</v>
       </c>
@@ -1959,7 +2546,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" s="2" customFormat="1" spans="1:6">
       <c r="A28" s="2">
         <v>24</v>
       </c>
@@ -1979,7 +2566,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" s="2" customFormat="1" spans="1:6">
       <c r="A29" s="2">
         <v>25</v>
       </c>
@@ -1999,7 +2586,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" s="2" customFormat="1" spans="1:6">
       <c r="A30" s="2">
         <v>26</v>
       </c>
@@ -2019,7 +2606,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" s="2" customFormat="1" spans="1:6">
       <c r="A31" s="2">
         <v>27</v>
       </c>
@@ -2039,7 +2626,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" s="2" customFormat="1" spans="1:6">
       <c r="A32" s="2">
         <v>28</v>
       </c>
@@ -2059,7 +2646,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" s="2" customFormat="1" spans="1:6">
       <c r="A33" s="2">
         <v>29</v>
       </c>
@@ -2079,7 +2666,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" s="2" customFormat="1" spans="1:6">
       <c r="A34" s="2">
         <v>30</v>
       </c>
@@ -2099,7 +2686,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" s="2" customFormat="1" spans="1:6">
       <c r="A35" s="2">
         <v>31</v>
       </c>
@@ -2119,7 +2706,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" s="2" customFormat="1" spans="1:6">
       <c r="A36" s="2">
         <v>32</v>
       </c>
@@ -2139,7 +2726,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" s="2" customFormat="1" spans="1:6">
       <c r="A37" s="2">
         <v>33</v>
       </c>
@@ -2159,7 +2746,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" s="2" customFormat="1" spans="1:6">
       <c r="A38" s="2">
         <v>34</v>
       </c>
@@ -2179,7 +2766,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" s="2" customFormat="1" spans="1:6">
       <c r="A39" s="2">
         <v>35</v>
       </c>
@@ -2199,7 +2786,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" s="2" customFormat="1" spans="1:6">
       <c r="A40" s="2">
         <v>36</v>
       </c>
@@ -2219,7 +2806,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" s="2" customFormat="1" spans="1:6">
       <c r="A41" s="2">
         <v>37</v>
       </c>
@@ -2239,7 +2826,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" s="2" customFormat="1" spans="1:6">
       <c r="A42" s="2">
         <v>38</v>
       </c>
@@ -2259,7 +2846,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" s="2" customFormat="1" spans="1:6">
       <c r="A43" s="2">
         <v>39</v>
       </c>
@@ -2279,7 +2866,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" s="2" customFormat="1" spans="1:6">
       <c r="A44" s="2">
         <v>40</v>
       </c>
@@ -2299,7 +2886,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" s="2" customFormat="1" spans="1:6">
       <c r="A45" s="2">
         <v>41</v>
       </c>
@@ -2319,7 +2906,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" s="2" customFormat="1" spans="1:6">
       <c r="A46" s="2">
         <v>42</v>
       </c>
@@ -2339,7 +2926,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" s="2" customFormat="1" spans="1:6">
       <c r="A47" s="2">
         <v>43</v>
       </c>
@@ -2359,7 +2946,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" s="2" customFormat="1" spans="1:6">
       <c r="A48" s="2">
         <v>44</v>
       </c>
@@ -2379,7 +2966,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" s="2" customFormat="1" spans="1:6">
       <c r="A49" s="2">
         <v>45</v>
       </c>
@@ -2399,7 +2986,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" s="2" customFormat="1" spans="1:6">
       <c r="A50" s="2">
         <v>46</v>
       </c>
@@ -2419,8 +3006,8 @@
         <v>240</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="52" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="51" s="2" customFormat="1"/>
+    <row r="52" s="2" customFormat="1" spans="1:4">
       <c r="A52" s="3">
         <v>102129</v>
       </c>
@@ -2434,7 +3021,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="53" s="2" customFormat="1" spans="1:4">
       <c r="A53" s="3">
         <v>102130</v>
       </c>
@@ -2448,7 +3035,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="54" s="2" customFormat="1" spans="1:4">
       <c r="A54" s="3">
         <v>102131</v>
       </c>
@@ -2462,7 +3049,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="55" s="2" customFormat="1" spans="1:4">
       <c r="A55" s="3">
         <v>102132</v>
       </c>
@@ -2476,7 +3063,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:4">
       <c r="A56" s="3">
         <v>102133</v>
       </c>
@@ -2490,7 +3077,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:4">
       <c r="A57" s="3">
         <v>102134</v>
       </c>
@@ -2504,7 +3091,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="58" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:4">
       <c r="A58" s="3">
         <v>102135</v>
       </c>
@@ -2518,7 +3105,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:4">
       <c r="A59" s="3">
         <v>102136</v>
       </c>
@@ -2532,7 +3119,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="60" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:4">
       <c r="A60" s="3">
         <v>102137</v>
       </c>
@@ -2546,7 +3133,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="61" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:4">
       <c r="A61" s="3">
         <v>102138</v>
       </c>
@@ -2560,7 +3147,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="62" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:4">
       <c r="A62" s="3">
         <v>102139</v>
       </c>
@@ -2574,7 +3161,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="63" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="63" s="2" customFormat="1" spans="1:4">
       <c r="A63" s="3">
         <v>102140</v>
       </c>
@@ -2588,7 +3175,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:4">
       <c r="A64" s="3">
         <v>102141</v>
       </c>
@@ -2602,7 +3189,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:4">
       <c r="A65" s="3">
         <v>102142</v>
       </c>
@@ -2616,7 +3203,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="66" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:4">
       <c r="A66" s="3">
         <v>102143</v>
       </c>
@@ -2630,7 +3217,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:4">
       <c r="A67" s="3">
         <v>102144</v>
       </c>
@@ -2644,7 +3231,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="68" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:4">
       <c r="A68" s="3">
         <v>102145</v>
       </c>
@@ -2658,7 +3245,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:4">
       <c r="A69" s="3">
         <v>102146</v>
       </c>
@@ -2672,7 +3259,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="70" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:4">
       <c r="A70" s="3">
         <v>102147</v>
       </c>
@@ -2686,7 +3273,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="71" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:4">
       <c r="A71" s="3">
         <v>102148</v>
       </c>
@@ -2700,7 +3287,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="72" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:4">
       <c r="A72" s="3">
         <v>102149</v>
       </c>
@@ -2714,7 +3301,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:4">
       <c r="A73" s="3">
         <v>102150</v>
       </c>
@@ -2728,7 +3315,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="74" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:4">
       <c r="A74" s="3">
         <v>102151</v>
       </c>
@@ -2742,7 +3329,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="75" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:4">
       <c r="A75" s="3">
         <v>102152</v>
       </c>
@@ -2756,7 +3343,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="76" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:4">
       <c r="A76" s="3">
         <v>102153</v>
       </c>
@@ -2770,7 +3357,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="77" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:4">
       <c r="A77" s="3">
         <v>102154</v>
       </c>
@@ -2784,7 +3371,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="78" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:4">
       <c r="A78" s="3">
         <v>102155</v>
       </c>
@@ -2798,7 +3385,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="79" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:4">
       <c r="A79" s="3">
         <v>102156</v>
       </c>
@@ -2812,7 +3399,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="80" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:4">
       <c r="A80" s="3">
         <v>102157</v>
       </c>
@@ -2826,480 +3413,490 @@
         <v>322</v>
       </c>
     </row>
-    <row r="81" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="82" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="83" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="84" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="85" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="86" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="87" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="88" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="89" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="90" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="91" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="92" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="93" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="94" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="95" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="97" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="99" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="100" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="101" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="102" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="103" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="104" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="105" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="106" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="107" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="108" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="109" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="110" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="112" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="113" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="114" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="115" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="116" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="118" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="119" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="120" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="121" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="122" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="123" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="124" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="125" s="2" customFormat="1" ht="26.85" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="126" s="2" customFormat="1" ht="23.85" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="127" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="128" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="129" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="130" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="131" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="132" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="133" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="134" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="135" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="136" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="137" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="138" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="139" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="140" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="141" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="142" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="143" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="144" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="145" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="146" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="147" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="148" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="149" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="150" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="151" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="152" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="153" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="154" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="155" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="156" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="157" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="158" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="159" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="160" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="161" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="162" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="163" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="164" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="165" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="166" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="167" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="168" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="169" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="170" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="171" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="172" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="173" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="174" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="175" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="176" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="177" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="178" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="179" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="180" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="181" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="182" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="183" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="184" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="185" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="186" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="187" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="188" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="189" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="190" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="191" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="192" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="193" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="194" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="195" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="196" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="197" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="198" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="199" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="200" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="201" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="202" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="203" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="204" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="205" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="206" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="207" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="208" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="209" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="210" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="211" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="212" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="213" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="214" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="215" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="216" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="217" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="218" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="219" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="220" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="221" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="222" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="223" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="224" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="225" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="226" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="227" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="228" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="229" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="230" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="231" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="232" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="233" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="234" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="235" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="236" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="237" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="238" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="239" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="240" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="241" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="242" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="243" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="244" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="245" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="246" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="247" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="248" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="249" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="250" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="251" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="252" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="253" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="254" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="255" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="256" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="257" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="258" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="259" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="260" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="261" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="262" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="263" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="264" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="265" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="266" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="267" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="268" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="269" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="270" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="271" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="272" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="273" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="274" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="275" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="276" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="277" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="278" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="279" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="280" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="281" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="282" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="283" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="284" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="285" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="286" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="287" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="288" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="289" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="290" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="291" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="292" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="293" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="294" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="295" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="296" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="297" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="298" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="299" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="300" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="301" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="302" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="303" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="304" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="305" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="306" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="307" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="308" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="309" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="310" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="311" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="312" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="313" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="314" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="315" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="316" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="317" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="318" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="319" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="320" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="321" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="322" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="323" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="324" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="325" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="326" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="327" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="328" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="329" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="330" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="331" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="332" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="333" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="334" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="335" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="336" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="337" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="338" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="339" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="340" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="341" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="342" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="343" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="344" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="345" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="346" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="347" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="348" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="349" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="350" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="351" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="352" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="353" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="354" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="355" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="356" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="357" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="358" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="359" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="360" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="361" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="362" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="363" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="364" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="365" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="366" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="367" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="368" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="369" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="370" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="371" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="372" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="373" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="374" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="375" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="376" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="377" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="378" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="379" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="380" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="381" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="382" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="383" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="384" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="385" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="386" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="387" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="388" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="389" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="390" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="391" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="392" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="393" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="394" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="395" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="396" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="397" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="398" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="399" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="400" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="401" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="402" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="403" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="404" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="405" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="406" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="407" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="408" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="409" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="410" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="411" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="412" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="413" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="414" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="415" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="416" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="417" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="418" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="419" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="420" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="421" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="422" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="423" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="424" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="425" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="426" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="427" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="428" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="429" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="430" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="431" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="432" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="433" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="434" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="435" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="436" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="437" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="438" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="439" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="440" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="441" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="442" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="443" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="444" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="445" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="446" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="447" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="448" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="449" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="450" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="451" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="452" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="453" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="454" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="455" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="456" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="457" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="458" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="459" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="460" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="461" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="462" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="463" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="464" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="465" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="466" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="467" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="468" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="469" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="470" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="471" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="472" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="473" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="474" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="475" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="476" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="477" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="478" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="479" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="480" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="481" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="482" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="483" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="484" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="485" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="486" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="487" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="488" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="489" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="490" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="491" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="492" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="493" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="494" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="495" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="496" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="497" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="498" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="499" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="500" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="501" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="502" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="503" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="504" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="505" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="506" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="507" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="508" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="509" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="510" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="511" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="512" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="513" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="514" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="515" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="516" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="517" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="518" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="519" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="520" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="521" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="522" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="523" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="524" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="525" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="526" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="527" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="528" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="529" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="530" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="531" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="532" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="533" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="534" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="535" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="536" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="537" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="538" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="539" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="540" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="541" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="542" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="543" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="544" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="545" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="546" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="547" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="548" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="549" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="550" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="551" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="81" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:4">
+      <c r="A81" s="2">
+        <v>102158</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="82" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="83" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="84" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="85" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="86" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="87" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="88" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="89" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="90" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="91" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="92" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="93" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="94" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="95" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="96" s="2" customFormat="1"/>
+    <row r="97" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="98" s="2" customFormat="1"/>
+    <row r="99" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="100" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="101" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="102" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="103" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="104" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="105" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="106" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="107" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="108" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="109" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="110" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="111" s="2" customFormat="1"/>
+    <row r="112" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="113" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="114" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="115" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="116" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="117" s="2" customFormat="1"/>
+    <row r="118" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="119" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="120" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="121" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="122" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="123" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="124" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="125" s="2" customFormat="1" ht="26.85" customHeight="1"/>
+    <row r="126" s="2" customFormat="1" ht="23.85" customHeight="1"/>
+    <row r="127" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="128" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="129" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="130" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="131" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="132" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="133" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="134" s="2" customFormat="1"/>
+    <row r="135" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="136" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="137" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="138" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="139" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="140" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="141" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="142" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="143" s="2" customFormat="1"/>
+    <row r="144" s="2" customFormat="1"/>
+    <row r="145" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="146" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="147" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="148" s="2" customFormat="1"/>
+    <row r="149" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="150" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="151" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="152" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="153" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="154" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="155" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="156" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="157" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="158" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="159" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="160" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="161" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="162" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="163" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="164" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="165" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="166" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="167" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="168" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="169" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="170" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="171" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="172" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="173" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="174" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="175" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="176" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="177" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="178" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="179" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="180" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="181" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="182" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="183" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="184" s="2" customFormat="1"/>
+    <row r="185" s="2" customFormat="1"/>
+    <row r="186" s="2" customFormat="1"/>
+    <row r="187" s="2" customFormat="1"/>
+    <row r="188" s="2" customFormat="1"/>
+    <row r="189" s="2" customFormat="1"/>
+    <row r="190" s="2" customFormat="1"/>
+    <row r="191" s="2" customFormat="1"/>
+    <row r="192" s="2" customFormat="1"/>
+    <row r="193" s="2" customFormat="1"/>
+    <row r="194" s="2" customFormat="1"/>
+    <row r="195" s="2" customFormat="1"/>
+    <row r="196" s="2" customFormat="1"/>
+    <row r="197" s="2" customFormat="1"/>
+    <row r="198" s="2" customFormat="1"/>
+    <row r="199" s="2" customFormat="1"/>
+    <row r="200" s="2" customFormat="1"/>
+    <row r="201" s="2" customFormat="1"/>
+    <row r="202" s="2" customFormat="1"/>
+    <row r="203" s="2" customFormat="1"/>
+    <row r="204" s="2" customFormat="1"/>
+    <row r="205" s="2" customFormat="1"/>
+    <row r="206" s="2" customFormat="1"/>
+    <row r="207" s="2" customFormat="1"/>
+    <row r="208" s="2" customFormat="1"/>
+    <row r="209" s="2" customFormat="1"/>
+    <row r="210" s="2" customFormat="1"/>
+    <row r="211" s="2" customFormat="1"/>
+    <row r="212" s="2" customFormat="1"/>
+    <row r="213" s="2" customFormat="1"/>
+    <row r="214" s="2" customFormat="1"/>
+    <row r="215" s="2" customFormat="1"/>
+    <row r="216" s="2" customFormat="1"/>
+    <row r="217" s="2" customFormat="1"/>
+    <row r="218" s="2" customFormat="1"/>
+    <row r="219" s="2" customFormat="1"/>
+    <row r="220" s="2" customFormat="1"/>
+    <row r="221" s="2" customFormat="1"/>
+    <row r="222" s="2" customFormat="1"/>
+    <row r="223" s="2" customFormat="1"/>
+    <row r="224" s="2" customFormat="1"/>
+    <row r="225" s="2" customFormat="1"/>
+    <row r="226" s="2" customFormat="1"/>
+    <row r="227" s="2" customFormat="1"/>
+    <row r="228" s="2" customFormat="1"/>
+    <row r="229" s="2" customFormat="1"/>
+    <row r="230" s="2" customFormat="1"/>
+    <row r="231" s="2" customFormat="1"/>
+    <row r="232" s="2" customFormat="1"/>
+    <row r="233" s="2" customFormat="1"/>
+    <row r="234" s="2" customFormat="1"/>
+    <row r="235" s="2" customFormat="1"/>
+    <row r="236" s="2" customFormat="1"/>
+    <row r="237" s="2" customFormat="1"/>
+    <row r="238" s="2" customFormat="1"/>
+    <row r="239" s="2" customFormat="1"/>
+    <row r="240" s="2" customFormat="1"/>
+    <row r="241" s="2" customFormat="1"/>
+    <row r="242" s="2" customFormat="1"/>
+    <row r="243" s="2" customFormat="1"/>
+    <row r="244" s="2" customFormat="1"/>
+    <row r="245" s="2" customFormat="1"/>
+    <row r="246" s="2" customFormat="1"/>
+    <row r="247" s="2" customFormat="1"/>
+    <row r="248" s="2" customFormat="1"/>
+    <row r="249" s="2" customFormat="1"/>
+    <row r="250" s="2" customFormat="1"/>
+    <row r="251" s="2" customFormat="1"/>
+    <row r="252" s="2" customFormat="1"/>
+    <row r="253" s="2" customFormat="1"/>
+    <row r="254" s="2" customFormat="1"/>
+    <row r="255" s="2" customFormat="1"/>
+    <row r="256" s="2" customFormat="1"/>
+    <row r="257" s="2" customFormat="1"/>
+    <row r="258" s="2" customFormat="1"/>
+    <row r="259" s="2" customFormat="1"/>
+    <row r="260" s="2" customFormat="1"/>
+    <row r="261" s="2" customFormat="1"/>
+    <row r="262" s="2" customFormat="1"/>
+    <row r="263" s="2" customFormat="1"/>
+    <row r="264" s="2" customFormat="1"/>
+    <row r="265" s="2" customFormat="1"/>
+    <row r="266" s="2" customFormat="1"/>
+    <row r="267" s="2" customFormat="1"/>
+    <row r="268" s="2" customFormat="1"/>
+    <row r="269" s="2" customFormat="1"/>
+    <row r="270" s="2" customFormat="1"/>
+    <row r="271" s="2" customFormat="1"/>
+    <row r="272" s="2" customFormat="1"/>
+    <row r="273" s="2" customFormat="1"/>
+    <row r="274" s="2" customFormat="1"/>
+    <row r="275" s="2" customFormat="1"/>
+    <row r="276" s="2" customFormat="1"/>
+    <row r="277" s="2" customFormat="1"/>
+    <row r="278" s="2" customFormat="1"/>
+    <row r="279" s="2" customFormat="1"/>
+    <row r="280" s="2" customFormat="1"/>
+    <row r="281" s="2" customFormat="1"/>
+    <row r="282" s="2" customFormat="1"/>
+    <row r="283" s="2" customFormat="1"/>
+    <row r="284" s="2" customFormat="1"/>
+    <row r="285" s="2" customFormat="1"/>
+    <row r="286" s="2" customFormat="1"/>
+    <row r="287" s="2" customFormat="1"/>
+    <row r="288" s="2" customFormat="1"/>
+    <row r="289" s="2" customFormat="1"/>
+    <row r="290" s="2" customFormat="1"/>
+    <row r="291" s="2" customFormat="1"/>
+    <row r="292" s="2" customFormat="1"/>
+    <row r="293" s="2" customFormat="1"/>
+    <row r="294" s="2" customFormat="1"/>
+    <row r="295" s="2" customFormat="1"/>
+    <row r="296" s="2" customFormat="1"/>
+    <row r="297" s="2" customFormat="1"/>
+    <row r="298" s="2" customFormat="1"/>
+    <row r="299" s="2" customFormat="1"/>
+    <row r="300" s="2" customFormat="1"/>
+    <row r="301" s="2" customFormat="1"/>
+    <row r="302" s="2" customFormat="1"/>
+    <row r="303" s="2" customFormat="1"/>
+    <row r="304" s="2" customFormat="1"/>
+    <row r="305" s="2" customFormat="1"/>
+    <row r="306" s="2" customFormat="1"/>
+    <row r="307" s="2" customFormat="1"/>
+    <row r="308" s="2" customFormat="1"/>
+    <row r="309" s="2" customFormat="1"/>
+    <row r="310" s="2" customFormat="1"/>
+    <row r="311" s="2" customFormat="1"/>
+    <row r="312" s="2" customFormat="1"/>
+    <row r="313" s="2" customFormat="1"/>
+    <row r="314" s="2" customFormat="1"/>
+    <row r="315" s="2" customFormat="1"/>
+    <row r="316" s="2" customFormat="1"/>
+    <row r="317" s="2" customFormat="1"/>
+    <row r="318" s="2" customFormat="1"/>
+    <row r="319" s="2" customFormat="1"/>
+    <row r="320" s="2" customFormat="1"/>
+    <row r="321" s="2" customFormat="1"/>
+    <row r="322" s="2" customFormat="1"/>
+    <row r="323" s="2" customFormat="1"/>
+    <row r="324" s="2" customFormat="1"/>
+    <row r="325" s="2" customFormat="1"/>
+    <row r="326" s="2" customFormat="1"/>
+    <row r="327" s="2" customFormat="1"/>
+    <row r="328" s="2" customFormat="1"/>
+    <row r="329" s="2" customFormat="1"/>
+    <row r="330" s="2" customFormat="1"/>
+    <row r="331" s="2" customFormat="1"/>
+    <row r="332" s="2" customFormat="1"/>
+    <row r="333" s="2" customFormat="1"/>
+    <row r="334" s="2" customFormat="1"/>
+    <row r="335" s="2" customFormat="1"/>
+    <row r="336" s="2" customFormat="1"/>
+    <row r="337" s="2" customFormat="1"/>
+    <row r="338" s="2" customFormat="1"/>
+    <row r="339" s="2" customFormat="1"/>
+    <row r="340" s="2" customFormat="1"/>
+    <row r="341" s="2" customFormat="1"/>
+    <row r="342" s="2" customFormat="1"/>
+    <row r="343" s="2" customFormat="1"/>
+    <row r="344" s="2" customFormat="1"/>
+    <row r="345" s="2" customFormat="1"/>
+    <row r="346" s="2" customFormat="1"/>
+    <row r="347" s="2" customFormat="1"/>
+    <row r="348" s="2" customFormat="1"/>
+    <row r="349" s="2" customFormat="1"/>
+    <row r="350" s="2" customFormat="1"/>
+    <row r="351" s="2" customFormat="1"/>
+    <row r="352" s="2" customFormat="1"/>
+    <row r="353" s="2" customFormat="1"/>
+    <row r="354" s="2" customFormat="1"/>
+    <row r="355" s="2" customFormat="1"/>
+    <row r="356" s="2" customFormat="1"/>
+    <row r="357" s="2" customFormat="1"/>
+    <row r="358" s="2" customFormat="1"/>
+    <row r="359" s="2" customFormat="1"/>
+    <row r="360" s="2" customFormat="1"/>
+    <row r="361" s="2" customFormat="1"/>
+    <row r="362" s="2" customFormat="1"/>
+    <row r="363" s="2" customFormat="1"/>
+    <row r="364" s="2" customFormat="1"/>
+    <row r="365" s="2" customFormat="1"/>
+    <row r="366" s="2" customFormat="1"/>
+    <row r="367" s="2" customFormat="1"/>
+    <row r="368" s="2" customFormat="1"/>
+    <row r="369" s="2" customFormat="1"/>
+    <row r="370" s="2" customFormat="1"/>
+    <row r="371" s="2" customFormat="1"/>
+    <row r="372" s="2" customFormat="1"/>
+    <row r="373" s="2" customFormat="1"/>
+    <row r="374" s="2" customFormat="1"/>
+    <row r="375" s="2" customFormat="1"/>
+    <row r="376" s="2" customFormat="1"/>
+    <row r="377" s="2" customFormat="1"/>
+    <row r="378" s="2" customFormat="1"/>
+    <row r="379" s="2" customFormat="1"/>
+    <row r="380" s="2" customFormat="1"/>
+    <row r="381" s="2" customFormat="1"/>
+    <row r="382" s="2" customFormat="1"/>
+    <row r="383" s="2" customFormat="1"/>
+    <row r="384" s="2" customFormat="1"/>
+    <row r="385" s="2" customFormat="1"/>
+    <row r="386" s="2" customFormat="1"/>
+    <row r="387" s="2" customFormat="1"/>
+    <row r="388" s="2" customFormat="1"/>
+    <row r="389" s="2" customFormat="1"/>
+    <row r="390" s="2" customFormat="1"/>
+    <row r="391" s="2" customFormat="1"/>
+    <row r="392" s="2" customFormat="1"/>
+    <row r="393" s="2" customFormat="1"/>
+    <row r="394" s="2" customFormat="1"/>
+    <row r="395" s="2" customFormat="1"/>
+    <row r="396" s="2" customFormat="1"/>
+    <row r="397" s="2" customFormat="1"/>
+    <row r="398" s="2" customFormat="1"/>
+    <row r="399" s="2" customFormat="1"/>
+    <row r="400" s="2" customFormat="1"/>
+    <row r="401" s="2" customFormat="1"/>
+    <row r="402" s="2" customFormat="1"/>
+    <row r="403" s="2" customFormat="1"/>
+    <row r="404" s="2" customFormat="1"/>
+    <row r="405" s="2" customFormat="1"/>
+    <row r="406" s="2" customFormat="1"/>
+    <row r="407" s="2" customFormat="1"/>
+    <row r="408" s="2" customFormat="1"/>
+    <row r="409" s="2" customFormat="1"/>
+    <row r="410" s="2" customFormat="1"/>
+    <row r="411" s="2" customFormat="1"/>
+    <row r="412" s="2" customFormat="1"/>
+    <row r="413" s="2" customFormat="1"/>
+    <row r="414" s="2" customFormat="1"/>
+    <row r="415" s="2" customFormat="1"/>
+    <row r="416" s="2" customFormat="1"/>
+    <row r="417" s="2" customFormat="1"/>
+    <row r="418" s="2" customFormat="1"/>
+    <row r="419" s="2" customFormat="1"/>
+    <row r="420" s="2" customFormat="1"/>
+    <row r="421" s="2" customFormat="1"/>
+    <row r="422" s="2" customFormat="1"/>
+    <row r="423" s="2" customFormat="1"/>
+    <row r="424" s="2" customFormat="1"/>
+    <row r="425" s="2" customFormat="1"/>
+    <row r="426" s="2" customFormat="1"/>
+    <row r="427" s="2" customFormat="1"/>
+    <row r="428" s="2" customFormat="1"/>
+    <row r="429" s="2" customFormat="1"/>
+    <row r="430" s="2" customFormat="1"/>
+    <row r="431" s="2" customFormat="1"/>
+    <row r="432" s="2" customFormat="1"/>
+    <row r="433" s="2" customFormat="1"/>
+    <row r="434" s="2" customFormat="1"/>
+    <row r="435" s="2" customFormat="1"/>
+    <row r="436" s="2" customFormat="1"/>
+    <row r="437" s="2" customFormat="1"/>
+    <row r="438" s="2" customFormat="1"/>
+    <row r="439" s="2" customFormat="1"/>
+    <row r="440" s="2" customFormat="1"/>
+    <row r="441" s="2" customFormat="1"/>
+    <row r="442" s="2" customFormat="1"/>
+    <row r="443" s="2" customFormat="1"/>
+    <row r="444" s="2" customFormat="1"/>
+    <row r="445" s="2" customFormat="1"/>
+    <row r="446" s="2" customFormat="1"/>
+    <row r="447" s="2" customFormat="1"/>
+    <row r="448" s="2" customFormat="1"/>
+    <row r="449" s="2" customFormat="1"/>
+    <row r="450" s="2" customFormat="1"/>
+    <row r="451" s="2" customFormat="1"/>
+    <row r="452" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="453" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="454" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="455" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="456" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="457" s="2" customFormat="1" ht="18.95" customHeight="1"/>
+    <row r="458" s="2" customFormat="1"/>
+    <row r="459" s="2" customFormat="1"/>
+    <row r="460" s="2" customFormat="1"/>
+    <row r="461" s="2" customFormat="1"/>
+    <row r="462" s="2" customFormat="1"/>
+    <row r="463" s="2" customFormat="1"/>
+    <row r="464" s="2" customFormat="1"/>
+    <row r="465" s="2" customFormat="1"/>
+    <row r="466" s="2" customFormat="1"/>
+    <row r="467" s="2" customFormat="1"/>
+    <row r="468" s="2" customFormat="1"/>
+    <row r="469" s="2" customFormat="1"/>
+    <row r="470" s="2" customFormat="1"/>
+    <row r="471" s="2" customFormat="1"/>
+    <row r="472" s="2" customFormat="1"/>
+    <row r="473" s="2" customFormat="1"/>
+    <row r="474" s="2" customFormat="1"/>
+    <row r="475" s="2" customFormat="1"/>
+    <row r="476" s="2" customFormat="1"/>
+    <row r="477" s="2" customFormat="1"/>
+    <row r="478" s="2" customFormat="1"/>
+    <row r="479" s="2" customFormat="1"/>
+    <row r="480" s="2" customFormat="1"/>
+    <row r="481" s="2" customFormat="1"/>
+    <row r="482" s="2" customFormat="1"/>
+    <row r="483" s="2" customFormat="1"/>
+    <row r="484" s="2" customFormat="1"/>
+    <row r="485" s="2" customFormat="1"/>
+    <row r="486" s="2" customFormat="1"/>
+    <row r="487" s="2" customFormat="1"/>
+    <row r="488" s="2" customFormat="1"/>
+    <row r="489" s="2" customFormat="1"/>
+    <row r="490" s="2" customFormat="1"/>
+    <row r="491" s="2" customFormat="1"/>
+    <row r="492" s="2" customFormat="1"/>
+    <row r="493" s="2" customFormat="1"/>
+    <row r="494" s="2" customFormat="1"/>
+    <row r="495" s="2" customFormat="1"/>
+    <row r="496" s="2" customFormat="1"/>
+    <row r="497" s="2" customFormat="1"/>
+    <row r="498" s="2" customFormat="1"/>
+    <row r="499" s="2" customFormat="1"/>
+    <row r="500" s="2" customFormat="1"/>
+    <row r="501" s="2" customFormat="1"/>
+    <row r="502" s="2" customFormat="1"/>
+    <row r="503" s="2" customFormat="1"/>
+    <row r="504" s="2" customFormat="1"/>
+    <row r="505" s="2" customFormat="1"/>
+    <row r="506" s="2" customFormat="1"/>
+    <row r="507" s="2" customFormat="1"/>
+    <row r="508" s="2" customFormat="1"/>
+    <row r="509" s="2" customFormat="1"/>
+    <row r="510" s="2" customFormat="1"/>
+    <row r="511" s="2" customFormat="1"/>
+    <row r="512" s="2" customFormat="1"/>
+    <row r="513" s="2" customFormat="1"/>
+    <row r="514" s="2" customFormat="1"/>
+    <row r="515" s="2" customFormat="1"/>
+    <row r="516" s="2" customFormat="1"/>
+    <row r="517" s="2" customFormat="1"/>
+    <row r="518" s="2" customFormat="1"/>
+    <row r="519" s="2" customFormat="1"/>
+    <row r="520" s="2" customFormat="1"/>
+    <row r="521" s="2" customFormat="1"/>
+    <row r="522" s="2" customFormat="1"/>
+    <row r="523" s="2" customFormat="1"/>
+    <row r="524" s="2" customFormat="1"/>
+    <row r="525" s="2" customFormat="1" ht="18.6" customHeight="1"/>
+    <row r="526" s="2" customFormat="1"/>
+    <row r="527" s="2" customFormat="1"/>
+    <row r="528" s="2" customFormat="1"/>
+    <row r="529" s="2" customFormat="1"/>
+    <row r="530" s="2" customFormat="1"/>
+    <row r="531" s="2" customFormat="1"/>
+    <row r="532" s="2" customFormat="1"/>
+    <row r="533" s="2" customFormat="1"/>
+    <row r="534" s="2" customFormat="1"/>
+    <row r="535" s="2" customFormat="1"/>
+    <row r="536" s="2" customFormat="1"/>
+    <row r="537" s="2" customFormat="1"/>
+    <row r="538" s="2" customFormat="1"/>
+    <row r="539" s="2" customFormat="1"/>
+    <row r="540" s="2" customFormat="1"/>
+    <row r="541" s="2" customFormat="1"/>
+    <row r="542" s="2" customFormat="1"/>
+    <row r="543" s="2" customFormat="1"/>
+    <row r="544" s="2" customFormat="1"/>
+    <row r="545" s="2" customFormat="1"/>
+    <row r="546" s="2" customFormat="1"/>
+    <row r="547" s="2" customFormat="1"/>
+    <row r="548" s="2" customFormat="1"/>
+    <row r="549" s="2" customFormat="1"/>
+    <row r="550" s="2" customFormat="1"/>
+    <row r="551" s="2" customFormat="1"/>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excels/Language_多语言表.xlsx
+++ b/Excels/Language_多语言表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC57F66-EC36-4F1E-AFDC-67080172A69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12375" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="347">
   <si>
     <t>int</t>
   </si>
@@ -193,7 +197,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="MS Gothic"/>
-        <charset val="128"/>
+        <family val="3"/>
       </rPr>
       <t>・</t>
     </r>
@@ -1029,18 +1033,93 @@
   <si>
     <t>需要*元素龙才能解开该法阵！</t>
   </si>
+  <si>
+    <t>捕捉成功</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕捉失败</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的DragonBall不足，无法捕捉。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始捕捉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始采集</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集成功</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>完美</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合格</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bad</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Perfect</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点我复位</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainFunction_001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainFunction_002</t>
+  </si>
+  <si>
+    <t>Collection_001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collection_002</t>
+  </si>
+  <si>
+    <t>Catch_001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Catch_002</t>
+  </si>
+  <si>
+    <t>Catch_003</t>
+  </si>
+  <si>
+    <t>Catch_004</t>
+  </si>
+  <si>
+    <t>Catch_005</t>
+  </si>
+  <si>
+    <t>Catch_006</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1056,361 +1135,37 @@
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="MS Gothic"/>
-      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1418,253 +1173,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1676,62 +1189,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1989,27 +1464,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F551"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87:B92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="2" max="2" width="34.625" customWidth="1"/>
+    <col min="1" max="1" width="12.09765625" customWidth="1"/>
+    <col min="2" max="2" width="34.59765625" customWidth="1"/>
     <col min="3" max="4" width="60.5" customWidth="1"/>
-    <col min="5" max="6" width="17.25" customWidth="1"/>
+    <col min="5" max="6" width="17.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2029,7 +1504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:6">
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2049,7 +1524,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:6">
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2069,7 +1544,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="2:6">
+    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
@@ -2086,7 +1561,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:6">
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -2106,7 +1581,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:6">
+    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -2126,7 +1601,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:6">
+    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -2146,7 +1621,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:6">
+    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -2166,7 +1641,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:6">
+    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -2186,7 +1661,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:6">
+    <row r="10" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -2206,7 +1681,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:6">
+    <row r="11" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -2226,7 +1701,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:6">
+    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -2246,7 +1721,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" spans="1:6">
+    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -2266,7 +1741,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:6">
+    <row r="14" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -2286,7 +1761,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" spans="1:6">
+    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -2306,7 +1781,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" spans="1:6">
+    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -2326,7 +1801,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:6">
+    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -2346,7 +1821,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" spans="1:6">
+    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>14</v>
       </c>
@@ -2366,7 +1841,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" spans="1:6">
+    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -2386,7 +1861,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" spans="1:6">
+    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>16</v>
       </c>
@@ -2406,7 +1881,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" spans="1:6">
+    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>17</v>
       </c>
@@ -2426,7 +1901,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" spans="1:6">
+    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -2446,7 +1921,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" spans="1:6">
+    <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -2466,7 +1941,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" spans="1:6">
+    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -2486,7 +1961,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" spans="1:6">
+    <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>21</v>
       </c>
@@ -2506,7 +1981,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" spans="1:6">
+    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>22</v>
       </c>
@@ -2526,7 +2001,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" spans="1:6">
+    <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>23</v>
       </c>
@@ -2546,7 +2021,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="1" spans="1:6">
+    <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>24</v>
       </c>
@@ -2566,7 +2041,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" s="2" customFormat="1" spans="1:6">
+    <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>25</v>
       </c>
@@ -2586,7 +2061,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" spans="1:6">
+    <row r="30" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>26</v>
       </c>
@@ -2606,7 +2081,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="1" spans="1:6">
+    <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>27</v>
       </c>
@@ -2626,7 +2101,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="1" spans="1:6">
+    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>28</v>
       </c>
@@ -2646,7 +2121,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="33" s="2" customFormat="1" spans="1:6">
+    <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>29</v>
       </c>
@@ -2666,7 +2141,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" s="2" customFormat="1" spans="1:6">
+    <row r="34" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>30</v>
       </c>
@@ -2686,7 +2161,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="35" s="2" customFormat="1" spans="1:6">
+    <row r="35" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>31</v>
       </c>
@@ -2706,7 +2181,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="36" s="2" customFormat="1" spans="1:6">
+    <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>32</v>
       </c>
@@ -2726,7 +2201,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="37" s="2" customFormat="1" spans="1:6">
+    <row r="37" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>33</v>
       </c>
@@ -2746,7 +2221,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="38" s="2" customFormat="1" spans="1:6">
+    <row r="38" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>34</v>
       </c>
@@ -2766,7 +2241,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="39" s="2" customFormat="1" spans="1:6">
+    <row r="39" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>35</v>
       </c>
@@ -2786,7 +2261,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="40" s="2" customFormat="1" spans="1:6">
+    <row r="40" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>36</v>
       </c>
@@ -2806,7 +2281,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="41" s="2" customFormat="1" spans="1:6">
+    <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>37</v>
       </c>
@@ -2826,7 +2301,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="42" s="2" customFormat="1" spans="1:6">
+    <row r="42" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>38</v>
       </c>
@@ -2846,7 +2321,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="43" s="2" customFormat="1" spans="1:6">
+    <row r="43" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>39</v>
       </c>
@@ -2866,7 +2341,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="44" s="2" customFormat="1" spans="1:6">
+    <row r="44" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>40</v>
       </c>
@@ -2886,7 +2361,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="45" s="2" customFormat="1" spans="1:6">
+    <row r="45" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>41</v>
       </c>
@@ -2906,7 +2381,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="46" s="2" customFormat="1" spans="1:6">
+    <row r="46" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>42</v>
       </c>
@@ -2926,7 +2401,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="47" s="2" customFormat="1" spans="1:6">
+    <row r="47" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>43</v>
       </c>
@@ -2946,7 +2421,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="48" s="2" customFormat="1" spans="1:6">
+    <row r="48" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>44</v>
       </c>
@@ -2966,7 +2441,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="49" s="2" customFormat="1" spans="1:6">
+    <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>45</v>
       </c>
@@ -2986,7 +2461,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="50" s="2" customFormat="1" spans="1:6">
+    <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>46</v>
       </c>
@@ -3006,8 +2481,8 @@
         <v>240</v>
       </c>
     </row>
-    <row r="51" s="2" customFormat="1"/>
-    <row r="52" s="2" customFormat="1" spans="1:4">
+    <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="52" spans="1:6" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>102129</v>
       </c>
@@ -3021,7 +2496,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="53" s="2" customFormat="1" spans="1:4">
+    <row r="53" spans="1:6" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>102130</v>
       </c>
@@ -3035,7 +2510,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="54" s="2" customFormat="1" spans="1:4">
+    <row r="54" spans="1:6" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>102131</v>
       </c>
@@ -3049,7 +2524,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="55" s="2" customFormat="1" spans="1:4">
+    <row r="55" spans="1:6" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>102132</v>
       </c>
@@ -3063,7 +2538,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="56" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:4">
+    <row r="56" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>102133</v>
       </c>
@@ -3077,7 +2552,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="57" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:4">
+    <row r="57" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>102134</v>
       </c>
@@ -3091,7 +2566,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="58" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:4">
+    <row r="58" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>102135</v>
       </c>
@@ -3105,7 +2580,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="59" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:4">
+    <row r="59" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>102136</v>
       </c>
@@ -3119,7 +2594,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="60" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:4">
+    <row r="60" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>102137</v>
       </c>
@@ -3133,7 +2608,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="61" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:4">
+    <row r="61" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>102138</v>
       </c>
@@ -3147,7 +2622,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="62" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:4">
+    <row r="62" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>102139</v>
       </c>
@@ -3161,7 +2636,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="63" s="2" customFormat="1" spans="1:4">
+    <row r="63" spans="1:6" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>102140</v>
       </c>
@@ -3175,7 +2650,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="64" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:4">
+    <row r="64" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>102141</v>
       </c>
@@ -3189,7 +2664,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="65" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:4">
+    <row r="65" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>102142</v>
       </c>
@@ -3203,7 +2678,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="66" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:4">
+    <row r="66" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>102143</v>
       </c>
@@ -3217,7 +2692,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="67" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:4">
+    <row r="67" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>102144</v>
       </c>
@@ -3231,7 +2706,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="68" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:4">
+    <row r="68" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>102145</v>
       </c>
@@ -3245,7 +2720,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="69" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:4">
+    <row r="69" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>102146</v>
       </c>
@@ -3259,7 +2734,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="70" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:4">
+    <row r="70" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>102147</v>
       </c>
@@ -3273,7 +2748,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="71" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:4">
+    <row r="71" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>102148</v>
       </c>
@@ -3287,7 +2762,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="72" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:4">
+    <row r="72" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>102149</v>
       </c>
@@ -3301,7 +2776,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="73" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:4">
+    <row r="73" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>102150</v>
       </c>
@@ -3315,7 +2790,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="74" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:4">
+    <row r="74" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>102151</v>
       </c>
@@ -3329,7 +2804,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="75" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:4">
+    <row r="75" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>102152</v>
       </c>
@@ -3343,7 +2818,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="76" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:4">
+    <row r="76" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>102153</v>
       </c>
@@ -3357,7 +2832,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="77" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:4">
+    <row r="77" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>102154</v>
       </c>
@@ -3371,7 +2846,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="78" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:4">
+    <row r="78" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>102155</v>
       </c>
@@ -3385,7 +2860,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="79" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:4">
+    <row r="79" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>102156</v>
       </c>
@@ -3399,7 +2874,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="80" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:4">
+    <row r="80" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>102157</v>
       </c>
@@ -3413,7 +2888,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="81" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:4">
+    <row r="81" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>102158</v>
       </c>
@@ -3424,479 +2899,585 @@
         <v>324</v>
       </c>
     </row>
-    <row r="82" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="83" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="84" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="85" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="86" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="87" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="88" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="89" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="90" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="91" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="92" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="93" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="94" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="95" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="96" s="2" customFormat="1"/>
-    <row r="97" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="98" s="2" customFormat="1"/>
-    <row r="99" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="100" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="101" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="102" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="103" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="104" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="105" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="106" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="107" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="108" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="109" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="110" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="111" s="2" customFormat="1"/>
-    <row r="112" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="113" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="114" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="115" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="116" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="117" s="2" customFormat="1"/>
-    <row r="118" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="119" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="120" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="121" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="122" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="123" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="124" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="125" s="2" customFormat="1" ht="26.85" customHeight="1"/>
-    <row r="126" s="2" customFormat="1" ht="23.85" customHeight="1"/>
-    <row r="127" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="128" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="129" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="130" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="131" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="132" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="133" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="134" s="2" customFormat="1"/>
-    <row r="135" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="136" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="137" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="138" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="139" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="140" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="141" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="142" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="143" s="2" customFormat="1"/>
-    <row r="144" s="2" customFormat="1"/>
-    <row r="145" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="146" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="147" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="148" s="2" customFormat="1"/>
-    <row r="149" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="150" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="151" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="152" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="153" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="154" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="155" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="156" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="157" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="158" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="159" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="160" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="161" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="162" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="163" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="164" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="165" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="166" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="167" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="168" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="169" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="170" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="171" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="172" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="173" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="174" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="175" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="176" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="177" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="178" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="179" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="180" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="181" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="182" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="183" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="184" s="2" customFormat="1"/>
-    <row r="185" s="2" customFormat="1"/>
-    <row r="186" s="2" customFormat="1"/>
-    <row r="187" s="2" customFormat="1"/>
-    <row r="188" s="2" customFormat="1"/>
-    <row r="189" s="2" customFormat="1"/>
-    <row r="190" s="2" customFormat="1"/>
-    <row r="191" s="2" customFormat="1"/>
-    <row r="192" s="2" customFormat="1"/>
-    <row r="193" s="2" customFormat="1"/>
-    <row r="194" s="2" customFormat="1"/>
-    <row r="195" s="2" customFormat="1"/>
-    <row r="196" s="2" customFormat="1"/>
-    <row r="197" s="2" customFormat="1"/>
-    <row r="198" s="2" customFormat="1"/>
-    <row r="199" s="2" customFormat="1"/>
-    <row r="200" s="2" customFormat="1"/>
-    <row r="201" s="2" customFormat="1"/>
-    <row r="202" s="2" customFormat="1"/>
-    <row r="203" s="2" customFormat="1"/>
-    <row r="204" s="2" customFormat="1"/>
-    <row r="205" s="2" customFormat="1"/>
-    <row r="206" s="2" customFormat="1"/>
-    <row r="207" s="2" customFormat="1"/>
-    <row r="208" s="2" customFormat="1"/>
-    <row r="209" s="2" customFormat="1"/>
-    <row r="210" s="2" customFormat="1"/>
-    <row r="211" s="2" customFormat="1"/>
-    <row r="212" s="2" customFormat="1"/>
-    <row r="213" s="2" customFormat="1"/>
-    <row r="214" s="2" customFormat="1"/>
-    <row r="215" s="2" customFormat="1"/>
-    <row r="216" s="2" customFormat="1"/>
-    <row r="217" s="2" customFormat="1"/>
-    <row r="218" s="2" customFormat="1"/>
-    <row r="219" s="2" customFormat="1"/>
-    <row r="220" s="2" customFormat="1"/>
-    <row r="221" s="2" customFormat="1"/>
-    <row r="222" s="2" customFormat="1"/>
-    <row r="223" s="2" customFormat="1"/>
-    <row r="224" s="2" customFormat="1"/>
-    <row r="225" s="2" customFormat="1"/>
-    <row r="226" s="2" customFormat="1"/>
-    <row r="227" s="2" customFormat="1"/>
-    <row r="228" s="2" customFormat="1"/>
-    <row r="229" s="2" customFormat="1"/>
-    <row r="230" s="2" customFormat="1"/>
-    <row r="231" s="2" customFormat="1"/>
-    <row r="232" s="2" customFormat="1"/>
-    <row r="233" s="2" customFormat="1"/>
-    <row r="234" s="2" customFormat="1"/>
-    <row r="235" s="2" customFormat="1"/>
-    <row r="236" s="2" customFormat="1"/>
-    <row r="237" s="2" customFormat="1"/>
-    <row r="238" s="2" customFormat="1"/>
-    <row r="239" s="2" customFormat="1"/>
-    <row r="240" s="2" customFormat="1"/>
-    <row r="241" s="2" customFormat="1"/>
-    <row r="242" s="2" customFormat="1"/>
-    <row r="243" s="2" customFormat="1"/>
-    <row r="244" s="2" customFormat="1"/>
-    <row r="245" s="2" customFormat="1"/>
-    <row r="246" s="2" customFormat="1"/>
-    <row r="247" s="2" customFormat="1"/>
-    <row r="248" s="2" customFormat="1"/>
-    <row r="249" s="2" customFormat="1"/>
-    <row r="250" s="2" customFormat="1"/>
-    <row r="251" s="2" customFormat="1"/>
-    <row r="252" s="2" customFormat="1"/>
-    <row r="253" s="2" customFormat="1"/>
-    <row r="254" s="2" customFormat="1"/>
-    <row r="255" s="2" customFormat="1"/>
-    <row r="256" s="2" customFormat="1"/>
-    <row r="257" s="2" customFormat="1"/>
-    <row r="258" s="2" customFormat="1"/>
-    <row r="259" s="2" customFormat="1"/>
-    <row r="260" s="2" customFormat="1"/>
-    <row r="261" s="2" customFormat="1"/>
-    <row r="262" s="2" customFormat="1"/>
-    <row r="263" s="2" customFormat="1"/>
-    <row r="264" s="2" customFormat="1"/>
-    <row r="265" s="2" customFormat="1"/>
-    <row r="266" s="2" customFormat="1"/>
-    <row r="267" s="2" customFormat="1"/>
-    <row r="268" s="2" customFormat="1"/>
-    <row r="269" s="2" customFormat="1"/>
-    <row r="270" s="2" customFormat="1"/>
-    <row r="271" s="2" customFormat="1"/>
-    <row r="272" s="2" customFormat="1"/>
-    <row r="273" s="2" customFormat="1"/>
-    <row r="274" s="2" customFormat="1"/>
-    <row r="275" s="2" customFormat="1"/>
-    <row r="276" s="2" customFormat="1"/>
-    <row r="277" s="2" customFormat="1"/>
-    <row r="278" s="2" customFormat="1"/>
-    <row r="279" s="2" customFormat="1"/>
-    <row r="280" s="2" customFormat="1"/>
-    <row r="281" s="2" customFormat="1"/>
-    <row r="282" s="2" customFormat="1"/>
-    <row r="283" s="2" customFormat="1"/>
-    <row r="284" s="2" customFormat="1"/>
-    <row r="285" s="2" customFormat="1"/>
-    <row r="286" s="2" customFormat="1"/>
-    <row r="287" s="2" customFormat="1"/>
-    <row r="288" s="2" customFormat="1"/>
-    <row r="289" s="2" customFormat="1"/>
-    <row r="290" s="2" customFormat="1"/>
-    <row r="291" s="2" customFormat="1"/>
-    <row r="292" s="2" customFormat="1"/>
-    <row r="293" s="2" customFormat="1"/>
-    <row r="294" s="2" customFormat="1"/>
-    <row r="295" s="2" customFormat="1"/>
-    <row r="296" s="2" customFormat="1"/>
-    <row r="297" s="2" customFormat="1"/>
-    <row r="298" s="2" customFormat="1"/>
-    <row r="299" s="2" customFormat="1"/>
-    <row r="300" s="2" customFormat="1"/>
-    <row r="301" s="2" customFormat="1"/>
-    <row r="302" s="2" customFormat="1"/>
-    <row r="303" s="2" customFormat="1"/>
-    <row r="304" s="2" customFormat="1"/>
-    <row r="305" s="2" customFormat="1"/>
-    <row r="306" s="2" customFormat="1"/>
-    <row r="307" s="2" customFormat="1"/>
-    <row r="308" s="2" customFormat="1"/>
-    <row r="309" s="2" customFormat="1"/>
-    <row r="310" s="2" customFormat="1"/>
-    <row r="311" s="2" customFormat="1"/>
-    <row r="312" s="2" customFormat="1"/>
-    <row r="313" s="2" customFormat="1"/>
-    <row r="314" s="2" customFormat="1"/>
-    <row r="315" s="2" customFormat="1"/>
-    <row r="316" s="2" customFormat="1"/>
-    <row r="317" s="2" customFormat="1"/>
-    <row r="318" s="2" customFormat="1"/>
-    <row r="319" s="2" customFormat="1"/>
-    <row r="320" s="2" customFormat="1"/>
-    <row r="321" s="2" customFormat="1"/>
-    <row r="322" s="2" customFormat="1"/>
-    <row r="323" s="2" customFormat="1"/>
-    <row r="324" s="2" customFormat="1"/>
-    <row r="325" s="2" customFormat="1"/>
-    <row r="326" s="2" customFormat="1"/>
-    <row r="327" s="2" customFormat="1"/>
-    <row r="328" s="2" customFormat="1"/>
-    <row r="329" s="2" customFormat="1"/>
-    <row r="330" s="2" customFormat="1"/>
-    <row r="331" s="2" customFormat="1"/>
-    <row r="332" s="2" customFormat="1"/>
-    <row r="333" s="2" customFormat="1"/>
-    <row r="334" s="2" customFormat="1"/>
-    <row r="335" s="2" customFormat="1"/>
-    <row r="336" s="2" customFormat="1"/>
-    <row r="337" s="2" customFormat="1"/>
-    <row r="338" s="2" customFormat="1"/>
-    <row r="339" s="2" customFormat="1"/>
-    <row r="340" s="2" customFormat="1"/>
-    <row r="341" s="2" customFormat="1"/>
-    <row r="342" s="2" customFormat="1"/>
-    <row r="343" s="2" customFormat="1"/>
-    <row r="344" s="2" customFormat="1"/>
-    <row r="345" s="2" customFormat="1"/>
-    <row r="346" s="2" customFormat="1"/>
-    <row r="347" s="2" customFormat="1"/>
-    <row r="348" s="2" customFormat="1"/>
-    <row r="349" s="2" customFormat="1"/>
-    <row r="350" s="2" customFormat="1"/>
-    <row r="351" s="2" customFormat="1"/>
-    <row r="352" s="2" customFormat="1"/>
-    <row r="353" s="2" customFormat="1"/>
-    <row r="354" s="2" customFormat="1"/>
-    <row r="355" s="2" customFormat="1"/>
-    <row r="356" s="2" customFormat="1"/>
-    <row r="357" s="2" customFormat="1"/>
-    <row r="358" s="2" customFormat="1"/>
-    <row r="359" s="2" customFormat="1"/>
-    <row r="360" s="2" customFormat="1"/>
-    <row r="361" s="2" customFormat="1"/>
-    <row r="362" s="2" customFormat="1"/>
-    <row r="363" s="2" customFormat="1"/>
-    <row r="364" s="2" customFormat="1"/>
-    <row r="365" s="2" customFormat="1"/>
-    <row r="366" s="2" customFormat="1"/>
-    <row r="367" s="2" customFormat="1"/>
-    <row r="368" s="2" customFormat="1"/>
-    <row r="369" s="2" customFormat="1"/>
-    <row r="370" s="2" customFormat="1"/>
-    <row r="371" s="2" customFormat="1"/>
-    <row r="372" s="2" customFormat="1"/>
-    <row r="373" s="2" customFormat="1"/>
-    <row r="374" s="2" customFormat="1"/>
-    <row r="375" s="2" customFormat="1"/>
-    <row r="376" s="2" customFormat="1"/>
-    <row r="377" s="2" customFormat="1"/>
-    <row r="378" s="2" customFormat="1"/>
-    <row r="379" s="2" customFormat="1"/>
-    <row r="380" s="2" customFormat="1"/>
-    <row r="381" s="2" customFormat="1"/>
-    <row r="382" s="2" customFormat="1"/>
-    <row r="383" s="2" customFormat="1"/>
-    <row r="384" s="2" customFormat="1"/>
-    <row r="385" s="2" customFormat="1"/>
-    <row r="386" s="2" customFormat="1"/>
-    <row r="387" s="2" customFormat="1"/>
-    <row r="388" s="2" customFormat="1"/>
-    <row r="389" s="2" customFormat="1"/>
-    <row r="390" s="2" customFormat="1"/>
-    <row r="391" s="2" customFormat="1"/>
-    <row r="392" s="2" customFormat="1"/>
-    <row r="393" s="2" customFormat="1"/>
-    <row r="394" s="2" customFormat="1"/>
-    <row r="395" s="2" customFormat="1"/>
-    <row r="396" s="2" customFormat="1"/>
-    <row r="397" s="2" customFormat="1"/>
-    <row r="398" s="2" customFormat="1"/>
-    <row r="399" s="2" customFormat="1"/>
-    <row r="400" s="2" customFormat="1"/>
-    <row r="401" s="2" customFormat="1"/>
-    <row r="402" s="2" customFormat="1"/>
-    <row r="403" s="2" customFormat="1"/>
-    <row r="404" s="2" customFormat="1"/>
-    <row r="405" s="2" customFormat="1"/>
-    <row r="406" s="2" customFormat="1"/>
-    <row r="407" s="2" customFormat="1"/>
-    <row r="408" s="2" customFormat="1"/>
-    <row r="409" s="2" customFormat="1"/>
-    <row r="410" s="2" customFormat="1"/>
-    <row r="411" s="2" customFormat="1"/>
-    <row r="412" s="2" customFormat="1"/>
-    <row r="413" s="2" customFormat="1"/>
-    <row r="414" s="2" customFormat="1"/>
-    <row r="415" s="2" customFormat="1"/>
-    <row r="416" s="2" customFormat="1"/>
-    <row r="417" s="2" customFormat="1"/>
-    <row r="418" s="2" customFormat="1"/>
-    <row r="419" s="2" customFormat="1"/>
-    <row r="420" s="2" customFormat="1"/>
-    <row r="421" s="2" customFormat="1"/>
-    <row r="422" s="2" customFormat="1"/>
-    <row r="423" s="2" customFormat="1"/>
-    <row r="424" s="2" customFormat="1"/>
-    <row r="425" s="2" customFormat="1"/>
-    <row r="426" s="2" customFormat="1"/>
-    <row r="427" s="2" customFormat="1"/>
-    <row r="428" s="2" customFormat="1"/>
-    <row r="429" s="2" customFormat="1"/>
-    <row r="430" s="2" customFormat="1"/>
-    <row r="431" s="2" customFormat="1"/>
-    <row r="432" s="2" customFormat="1"/>
-    <row r="433" s="2" customFormat="1"/>
-    <row r="434" s="2" customFormat="1"/>
-    <row r="435" s="2" customFormat="1"/>
-    <row r="436" s="2" customFormat="1"/>
-    <row r="437" s="2" customFormat="1"/>
-    <row r="438" s="2" customFormat="1"/>
-    <row r="439" s="2" customFormat="1"/>
-    <row r="440" s="2" customFormat="1"/>
-    <row r="441" s="2" customFormat="1"/>
-    <row r="442" s="2" customFormat="1"/>
-    <row r="443" s="2" customFormat="1"/>
-    <row r="444" s="2" customFormat="1"/>
-    <row r="445" s="2" customFormat="1"/>
-    <row r="446" s="2" customFormat="1"/>
-    <row r="447" s="2" customFormat="1"/>
-    <row r="448" s="2" customFormat="1"/>
-    <row r="449" s="2" customFormat="1"/>
-    <row r="450" s="2" customFormat="1"/>
-    <row r="451" s="2" customFormat="1"/>
-    <row r="452" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="453" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="454" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="455" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="456" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="457" s="2" customFormat="1" ht="18.95" customHeight="1"/>
-    <row r="458" s="2" customFormat="1"/>
-    <row r="459" s="2" customFormat="1"/>
-    <row r="460" s="2" customFormat="1"/>
-    <row r="461" s="2" customFormat="1"/>
-    <row r="462" s="2" customFormat="1"/>
-    <row r="463" s="2" customFormat="1"/>
-    <row r="464" s="2" customFormat="1"/>
-    <row r="465" s="2" customFormat="1"/>
-    <row r="466" s="2" customFormat="1"/>
-    <row r="467" s="2" customFormat="1"/>
-    <row r="468" s="2" customFormat="1"/>
-    <row r="469" s="2" customFormat="1"/>
-    <row r="470" s="2" customFormat="1"/>
-    <row r="471" s="2" customFormat="1"/>
-    <row r="472" s="2" customFormat="1"/>
-    <row r="473" s="2" customFormat="1"/>
-    <row r="474" s="2" customFormat="1"/>
-    <row r="475" s="2" customFormat="1"/>
-    <row r="476" s="2" customFormat="1"/>
-    <row r="477" s="2" customFormat="1"/>
-    <row r="478" s="2" customFormat="1"/>
-    <row r="479" s="2" customFormat="1"/>
-    <row r="480" s="2" customFormat="1"/>
-    <row r="481" s="2" customFormat="1"/>
-    <row r="482" s="2" customFormat="1"/>
-    <row r="483" s="2" customFormat="1"/>
-    <row r="484" s="2" customFormat="1"/>
-    <row r="485" s="2" customFormat="1"/>
-    <row r="486" s="2" customFormat="1"/>
-    <row r="487" s="2" customFormat="1"/>
-    <row r="488" s="2" customFormat="1"/>
-    <row r="489" s="2" customFormat="1"/>
-    <row r="490" s="2" customFormat="1"/>
-    <row r="491" s="2" customFormat="1"/>
-    <row r="492" s="2" customFormat="1"/>
-    <row r="493" s="2" customFormat="1"/>
-    <row r="494" s="2" customFormat="1"/>
-    <row r="495" s="2" customFormat="1"/>
-    <row r="496" s="2" customFormat="1"/>
-    <row r="497" s="2" customFormat="1"/>
-    <row r="498" s="2" customFormat="1"/>
-    <row r="499" s="2" customFormat="1"/>
-    <row r="500" s="2" customFormat="1"/>
-    <row r="501" s="2" customFormat="1"/>
-    <row r="502" s="2" customFormat="1"/>
-    <row r="503" s="2" customFormat="1"/>
-    <row r="504" s="2" customFormat="1"/>
-    <row r="505" s="2" customFormat="1"/>
-    <row r="506" s="2" customFormat="1"/>
-    <row r="507" s="2" customFormat="1"/>
-    <row r="508" s="2" customFormat="1"/>
-    <row r="509" s="2" customFormat="1"/>
-    <row r="510" s="2" customFormat="1"/>
-    <row r="511" s="2" customFormat="1"/>
-    <row r="512" s="2" customFormat="1"/>
-    <row r="513" s="2" customFormat="1"/>
-    <row r="514" s="2" customFormat="1"/>
-    <row r="515" s="2" customFormat="1"/>
-    <row r="516" s="2" customFormat="1"/>
-    <row r="517" s="2" customFormat="1"/>
-    <row r="518" s="2" customFormat="1"/>
-    <row r="519" s="2" customFormat="1"/>
-    <row r="520" s="2" customFormat="1"/>
-    <row r="521" s="2" customFormat="1"/>
-    <row r="522" s="2" customFormat="1"/>
-    <row r="523" s="2" customFormat="1"/>
-    <row r="524" s="2" customFormat="1"/>
-    <row r="525" s="2" customFormat="1" ht="18.6" customHeight="1"/>
-    <row r="526" s="2" customFormat="1"/>
-    <row r="527" s="2" customFormat="1"/>
-    <row r="528" s="2" customFormat="1"/>
-    <row r="529" s="2" customFormat="1"/>
-    <row r="530" s="2" customFormat="1"/>
-    <row r="531" s="2" customFormat="1"/>
-    <row r="532" s="2" customFormat="1"/>
-    <row r="533" s="2" customFormat="1"/>
-    <row r="534" s="2" customFormat="1"/>
-    <row r="535" s="2" customFormat="1"/>
-    <row r="536" s="2" customFormat="1"/>
-    <row r="537" s="2" customFormat="1"/>
-    <row r="538" s="2" customFormat="1"/>
-    <row r="539" s="2" customFormat="1"/>
-    <row r="540" s="2" customFormat="1"/>
-    <row r="541" s="2" customFormat="1"/>
-    <row r="542" s="2" customFormat="1"/>
-    <row r="543" s="2" customFormat="1"/>
-    <row r="544" s="2" customFormat="1"/>
-    <row r="545" s="2" customFormat="1"/>
-    <row r="546" s="2" customFormat="1"/>
-    <row r="547" s="2" customFormat="1"/>
-    <row r="548" s="2" customFormat="1"/>
-    <row r="549" s="2" customFormat="1"/>
-    <row r="550" s="2" customFormat="1"/>
-    <row r="551" s="2" customFormat="1"/>
+    <row r="82" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="83" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <v>105001</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
+        <v>105002</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
+        <v>105101</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
+        <v>105102</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
+        <v>105201</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
+        <v>105202</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
+        <v>105203</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
+        <v>105204</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
+        <v>105205</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
+        <v>105206</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="94" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="95" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="96" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="97" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="99" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="100" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="101" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="102" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="103" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="104" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="105" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="106" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="107" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="108" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="109" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="110" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="112" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="113" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="114" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="115" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="116" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="118" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="119" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="120" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="121" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="122" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="123" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="124" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="125" s="2" customFormat="1" ht="26.85" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="126" s="2" customFormat="1" ht="23.85" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="127" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="128" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="129" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="130" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="131" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="132" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="133" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="134" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="135" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="136" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="137" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="138" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="139" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="140" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="141" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="142" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="143" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="144" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="145" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="146" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="147" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="148" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="149" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="150" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="151" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="152" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="153" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="154" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="155" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="156" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="157" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="158" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="159" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="160" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="161" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="162" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="163" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="164" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="165" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="166" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="167" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="168" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="169" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="170" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="171" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="172" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="173" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="174" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="175" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="176" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="177" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="178" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="179" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="180" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="181" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="182" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="183" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="184" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="185" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="186" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="187" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="188" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="189" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="190" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="191" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="192" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="193" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="194" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="195" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="196" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="197" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="198" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="199" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="200" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="201" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="202" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="203" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="204" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="205" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="206" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="207" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="208" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="209" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="210" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="211" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="212" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="213" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="214" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="215" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="216" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="217" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="218" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="219" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="220" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="221" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="222" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="223" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="224" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="225" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="226" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="227" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="228" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="229" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="230" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="231" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="232" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="233" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="234" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="235" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="236" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="237" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="238" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="239" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="240" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="241" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="242" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="243" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="244" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="245" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="246" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="247" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="248" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="249" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="250" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="251" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="252" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="253" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="254" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="255" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="256" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="257" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="258" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="259" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="260" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="261" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="262" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="263" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="264" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="265" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="266" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="267" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="268" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="269" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="270" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="271" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="272" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="273" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="274" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="275" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="276" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="277" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="278" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="279" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="280" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="281" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="282" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="283" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="284" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="285" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="286" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="287" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="288" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="289" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="290" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="291" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="292" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="293" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="294" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="295" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="296" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="297" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="298" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="299" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="300" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="301" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="302" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="303" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="304" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="305" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="306" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="307" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="308" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="309" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="310" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="311" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="312" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="313" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="314" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="315" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="316" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="317" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="318" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="319" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="320" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="321" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="322" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="323" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="324" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="325" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="326" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="327" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="328" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="329" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="330" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="331" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="332" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="333" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="334" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="335" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="336" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="337" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="338" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="339" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="340" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="341" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="342" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="343" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="344" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="345" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="346" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="347" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="348" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="349" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="350" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="351" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="352" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="353" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="354" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="355" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="356" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="357" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="358" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="359" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="360" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="361" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="362" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="363" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="364" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="365" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="366" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="367" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="368" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="369" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="370" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="371" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="372" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="373" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="374" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="375" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="376" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="377" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="378" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="379" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="380" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="381" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="382" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="383" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="384" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="385" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="386" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="387" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="388" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="389" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="390" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="391" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="392" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="393" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="394" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="395" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="396" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="397" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="398" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="399" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="400" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="401" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="402" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="403" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="404" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="405" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="406" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="407" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="408" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="409" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="410" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="411" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="412" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="413" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="414" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="415" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="416" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="417" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="418" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="419" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="420" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="421" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="422" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="423" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="424" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="425" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="426" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="427" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="428" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="429" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="430" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="431" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="432" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="433" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="434" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="435" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="436" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="437" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="438" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="439" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="440" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="441" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="442" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="443" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="444" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="445" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="446" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="447" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="448" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="449" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="450" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="451" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="452" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="453" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="454" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="455" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="456" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="457" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="458" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="459" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="460" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="461" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="462" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="463" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="464" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="465" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="466" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="467" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="468" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="469" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="470" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="471" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="472" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="473" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="474" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="475" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="476" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="477" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="478" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="479" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="480" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="481" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="482" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="483" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="484" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="485" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="486" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="487" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="488" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="489" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="490" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="491" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="492" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="493" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="494" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="495" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="496" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="497" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="498" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="499" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="500" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="501" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="502" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="503" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="504" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="505" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="506" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="507" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="508" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="509" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="510" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="511" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="512" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="513" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="514" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="515" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="516" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="517" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="518" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="519" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="520" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="521" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="522" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="523" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="524" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="525" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="526" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="527" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="528" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="529" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="530" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="531" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="532" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="533" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="534" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="535" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="536" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="537" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="538" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="539" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="540" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="541" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="542" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="543" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="544" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="545" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="546" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="547" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="548" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="549" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="550" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="551" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excels/Language_多语言表.xlsx
+++ b/Excels/Language_多语言表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC57F66-EC36-4F1E-AFDC-67080172A69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1837E5-7437-4BC7-8712-DC003C73CAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="365">
   <si>
     <t>int</t>
   </si>
@@ -188,6 +188,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>ドラゴンバース</t>
@@ -206,6 +207,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>ネオってどんな世界?</t>
@@ -1113,6 +1115,72 @@
   </si>
   <si>
     <t>Catch_006</t>
+  </si>
+  <si>
+    <t>CharacterName0001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterName0002</t>
+  </si>
+  <si>
+    <t>CharacterName0003</t>
+  </si>
+  <si>
+    <t>采集导师 · 瑞奇</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手导师 · 奥利弗</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕龙专家 · 瑟琳娜</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>舞者 · 芭芭拉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Newbie Mentor · Oliver</t>
+  </si>
+  <si>
+    <t>Master of Emote · Barbara</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Master of Dragons · Selina</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Master of Collection · Ricky</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterName0004</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterInteract0001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterInteract0002</t>
+  </si>
+  <si>
+    <t>对话</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作交互</t>
+  </si>
+  <si>
+    <t>Emote</t>
+  </si>
+  <si>
+    <t>Talk</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1130,6 +1198,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1177,7 +1246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1194,6 +1263,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1470,18 +1542,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F551"/>
+  <dimension ref="A1:F559"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87:B92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.09765625" customWidth="1"/>
-    <col min="2" max="2" width="34.59765625" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="34.625" customWidth="1"/>
     <col min="3" max="4" width="60.5" customWidth="1"/>
-    <col min="5" max="6" width="17.19921875" customWidth="1"/>
+    <col min="5" max="6" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1661,7 +1733,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -1681,7 +1753,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -1741,7 +1813,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -2482,639 +2554,933 @@
       </c>
     </row>
     <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="52" spans="1:6" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A52" s="3">
+    <row r="52" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="2">
+        <v>100101</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="2">
+        <v>100102</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="2">
+        <v>100103</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="2">
+        <v>100104</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+    </row>
+    <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="2">
+        <v>101001</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="2">
+        <v>101002</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="60" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A60" s="3">
         <v>102129</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B60" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C60" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D60" s="3" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A53" s="3">
+      <c r="E60" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A61" s="3">
         <v>102130</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B61" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C61" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D61" s="3" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A54" s="3">
+      <c r="E61" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A62" s="3">
         <v>102131</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B62" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C62" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D62" s="3" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A55" s="3">
+      <c r="E62" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A63" s="3">
         <v>102132</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B63" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C63" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D63" s="3" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="3">
+      <c r="E63" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="3">
         <v>102133</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B64" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C64" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D64" s="3" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="3">
+      <c r="E64" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="3">
         <v>102134</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B65" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C65" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D65" s="3" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="3">
+      <c r="E65" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="3">
         <v>102135</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B66" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C66" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D66" s="3" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="3">
+      <c r="E66" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="3">
         <v>102136</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B67" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C67" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D67" s="3" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="3">
+      <c r="E67" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="3">
         <v>102137</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B68" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C68" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D68" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="3">
+      <c r="E68" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="3">
         <v>102138</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B69" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C69" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D69" s="3" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="3">
+      <c r="E69" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="3">
         <v>102139</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B70" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C70" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D70" s="3" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A63" s="3">
+      <c r="E70" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A71" s="3">
         <v>102140</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B71" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C71" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D71" s="3" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="3">
+      <c r="E71" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="3">
         <v>102141</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B72" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C72" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="3">
+      <c r="E72" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="3">
         <v>102142</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B73" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C73" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D73" s="3" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="3">
+      <c r="E73" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="3">
         <v>102143</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B74" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C74" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D74" s="3" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="3">
+      <c r="E74" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="3">
         <v>102144</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B75" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C75" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D75" s="3" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="3">
+      <c r="E75" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="3">
         <v>102145</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B76" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C76" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D76" s="3" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="3">
+      <c r="E76" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="3">
         <v>102146</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B77" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C77" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D77" s="3" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="3">
+      <c r="E77" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="3">
         <v>102147</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B78" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C78" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D78" s="3" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="3">
+      <c r="E78" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="3">
         <v>102148</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B79" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C79" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D79" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="3">
+      <c r="E79" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="3">
         <v>102149</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B80" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C80" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D80" s="3" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="3">
+      <c r="E80" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="3">
         <v>102150</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B81" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C81" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D81" s="3" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="3">
+      <c r="E81" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="3">
         <v>102151</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B82" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C82" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D82" s="3" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="3">
+      <c r="E82" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="3">
         <v>102152</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B83" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C83" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D83" s="3" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="3">
+      <c r="E83" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="3">
         <v>102153</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B84" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C84" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D84" s="3" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="3">
+      <c r="E84" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="3">
         <v>102154</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B85" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C85" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D85" s="3" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="3">
+      <c r="E85" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="3">
         <v>102155</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B86" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C86" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D86" s="3" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="3">
+      <c r="E86" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="3">
         <v>102156</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B87" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C87" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D87" s="3" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="3">
+      <c r="E87" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="3">
         <v>102157</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B88" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C88" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D88" s="3" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="2">
+      <c r="E88" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="2">
         <v>102158</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B89" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D89" s="2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="82" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="83" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="1">
+    <row r="90" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="91" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
         <v>105001</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B91" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D91" s="5" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="84" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="1">
+    <row r="92" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
         <v>105002</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B92" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D92" s="5" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="85" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="1">
+    <row r="93" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
         <v>105101</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B93" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D93" s="5" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="86" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="1">
+    <row r="94" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="1">
         <v>105102</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B94" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D94" s="5" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="87" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="1">
+    <row r="95" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="1">
         <v>105201</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B95" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="D95" s="5" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="88" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="1">
+    <row r="96" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
         <v>105202</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B96" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="D96" s="5" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="89" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="1">
+    <row r="97" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="1">
         <v>105203</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B97" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D97" s="5" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="90" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="1">
+    <row r="98" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="1">
         <v>105204</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B98" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="D98" s="5" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="91" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="1">
+    <row r="99" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="1">
         <v>105205</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B99" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="C99" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D99" s="5" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="92" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="1">
+    <row r="100" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="1">
         <v>105206</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B100" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C100" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D100" s="5" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="93" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="94" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="95" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="96" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="97" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="99" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="100" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="101" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="102" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="103" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="104" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="105" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="106" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="107" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="108" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="109" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="110" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="112" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="113" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="114" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="115" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="116" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="118" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="119" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="120" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="121" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="122" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="123" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="124" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="125" s="2" customFormat="1" ht="26.85" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="126" s="2" customFormat="1" ht="23.85" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="127" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="128" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="129" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="130" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="131" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="132" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="133" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="134" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="135" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="136" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="137" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="138" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="139" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="140" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="141" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="142" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="143" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="144" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="145" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="146" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="147" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="148" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="149" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="150" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="151" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="152" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="153" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="154" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="155" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="156" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="157" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="158" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="159" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="160" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="161" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="162" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="163" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="164" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="165" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="166" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="167" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="168" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="169" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="170" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="171" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="172" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="173" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="174" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="175" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="176" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="177" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="178" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="179" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="180" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="181" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="182" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="183" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="184" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="185" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="186" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="187" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="188" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="189" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="190" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="191" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="101" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="102" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="103" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="104" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="105" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="106" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="107" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="108" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="109" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="110" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="111" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="112" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="113" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="114" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="115" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="116" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="117" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="118" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="120" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="121" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="122" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="123" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="124" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="126" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="127" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="128" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="129" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="130" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="131" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="132" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="133" s="2" customFormat="1" ht="26.85" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="134" s="2" customFormat="1" ht="23.85" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="135" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="136" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="137" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="138" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="139" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="140" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="141" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="142" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="143" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="144" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="145" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="146" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="147" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="148" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="149" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="150" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="151" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="152" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="153" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="154" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="155" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="156" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="157" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="158" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="159" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="160" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="161" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="162" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="163" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="164" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="165" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="166" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="167" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="168" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="169" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="170" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="171" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="172" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="173" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="174" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="175" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="176" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="177" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="178" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="179" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="180" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="181" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="182" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="183" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="184" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="185" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="186" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="187" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="188" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="189" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="190" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="191" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="192" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="193" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="194" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -3375,20 +3741,20 @@
     <row r="449" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="450" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="451" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="452" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="453" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="454" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="455" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="456" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="457" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="452" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="453" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="454" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="455" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="456" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="457" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="458" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="459" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="460" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="461" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="462" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="463" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="464" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="465" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="460" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="461" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="462" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="463" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="464" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="465" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="466" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="467" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="468" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -3448,7 +3814,7 @@
     <row r="522" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="523" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="524" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="525" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="525" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="526" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="527" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="528" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -3456,7 +3822,7 @@
     <row r="530" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="531" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="532" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="533" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="533" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="534" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="535" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="536" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -3475,6 +3841,14 @@
     <row r="549" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="550" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="551" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="552" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="553" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="554" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="555" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="556" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="557" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="558" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="559" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Excels/Language_多语言表.xlsx
+++ b/Excels/Language_多语言表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1837E5-7437-4BC7-8712-DC003C73CAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E892A8-3752-4625-9C95-1EB268466DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="375">
   <si>
     <t>int</t>
   </si>
@@ -1060,18 +1060,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>完美</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>不合格</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bad</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Perfect</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1084,34 +1072,18 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>MainFunction_001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>MainFunction_002</t>
-  </si>
-  <si>
     <t>Collection_001</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Collection_002</t>
-  </si>
-  <si>
     <t>Catch_001</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Catch_002</t>
-  </si>
-  <si>
     <t>Catch_003</t>
   </si>
   <si>
     <t>Catch_004</t>
-  </si>
-  <si>
-    <t>Catch_005</t>
   </si>
   <si>
     <t>Catch_006</t>
@@ -1180,6 +1152,75 @@
   </si>
   <si>
     <t>Talk</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般的</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>完美的</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bag_001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bag_002</t>
+  </si>
+  <si>
+    <t>龙娘</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bag_003</t>
+  </si>
+  <si>
+    <t>物品</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟随</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>休息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reset_001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collection_002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collection_003</t>
+  </si>
+  <si>
+    <t>采集失败</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Catch_002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Catch_005</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bag_004</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bag_005</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1246,7 +1287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1266,6 +1307,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1542,18 +1586,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F559"/>
+  <dimension ref="A1:F564"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="2" max="2" width="34.625" customWidth="1"/>
+    <col min="1" max="1" width="12.09765625" customWidth="1"/>
+    <col min="2" max="2" width="34.59765625" customWidth="1"/>
     <col min="3" max="4" width="60.5" customWidth="1"/>
-    <col min="5" max="6" width="17.25" customWidth="1"/>
+    <col min="5" max="6" width="17.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1733,7 +1777,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -1753,7 +1797,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -1813,7 +1857,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -2559,19 +2603,19 @@
         <v>100101</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2579,19 +2623,19 @@
         <v>100102</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2599,19 +2643,19 @@
         <v>100103</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2619,19 +2663,19 @@
         <v>100104</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2646,19 +2690,19 @@
         <v>101001</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2666,23 +2710,23 @@
         <v>101002</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="60" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>102129</v>
       </c>
@@ -2702,7 +2746,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="61" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>102130</v>
       </c>
@@ -2722,7 +2766,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="62" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>102131</v>
       </c>
@@ -2742,7 +2786,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="63" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>102132</v>
       </c>
@@ -2762,7 +2806,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>102133</v>
       </c>
@@ -2782,7 +2826,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="65" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>102134</v>
       </c>
@@ -2802,7 +2846,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="66" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>102135</v>
       </c>
@@ -2822,7 +2866,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="67" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>102136</v>
       </c>
@@ -2842,7 +2886,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="68" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>102137</v>
       </c>
@@ -2862,7 +2906,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="69" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>102138</v>
       </c>
@@ -2882,7 +2926,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="70" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>102139</v>
       </c>
@@ -2902,7 +2946,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="71" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>102140</v>
       </c>
@@ -2922,7 +2966,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>102141</v>
       </c>
@@ -2942,7 +2986,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="73" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>102142</v>
       </c>
@@ -2962,7 +3006,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="74" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>102143</v>
       </c>
@@ -2982,7 +3026,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="75" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>102144</v>
       </c>
@@ -3002,7 +3046,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="76" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>102145</v>
       </c>
@@ -3022,7 +3066,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="77" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>102146</v>
       </c>
@@ -3042,7 +3086,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="78" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>102147</v>
       </c>
@@ -3062,7 +3106,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="79" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>102148</v>
       </c>
@@ -3082,7 +3126,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="80" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>102149</v>
       </c>
@@ -3102,7 +3146,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="81" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>102150</v>
       </c>
@@ -3122,7 +3166,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="82" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>102151</v>
       </c>
@@ -3142,7 +3186,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="83" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>102152</v>
       </c>
@@ -3162,7 +3206,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="84" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>102153</v>
       </c>
@@ -3182,7 +3226,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="85" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>102154</v>
       </c>
@@ -3202,7 +3246,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="86" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>102155</v>
       </c>
@@ -3222,7 +3266,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="87" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>102156</v>
       </c>
@@ -3242,7 +3286,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="88" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>102157</v>
       </c>
@@ -3262,7 +3306,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="89" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>102158</v>
       </c>
@@ -3273,219 +3317,269 @@
         <v>324</v>
       </c>
     </row>
-    <row r="90" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="91" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="91" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>105001</v>
       </c>
-      <c r="B91" s="5" t="s">
-        <v>337</v>
+      <c r="B91" s="7" t="s">
+        <v>360</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>105002</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
+        <v>105003</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="1">
+        <v>105004</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="1">
+        <v>105005</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
+        <v>105051</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="1">
+        <v>105101</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="1">
+        <v>105102</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="1">
+        <v>105103</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="1">
+        <v>105201</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="1">
+        <v>105202</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="1">
+        <v>105203</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="1">
+        <v>105204</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="1">
+        <v>105205</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="1">
+        <v>105206</v>
+      </c>
+      <c r="B105" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="D92" s="5" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="1">
-        <v>105101</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="1">
-        <v>105102</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="1">
-        <v>105201</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="1">
-        <v>105202</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="1">
-        <v>105203</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="1">
-        <v>105204</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="1">
-        <v>105205</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="1">
-        <v>105206</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="102" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="103" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="104" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="105" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="106" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="107" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="108" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="109" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="110" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="111" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="112" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="113" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="114" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="115" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="116" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="117" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="118" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="120" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="121" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="122" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="123" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="124" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="126" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="127" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="128" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="129" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="130" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="131" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="132" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="133" s="2" customFormat="1" ht="26.85" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="134" s="2" customFormat="1" ht="23.85" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="135" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="136" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="137" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="138" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="139" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="140" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="141" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="142" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="143" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="144" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="145" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="146" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="147" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="148" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="149" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="150" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="151" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="152" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="153" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="154" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="155" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="C105" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="107" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="108" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="109" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="110" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="111" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="112" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="113" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="114" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="115" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="116" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="117" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="118" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="119" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="120" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="121" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="122" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="123" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="125" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="126" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="127" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="128" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="129" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="130" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="131" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="132" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="133" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="134" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="135" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="136" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="137" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="138" s="2" customFormat="1" ht="26.85" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="139" s="2" customFormat="1" ht="23.85" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="140" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="141" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="142" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="143" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="144" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="145" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="146" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="147" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="148" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="149" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="150" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="151" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="152" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="153" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="154" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="155" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="156" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="157" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="158" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="159" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="160" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="161" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="162" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="163" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="164" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="165" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="166" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="167" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="168" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="169" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="170" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="171" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="172" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="173" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="174" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="175" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="176" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="177" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="178" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="179" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="180" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="181" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="182" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="183" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="184" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="185" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="186" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="187" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="188" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="189" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="190" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="191" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="192" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="193" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="194" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="195" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="196" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="157" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="158" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="159" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="160" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="161" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="162" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="163" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="164" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="165" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="166" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="167" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="168" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="169" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="170" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="171" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="172" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="173" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="174" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="175" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="176" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="177" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="178" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="179" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="180" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="181" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="182" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="183" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="184" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="185" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="186" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="187" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="188" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="189" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="190" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="191" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="192" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="193" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="194" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="195" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="196" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="197" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="198" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="199" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -3749,17 +3843,17 @@
     <row r="457" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="458" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="459" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="460" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="461" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="462" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="463" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="464" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="465" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="466" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="467" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="468" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="469" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="470" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="460" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="461" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="462" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="463" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="464" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="465" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="466" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="467" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="468" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="469" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="470" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="471" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="472" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="473" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -3822,12 +3916,12 @@
     <row r="530" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="531" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="532" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="533" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="533" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="534" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="535" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="536" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="537" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="538" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="538" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="539" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="540" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="541" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -3849,6 +3943,11 @@
     <row r="557" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="558" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="559" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="560" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="561" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="562" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="563" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="564" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Excels/Language_多语言表.xlsx
+++ b/Excels/Language_多语言表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E892A8-3752-4625-9C95-1EB268466DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0308468A-ED3A-462D-BBDD-E22787D63E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="492">
   <si>
     <t>int</t>
   </si>
@@ -265,12 +265,6 @@
     <t>Dialogue0006</t>
   </si>
   <si>
-    <t>Code in my hand, I'm going to explore DragonVerse Neo</t>
-  </si>
-  <si>
-    <t>Code在手咯，我要探索DragonVerse Neo</t>
-  </si>
-  <si>
     <t>コードを手に、ドラゴンバースネオを体験するつもりです</t>
   </si>
   <si>
@@ -280,12 +274,6 @@
     <t>Dialogue0007</t>
   </si>
   <si>
-    <t>I don't have a code yet, get the code now</t>
-  </si>
-  <si>
-    <t>我还没有Code，立即获取Code</t>
-  </si>
-  <si>
     <t>私はまだコードを持っていません、今すぐコードを入手してください</t>
   </si>
   <si>
@@ -1221,6 +1209,490 @@
   </si>
   <si>
     <t>Bag_005</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code在手，我要出去</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>我还没有Code，哪里获取</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>I don't have it yet, get it now</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code in my hand, go go go</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0009</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is there anything interesting around here?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>这附近有什么有趣的东西吗？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0010</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hey, new adventurer! Welcome to DragonVerse Neo. This is a world of dragon fantasy! See those colorful objects on the ground? Those are the true treasures in this land: DragonBalls.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>哟，新来的冒险家！欢迎来到DragonVerse Neo，这里可是个充满奇妙的世界。看到地上那些五光十色的物体了吗？那可是我们这里的宝贝DragonBall。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0011</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dragonball? looks pretty cool?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DragonBall？很厉害的样子？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0012</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>You bet! Dragonballs are preciously unique in this land, it's designed to capture DragonBorns or as an crafting material for mysterious items! Let me help you recognize them.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>没错！DragonBall是这片大陆上独有的特产。你可以用它们来捕捉MODragon，也能用来合成一些有趣的东西。来，我教你如何辨认DragonBall。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0013</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>The rarities of these DragonBalls are determined by their colors and textures. Rare DragonBalls have higher odds in capturing DragonBorns.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>这些DragonBall有不同的颜色和纹理，代表着它们的不同稀有度，越稀有的DragonBall捕获成功率越高。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0014</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>How can I get Dragonball?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要如何获得DragonBall呢？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0015</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eazy peasy! Just aim at the Dragonball and hit "collect".</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对准它们，按下采集按钮，就能轻松采集到手。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0016</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fanstastic, and what are those red fruits over there? Can I eat them?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>原来如此，那边的红色果实又是什么，可以吃吗？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0017</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>That's Pitaya: A delicate and juicy fruit, one of the favorite fruits of Dragonborns. To collect Pitaya, just stand underneath the trees and press "collect".</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>那是我们的火龙果。果肉细腻无核，汁水丰盈，是野生MODragon最喜爱的果实之一。要采集火龙果，只需走到果树下，按下采集按钮即可。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0018</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pitaya sounds delicious!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>火龙果听起来好好吃啊！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0019</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indeed, not only are they tasty, but they're also crucial materials for crafting. Take some Pitaya with you, and they might help you along your journey in this land!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是的，不仅好吃，而且还是一些合成材料的重要组成部分。收集一些火龙果，它们可能对你未来的冒险起到帮助。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0020</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>There is something else I want you to know, we call it "Gold Coins"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有一种采集物我要介绍给你，那就是金币。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0021</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold Coins? Are they also collectibles?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币？这也是一种采集物吗？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0022</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>In the land of Dragonverse Neo, Gold Coins is a precious resource. It fell from distance space. Using Gold Coins, you may trade with other adventurers, buy items and craft rare items.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>在我们的DragonVerse Neo中，金币是一种非常重要的资源。它们从遥远的星空落下，是很贵重的物品。你可以使用它与其他冒险家交易、购买物品，甚至用来合成一些珍贵的道具。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0023</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>So lucky-strikes are true! I hope I am the "hit by gold" version of Isaac Newton&gt;3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>原来天上掉金币这种事是真的会发生啊！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0024</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exclusively in Dragonverse Neo! Now go and collect some of those Dragonballs, Pitaya and Gold Coins. Your adventure is await.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅此一家，也只有在DragonVerse Neo中你才能体会到这种乐趣了！去吧，尝试着采集一些DragonBall,火龙果和金币吧。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0025</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hey, new adventurer! Looks like you have mastered the collection skills, now it's time for you to get your lovely DragonBorn pal!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘿，新冒险者，听说你已经掌握了采集的技巧，那么是不是也想要拥有属于自己的小伙伴MODragon呢？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0026</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aha! Never say no to free Dragons!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>来都来了，肯定要搞一只吧。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0027</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your honesty is... quite straightfoward. You will need to use your Dragonballs to capture them, I will show you how.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>你倒是很坦诚嘛！其实，只需要使用DragonBall就可以捕捉到属于你的Dragon了。先来了解一下如何使用DragonBall吧。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0028</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>You see this Dragonball? All you have to do is capture them using the "Capture" controller, select your Dragonball and tose it to the Dragonborn you wish to capture. But it's not easy! Dragonborns could be quite stubborn to capture!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>看到这颗DragonBall了吗？你可以通过MODragon捕获面板的操纵杆，选择它，然后投掷到想要捕捉的MODragon附近。不过，这可不是一件简单的事情，每个MODragon都有自己的个性。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0029</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stubborn? You mean they have personalities?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>个性？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0030</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>That's right, there are 5 personalities Dragonborns might have: Vigilant; Grumpy; Timid; Irritable or Gentle. Personalities are crucial when it comes to capturing them, so you might want to know their personalities before you waste your dragonball.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>没错，每个Dragon都有五种个性，包括机警的、暴躁的、胆小的、易怒的、温和的。而且，它们的个性还会影响到捕捉的难度。所以在捕捉之前，最好先了解一下你要捕捉的MODragon的个性。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0031</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interesting! How would I know about their personalities?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>原来如此，我要怎么了解它们的个性呢？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0032</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's quite simple, just look at the name and color of the Dragonborn, that will be your hint. Anyway, observation will help.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>很简单，你只需要观察MODragon头上的名称和颜色，他们会提示你这只MODragon的个性；总之，多观察，你就能熟知它们的个性。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0033</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>You said it like it's so simple..</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>听上去很简单的样子。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0034</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not that hard anyway!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>那当然了，没有大家说的那么难！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0035</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can't you tell I'm being ironic?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>我在说反话你听不出来吗？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0036</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>......, you are lucky I'm not the grumpy one. Actually, I can teach you a technic, it can efficiently increase your odds of capturing them.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>……，别在这阴阳怪气了，我破例传授你一个投掷诀窍，可以很好的提高你的捕获概率。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0037</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm listening.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>说来听听。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0038</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remember, controls the your strength. If the strength indicator slides right into the highest strength section (the narrow section in the force indicator), You can dramatically increase your odds of capture.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>记住，力度是关键，投掷的瞬间，如果力度指示器指针刚好摆动到最高档力度区间（力度指示器中间最窄的那一档），就能够大大的提高捕获的成功率哦。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0039</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bingo! Wait.. I don't think I'm the only one that konw this..</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有这种操作？你不会只告诉我一个人吧？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0040</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>......Just go and try, remember to capture as much as possible. They will be your key helper along your journey!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>...... 赶紧去试试吧，记得多捕捉一些Dragon，它们会成为你在DragonVerse Neo中的得力助手。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0041</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yo new folk! Welcome to Dragonverse Neo, I am the master of emote in this land, and you can call be Barb! Ready to learn some funky move?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yo，新来的小伙伴！欢迎来到DragonVerse Neo！我是这片土地上的动作指导大师，随意叫我巴巴。在这里，你可以和我嬉笑打闹，学习各种骚气的动作。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0042</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emote? Like what?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作？比如说？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0043</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open your Emote panel, select an emote and play it, it's quite fun and I can show it to you!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击你的动作面板，选择一个动作，保证比你想象中还要嗨！看我来给你演示一下~</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0044</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is our siganature move, very popular in the land of Dragonverse Neo! Use it and turn on the crowd like we always do!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个动作是我们这里的代表性动作，你一学就能成为街头巷尾的焦点。用它向其他冒险者示好，他们肯定会跟着你一起high起来。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0045</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Also here's a reminder for you: some emotes can boost your level of friendship with other masters. But be careful not to choose the wrong emote, people might get angry!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒你一下，有些动作可以提高他对你的好感度，而有些动作……你可得小心点，在%&amp;￥#@导师那里可千万别做%*&amp;@这个动作。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0046</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>O...kay, what's new..</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>额，还有这种操作。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0047</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>You'll get there, like the wiseman once said: communications are delicacy, learn to be artful!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>这就是所谓的见人说人话，见龙走龙步了吧。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1287,7 +1759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1295,10 +1767,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1310,6 +1778,17 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1588,16 +2067,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F564"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.09765625" customWidth="1"/>
-    <col min="2" max="2" width="34.59765625" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="34.625" customWidth="1"/>
     <col min="3" max="4" width="60.5" customWidth="1"/>
-    <col min="5" max="6" width="17.19921875" customWidth="1"/>
+    <col min="5" max="6" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1661,7 +2140,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1678,10 +2158,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1698,10 +2178,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1718,10 +2198,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1738,10 +2218,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1758,10 +2238,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1777,11 +2257,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+    <row r="10" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1797,11 +2277,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
+    <row r="11" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1818,10 +2298,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1838,10 +2318,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1857,11 +2337,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
+    <row r="14" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
         <v>10</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1878,1708 +2358,2228 @@
       </c>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>11</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="2" t="s">
+    </row>
+    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="C16" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>12</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
-        <v>13</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
-        <v>14</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="F18" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
-        <v>15</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="2" t="s">
+    </row>
+    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
-        <v>16</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="F20" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
-        <v>17</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="2" t="s">
+    </row>
+    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
-        <v>18</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
-        <v>19</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C23" s="2" t="s">
+    </row>
+    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
-        <v>20</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="2" t="s">
+    </row>
+    <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
-        <v>21</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="2" t="s">
+    </row>
+    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
-        <v>22</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="2" t="s">
+    </row>
+    <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>23</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
-        <v>23</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="2" t="s">
+    </row>
+    <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>24</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
-        <v>24</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C28" s="2" t="s">
+    </row>
+    <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>25</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
-        <v>25</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C29" s="2" t="s">
+    </row>
+    <row r="30" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>26</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
-        <v>26</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C30" s="2" t="s">
+    </row>
+    <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>27</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
-        <v>27</v>
-      </c>
-      <c r="B31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C31" s="2" t="s">
+    </row>
+    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>28</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
-        <v>28</v>
-      </c>
-      <c r="B32" s="2" t="s">
+      <c r="F32" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>29</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="2">
-        <v>29</v>
-      </c>
-      <c r="B33" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C33" s="2" t="s">
+    </row>
+    <row r="34" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>30</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="2">
-        <v>30</v>
-      </c>
-      <c r="B34" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C34" s="2" t="s">
+    </row>
+    <row r="35" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>31</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="2">
-        <v>31</v>
-      </c>
-      <c r="B35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C35" s="2" t="s">
+    </row>
+    <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>32</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="2">
-        <v>32</v>
-      </c>
-      <c r="B36" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C36" s="2" t="s">
+    </row>
+    <row r="37" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>33</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="2">
-        <v>33</v>
-      </c>
-      <c r="B37" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C37" s="2" t="s">
+    </row>
+    <row r="38" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>34</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="2">
-        <v>34</v>
-      </c>
-      <c r="B38" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C38" s="2" t="s">
+    </row>
+    <row r="39" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>35</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="2">
-        <v>35</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C39" s="2" t="s">
+    </row>
+    <row r="40" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>36</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="2">
-        <v>36</v>
-      </c>
-      <c r="B40" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C40" s="2" t="s">
+    </row>
+    <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>37</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="2">
-        <v>37</v>
-      </c>
-      <c r="B41" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C41" s="2" t="s">
+    </row>
+    <row r="42" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>38</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="2">
-        <v>38</v>
-      </c>
-      <c r="B42" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C42" s="2" t="s">
+    </row>
+    <row r="43" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>39</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="2">
-        <v>39</v>
-      </c>
-      <c r="B43" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C43" s="2" t="s">
+    </row>
+    <row r="44" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>40</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="2">
-        <v>40</v>
-      </c>
-      <c r="B44" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C44" s="2" t="s">
+    </row>
+    <row r="45" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>41</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="2">
-        <v>41</v>
-      </c>
-      <c r="B45" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C45" s="2" t="s">
+    </row>
+    <row r="46" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>42</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="E46" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="2">
-        <v>42</v>
-      </c>
-      <c r="B46" s="2" t="s">
+    <row r="47" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>43</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="2">
-        <v>43</v>
-      </c>
-      <c r="B47" s="2" t="s">
+    <row r="48" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>44</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F47" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="2">
-        <v>44</v>
-      </c>
-      <c r="B48" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C48" s="2" t="s">
+    </row>
+    <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>45</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="E49" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="2">
-        <v>45</v>
-      </c>
-      <c r="B49" s="2" t="s">
+    <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>46</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F49" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="2">
-        <v>46</v>
-      </c>
-      <c r="B50" s="2" t="s">
+      <c r="F50" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C50" s="2" t="s">
+    </row>
+    <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>100101</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>100102</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>100103</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>100104</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="1"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+    </row>
+    <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>101001</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>101002</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A60" s="9">
+        <v>102129</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="C60" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="D60" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="E60" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A61" s="9">
+        <v>102130</v>
+      </c>
+      <c r="B61" s="9" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="52" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="2">
-        <v>100101</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="2">
-        <v>100102</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="2">
-        <v>100103</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="2">
-        <v>100104</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-    </row>
-    <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="2">
-        <v>101001</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="2">
-        <v>101002</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="60" spans="1:6" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A60" s="3">
-        <v>102129</v>
-      </c>
-      <c r="B60" s="3" t="s">
+      <c r="C61" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="D61" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="E61" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A62" s="9">
+        <v>102131</v>
+      </c>
+      <c r="B62" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="E60" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A61" s="3">
-        <v>102130</v>
-      </c>
-      <c r="B61" s="3" t="s">
+      <c r="C62" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="D62" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="E62" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A63" s="9">
+        <v>102132</v>
+      </c>
+      <c r="B63" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="E61" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A62" s="3">
-        <v>102131</v>
-      </c>
-      <c r="B62" s="3" t="s">
+      <c r="C63" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="D63" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="E63" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="9">
+        <v>102133</v>
+      </c>
+      <c r="B64" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="E62" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A63" s="3">
-        <v>102132</v>
-      </c>
-      <c r="B63" s="3" t="s">
+      <c r="C64" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="D64" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="E64" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="9">
+        <v>102134</v>
+      </c>
+      <c r="B65" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="E63" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="3">
-        <v>102133</v>
-      </c>
-      <c r="B64" s="3" t="s">
+      <c r="C65" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="D65" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="E65" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="9">
+        <v>102135</v>
+      </c>
+      <c r="B66" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="E64" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="3">
-        <v>102134</v>
-      </c>
-      <c r="B65" s="3" t="s">
+      <c r="C66" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="D66" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="E66" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="9">
+        <v>102136</v>
+      </c>
+      <c r="B67" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="C67" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="9">
+        <v>102137</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="9">
+        <v>102138</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="9">
+        <v>102139</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A71" s="9">
+        <v>102140</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="9">
+        <v>102141</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="9">
+        <v>102142</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="9">
+        <v>102143</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="9">
+        <v>102144</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="9">
+        <v>102145</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="9">
+        <v>102146</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="9">
+        <v>102147</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="9">
+        <v>102148</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="9">
+        <v>102149</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="9">
+        <v>102150</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="9">
+        <v>102151</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="9">
+        <v>102152</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="9">
+        <v>102153</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="9">
+        <v>102154</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="9">
+        <v>102155</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="F86" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="9">
+        <v>102156</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="D87" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="F65" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="3">
-        <v>102135</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="3">
-        <v>102136</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="3">
-        <v>102137</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="3">
-        <v>102138</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="3">
-        <v>102139</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A71" s="3">
-        <v>102140</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="3">
-        <v>102141</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="3">
-        <v>102142</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="3">
-        <v>102143</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="3">
-        <v>102144</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="3">
-        <v>102145</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="3">
-        <v>102146</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="3">
-        <v>102147</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="3">
-        <v>102148</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="3">
-        <v>102149</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="3">
-        <v>102150</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="3">
-        <v>102151</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="3">
-        <v>102152</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="3">
-        <v>102153</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="3">
-        <v>102154</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="3">
-        <v>102155</v>
-      </c>
-      <c r="B86" s="3" t="s">
+      <c r="E87" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="9">
+        <v>102157</v>
+      </c>
+      <c r="B88" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C88" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D88" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="E86" s="4" t="s">
+      <c r="E88" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="F86" s="4" t="s">
+      <c r="F88" s="10" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="87" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="3">
-        <v>102156</v>
-      </c>
-      <c r="B87" s="3" t="s">
+    <row r="89" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
+        <v>102158</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C87" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="3">
-        <v>102157</v>
-      </c>
-      <c r="B88" s="3" t="s">
+      <c r="D89" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C88" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="2">
-        <v>102158</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="91" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+    </row>
+    <row r="91" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>105001</v>
       </c>
-      <c r="B91" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B91" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>105002</v>
       </c>
-      <c r="B92" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B92" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>105003</v>
       </c>
-      <c r="B93" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B93" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>105004</v>
       </c>
-      <c r="B94" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B94" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>105005</v>
       </c>
-      <c r="B95" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B95" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>105051</v>
       </c>
-      <c r="B96" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B96" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>105101</v>
       </c>
-      <c r="B97" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B97" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>105102</v>
       </c>
-      <c r="B98" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B98" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>105103</v>
       </c>
-      <c r="B99" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B99" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>105201</v>
       </c>
-      <c r="B100" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B100" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>105202</v>
       </c>
-      <c r="B101" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B101" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>105203</v>
       </c>
-      <c r="B102" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B102" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>105204</v>
       </c>
-      <c r="B103" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B103" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>105205</v>
       </c>
-      <c r="B104" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B104" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>105206</v>
       </c>
-      <c r="B105" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="107" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="108" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="109" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="110" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="111" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="112" spans="1:4" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="113" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="114" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="115" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="116" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="117" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="118" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="119" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="120" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="121" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="122" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="123" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="125" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="126" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="127" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="128" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="129" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="130" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="131" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="132" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="133" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="134" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="135" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="136" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="137" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="138" s="2" customFormat="1" ht="26.85" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="139" s="2" customFormat="1" ht="23.85" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="140" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="141" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="142" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="143" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="144" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="145" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="146" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="147" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="148" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="149" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="150" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="151" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="152" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="153" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="154" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="155" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="156" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="157" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="158" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="159" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="160" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="B105" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+    </row>
+    <row r="107" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="6">
+        <v>200001</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="6">
+        <v>200002</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="6">
+        <v>200003</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="6">
+        <v>200004</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="6">
+        <v>200005</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="6">
+        <v>200006</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="6">
+        <v>200007</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="6">
+        <v>200008</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="6">
+        <v>200009</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="6">
+        <v>200010</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="6">
+        <v>200011</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="6">
+        <v>200012</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="6">
+        <v>200013</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="6">
+        <v>200014</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="6">
+        <v>200015</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="6">
+        <v>200016</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="6">
+        <v>200017</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="6">
+        <v>200018</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="6">
+        <v>200019</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="6">
+        <v>200020</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="6">
+        <v>200021</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="6">
+        <v>200022</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="6">
+        <v>200023</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="6">
+        <v>200024</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="6">
+        <v>200025</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="6">
+        <v>200026</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="6">
+        <v>200027</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="6">
+        <v>200028</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="6">
+        <v>200029</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="6">
+        <v>200030</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="6">
+        <v>200031</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="6">
+        <v>200032</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="6">
+        <v>200033</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="6">
+        <v>200034</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="6">
+        <v>200035</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="6">
+        <v>200036</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="6">
+        <v>200037</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="6">
+        <v>200038</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="6">
+        <v>200039</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="147" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="148" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="149" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="150" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="151" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="152" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="153" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="154" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="155" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="156" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="157" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="158" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="159" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="160" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="161" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="162" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="163" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="164" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="165" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="166" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="167" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="168" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="169" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="170" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="171" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="172" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="173" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="174" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="175" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="176" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="177" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="178" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="179" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="180" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="181" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="182" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="183" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="184" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="185" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="186" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="187" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="188" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="189" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="190" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="191" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="192" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="193" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="194" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="195" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="196" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="162" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="163" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="164" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="165" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="166" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="167" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="168" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="169" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="170" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="171" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="172" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="173" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="174" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="175" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="176" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="177" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="178" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="179" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="180" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="181" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="182" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="183" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="184" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="185" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="186" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="187" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="188" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="189" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="190" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="191" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="192" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="193" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="194" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="195" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="196" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="197" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="198" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="199" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -3848,12 +4848,12 @@
     <row r="462" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="463" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="464" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="465" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="466" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="467" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="468" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="469" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="470" s="2" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="465" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="466" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="467" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="468" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="469" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="470" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="471" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="472" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="473" s="2" customFormat="1" x14ac:dyDescent="0.35"/>

--- a/Excels/Language_多语言表.xlsx
+++ b/Excels/Language_多语言表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0007845-FD55-4921-A9AA-8B9D061F3B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640BF025-47D9-4AEB-8CA1-3846C2FE8E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="536">
   <si>
     <t>int</t>
   </si>
@@ -1821,6 +1821,49 @@
   </si>
   <si>
     <t>Bag</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AreaName0001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AreaName0002</t>
+  </si>
+  <si>
+    <t>AreaName0003</t>
+  </si>
+  <si>
+    <t>新手村</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生点</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AreaName0004</t>
+  </si>
+  <si>
+    <t>AreaName0005</t>
+  </si>
+  <si>
+    <t>AreaName0006</t>
+  </si>
+  <si>
+    <t>神秘废墟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>远古遗迹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜天池</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>碧波湖畔</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2192,10 +2235,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F577"/>
+  <dimension ref="A1:F584"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -3298,1556 +3341,1641 @@
     </row>
     <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>101001</v>
+        <v>100201</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>351</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="C57" s="5"/>
       <c r="D57" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>351</v>
-      </c>
+        <v>527</v>
+      </c>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
     </row>
     <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
+        <v>100202</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+    </row>
+    <row r="59" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>100203</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+    </row>
+    <row r="60" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>100204</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+    </row>
+    <row r="61" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>100205</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+    </row>
+    <row r="62" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>100206</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+    </row>
+    <row r="63" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="1"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+    </row>
+    <row r="64" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>101001</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
         <v>101002</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B65" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C65" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D65" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E65" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="F65" s="5" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-    </row>
-    <row r="60" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A60" s="8">
+    <row r="66" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A67" s="8">
         <v>102129</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B67" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C67" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D67" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="E60" s="9" t="s">
+      <c r="E67" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="F60" s="9" t="s">
+      <c r="F67" s="9" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="61" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A61" s="8">
+    <row r="68" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A68" s="8">
         <v>102130</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B68" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C68" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D68" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="E61" s="9" t="s">
+      <c r="E68" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="F61" s="9" t="s">
+      <c r="F68" s="9" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="62" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A62" s="8">
+    <row r="69" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A69" s="8">
         <v>102131</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B69" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C69" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D69" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="E62" s="9" t="s">
+      <c r="E69" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="F62" s="9" t="s">
+      <c r="F69" s="9" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="63" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A63" s="8">
+    <row r="70" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A70" s="8">
         <v>102132</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B70" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C70" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="D70" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="E63" s="9" t="s">
+      <c r="E70" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="F63" s="9" t="s">
+      <c r="F70" s="9" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="8">
+    <row r="71" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="8">
         <v>102133</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B71" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C71" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D71" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="E64" s="9" t="s">
+      <c r="E71" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="F64" s="9" t="s">
+      <c r="F71" s="9" t="s">
         <v>249</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="8">
-        <v>102134</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="8">
-        <v>102135</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="8">
-        <v>102136</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="8">
-        <v>102137</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="8">
-        <v>102138</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="8">
-        <v>102139</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="F70" s="9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A71" s="8">
-        <v>102140</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="72" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="8">
-        <v>102141</v>
+        <v>102134</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
     </row>
     <row r="73" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="8">
-        <v>102142</v>
+        <v>102135</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="8">
-        <v>102143</v>
+        <v>102136</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="8">
-        <v>102144</v>
+        <v>102137</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="8">
-        <v>102145</v>
+        <v>102138</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
     </row>
     <row r="77" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="8">
-        <v>102146</v>
+        <v>102139</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A78" s="8">
-        <v>102147</v>
+        <v>102140</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="8">
-        <v>102148</v>
+        <v>102141</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="8">
-        <v>102149</v>
+        <v>102142</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="8">
-        <v>102150</v>
+        <v>102143</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="8">
-        <v>102151</v>
+        <v>102144</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="8">
-        <v>102152</v>
+        <v>102145</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="8">
-        <v>102153</v>
+        <v>102146</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="8">
-        <v>102154</v>
+        <v>102147</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="8">
-        <v>102155</v>
+        <v>102148</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
     </row>
     <row r="87" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="8">
-        <v>102156</v>
+        <v>102149</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>255</v>
+        <v>296</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>255</v>
+        <v>296</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>255</v>
+        <v>296</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="8">
+        <v>102150</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="8">
+        <v>102151</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="8">
+        <v>102152</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="8">
+        <v>102153</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="8">
+        <v>102154</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="8">
+        <v>102155</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="8">
+        <v>102156</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="8">
         <v>102157</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B95" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="C95" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="D88" s="10" t="s">
+      <c r="D95" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="E88" s="9" t="s">
+      <c r="E95" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="F88" s="9" t="s">
+      <c r="F95" s="9" t="s">
         <v>316</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="1">
-        <v>102158</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-    </row>
-    <row r="91" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="1">
-        <v>105001</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>523</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="1">
-        <v>105002</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="1">
-        <v>105003</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="1">
-        <v>105004</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="1">
-        <v>105005</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="96" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
-        <v>105051</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>328</v>
+        <v>102158</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="97" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="1">
-        <v>105101</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>324</v>
-      </c>
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
     </row>
     <row r="98" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
-        <v>105102</v>
+        <v>105001</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>363</v>
+        <v>355</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>523</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="99" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
-        <v>105103</v>
+        <v>105002</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="100" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
-        <v>105201</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>323</v>
+        <v>105003</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="101" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
-        <v>105202</v>
+        <v>105004</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>320</v>
+        <v>368</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="102" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
-        <v>105203</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>321</v>
+        <v>105005</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="103" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
-        <v>105204</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>332</v>
+        <v>105051</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>362</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="104" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
-        <v>105205</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>354</v>
+        <v>105101</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="105" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
-        <v>105206</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>353</v>
+        <v>105102</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="106" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="1"/>
-      <c r="B106" s="4"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
+      <c r="A106" s="1">
+        <v>105103</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="107" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
-        <v>105301</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>492</v>
+        <v>105201</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="108" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
-        <v>105302</v>
+        <v>105202</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>496</v>
+        <v>366</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="109" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
-        <v>105303</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>493</v>
+        <v>105203</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="110" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
-        <v>105304</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>494</v>
+        <v>105204</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="111" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="1"/>
-      <c r="B111" s="6"/>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
+      <c r="A111" s="1">
+        <v>105205</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="112" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
-        <v>105401</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>504</v>
+        <v>105206</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>333</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>507</v>
+        <v>352</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>506</v>
+        <v>353</v>
       </c>
     </row>
     <row r="113" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="1">
-        <v>105402</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>508</v>
-      </c>
+      <c r="A113" s="1"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
     </row>
     <row r="114" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
-        <v>105403</v>
+        <v>105301</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>519</v>
+        <v>489</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>512</v>
+        <v>490</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>511</v>
+        <v>492</v>
       </c>
     </row>
     <row r="115" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
-        <v>105404</v>
+        <v>105302</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="116" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
-        <v>105405</v>
+        <v>105303</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>518</v>
+        <v>498</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
     </row>
     <row r="117" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
+        <v>105304</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="1"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+    </row>
+    <row r="119" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="1">
+        <v>105401</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="1">
+        <v>105402</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="1">
+        <v>105403</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="1">
+        <v>105404</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="1">
+        <v>105405</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="1">
         <v>105406</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="B124" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="C117" s="5" t="s">
+      <c r="C124" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="D117" s="5" t="s">
+      <c r="D124" s="5" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="118" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="1">
+    <row r="125" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="1">
         <v>105407</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="B125" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="C125" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="D125" s="5" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="119" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C119"/>
-      <c r="D119"/>
-    </row>
-    <row r="120" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="6">
-        <v>200001</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="6">
-        <v>200002</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="D121" s="7" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="6">
-        <v>200003</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="6">
-        <v>200004</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="6">
-        <v>200005</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="6">
-        <v>200006</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>389</v>
-      </c>
-    </row>
     <row r="126" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="6">
-        <v>200007</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="D126" s="7" t="s">
-        <v>392</v>
-      </c>
+      <c r="C126"/>
+      <c r="D126"/>
     </row>
     <row r="127" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="6">
-        <v>200008</v>
+        <v>200001</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
     </row>
     <row r="128" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="6">
-        <v>200009</v>
+        <v>200002</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A129" s="6">
-        <v>200010</v>
+        <v>200003</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
     </row>
     <row r="130" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="6">
-        <v>200011</v>
+        <v>200004</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A131" s="6">
-        <v>200012</v>
+        <v>200005</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
     </row>
     <row r="132" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="6">
-        <v>200013</v>
+        <v>200006</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
     </row>
     <row r="133" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="6">
-        <v>200014</v>
+        <v>200007</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
     </row>
     <row r="134" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="6">
-        <v>200015</v>
+        <v>200008</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
     </row>
     <row r="135" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="6">
-        <v>200016</v>
+        <v>200009</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
     </row>
     <row r="136" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="6">
-        <v>200017</v>
+        <v>200010</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="6">
-        <v>200018</v>
+        <v>200011</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
     </row>
     <row r="138" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="6">
-        <v>200019</v>
+        <v>200012</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
     </row>
     <row r="139" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="6">
-        <v>200020</v>
+        <v>200013</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
     </row>
     <row r="140" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="6">
-        <v>200021</v>
+        <v>200014</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
     </row>
     <row r="141" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="6">
-        <v>200022</v>
+        <v>200015</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
     </row>
     <row r="142" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="6">
-        <v>200023</v>
+        <v>200016</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="6">
-        <v>200024</v>
+        <v>200017</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A144" s="6">
-        <v>200025</v>
+        <v>200018</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>445</v>
+        <v>424</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
     </row>
     <row r="145" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="6">
-        <v>200026</v>
+        <v>200019</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
     </row>
     <row r="146" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="6">
-        <v>200027</v>
+        <v>200020</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>452</v>
+        <v>431</v>
       </c>
     </row>
     <row r="147" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="6">
-        <v>200028</v>
+        <v>200021</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>453</v>
+        <v>432</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>454</v>
+        <v>433</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>455</v>
+        <v>434</v>
       </c>
     </row>
     <row r="148" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="6">
-        <v>200029</v>
+        <v>200022</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>458</v>
+        <v>437</v>
       </c>
     </row>
     <row r="149" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="6">
-        <v>200030</v>
+        <v>200023</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>459</v>
+        <v>438</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A150" s="6">
-        <v>200031</v>
+        <v>200024</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>463</v>
+        <v>442</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
     </row>
     <row r="151" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="6">
-        <v>200032</v>
+        <v>200025</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>465</v>
+        <v>444</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
     </row>
     <row r="152" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="6">
-        <v>200033</v>
+        <v>200026</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>468</v>
+        <v>447</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>469</v>
+        <v>448</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
     </row>
     <row r="153" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="6">
-        <v>200034</v>
+        <v>200027</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>472</v>
+        <v>451</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>473</v>
+        <v>452</v>
       </c>
     </row>
     <row r="154" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="6">
-        <v>200035</v>
+        <v>200028</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>474</v>
+        <v>453</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>475</v>
+        <v>454</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>476</v>
+        <v>455</v>
       </c>
     </row>
     <row r="155" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="6">
-        <v>200036</v>
+        <v>200029</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>477</v>
+        <v>456</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>479</v>
+        <v>458</v>
       </c>
     </row>
     <row r="156" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="6">
-        <v>200037</v>
+        <v>200030</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>481</v>
+        <v>460</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>482</v>
+        <v>461</v>
       </c>
     </row>
     <row r="157" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="6">
-        <v>200038</v>
+        <v>200031</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>483</v>
+        <v>462</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>484</v>
+        <v>463</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>485</v>
+        <v>464</v>
       </c>
     </row>
     <row r="158" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="6">
+        <v>200032</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="6">
+        <v>200033</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="6">
+        <v>200034</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="D160" s="7" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="6">
+        <v>200035</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="D161" s="7" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="6">
+        <v>200036</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="D162" s="7" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="6">
+        <v>200037</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="D163" s="7" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="6">
+        <v>200038</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="D164" s="7" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="6">
         <v>200039</v>
       </c>
-      <c r="B158" s="6" t="s">
+      <c r="B165" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="C158" s="7" t="s">
+      <c r="C165" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="D158" s="7" t="s">
+      <c r="D165" s="7" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="159" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="160" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="161" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="162" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="163" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="164" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="165" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="166" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="167" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="168" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="169" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="170" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="171" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="172" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="173" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="174" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="175" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="176" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="177" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="166" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="167" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="168" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="169" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="170" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="171" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="172" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="173" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="174" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="175" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="176" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="177" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="178" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="179" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="180" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="181" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="181" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="182" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="183" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="184" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4876,13 +5004,13 @@
     <row r="207" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="208" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="209" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="210" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="211" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="212" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="213" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="214" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="215" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="216" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="210" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="211" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="212" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="213" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="214" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="215" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="216" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="217" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="218" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="219" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -5144,19 +5272,19 @@
     <row r="475" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="476" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="477" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="478" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="479" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="480" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="481" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="482" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="483" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="478" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="479" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="480" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="481" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="482" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="483" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="484" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="485" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="486" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="487" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="488" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="489" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="490" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="485" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="486" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="487" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="488" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="489" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="490" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="491" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="492" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="493" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -5217,14 +5345,14 @@
     <row r="548" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="549" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="550" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="551" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="551" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="552" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="553" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="554" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="555" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="556" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="557" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="558" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="558" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="559" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="560" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="561" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -5244,6 +5372,13 @@
     <row r="575" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="576" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="577" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="578" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="579" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="580" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="581" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="582" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="583" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="584" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Excels/Language_多语言表.xlsx
+++ b/Excels/Language_多语言表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640BF025-47D9-4AEB-8CA1-3846C2FE8E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3651140C-C562-4FBE-9425-A62C7229F376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="672">
   <si>
     <t>int</t>
   </si>
@@ -162,9 +162,6 @@
     <t>Dialogue0001</t>
   </si>
   <si>
-    <t>Welcome to DragonVerse Neo and be a part of it!</t>
-  </si>
-  <si>
     <t>欢迎来到DragonVerse Neo，成为这里的一员！</t>
   </si>
   <si>
@@ -175,9 +172,6 @@
   </si>
   <si>
     <t>Dialogue0002</t>
-  </si>
-  <si>
-    <t>What kind of world is DragonVerse Neo?</t>
   </si>
   <si>
     <t>DragonVerse Neo是个怎么样的世界？</t>
@@ -220,9 +214,6 @@
     <t>Dialogue0003</t>
   </si>
   <si>
-    <t>DragonVerse Neo is a new fun-filled world where you can explore, discover, and create everything yours!</t>
-  </si>
-  <si>
     <t>DragonVerse Neo是一个全新的充满乐趣的世界，你可以在这个世界中探索、发现、创造属于你的一切！</t>
   </si>
   <si>
@@ -280,9 +271,6 @@
     <t>Dialogue0008</t>
   </si>
   <si>
-    <t>Verification ··· Succeed! Congratulations on getting out of the beginner village and exploring DragonVerse Neo~</t>
-  </si>
-  <si>
     <t>验证···成功！恭喜你可以走出新手村落，尽情探索DragonVerse Neo吧~</t>
   </si>
   <si>
@@ -334,9 +322,6 @@
     <t>BagItemDesc0001</t>
   </si>
   <si>
-    <t>At the push of a switch, the Dragon can be captured and encapsulated in a plane sphere.</t>
-  </si>
-  <si>
     <t>按下开关便可以捕捉Dragon，并封装在内的位面球。</t>
   </si>
   <si>
@@ -349,9 +334,6 @@
     <t>BagItemDesc0002</t>
   </si>
   <si>
-    <t>The flesh is delicate and seedless, and the juice is abundant, making it one of the favorite fruits of the wild Dragon.</t>
-  </si>
-  <si>
     <t>果肉细腻无核，汁水丰盈，是野生Dragon最喜爱的果实之一。</t>
   </si>
   <si>
@@ -364,9 +346,6 @@
     <t>BagItemDesc0003</t>
   </si>
   <si>
-    <t>The magical currency that falls from the distant starry sky looks like a very valuable item.</t>
-  </si>
-  <si>
     <t>从遥远的星空落下的神奇货币，看起来是很贵重的物品。</t>
   </si>
   <si>
@@ -379,9 +358,6 @@
     <t>DragonCharacter0001</t>
   </si>
   <si>
-    <t>Alert</t>
-  </si>
-  <si>
     <t>机警的</t>
   </si>
   <si>
@@ -439,9 +415,6 @@
     <t>DragonCharacter0005</t>
   </si>
   <si>
-    <t>Mild</t>
-  </si>
-  <si>
     <t>温和的</t>
   </si>
   <si>
@@ -454,12 +427,6 @@
     <t>DragonName00001</t>
   </si>
   <si>
-    <t>Flame Wurm</t>
-  </si>
-  <si>
-    <t>火焰亚龙</t>
-  </si>
-  <si>
     <t>フレイムワーム</t>
   </si>
   <si>
@@ -469,12 +436,6 @@
     <t>DragonName00002</t>
   </si>
   <si>
-    <t>Wave Wurm</t>
-  </si>
-  <si>
-    <t>水浪亚龙</t>
-  </si>
-  <si>
     <t>ウェーブワーム</t>
   </si>
   <si>
@@ -484,12 +445,6 @@
     <t>DragonName00003</t>
   </si>
   <si>
-    <t>Hibiscus Wurm</t>
-  </si>
-  <si>
-    <t>木槿亚龙</t>
-  </si>
-  <si>
     <t>ハイビスカスワーム</t>
   </si>
   <si>
@@ -502,21 +457,12 @@
     <t>Rock Wurm</t>
   </si>
   <si>
-    <t>岩石亚龙</t>
-  </si>
-  <si>
     <t>ロックワーム</t>
   </si>
   <si>
     <t>DragonName00005</t>
   </si>
   <si>
-    <t>Infernal Dragon</t>
-  </si>
-  <si>
-    <t>炼狱巨龙</t>
-  </si>
-  <si>
     <t>地獄の龍</t>
   </si>
   <si>
@@ -526,12 +472,6 @@
     <t>DragonName00006</t>
   </si>
   <si>
-    <t>Ocean Dragon</t>
-  </si>
-  <si>
-    <t>海洋巨龙</t>
-  </si>
-  <si>
     <t>オーシャンドラゴン</t>
   </si>
   <si>
@@ -541,12 +481,6 @@
     <t>DragonName00007</t>
   </si>
   <si>
-    <t>Forest Dragon</t>
-  </si>
-  <si>
-    <t>森林巨龙</t>
-  </si>
-  <si>
     <t>フォレストドラゴン</t>
   </si>
   <si>
@@ -556,12 +490,6 @@
     <t>DragonName00008</t>
   </si>
   <si>
-    <t>Mountain Dragon</t>
-  </si>
-  <si>
-    <t>山脉巨龙</t>
-  </si>
-  <si>
     <t>マウンテンドラゴン</t>
   </si>
   <si>
@@ -571,12 +499,6 @@
     <t>DragonName00009</t>
   </si>
   <si>
-    <t>Light  Dragon</t>
-  </si>
-  <si>
-    <t>圣光巨龙</t>
-  </si>
-  <si>
     <t>光のドラゴン</t>
   </si>
   <si>
@@ -586,12 +508,6 @@
     <t>DragonName00010</t>
   </si>
   <si>
-    <t>Shadow Dragon</t>
-  </si>
-  <si>
-    <t>暗影巨龙</t>
-  </si>
-  <si>
     <t>シャドウドラゴン</t>
   </si>
   <si>
@@ -1045,825 +961,1333 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>背包</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点我复位</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collection_001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Catch_001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Catch_003</t>
+  </si>
+  <si>
+    <t>Catch_004</t>
+  </si>
+  <si>
+    <t>Catch_006</t>
+  </si>
+  <si>
+    <t>CharacterName0001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterName0002</t>
+  </si>
+  <si>
+    <t>CharacterName0003</t>
+  </si>
+  <si>
+    <t>采集导师 · 瑞奇</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手导师 · 奥利弗</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕龙专家 · 瑟琳娜</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>舞者 · 芭芭拉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Newbie Mentor · Oliver</t>
+  </si>
+  <si>
+    <t>Master of Emote · Barbara</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Master of Dragons · Selina</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Master of Collection · Ricky</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterName0004</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterInteract0001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterInteract0002</t>
+  </si>
+  <si>
+    <t>对话</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作交互</t>
+  </si>
+  <si>
+    <t>Emote</t>
+  </si>
+  <si>
+    <t>Talk</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般的</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>完美的</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bag_001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bag_002</t>
+  </si>
+  <si>
+    <t>龙娘</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bag_003</t>
+  </si>
+  <si>
+    <t>物品</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟随</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>休息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reset_001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collection_002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collection_003</t>
+  </si>
+  <si>
+    <t>采集失败</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Catch_002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Catch_005</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bag_004</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bag_005</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code在手，我要出去</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>我还没有Code，哪里获取</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0009</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is there anything interesting around here?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>这附近有什么有趣的东西吗？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0010</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hey, new adventurer! Welcome to DragonVerse Neo. This is a world of dragon fantasy! See those colorful objects on the ground? Those are the true treasures in this land: DragonBalls.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>哟，新来的冒险家！欢迎来到DragonVerse Neo，这里可是个充满奇妙的世界。看到地上那些五光十色的物体了吗？那可是我们这里的宝贝DragonBall。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0011</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dragonball? looks pretty cool?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DragonBall？很厉害的样子？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0012</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>You bet! Dragonballs are preciously unique in this land, it's designed to capture DragonBorns or as an crafting material for mysterious items! Let me help you recognize them.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>没错！DragonBall是这片大陆上独有的特产。你可以用它们来捕捉MODragon，也能用来合成一些有趣的东西。来，我教你如何辨认DragonBall。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0013</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>The rarities of these DragonBalls are determined by their colors and textures. Rare DragonBalls have higher odds in capturing DragonBorns.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>这些DragonBall有不同的颜色和纹理，代表着它们的不同稀有度，越稀有的DragonBall捕获成功率越高。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0014</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>How can I get Dragonball?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要如何获得DragonBall呢？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0015</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eazy peasy! Just aim at the Dragonball and hit "collect".</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对准它们，按下采集按钮，就能轻松采集到手。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0016</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fanstastic, and what are those red fruits over there? Can I eat them?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>原来如此，那边的红色果实又是什么，可以吃吗？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0017</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>That's Pitaya: A delicate and juicy fruit, one of the favorite fruits of Dragonborns. To collect Pitaya, just stand underneath the trees and press "collect".</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>那是我们的火龙果。果肉细腻无核，汁水丰盈，是野生MODragon最喜爱的果实之一。要采集火龙果，只需走到果树下，按下采集按钮即可。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0018</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pitaya sounds delicious!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>火龙果听起来好好吃啊！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0019</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indeed, not only are they tasty, but they're also crucial materials for crafting. Take some Pitaya with you, and they might help you along your journey in this land!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是的，不仅好吃，而且还是一些合成材料的重要组成部分。收集一些火龙果，它们可能对你未来的冒险起到帮助。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0020</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>There is something else I want you to know, we call it "Gold Coins"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有一种采集物我要介绍给你，那就是金币。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0021</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold Coins? Are they also collectibles?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币？这也是一种采集物吗？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0022</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>In the land of Dragonverse Neo, Gold Coins is a precious resource. It fell from distance space. Using Gold Coins, you may trade with other adventurers, buy items and craft rare items.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>在我们的DragonVerse Neo中，金币是一种非常重要的资源。它们从遥远的星空落下，是很贵重的物品。你可以使用它与其他冒险家交易、购买物品，甚至用来合成一些珍贵的道具。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0023</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>So lucky-strikes are true! I hope I am the "hit by gold" version of Isaac Newton&gt;3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>原来天上掉金币这种事是真的会发生啊！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0024</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exclusively in Dragonverse Neo! Now go and collect some of those Dragonballs, Pitaya and Gold Coins. Your adventure is await.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅此一家，也只有在DragonVerse Neo中你才能体会到这种乐趣了！去吧，尝试着采集一些DragonBall,火龙果和金币吧。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0025</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hey, new adventurer! Looks like you have mastered the collection skills, now it's time for you to get your lovely DragonBorn pal!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘿，新冒险者，听说你已经掌握了采集的技巧，那么是不是也想要拥有属于自己的小伙伴MODragon呢？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0026</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aha! Never say no to free Dragons!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>来都来了，肯定要搞一只吧。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0027</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your honesty is... quite straightfoward. You will need to use your Dragonballs to capture them, I will show you how.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>你倒是很坦诚嘛！其实，只需要使用DragonBall就可以捕捉到属于你的Dragon了。先来了解一下如何使用DragonBall吧。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0028</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>You see this Dragonball? All you have to do is capture them using the "Capture" controller, select your Dragonball and tose it to the Dragonborn you wish to capture. But it's not easy! Dragonborns could be quite stubborn to capture!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>看到这颗DragonBall了吗？你可以通过MODragon捕获面板的操纵杆，选择它，然后投掷到想要捕捉的MODragon附近。不过，这可不是一件简单的事情，每个MODragon都有自己的个性。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0029</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stubborn? You mean they have personalities?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>个性？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0030</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>That's right, there are 5 personalities Dragonborns might have: Vigilant; Grumpy; Timid; Irritable or Gentle. Personalities are crucial when it comes to capturing them, so you might want to know their personalities before you waste your dragonball.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>没错，每个Dragon都有五种个性，包括机警的、暴躁的、胆小的、易怒的、温和的。而且，它们的个性还会影响到捕捉的难度。所以在捕捉之前，最好先了解一下你要捕捉的MODragon的个性。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0031</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interesting! How would I know about their personalities?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>原来如此，我要怎么了解它们的个性呢？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0032</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's quite simple, just look at the name and color of the Dragonborn, that will be your hint. Anyway, observation will help.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>很简单，你只需要观察MODragon头上的名称和颜色，他们会提示你这只MODragon的个性；总之，多观察，你就能熟知它们的个性。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0033</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>You said it like it's so simple..</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>听上去很简单的样子。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0034</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not that hard anyway!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>那当然了，没有大家说的那么难！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0035</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can't you tell I'm being ironic?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>我在说反话你听不出来吗？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0036</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>......, you are lucky I'm not the grumpy one. Actually, I can teach you a technic, it can efficiently increase your odds of capturing them.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>……，别在这阴阳怪气了，我破例传授你一个投掷诀窍，可以很好的提高你的捕获概率。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0037</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm listening.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>说来听听。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0038</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remember, controls the your strength. If the strength indicator slides right into the highest strength section (the narrow section in the force indicator), You can dramatically increase your odds of capture.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>记住，力度是关键，投掷的瞬间，如果力度指示器指针刚好摆动到最高档力度区间（力度指示器中间最窄的那一档），就能够大大的提高捕获的成功率哦。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0039</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bingo! Wait.. I don't think I'm the only one that konw this..</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有这种操作？你不会只告诉我一个人吧？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0040</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>......Just go and try, remember to capture as much as possible. They will be your key helper along your journey!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>...... 赶紧去试试吧，记得多捕捉一些Dragon，它们会成为你在DragonVerse Neo中的得力助手。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0041</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yo new folk! Welcome to Dragonverse Neo, I am the master of emote in this land, and you can call be Barb! Ready to learn some funky move?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yo，新来的小伙伴！欢迎来到DragonVerse Neo！我是这片土地上的动作指导大师，随意叫我巴巴。在这里，你可以和我嬉笑打闹，学习各种骚气的动作。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0042</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emote? Like what?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作？比如说？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0043</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open your Emote panel, select an emote and play it, it's quite fun and I can show it to you!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击你的动作面板，选择一个动作，保证比你想象中还要嗨！看我来给你演示一下~</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0044</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is our siganature move, very popular in the land of Dragonverse Neo! Use it and turn on the crowd like we always do!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个动作是我们这里的代表性动作，你一学就能成为街头巷尾的焦点。用它向其他冒险者示好，他们肯定会跟着你一起high起来。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0045</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Also here's a reminder for you: some emotes can boost your level of friendship with other masters. But be careful not to choose the wrong emote, people might get angry!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒你一下，有些动作可以提高他对你的好感度，而有些动作……你可得小心点，在%&amp;￥#@导师那里可千万别做%*&amp;@这个动作。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0046</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>O...kay, what's new..</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>额，还有这种操作。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0047</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>You'll get there, like the wiseman once said: communications are delicacy, learn to be artful!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>这就是所谓的见人说人话，见龙走龙步了吧。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲爱的MOBOX家人们：</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入验证码</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>你收到埃隆·斯塔克的邀请了吗？在下方验证Code就能进入 DragonVerse Neo。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code003</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code004</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting004</t>
+  </si>
+  <si>
+    <t>设置</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改昵称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>多语言</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>登出</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改形象</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting006</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting005</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting003</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的昵称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting007</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AreaName0001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AreaName0002</t>
+  </si>
+  <si>
+    <t>AreaName0003</t>
+  </si>
+  <si>
+    <t>新手村</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生点</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AreaName0004</t>
+  </si>
+  <si>
+    <t>AreaName0005</t>
+  </si>
+  <si>
+    <t>AreaName0006</t>
+  </si>
+  <si>
+    <t>神秘废墟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>远古遗迹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜天池</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>碧波湖畔</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Welcome to DragonVerse Neo, step in and become a part of this enchanting realm!</t>
+  </si>
+  <si>
+    <t>What shall be unveiled in the world of Dragonverse Neo?</t>
+  </si>
+  <si>
+    <t>DragonVerse Neo is a novel and delightful world where you can explore, discover, and create everything that belongs uniquely to you!</t>
+  </si>
+  <si>
+    <t>Enter your Dragonkey and start your debut journey right away, don't have a Dragonkey yet? Head over to Landing Page and check your eligibility!</t>
+  </si>
+  <si>
+    <t>Dragonkey, set! Drinks and snacks, set! I'm ready!</t>
+  </si>
+  <si>
+    <t>Verification ··· Succeed! Congratulations on getting out of the novice village, get ready to explore the world of Dragonverse Neo!</t>
+  </si>
+  <si>
+    <t>Press to capture and contain wild MODragon.</t>
+  </si>
+  <si>
+    <t>A delicate and juicy fruit, one of the favorite fruits of wild MODragons.</t>
+  </si>
+  <si>
+    <t>The magical coin fell from deep space, looks like a very valuable item.</t>
+  </si>
+  <si>
+    <t>Vigilant</t>
+  </si>
+  <si>
+    <t>Gentle</t>
+  </si>
+  <si>
+    <t>Flame MODragon</t>
+  </si>
+  <si>
+    <t>Aqua MODragon</t>
+  </si>
+  <si>
+    <t>Hibiscus MODragon</t>
+  </si>
+  <si>
+    <t>Megalithic MODragon</t>
+  </si>
+  <si>
+    <t>Infernal MODragon</t>
+  </si>
+  <si>
+    <t>Ocean MODragon</t>
+  </si>
+  <si>
+    <t>Forest MODragon</t>
+  </si>
+  <si>
+    <t>Mountain MODragon</t>
+  </si>
+  <si>
+    <t>Light MODragon</t>
+  </si>
+  <si>
+    <t>Shadow MODragon</t>
+  </si>
+  <si>
+    <t>I don't have a Dragonkey yet, where can I get it?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰龙娘</t>
+  </si>
+  <si>
+    <t>水浪龙娘</t>
+  </si>
+  <si>
+    <t>木槿龙娘</t>
+  </si>
+  <si>
+    <t>岩石龙娘</t>
+  </si>
+  <si>
+    <t>炼狱龙娘</t>
+  </si>
+  <si>
+    <t>海洋龙娘</t>
+  </si>
+  <si>
+    <t>森林龙娘</t>
+  </si>
+  <si>
+    <t>山脉龙娘</t>
+  </si>
+  <si>
+    <t>圣光龙娘</t>
+  </si>
+  <si>
+    <t>暗影龙娘</t>
+  </si>
+  <si>
+    <t>Bag</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Auto-follow</t>
+  </si>
+  <si>
+    <t>Rest</t>
+  </si>
+  <si>
+    <t>Reset</t>
+  </si>
+  <si>
+    <t>Collection Start</t>
+  </si>
+  <si>
+    <t>Collection Successful</t>
+  </si>
+  <si>
+    <t>Collection Failed</t>
+  </si>
+  <si>
+    <t>Boxing Start</t>
+  </si>
+  <si>
+    <t>Boxing Successful</t>
+  </si>
+  <si>
+    <t>Boxing Failed</t>
+  </si>
+  <si>
+    <t>Insufficient Dragonball, try again.</t>
+  </si>
+  <si>
     <t>Perfect</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>背包</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>点我复位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Collection_001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Catch_001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Catch_003</t>
-  </si>
-  <si>
-    <t>Catch_004</t>
-  </si>
-  <si>
-    <t>Catch_006</t>
-  </si>
-  <si>
-    <t>CharacterName0001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CharacterName0002</t>
-  </si>
-  <si>
-    <t>CharacterName0003</t>
-  </si>
-  <si>
-    <t>采集导师 · 瑞奇</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手导师 · 奥利弗</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕龙专家 · 瑟琳娜</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>舞者 · 芭芭拉</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Newbie Mentor · Oliver</t>
-  </si>
-  <si>
-    <t>Master of Emote · Barbara</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Master of Dragons · Selina</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Master of Collection · Ricky</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CharacterName0004</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CharacterInteract0001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CharacterInteract0002</t>
-  </si>
-  <si>
-    <t>对话</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>动作交互</t>
-  </si>
-  <si>
-    <t>Emote</t>
-  </si>
-  <si>
-    <t>Talk</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Normal</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般的</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>完美的</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bag_001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bag_002</t>
-  </si>
-  <si>
-    <t>龙娘</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bag_003</t>
-  </si>
-  <si>
-    <t>物品</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟随</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>休息</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reset_001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Collection_002</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Collection_003</t>
-  </si>
-  <si>
-    <t>采集失败</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Catch_002</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Catch_005</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bag_004</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bag_005</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code在手，我要出去</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>我还没有Code，哪里获取</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0009</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Is there anything interesting around here?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>这附近有什么有趣的东西吗？</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0010</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hey, new adventurer! Welcome to DragonVerse Neo. This is a world of dragon fantasy! See those colorful objects on the ground? Those are the true treasures in this land: DragonBalls.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>哟，新来的冒险家！欢迎来到DragonVerse Neo，这里可是个充满奇妙的世界。看到地上那些五光十色的物体了吗？那可是我们这里的宝贝DragonBall。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0011</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dragonball? looks pretty cool?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DragonBall？很厉害的样子？</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0012</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>You bet! Dragonballs are preciously unique in this land, it's designed to capture DragonBorns or as an crafting material for mysterious items! Let me help you recognize them.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>没错！DragonBall是这片大陆上独有的特产。你可以用它们来捕捉MODragon，也能用来合成一些有趣的东西。来，我教你如何辨认DragonBall。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0013</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>The rarities of these DragonBalls are determined by their colors and textures. Rare DragonBalls have higher odds in capturing DragonBorns.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>这些DragonBall有不同的颜色和纹理，代表着它们的不同稀有度，越稀有的DragonBall捕获成功率越高。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0014</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>How can I get Dragonball?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>我要如何获得DragonBall呢？</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0015</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eazy peasy! Just aim at the Dragonball and hit "collect".</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>对准它们，按下采集按钮，就能轻松采集到手。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0016</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fanstastic, and what are those red fruits over there? Can I eat them?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>原来如此，那边的红色果实又是什么，可以吃吗？</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0017</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>That's Pitaya: A delicate and juicy fruit, one of the favorite fruits of Dragonborns. To collect Pitaya, just stand underneath the trees and press "collect".</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>那是我们的火龙果。果肉细腻无核，汁水丰盈，是野生MODragon最喜爱的果实之一。要采集火龙果，只需走到果树下，按下采集按钮即可。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0018</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pitaya sounds delicious!</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>火龙果听起来好好吃啊！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0019</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Indeed, not only are they tasty, but they're also crucial materials for crafting. Take some Pitaya with you, and they might help you along your journey in this land!</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是的，不仅好吃，而且还是一些合成材料的重要组成部分。收集一些火龙果，它们可能对你未来的冒险起到帮助。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0020</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>There is something else I want you to know, we call it "Gold Coins"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>还有一种采集物我要介绍给你，那就是金币。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0021</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gold Coins? Are they also collectibles?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币？这也是一种采集物吗？</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0022</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>In the land of Dragonverse Neo, Gold Coins is a precious resource. It fell from distance space. Using Gold Coins, you may trade with other adventurers, buy items and craft rare items.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>在我们的DragonVerse Neo中，金币是一种非常重要的资源。它们从遥远的星空落下，是很贵重的物品。你可以使用它与其他冒险家交易、购买物品，甚至用来合成一些珍贵的道具。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0023</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>So lucky-strikes are true! I hope I am the "hit by gold" version of Isaac Newton&gt;3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>原来天上掉金币这种事是真的会发生啊！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0024</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exclusively in Dragonverse Neo! Now go and collect some of those Dragonballs, Pitaya and Gold Coins. Your adventure is await.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>仅此一家，也只有在DragonVerse Neo中你才能体会到这种乐趣了！去吧，尝试着采集一些DragonBall,火龙果和金币吧。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0025</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hey, new adventurer! Looks like you have mastered the collection skills, now it's time for you to get your lovely DragonBorn pal!</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘿，新冒险者，听说你已经掌握了采集的技巧，那么是不是也想要拥有属于自己的小伙伴MODragon呢？</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0026</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aha! Never say no to free Dragons!</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>来都来了，肯定要搞一只吧。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0027</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Your honesty is... quite straightfoward. You will need to use your Dragonballs to capture them, I will show you how.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>你倒是很坦诚嘛！其实，只需要使用DragonBall就可以捕捉到属于你的Dragon了。先来了解一下如何使用DragonBall吧。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0028</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>You see this Dragonball? All you have to do is capture them using the "Capture" controller, select your Dragonball and tose it to the Dragonborn you wish to capture. But it's not easy! Dragonborns could be quite stubborn to capture!</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>看到这颗DragonBall了吗？你可以通过MODragon捕获面板的操纵杆，选择它，然后投掷到想要捕捉的MODragon附近。不过，这可不是一件简单的事情，每个MODragon都有自己的个性。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0029</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stubborn? You mean they have personalities?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>个性？</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0030</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>That's right, there are 5 personalities Dragonborns might have: Vigilant; Grumpy; Timid; Irritable or Gentle. Personalities are crucial when it comes to capturing them, so you might want to know their personalities before you waste your dragonball.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>没错，每个Dragon都有五种个性，包括机警的、暴躁的、胆小的、易怒的、温和的。而且，它们的个性还会影响到捕捉的难度。所以在捕捉之前，最好先了解一下你要捕捉的MODragon的个性。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0031</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Interesting! How would I know about their personalities?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>原来如此，我要怎么了解它们的个性呢？</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0032</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>It's quite simple, just look at the name and color of the Dragonborn, that will be your hint. Anyway, observation will help.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>很简单，你只需要观察MODragon头上的名称和颜色，他们会提示你这只MODragon的个性；总之，多观察，你就能熟知它们的个性。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0033</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>You said it like it's so simple..</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>听上去很简单的样子。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0034</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Not that hard anyway!</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>那当然了，没有大家说的那么难！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0035</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Can't you tell I'm being ironic?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>我在说反话你听不出来吗？</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0036</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>......, you are lucky I'm not the grumpy one. Actually, I can teach you a technic, it can efficiently increase your odds of capturing them.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>……，别在这阴阳怪气了，我破例传授你一个投掷诀窍，可以很好的提高你的捕获概率。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0037</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>I'm listening.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>说来听听。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0038</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remember, controls the your strength. If the strength indicator slides right into the highest strength section (the narrow section in the force indicator), You can dramatically increase your odds of capture.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>记住，力度是关键，投掷的瞬间，如果力度指示器指针刚好摆动到最高档力度区间（力度指示器中间最窄的那一档），就能够大大的提高捕获的成功率哦。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0039</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bingo! Wait.. I don't think I'm the only one that konw this..</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>还有这种操作？你不会只告诉我一个人吧？</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0040</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>......Just go and try, remember to capture as much as possible. They will be your key helper along your journey!</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>...... 赶紧去试试吧，记得多捕捉一些Dragon，它们会成为你在DragonVerse Neo中的得力助手。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0041</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yo new folk! Welcome to Dragonverse Neo, I am the master of emote in this land, and you can call be Barb! Ready to learn some funky move?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yo，新来的小伙伴！欢迎来到DragonVerse Neo！我是这片土地上的动作指导大师，随意叫我巴巴。在这里，你可以和我嬉笑打闹，学习各种骚气的动作。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0042</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Emote? Like what?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>动作？比如说？</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0043</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open your Emote panel, select an emote and play it, it's quite fun and I can show it to you!</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击你的动作面板，选择一个动作，保证比你想象中还要嗨！看我来给你演示一下~</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0044</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>This is our siganature move, very popular in the land of Dragonverse Neo! Use it and turn on the crowd like we always do!</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个动作是我们这里的代表性动作，你一学就能成为街头巷尾的焦点。用它向其他冒险者示好，他们肯定会跟着你一起high起来。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0045</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Also here's a reminder for you: some emotes can boost your level of friendship with other masters. But be careful not to choose the wrong emote, people might get angry!</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>提醒你一下，有些动作可以提高他对你的好感度，而有些动作……你可得小心点，在%&amp;￥#@导师那里可千万别做%*&amp;@这个动作。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0046</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>O...kay, what's new..</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>额，还有这种操作。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0047</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>You'll get there, like the wiseman once said: communications are delicacy, learn to be artful!</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>这就是所谓的见人说人话，见龙走龙步了吧。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code001</t>
+  </si>
+  <si>
+    <t>Modragon</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Dear MOBOX family:</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Have you received Elon Stark's invitation? Verify the invitation code below to enter DragonVerse Neo.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>亲爱的MOBOX家人们：</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入验证码</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enter the code</t>
   </si>
   <si>
     <t>Verify</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>你收到埃隆·斯塔克的邀请了吗？在下方验证Code就能进入 DragonVerse Neo。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code002</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code003</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code004</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>I don't have it yet</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code in my hand</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enter your code to experience it right away, don't have a code yet? Head over to Landing Page to get it now!</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enter the code</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Setting001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Setting004</t>
-  </si>
-  <si>
-    <t>设置</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Setting</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改昵称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Rename</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Setting002</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>多语言</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Language</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>登出</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Log out</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改形象</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Modify avatar</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Setting006</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Setting005</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Setting003</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Change avatar</t>
   </si>
   <si>
     <t>Your name</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的昵称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Setting007</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bag</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>AreaName0001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>AreaName0002</t>
-  </si>
-  <si>
-    <t>AreaName0003</t>
-  </si>
-  <si>
-    <t>新手村</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>出生点</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>AreaName0004</t>
-  </si>
-  <si>
-    <t>AreaName0005</t>
-  </si>
-  <si>
-    <t>AreaName0006</t>
-  </si>
-  <si>
-    <t>神秘废墟</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>远古遗迹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰霜天池</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>碧波湖畔</t>
+  </si>
+  <si>
+    <t>CharacterName0005</t>
+  </si>
+  <si>
+    <t>CharacterName0006</t>
+  </si>
+  <si>
+    <t>CharacterName0007</t>
+  </si>
+  <si>
+    <t>CharacterName0008</t>
+  </si>
+  <si>
+    <t>CharacterName0009</t>
+  </si>
+  <si>
+    <t>木元素智者 · 芬尼亚</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>土元素智者 · 泰瑞克斯</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>火元素智者 · 艾莉娅</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>水元素智者 · 温蒂妮</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>木元素图腾</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>火元素图腾</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>水元素图腾</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterName0010</t>
+  </si>
+  <si>
+    <t>CharacterName0011</t>
+  </si>
+  <si>
+    <t>CharacterName0012</t>
+  </si>
+  <si>
+    <t>CharacterName0013</t>
+  </si>
+  <si>
+    <t>Wood Guardian · Fenia</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earth Guardian · Terrakus</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire Elemental Sage · Elia</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water Guardian · Undine</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑酷达人 · 卡勒姆</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parkour Master · Coleman</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Wood Element</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Earth Element</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Fire Element</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Water Element</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好，冒险者，我身后的这篇木林名为“举球消消乐”，它由一些机关和封印组成。</t>
+  </si>
+  <si>
+    <t>如你所见，我被限制在此处无法移动，里面究竟封印着什么，我并清楚，</t>
+  </si>
+  <si>
+    <t>无论如何，我会教你一些可能用的上的技能。</t>
+  </si>
+  <si>
+    <t>现在，尝试举起木球吧。</t>
+  </si>
+  <si>
+    <t>现在，尝试放下木球。</t>
+  </si>
+  <si>
+    <t>好了，冒险者，去一探究竟吧，祝你成功。</t>
+  </si>
+  <si>
+    <t>仔细观察周围的环境，运用我教你的技能，或许你能找到一些线索。（教程完成后重复）</t>
+  </si>
+  <si>
+    <t>Dialogue0048</t>
+  </si>
+  <si>
+    <t>Dialogue0049</t>
+  </si>
+  <si>
+    <t>Dialogue0050</t>
+  </si>
+  <si>
+    <t>Dialogue0051</t>
+  </si>
+  <si>
+    <t>Dialogue0052</t>
+  </si>
+  <si>
+    <t>Dialogue0053</t>
+  </si>
+  <si>
+    <t>Dialogue0054</t>
+  </si>
+  <si>
+    <t>Dialogue0055</t>
+  </si>
+  <si>
+    <t>Dialogue0056</t>
+  </si>
+  <si>
+    <t>Dialogue0057</t>
+  </si>
+  <si>
+    <t>Dialogue0058</t>
+  </si>
+  <si>
+    <t>Hello, adventurer. The stone structure behind me is called "Woodland Ball Buster," sealed by the mighty power of "wood" and mysterious mechanics.</t>
+  </si>
+  <si>
+    <t>I was retrained here decades ago, as you can see. I am not sure what's inside this mythical structure, not without my ability to move.</t>
+  </si>
+  <si>
+    <t>But I will teach you some technics, adventurer. The technics might help you unveil the myth behind it.</t>
+  </si>
+  <si>
+    <t>Now, try lifting the stone sphere.</t>
+  </si>
+  <si>
+    <t>Now, try putting down the stone sphere.</t>
+  </si>
+  <si>
+    <t>Well done, adventurer. Now go and explore, I wish you success.</t>
+  </si>
+  <si>
+    <t>Observe the structure carefully, use the technics and perhaps you will find some clues. (Repeated after completing the tutorial)</t>
+  </si>
+  <si>
+    <t>里面封印着什么？</t>
+  </si>
+  <si>
+    <t>What is sealed underneath?</t>
+  </si>
+  <si>
+    <t>还有其他线索吗？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are there any other clues?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好，冒险者。这座迷阵是由古老的土元素魔法构成的。</t>
+  </si>
+  <si>
+    <t>很遗憾，我被困在这里无法深入调查。但这片区域蕴藏浓厚的土元素，可能与土元素龙有关。</t>
+  </si>
+  <si>
+    <t>不过，我可以教你一些技能，也许对你有所帮助。</t>
+  </si>
+  <si>
+    <t>首先，从高处对准巨石板块跳跃下去。</t>
+  </si>
+  <si>
+    <t>不错，这种向下的冲击力能够摧毁顶部的巨石板块。</t>
+  </si>
+  <si>
+    <t>很好，看来你已经准备好挑战巨石迷阵了。祝你好运，冒险者。</t>
+  </si>
+  <si>
+    <t>仔细观察巨石的形状和颜色，也许会有隐藏的通道。（教程完成后重复）</t>
+  </si>
+  <si>
+    <t>魔法阵？里面封印了什么东西吗？</t>
+  </si>
+  <si>
+    <t>还有其他技巧吗？</t>
+  </si>
+  <si>
+    <t>Greetings, adventurer. This maze is crafted from ancient earth magic.</t>
+  </si>
+  <si>
+    <t>Unfortunately, my comfinement retrained my ability to investigate. But I sensed high density of earth elemental force from this area, it could be related to the Earth Dragon.</t>
+  </si>
+  <si>
+    <t>Let me teach you some skills that might be helpful.</t>
+  </si>
+  <si>
+    <t>First, leap from a high point onto the giant stone slabs below.</t>
+  </si>
+  <si>
+    <t>Well done! The gravitational velocity will help you destroy the top stone slabs.</t>
+  </si>
+  <si>
+    <t>Excellent, it seems you're ready to face the ancient stone maze. Good luck, adventurer.</t>
+  </si>
+  <si>
+    <t>Observe the shapes and colors of the stones carefully; There might be hidden pathway that leads you back to the surface! (Repeated after completing the tutorial)</t>
+  </si>
+  <si>
+    <t>Magic circle? What's sealed within?</t>
+  </si>
+  <si>
+    <t>Any other tips?</t>
+  </si>
+  <si>
+    <t>Dialogue0059</t>
+  </si>
+  <si>
+    <t>Dialogue0060</t>
+  </si>
+  <si>
+    <t>Dialogue0061</t>
+  </si>
+  <si>
+    <t>Dialogue0062</t>
+  </si>
+  <si>
+    <t>Dialogue0063</t>
+  </si>
+  <si>
+    <t>Dialogue0064</t>
+  </si>
+  <si>
+    <t>Dialogue0065</t>
+  </si>
+  <si>
+    <t>你好，冒险者。这片火炎地域被一种神秘的力量所影响。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里有什么值得一探究竟的吗？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有其他技巧吗？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>我无法深入火炎地域，但我感受到封印中似乎含有大量的火元素。</t>
+  </si>
+  <si>
+    <t>水与火是互相克制的关系，巧妙的运用水的力量，可以净化火炎，反之亦然。</t>
+  </si>
+  <si>
+    <t>干得不错，你成功将水池底部的岩浆净化了，看来你已经无师自通了。</t>
+  </si>
+  <si>
+    <t>Hello, adventurer. This infernal abyss has been conteminated by the mysterious force of Fire</t>
+  </si>
+  <si>
+    <t>I can't venture deep into the abyss, but I sense substantial fire energy coming out from the abyss.</t>
+  </si>
+  <si>
+    <t>Water and fire are mutually restraining elements. Use their power against each other, and you shall purify comtemination.</t>
+  </si>
+  <si>
+    <t>Well done. You successfully purified the lava at the bottom of the abyss. Looks like you've became a brilliant self-taught!</t>
+  </si>
+  <si>
+    <t>Is there anything worth exploring here?</t>
+  </si>
+  <si>
+    <t>Dialogue0066</t>
+  </si>
+  <si>
+    <t>Dialogue0067</t>
+  </si>
+  <si>
+    <t>Dialogue0068</t>
+  </si>
+  <si>
+    <t>Dialogue0069</t>
+  </si>
+  <si>
+    <t>Dialogue0070</t>
+  </si>
+  <si>
+    <t>Dialogue0071</t>
+  </si>
+  <si>
+    <t>Dialogue0072</t>
+  </si>
+  <si>
+    <t>Dialogue0073</t>
+  </si>
+  <si>
+    <t>水可以净化火炎，反之亦然。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water can purify lava, and vice versa.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Are there any other techniques? </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好，冒险者。这片云中迷宫充满了水元素的力量。</t>
+  </si>
+  <si>
+    <t>我感受到这片区域中有浓厚的水元素。但我无法亲自前往调查。</t>
+  </si>
+  <si>
+    <t>水与火是互相克制的关系，巧妙的运用火的力量，可以消散云雾，反之亦然。</t>
+  </si>
+  <si>
+    <t>迷宫的尽头是什么？</t>
+  </si>
+  <si>
+    <t>Hello, adventurer. This cloud maze was cleansed by the mighty power of water.</t>
+  </si>
+  <si>
+    <t>The power of water is burried deep by the mythical clouds. Sense the elemental force of water and find a way out.</t>
+  </si>
+  <si>
+    <t>As you know, water and fire are mutual retaining elements, summon the force and use them against each other!</t>
+  </si>
+  <si>
+    <t>What lies at the end of the maze?</t>
+  </si>
+  <si>
+    <t>当你无法一个人完成任务是，考虑装备你的宠物帮手吧。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>When you can't complete a task alone, try summoning your Modragons for assistant!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0074</t>
+  </si>
+  <si>
+    <t>Dialogue0075</t>
+  </si>
+  <si>
+    <t>Dialogue0076</t>
+  </si>
+  <si>
+    <t>Dialogue0077</t>
+  </si>
+  <si>
+    <t>Dialogue0078</t>
+  </si>
+  <si>
+    <t>Ancient ruins</t>
+  </si>
+  <si>
+    <t>Mysterious ruins</t>
+  </si>
+  <si>
+    <t>Frost Sky Pool</t>
+  </si>
+  <si>
+    <t>Novice Village</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Birthplace</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lake Atitlan</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2235,10 +2659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F584"/>
+  <dimension ref="A1:F591"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -2435,16 +2859,16 @@
         <v>42</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -2452,19 +2876,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2472,19 +2896,19 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2492,19 +2916,19 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -2512,19 +2936,19 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2532,19 +2956,19 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2552,19 +2976,19 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>371</v>
+        <v>341</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2572,19 +2996,19 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2592,19 +3016,19 @@
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2612,19 +3036,19 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2632,19 +3056,19 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2652,19 +3076,19 @@
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>91</v>
+        <v>498</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2672,19 +3096,19 @@
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>96</v>
+        <v>499</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2692,19 +3116,19 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>101</v>
+        <v>500</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2712,19 +3136,19 @@
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>106</v>
+        <v>501</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2732,19 +3156,19 @@
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2752,19 +3176,19 @@
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2772,19 +3196,19 @@
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2792,19 +3216,19 @@
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>126</v>
+        <v>502</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2812,19 +3236,19 @@
         <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>131</v>
+        <v>503</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>132</v>
+        <v>514</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2832,19 +3256,19 @@
         <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>136</v>
+        <v>504</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>137</v>
+        <v>515</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2852,19 +3276,19 @@
         <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>141</v>
+        <v>505</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>142</v>
+        <v>516</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2872,19 +3296,19 @@
         <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>146</v>
+        <v>506</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>147</v>
+        <v>517</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2892,19 +3316,19 @@
         <v>29</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>150</v>
+        <v>507</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>151</v>
+        <v>518</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2912,19 +3336,19 @@
         <v>30</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>155</v>
+        <v>508</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>156</v>
+        <v>519</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2932,19 +3356,19 @@
         <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>160</v>
+        <v>509</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>161</v>
+        <v>520</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2952,19 +3376,19 @@
         <v>32</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>165</v>
+        <v>510</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>166</v>
+        <v>521</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2972,19 +3396,19 @@
         <v>33</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>170</v>
+        <v>511</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>171</v>
+        <v>522</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2992,19 +3416,19 @@
         <v>34</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>175</v>
+        <v>512</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>176</v>
+        <v>523</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3012,19 +3436,19 @@
         <v>35</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3032,19 +3456,19 @@
         <v>36</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3052,19 +3476,19 @@
         <v>37</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3072,19 +3496,19 @@
         <v>38</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3092,19 +3516,19 @@
         <v>39</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3112,19 +3536,19 @@
         <v>40</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3132,19 +3556,19 @@
         <v>41</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3152,19 +3576,19 @@
         <v>42</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3172,19 +3596,19 @@
         <v>43</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3192,19 +3616,19 @@
         <v>44</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3212,19 +3636,19 @@
         <v>45</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3232,19 +3656,19 @@
         <v>46</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3256,19 +3680,19 @@
         <v>100101</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3276,19 +3700,19 @@
         <v>100102</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3296,19 +3720,19 @@
         <v>100103</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3316,1693 +3740,2315 @@
         <v>100104</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>342</v>
+        <v>313</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>342</v>
+        <v>313</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>342</v>
+        <v>313</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="1"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
+      <c r="A56" s="1">
+        <v>100105</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>100201</v>
+        <v>100106</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="C57" s="5"/>
+        <v>550</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>566</v>
+      </c>
       <c r="D57" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
+        <v>555</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>100202</v>
+        <v>100107</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="C58" s="5"/>
+        <v>551</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>567</v>
+      </c>
       <c r="D58" s="5" t="s">
-        <v>528</v>
-      </c>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
+        <v>556</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="59" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>100203</v>
+        <v>100108</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="C59" s="5"/>
+        <v>552</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>568</v>
+      </c>
       <c r="D59" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
+        <v>557</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="60" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>100204</v>
+        <v>100109</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="C60" s="5"/>
+        <v>553</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>570</v>
+      </c>
       <c r="D60" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
+        <v>569</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="61" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>100205</v>
+        <v>100110</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>530</v>
-      </c>
-      <c r="C61" s="5"/>
+        <v>561</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>571</v>
+      </c>
       <c r="D61" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
+        <v>558</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="62" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>100206</v>
+        <v>100111</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>531</v>
-      </c>
-      <c r="C62" s="5"/>
+        <v>562</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>572</v>
+      </c>
       <c r="D62" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
+        <v>558</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="63" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="1"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
+      <c r="A63" s="1">
+        <v>100112</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="64" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
+        <v>100113</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="1"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+    </row>
+    <row r="66" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>100201</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+    </row>
+    <row r="67" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>100202</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+    </row>
+    <row r="68" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>100203</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+    </row>
+    <row r="69" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>100204</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+    </row>
+    <row r="70" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>100205</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+    </row>
+    <row r="71" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>100206</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+    </row>
+    <row r="72" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="1"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+    </row>
+    <row r="73" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
         <v>101001</v>
       </c>
-      <c r="B64" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="1">
+      <c r="B73" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
         <v>101002</v>
       </c>
-      <c r="B65" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-    </row>
-    <row r="67" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A67" s="8">
+      <c r="B74" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+    </row>
+    <row r="76" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A76" s="8">
         <v>102129</v>
       </c>
-      <c r="B67" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A68" s="8">
+      <c r="B76" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A77" s="8">
         <v>102130</v>
       </c>
-      <c r="B68" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A69" s="8">
-        <v>102131</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A70" s="8">
-        <v>102132</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="F70" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="8">
-        <v>102133</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="8">
-        <v>102134</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="F72" s="9" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="8">
-        <v>102135</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="8">
-        <v>102136</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="8">
-        <v>102137</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="F75" s="9" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="8">
-        <v>102138</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="F76" s="9" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="8">
-        <v>102139</v>
-      </c>
       <c r="B77" s="8" t="s">
-        <v>266</v>
+        <v>211</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A78" s="8">
-        <v>102140</v>
+        <v>102131</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>269</v>
+        <v>214</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>270</v>
+        <v>215</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>271</v>
+        <v>216</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>270</v>
+        <v>215</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A79" s="8">
-        <v>102141</v>
+        <v>102132</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>272</v>
+        <v>217</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>273</v>
+        <v>218</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>274</v>
+        <v>219</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>273</v>
+        <v>218</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>273</v>
+        <v>218</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="8">
-        <v>102142</v>
+        <v>102133</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>275</v>
+        <v>220</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>276</v>
+        <v>221</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>276</v>
+        <v>221</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>276</v>
+        <v>221</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="8">
-        <v>102143</v>
+        <v>102134</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>278</v>
+        <v>223</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>279</v>
+        <v>224</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>279</v>
+        <v>225</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>279</v>
+        <v>224</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>279</v>
+        <v>224</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="8">
-        <v>102144</v>
+        <v>102135</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>280</v>
+        <v>226</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>281</v>
+        <v>227</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>282</v>
+        <v>228</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>281</v>
+        <v>227</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>281</v>
+        <v>227</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="8">
-        <v>102145</v>
+        <v>102136</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>283</v>
+        <v>229</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>284</v>
+        <v>230</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>285</v>
+        <v>231</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>284</v>
+        <v>230</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>284</v>
+        <v>230</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="8">
-        <v>102146</v>
+        <v>102137</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>286</v>
+        <v>232</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>287</v>
+        <v>233</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>288</v>
+        <v>234</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>287</v>
+        <v>233</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>287</v>
+        <v>233</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="8">
-        <v>102147</v>
+        <v>102138</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>289</v>
+        <v>235</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>290</v>
+        <v>236</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>291</v>
+        <v>237</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>290</v>
+        <v>236</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>290</v>
+        <v>236</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="8">
-        <v>102148</v>
+        <v>102139</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>292</v>
+        <v>238</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>293</v>
+        <v>239</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>293</v>
+        <v>239</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A87" s="8">
-        <v>102149</v>
+        <v>102140</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>295</v>
+        <v>241</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>296</v>
+        <v>242</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>297</v>
+        <v>243</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>296</v>
+        <v>242</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>296</v>
+        <v>242</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="8">
-        <v>102150</v>
+        <v>102141</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>298</v>
+        <v>244</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="8">
-        <v>102151</v>
+        <v>102142</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>299</v>
+        <v>247</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>300</v>
+        <v>248</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>301</v>
+        <v>249</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>300</v>
+        <v>248</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>300</v>
+        <v>248</v>
       </c>
     </row>
     <row r="90" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="8">
-        <v>102152</v>
+        <v>102143</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>302</v>
+        <v>250</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>303</v>
+        <v>251</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>304</v>
+        <v>251</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>303</v>
+        <v>251</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>303</v>
+        <v>251</v>
       </c>
     </row>
     <row r="91" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="8">
-        <v>102153</v>
+        <v>102144</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>305</v>
+        <v>252</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>306</v>
+        <v>253</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>307</v>
+        <v>254</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>306</v>
+        <v>253</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>306</v>
+        <v>253</v>
       </c>
     </row>
     <row r="92" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="8">
-        <v>102154</v>
+        <v>102145</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>308</v>
+        <v>255</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>309</v>
+        <v>256</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>310</v>
+        <v>257</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>309</v>
+        <v>256</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>309</v>
+        <v>256</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="8">
-        <v>102155</v>
+        <v>102146</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>312</v>
+        <v>259</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>312</v>
+        <v>259</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>312</v>
+        <v>259</v>
       </c>
     </row>
     <row r="94" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="8">
-        <v>102156</v>
+        <v>102147</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>314</v>
+        <v>261</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
     </row>
     <row r="95" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="8">
+        <v>102148</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="8">
+        <v>102149</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="8">
+        <v>102150</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="8">
+        <v>102151</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="8">
+        <v>102152</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="8">
+        <v>102153</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="8">
+        <v>102154</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="8">
+        <v>102155</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="8">
+        <v>102156</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="8">
         <v>102157</v>
       </c>
-      <c r="B95" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="D95" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="E95" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="F95" s="9" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="1">
+      <c r="B104" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="1">
         <v>102158</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="1">
+      <c r="B105" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+    </row>
+    <row r="107" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="1">
         <v>105001</v>
       </c>
-      <c r="B98" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>523</v>
-      </c>
-      <c r="D98" s="3" t="s">
+      <c r="B107" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="1">
+        <v>105002</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="D108" s="5" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="99" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="1">
-        <v>105002</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="1">
+    <row r="109" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="1">
         <v>105003</v>
       </c>
-      <c r="B100" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="1">
+      <c r="B109" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="1">
         <v>105004</v>
       </c>
-      <c r="B101" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="1">
+      <c r="B110" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="1">
         <v>105005</v>
       </c>
-      <c r="B102" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="1">
+      <c r="B111" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="1">
         <v>105051</v>
       </c>
-      <c r="B103" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="1">
+      <c r="B112" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="1">
         <v>105101</v>
       </c>
-      <c r="B104" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="1">
-        <v>105102</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="1">
-        <v>105103</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="1">
-        <v>105201</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="1">
-        <v>105202</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="1">
-        <v>105203</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="1">
-        <v>105204</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="1">
-        <v>105205</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="1">
-        <v>105206</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="1"/>
-      <c r="B113" s="4"/>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
+      <c r="B113" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="114" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
-        <v>105301</v>
+        <v>105102</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>492</v>
+        <v>333</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="115" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
-        <v>105302</v>
+        <v>105103</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>491</v>
+        <v>334</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>531</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>496</v>
+        <v>335</v>
       </c>
     </row>
     <row r="116" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
-        <v>105303</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="D116" s="5" t="s">
-        <v>493</v>
+        <v>105201</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="117" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
-        <v>105304</v>
+        <v>105202</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>494</v>
+        <v>336</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="118" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="1"/>
-      <c r="B118" s="6"/>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
+      <c r="A118" s="1">
+        <v>105203</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="119" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
-        <v>105401</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>506</v>
+        <v>105204</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="120" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
-        <v>105402</v>
+        <v>105205</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>509</v>
+        <v>337</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>536</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>508</v>
+        <v>324</v>
       </c>
     </row>
     <row r="121" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
-        <v>105403</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>519</v>
+        <v>105206</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>304</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>512</v>
+        <v>537</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>511</v>
+        <v>323</v>
       </c>
     </row>
     <row r="122" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="1">
-        <v>105404</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="D122" s="5" t="s">
-        <v>494</v>
-      </c>
+      <c r="A122" s="1"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
     </row>
     <row r="123" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
-        <v>105405</v>
+        <v>105301</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>518</v>
+        <v>459</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>514</v>
+        <v>539</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>513</v>
+        <v>460</v>
       </c>
     </row>
     <row r="124" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
-        <v>105406</v>
+        <v>105302</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>517</v>
+        <v>464</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>515</v>
+        <v>463</v>
       </c>
     </row>
     <row r="125" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
+        <v>105303</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="1">
+        <v>105304</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="1"/>
+      <c r="B127" s="6"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+    </row>
+    <row r="128" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="1">
+        <v>105401</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="1">
+        <v>105402</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="1">
+        <v>105403</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="1">
+        <v>105404</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="1">
+        <v>105405</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="1">
+        <v>105406</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="1">
         <v>105407</v>
       </c>
-      <c r="B125" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C126"/>
-      <c r="D126"/>
-    </row>
-    <row r="127" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="6">
-        <v>200001</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="D127" s="7" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="6">
-        <v>200002</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="D128" s="7" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="6">
-        <v>200003</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="D129" s="7" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="6">
-        <v>200004</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="C130" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="D130" s="7" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="6">
-        <v>200005</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="C131" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="D131" s="7" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="6">
-        <v>200006</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="C132" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D132" s="7" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="6">
-        <v>200007</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="C133" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="D133" s="7" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="6">
-        <v>200008</v>
-      </c>
       <c r="B134" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="C134" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="D134" s="7" t="s">
-        <v>395</v>
+        <v>479</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="135" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="6">
-        <v>200009</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="D135" s="7" t="s">
-        <v>398</v>
-      </c>
+      <c r="C135"/>
+      <c r="D135"/>
     </row>
     <row r="136" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="6">
-        <v>200010</v>
+        <v>200001</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>399</v>
+        <v>342</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>400</v>
+        <v>343</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>401</v>
+        <v>344</v>
       </c>
     </row>
     <row r="137" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="6">
-        <v>200011</v>
+        <v>200002</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>402</v>
+        <v>345</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>403</v>
+        <v>346</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A138" s="6">
-        <v>200012</v>
+        <v>200003</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>405</v>
+        <v>348</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>406</v>
+        <v>349</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>407</v>
+        <v>350</v>
       </c>
     </row>
     <row r="139" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="6">
-        <v>200013</v>
+        <v>200004</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>408</v>
+        <v>351</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>409</v>
+        <v>352</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A140" s="6">
-        <v>200014</v>
+        <v>200005</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>411</v>
+        <v>354</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>412</v>
+        <v>355</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>413</v>
+        <v>356</v>
       </c>
     </row>
     <row r="141" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="6">
-        <v>200015</v>
+        <v>200006</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>414</v>
+        <v>357</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>415</v>
+        <v>358</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>416</v>
+        <v>359</v>
       </c>
     </row>
     <row r="142" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="6">
-        <v>200016</v>
+        <v>200007</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>417</v>
+        <v>360</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>418</v>
+        <v>361</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>419</v>
+        <v>362</v>
       </c>
     </row>
     <row r="143" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="6">
-        <v>200017</v>
+        <v>200008</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>420</v>
+        <v>363</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>421</v>
+        <v>364</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="6">
-        <v>200018</v>
+        <v>200009</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>423</v>
+        <v>366</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>424</v>
+        <v>367</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>425</v>
+        <v>368</v>
       </c>
     </row>
     <row r="145" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="6">
-        <v>200019</v>
+        <v>200010</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>426</v>
+        <v>369</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>427</v>
+        <v>370</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>428</v>
+        <v>371</v>
       </c>
     </row>
     <row r="146" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="6">
-        <v>200020</v>
+        <v>200011</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>429</v>
+        <v>372</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>430</v>
+        <v>373</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>431</v>
+        <v>374</v>
       </c>
     </row>
     <row r="147" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="6">
-        <v>200021</v>
+        <v>200012</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>432</v>
+        <v>375</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>433</v>
+        <v>376</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>434</v>
+        <v>377</v>
       </c>
     </row>
     <row r="148" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="6">
-        <v>200022</v>
+        <v>200013</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>435</v>
+        <v>378</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>436</v>
+        <v>379</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>437</v>
+        <v>380</v>
       </c>
     </row>
     <row r="149" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="6">
-        <v>200023</v>
+        <v>200014</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>438</v>
+        <v>381</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>439</v>
+        <v>382</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="6">
-        <v>200024</v>
+        <v>200015</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>441</v>
+        <v>384</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>442</v>
+        <v>385</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>443</v>
+        <v>386</v>
       </c>
     </row>
     <row r="151" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="6">
-        <v>200025</v>
+        <v>200016</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>444</v>
+        <v>387</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>445</v>
+        <v>388</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>446</v>
+        <v>389</v>
       </c>
     </row>
     <row r="152" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="6">
-        <v>200026</v>
+        <v>200017</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>447</v>
+        <v>390</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>448</v>
+        <v>391</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A153" s="6">
-        <v>200027</v>
+        <v>200018</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>450</v>
+        <v>393</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>451</v>
+        <v>394</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>452</v>
+        <v>395</v>
       </c>
     </row>
     <row r="154" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="6">
-        <v>200028</v>
+        <v>200019</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>453</v>
+        <v>396</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>454</v>
+        <v>397</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>455</v>
+        <v>398</v>
       </c>
     </row>
     <row r="155" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="6">
-        <v>200029</v>
+        <v>200020</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>456</v>
+        <v>399</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>457</v>
+        <v>400</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>458</v>
+        <v>401</v>
       </c>
     </row>
     <row r="156" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="6">
-        <v>200030</v>
+        <v>200021</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>459</v>
+        <v>402</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>460</v>
+        <v>403</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>461</v>
+        <v>404</v>
       </c>
     </row>
     <row r="157" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="6">
-        <v>200031</v>
+        <v>200022</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>462</v>
+        <v>405</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>463</v>
+        <v>406</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>464</v>
+        <v>407</v>
       </c>
     </row>
     <row r="158" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="6">
-        <v>200032</v>
+        <v>200023</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>465</v>
+        <v>408</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>466</v>
+        <v>409</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A159" s="6">
-        <v>200033</v>
+        <v>200024</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>468</v>
+        <v>411</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>469</v>
+        <v>412</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>470</v>
+        <v>413</v>
       </c>
     </row>
     <row r="160" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="6">
-        <v>200034</v>
+        <v>200025</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>471</v>
+        <v>414</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>472</v>
+        <v>415</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>473</v>
+        <v>416</v>
       </c>
     </row>
     <row r="161" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="6">
-        <v>200035</v>
+        <v>200026</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>474</v>
+        <v>417</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>475</v>
+        <v>418</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>476</v>
+        <v>419</v>
       </c>
     </row>
     <row r="162" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="6">
-        <v>200036</v>
+        <v>200027</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>477</v>
+        <v>420</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>478</v>
+        <v>421</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>479</v>
+        <v>422</v>
       </c>
     </row>
     <row r="163" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="6">
-        <v>200037</v>
+        <v>200028</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>480</v>
+        <v>423</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>481</v>
+        <v>424</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>482</v>
+        <v>425</v>
       </c>
     </row>
     <row r="164" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="6">
-        <v>200038</v>
+        <v>200029</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>483</v>
+        <v>426</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>484</v>
+        <v>427</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>485</v>
+        <v>428</v>
       </c>
     </row>
     <row r="165" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="6">
+        <v>200030</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="D165" s="7" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A166" s="6">
+        <v>200031</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="D166" s="7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="6">
+        <v>200032</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="D167" s="7" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="6">
+        <v>200033</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="D168" s="7" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="6">
+        <v>200034</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A170" s="6">
+        <v>200035</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="D170" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="6">
+        <v>200036</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="D171" s="7" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="6">
+        <v>200037</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A173" s="6">
+        <v>200038</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="D173" s="7" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A174" s="6">
         <v>200039</v>
       </c>
-      <c r="B165" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="C165" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="D165" s="7" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="167" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="168" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="169" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="170" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="171" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="172" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="173" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="174" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="175" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="176" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="177" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="178" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="179" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="180" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="181" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="182" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="183" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="184" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="185" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="186" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="187" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="188" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="189" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="190" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="191" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="192" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="193" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="194" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="195" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="196" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="197" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="198" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="199" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="200" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="201" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="202" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="203" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="204" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="205" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="206" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="207" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="208" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="B174" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="D174" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A175" s="6">
+        <v>200040</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A176" s="6">
+        <v>200041</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="6">
+        <v>200042</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="6">
+        <v>200043</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A179" s="6">
+        <v>200044</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="6">
+        <v>200045</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="6">
+        <v>200046</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="6">
+        <v>200047</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="6">
+        <v>200048</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A184" s="6">
+        <v>200049</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A185" s="6">
+        <v>200050</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A186" s="6">
+        <v>200051</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A187" s="6">
+        <v>200052</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A188" s="6">
+        <v>200053</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="6">
+        <v>200054</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="6">
+        <v>200055</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="6">
+        <v>200056</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="6">
+        <v>200057</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A193" s="6">
+        <v>200058</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="D193" s="5" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A194" s="6">
+        <v>200059</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="D194" s="5" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A195" s="6">
+        <v>200060</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="D195" s="5" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A196" s="6">
+        <v>200061</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A197" s="6">
+        <v>200062</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="D197" s="5" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A198" s="6">
+        <v>200063</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A199" s="6">
+        <v>200064</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="D199" s="5" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A200" s="6">
+        <v>200065</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D200" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A201" s="6">
+        <v>200066</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="D201" s="5" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A202" s="6">
+        <v>200067</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D202" s="5" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A203" s="6">
+        <v>200068</v>
+      </c>
+      <c r="B203" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A204" s="6">
+        <v>200069</v>
+      </c>
+      <c r="B204" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="D204" s="5" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A205" s="6">
+        <v>200070</v>
+      </c>
+      <c r="B205" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="D205" s="5" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="207" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="208" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="209" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="210" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="211" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5011,13 +6057,13 @@
     <row r="214" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="215" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="216" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="217" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="218" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="219" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="220" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="221" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="222" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="223" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="217" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="218" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="219" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="220" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="221" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="222" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="223" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="224" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="225" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="226" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -5279,19 +6325,19 @@
     <row r="482" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="483" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="484" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="485" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="486" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="487" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="488" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="489" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="490" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="485" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="486" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="487" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="488" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="489" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="490" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="491" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="492" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="493" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="494" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="495" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="496" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="497" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="492" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="493" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="494" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="495" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="496" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="497" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="498" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="499" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="500" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -5352,14 +6398,14 @@
     <row r="555" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="556" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="557" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="558" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="558" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="559" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="560" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="561" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="562" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="563" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="564" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="565" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="565" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="566" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="567" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="568" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -5379,6 +6425,13 @@
     <row r="582" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="583" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="584" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="585" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="586" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="587" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="588" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="589" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="590" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="591" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Excels/Language_多语言表.xlsx
+++ b/Excels/Language_多语言表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3651140C-C562-4FBE-9425-A62C7229F376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAEFDD5-555F-4ED2-BD4C-083BC459242B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -162,19 +162,7 @@
     <t>Dialogue0001</t>
   </si>
   <si>
-    <t>欢迎来到DragonVerse Neo，成为这里的一员！</t>
-  </si>
-  <si>
-    <t>DragonVerse Neo へようこそ!</t>
-  </si>
-  <si>
-    <t>Willkommen bei DragonVerse Neo und sei ein Teil davon!</t>
-  </si>
-  <si>
     <t>Dialogue0002</t>
-  </si>
-  <si>
-    <t>DragonVerse Neo是个怎么样的世界？</t>
   </si>
   <si>
     <r>
@@ -208,36 +196,12 @@
     </r>
   </si>
   <si>
-    <t>Was für eine Welt ist DragonVerse Neo?</t>
-  </si>
-  <si>
     <t>Dialogue0003</t>
   </si>
   <si>
-    <t>DragonVerse Neo是一个全新的充满乐趣的世界，你可以在这个世界中探索、发现、创造属于你的一切！</t>
-  </si>
-  <si>
-    <t>DragonVerse Neoは、探索し、発見し、自分のものをすべて作成できる、新しい楽しさに満ちた世界です!</t>
-  </si>
-  <si>
-    <t>DragonVerse Neo ist eine neue, unterhaltsame Welt, in der du alles erforschen, entdecken und erschaffen kannst, was dir gehört!</t>
-  </si>
-  <si>
     <t>Dialogue0004</t>
   </si>
   <si>
-    <t>How can I experience DragonVerse Neo?</t>
-  </si>
-  <si>
-    <t>我要怎么体验DragonVerse Neo？</t>
-  </si>
-  <si>
-    <t>DragonVerse Neoを体験するにはどうすればいいですか?</t>
-  </si>
-  <si>
-    <t>Wie kann ich DragonVerse Neo erleben?</t>
-  </si>
-  <si>
     <t>Dialogue0005</t>
   </si>
   <si>
@@ -256,9 +220,6 @@
     <t>コードを手に、ドラゴンバースネオを体験するつもりです</t>
   </si>
   <si>
-    <t>Mit dem Code in der Hand werde ich DragonVerse Neo erleben</t>
-  </si>
-  <si>
     <t>Dialogue0007</t>
   </si>
   <si>
@@ -271,15 +232,9 @@
     <t>Dialogue0008</t>
   </si>
   <si>
-    <t>验证···成功！恭喜你可以走出新手村落，尽情探索DragonVerse Neo吧~</t>
-  </si>
-  <si>
     <t>検証 ···継ぐ！初心者の村を出て、ドラゴンバースネオを探索したおめでとうございます~</t>
   </si>
   <si>
-    <t>Verifizierung ··· Gelingen! Herzlichen Glückwunsch, dass du das Anfängerdorf verlassen und DragonVerse Neo erkundet hast~</t>
-  </si>
-  <si>
     <t>BagItemName0001</t>
   </si>
   <si>
@@ -1141,14 +1096,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Hey, new adventurer! Welcome to DragonVerse Neo. This is a world of dragon fantasy! See those colorful objects on the ground? Those are the true treasures in this land: DragonBalls.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>哟，新来的冒险家！欢迎来到DragonVerse Neo，这里可是个充满奇妙的世界。看到地上那些五光十色的物体了吗？那可是我们这里的宝贝DragonBall。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Dialogue0011</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1285,14 +1232,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>In the land of Dragonverse Neo, Gold Coins is a precious resource. It fell from distance space. Using Gold Coins, you may trade with other adventurers, buy items and craft rare items.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>在我们的DragonVerse Neo中，金币是一种非常重要的资源。它们从遥远的星空落下，是很贵重的物品。你可以使用它与其他冒险家交易、购买物品，甚至用来合成一些珍贵的道具。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Dialogue0023</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1309,14 +1248,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Exclusively in Dragonverse Neo! Now go and collect some of those Dragonballs, Pitaya and Gold Coins. Your adventure is await.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>仅此一家，也只有在DragonVerse Neo中你才能体会到这种乐趣了！去吧，尝试着采集一些DragonBall,火龙果和金币吧。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Dialogue0025</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1505,22 +1436,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>...... 赶紧去试试吧，记得多捕捉一些Dragon，它们会成为你在DragonVerse Neo中的得力助手。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Dialogue0041</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Yo new folk! Welcome to Dragonverse Neo, I am the master of emote in this land, and you can call be Barb! Ready to learn some funky move?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yo，新来的小伙伴！欢迎来到DragonVerse Neo！我是这片土地上的动作指导大师，随意叫我巴巴。在这里，你可以和我嬉笑打闹，学习各种骚气的动作。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Dialogue0042</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1549,10 +1468,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>This is our siganature move, very popular in the land of Dragonverse Neo! Use it and turn on the crowd like we always do!</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>这个动作是我们这里的代表性动作，你一学就能成为街头巷尾的焦点。用它向其他冒险者示好，他们肯定会跟着你一起high起来。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1609,10 +1524,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>你收到埃隆·斯塔克的邀请了吗？在下方验证Code就能进入 DragonVerse Neo。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Code002</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1719,24 +1630,12 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Welcome to DragonVerse Neo, step in and become a part of this enchanting realm!</t>
-  </si>
-  <si>
-    <t>What shall be unveiled in the world of Dragonverse Neo?</t>
-  </si>
-  <si>
-    <t>DragonVerse Neo is a novel and delightful world where you can explore, discover, and create everything that belongs uniquely to you!</t>
-  </si>
-  <si>
     <t>Enter your Dragonkey and start your debut journey right away, don't have a Dragonkey yet? Head over to Landing Page and check your eligibility!</t>
   </si>
   <si>
     <t>Dragonkey, set! Drinks and snacks, set! I'm ready!</t>
   </si>
   <si>
-    <t>Verification ··· Succeed! Congratulations on getting out of the novice village, get ready to explore the world of Dragonverse Neo!</t>
-  </si>
-  <si>
     <t>Press to capture and contain wild MODragon.</t>
   </si>
   <si>
@@ -1865,9 +1764,6 @@
     <t>Dear MOBOX family:</t>
   </si>
   <si>
-    <t>Have you received Elon Stark's invitation? Verify the invitation code below to enter DragonVerse Neo.</t>
-  </si>
-  <si>
     <t>Enter the code</t>
   </si>
   <si>
@@ -2289,6 +2185,99 @@
   <si>
     <t>Lake Atitlan</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Welcome to Dragonverse NEO, step in and become a part of this enchanting realm!</t>
+  </si>
+  <si>
+    <t>欢迎来到Dragonverse NEO，成为这里的一员！</t>
+  </si>
+  <si>
+    <t>Dragonverse NEO へようこそ!</t>
+  </si>
+  <si>
+    <t>Willkommen bei Dragonverse NEO und sei ein Teil davon!</t>
+  </si>
+  <si>
+    <t>What shall be unveiled in the world of Dragonverse NEO?</t>
+  </si>
+  <si>
+    <t>Dragonverse NEO是个怎么样的世界？</t>
+  </si>
+  <si>
+    <t>Was für eine Welt ist Dragonverse NEO?</t>
+  </si>
+  <si>
+    <t>Dragonverse NEO is a novel and delightful world where you can explore, discover, and create everything that belongs uniquely to you!</t>
+  </si>
+  <si>
+    <t>Dragonverse NEO是一个全新的充满乐趣的世界，你可以在这个世界中探索、发现、创造属于你的一切！</t>
+  </si>
+  <si>
+    <t>Dragonverse NEOは、探索し、発見し、自分のものをすべて作成できる、新しい楽しさに満ちた世界です!</t>
+  </si>
+  <si>
+    <t>Dragonverse NEO ist eine neue, unterhaltsame Welt, in der du alles erforschen, entdecken und erschaffen kannst, was dir gehört!</t>
+  </si>
+  <si>
+    <t>How can I experience Dragonverse NEO?</t>
+  </si>
+  <si>
+    <t>我要怎么体验Dragonverse NEO？</t>
+  </si>
+  <si>
+    <t>Dragonverse NEOを体験するにはどうすればいいですか?</t>
+  </si>
+  <si>
+    <t>Wie kann ich Dragonverse NEO erleben?</t>
+  </si>
+  <si>
+    <t>Mit dem Code in der Hand werde ich Dragonverse NEO erleben</t>
+  </si>
+  <si>
+    <t>Verification ··· Succeed! Congratulations on getting out of the novice village, get ready to explore the world of Dragonverse NEO!</t>
+  </si>
+  <si>
+    <t>验证···成功！恭喜你可以走出新手村落，尽情探索Dragonverse NEO吧~</t>
+  </si>
+  <si>
+    <t>Verifizierung ··· Gelingen! Herzlichen Glückwunsch, dass du das Anfängerdorf verlassen und Dragonverse NEO erkundet hast~</t>
+  </si>
+  <si>
+    <t>Have you received Elon Stark's invitation? Verify the invitation code below to enter Dragonverse NEO.</t>
+  </si>
+  <si>
+    <t>你收到埃隆·斯塔克的邀请了吗？在下方验证Code就能进入 Dragonverse NEO。</t>
+  </si>
+  <si>
+    <t>Hey, new adventurer! Welcome to Dragonverse NEO. This is a world of dragon fantasy! See those colorful objects on the ground? Those are the true treasures in this land: DragonBalls.</t>
+  </si>
+  <si>
+    <t>哟，新来的冒险家！欢迎来到Dragonverse NEO，这里可是个充满奇妙的世界。看到地上那些五光十色的物体了吗？那可是我们这里的宝贝DragonBall。</t>
+  </si>
+  <si>
+    <t>In the land of Dragonverse NEO, Gold Coins is a precious resource. It fell from distance space. Using Gold Coins, you may trade with other adventurers, buy items and craft rare items.</t>
+  </si>
+  <si>
+    <t>在我们的Dragonverse NEO中，金币是一种非常重要的资源。它们从遥远的星空落下，是很贵重的物品。你可以使用它与其他冒险家交易、购买物品，甚至用来合成一些珍贵的道具。</t>
+  </si>
+  <si>
+    <t>Exclusively in Dragonverse NEO! Now go and collect some of those Dragonballs, Pitaya and Gold Coins. Your adventure is await.</t>
+  </si>
+  <si>
+    <t>仅此一家，也只有在Dragonverse NEO中你才能体会到这种乐趣了！去吧，尝试着采集一些DragonBall,火龙果和金币吧。</t>
+  </si>
+  <si>
+    <t>...... 赶紧去试试吧，记得多捕捉一些Dragon，它们会成为你在Dragonverse NEO中的得力助手。</t>
+  </si>
+  <si>
+    <t>Yo new folk! Welcome to Dragonverse NEO, I am the master of emote in this land, and you can call be Barb! Ready to learn some funky move?</t>
+  </si>
+  <si>
+    <t>Yo，新来的小伙伴！欢迎来到Dragonverse NEO！我是这片土地上的动作指导大师，随意叫我巴巴。在这里，你可以和我嬉笑打闹，学习各种骚气的动作。</t>
+  </si>
+  <si>
+    <t>This is our siganature move, very popular in the land of Dragonverse NEO! Use it and turn on the crowd like we always do!</t>
   </si>
 </sst>
 </file>
@@ -2661,8 +2650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F591"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -2859,16 +2848,16 @@
         <v>42</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>492</v>
+        <v>641</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>43</v>
+        <v>642</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>44</v>
+        <v>643</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>45</v>
+        <v>644</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -2876,19 +2865,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>493</v>
+        <v>645</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>47</v>
+        <v>646</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>49</v>
+        <v>647</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2896,19 +2885,19 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>494</v>
+        <v>648</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>51</v>
+        <v>649</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>52</v>
+        <v>650</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>53</v>
+        <v>651</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2916,19 +2905,19 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>55</v>
+        <v>652</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>56</v>
+        <v>653</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>57</v>
+        <v>654</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>58</v>
+        <v>655</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -2936,19 +2925,19 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>495</v>
+        <v>466</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2956,19 +2945,19 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>496</v>
+        <v>467</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>65</v>
+        <v>656</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2976,19 +2965,19 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>513</v>
+        <v>483</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2996,19 +2985,19 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>497</v>
+        <v>657</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>70</v>
+        <v>658</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>72</v>
+        <v>659</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3016,19 +3005,19 @@
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3036,19 +3025,19 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3056,19 +3045,19 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3076,19 +3065,19 @@
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>498</v>
+        <v>468</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3096,19 +3085,19 @@
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>499</v>
+        <v>469</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3116,19 +3105,19 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3136,19 +3125,19 @@
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3156,19 +3145,19 @@
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3176,19 +3165,19 @@
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3196,19 +3185,19 @@
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3216,19 +3205,19 @@
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>502</v>
+        <v>472</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3236,19 +3225,19 @@
         <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>503</v>
+        <v>473</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>514</v>
+        <v>484</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3256,19 +3245,19 @@
         <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>504</v>
+        <v>474</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>515</v>
+        <v>485</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3276,19 +3265,19 @@
         <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>505</v>
+        <v>475</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>516</v>
+        <v>486</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3296,19 +3285,19 @@
         <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>506</v>
+        <v>476</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>517</v>
+        <v>487</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3316,19 +3305,19 @@
         <v>29</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>507</v>
+        <v>477</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>518</v>
+        <v>488</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3336,19 +3325,19 @@
         <v>30</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>508</v>
+        <v>478</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>519</v>
+        <v>489</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3356,19 +3345,19 @@
         <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>509</v>
+        <v>479</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>520</v>
+        <v>490</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3376,19 +3365,19 @@
         <v>32</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>510</v>
+        <v>480</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>521</v>
+        <v>491</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3396,19 +3385,19 @@
         <v>33</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>511</v>
+        <v>481</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>522</v>
+        <v>492</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3416,19 +3405,19 @@
         <v>34</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>512</v>
+        <v>482</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>523</v>
+        <v>493</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3436,19 +3425,19 @@
         <v>35</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3456,19 +3445,19 @@
         <v>36</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3476,19 +3465,19 @@
         <v>37</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3496,19 +3485,19 @@
         <v>38</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3516,19 +3505,19 @@
         <v>39</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3536,19 +3525,19 @@
         <v>40</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3556,19 +3545,19 @@
         <v>41</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3576,19 +3565,19 @@
         <v>42</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3596,19 +3585,19 @@
         <v>43</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3616,19 +3605,19 @@
         <v>44</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3636,19 +3625,19 @@
         <v>45</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3656,19 +3645,19 @@
         <v>46</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3680,19 +3669,19 @@
         <v>100101</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3700,19 +3689,19 @@
         <v>100102</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3720,19 +3709,19 @@
         <v>100103</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3740,19 +3729,19 @@
         <v>100104</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3760,19 +3749,19 @@
         <v>100105</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>549</v>
+        <v>518</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>565</v>
+        <v>534</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>554</v>
+        <v>523</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>565</v>
+        <v>534</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>565</v>
+        <v>534</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3780,19 +3769,19 @@
         <v>100106</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>550</v>
+        <v>519</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>566</v>
+        <v>535</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>555</v>
+        <v>524</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>566</v>
+        <v>535</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>566</v>
+        <v>535</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3800,19 +3789,19 @@
         <v>100107</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>551</v>
+        <v>520</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>567</v>
+        <v>536</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>556</v>
+        <v>525</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>567</v>
+        <v>536</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>567</v>
+        <v>536</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3820,19 +3809,19 @@
         <v>100108</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>552</v>
+        <v>521</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>568</v>
+        <v>537</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>557</v>
+        <v>526</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>568</v>
+        <v>537</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>568</v>
+        <v>537</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3840,19 +3829,19 @@
         <v>100109</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>553</v>
+        <v>522</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>570</v>
+        <v>539</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>569</v>
+        <v>538</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>570</v>
+        <v>539</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>570</v>
+        <v>539</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3860,19 +3849,19 @@
         <v>100110</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>561</v>
+        <v>530</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>571</v>
+        <v>540</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>571</v>
+        <v>540</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>571</v>
+        <v>540</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3880,19 +3869,19 @@
         <v>100111</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>562</v>
+        <v>531</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>572</v>
+        <v>541</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>572</v>
+        <v>541</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>572</v>
+        <v>541</v>
       </c>
     </row>
     <row r="63" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3900,19 +3889,19 @@
         <v>100112</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>563</v>
+        <v>532</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>573</v>
+        <v>542</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>559</v>
+        <v>528</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>573</v>
+        <v>542</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>573</v>
+        <v>542</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3920,19 +3909,19 @@
         <v>100113</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>564</v>
+        <v>533</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>574</v>
+        <v>543</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>560</v>
+        <v>529</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>574</v>
+        <v>543</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>574</v>
+        <v>543</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3948,13 +3937,13 @@
         <v>100201</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>480</v>
+        <v>454</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>669</v>
+        <v>638</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>483</v>
+        <v>457</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
@@ -3964,13 +3953,13 @@
         <v>100202</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>481</v>
+        <v>455</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>670</v>
+        <v>639</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>484</v>
+        <v>458</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
@@ -3980,13 +3969,13 @@
         <v>100203</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>482</v>
+        <v>456</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>671</v>
+        <v>640</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>491</v>
+        <v>465</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
@@ -3996,13 +3985,13 @@
         <v>100204</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>485</v>
+        <v>459</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>666</v>
+        <v>635</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>489</v>
+        <v>463</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
@@ -4012,13 +4001,13 @@
         <v>100205</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>486</v>
+        <v>460</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>667</v>
+        <v>636</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>488</v>
+        <v>462</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
@@ -4028,13 +4017,13 @@
         <v>100206</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>487</v>
+        <v>461</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>668</v>
+        <v>637</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>490</v>
+        <v>464</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
@@ -4052,19 +4041,19 @@
         <v>101001</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -4072,19 +4061,19 @@
         <v>101002</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -4096,19 +4085,19 @@
         <v>102129</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
     </row>
     <row r="77" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
@@ -4116,19 +4105,19 @@
         <v>102130</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
@@ -4136,19 +4125,19 @@
         <v>102131</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
@@ -4156,19 +4145,19 @@
         <v>102132</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4176,19 +4165,19 @@
         <v>102133</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4196,19 +4185,19 @@
         <v>102134</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4216,19 +4205,19 @@
         <v>102135</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4236,19 +4225,19 @@
         <v>102136</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4256,19 +4245,19 @@
         <v>102137</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4276,19 +4265,19 @@
         <v>102138</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4296,19 +4285,19 @@
         <v>102139</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row r="87" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
@@ -4316,19 +4305,19 @@
         <v>102140</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4336,19 +4325,19 @@
         <v>102141</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4356,19 +4345,19 @@
         <v>102142</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
     </row>
     <row r="90" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4376,19 +4365,19 @@
         <v>102143</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="91" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4396,19 +4385,19 @@
         <v>102144</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
     </row>
     <row r="92" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4416,19 +4405,19 @@
         <v>102145</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4436,19 +4425,19 @@
         <v>102146</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
     </row>
     <row r="94" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4456,19 +4445,19 @@
         <v>102147</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="95" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4476,19 +4465,19 @@
         <v>102148</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="96" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4496,19 +4485,19 @@
         <v>102149</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="97" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4516,19 +4505,19 @@
         <v>102150</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
     </row>
     <row r="98" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4536,19 +4525,19 @@
         <v>102151</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
     </row>
     <row r="99" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4556,19 +4545,19 @@
         <v>102152</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
     </row>
     <row r="100" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4576,19 +4565,19 @@
         <v>102153</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
     </row>
     <row r="101" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4596,19 +4585,19 @@
         <v>102154</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
     </row>
     <row r="102" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4616,19 +4605,19 @@
         <v>102155</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4636,19 +4625,19 @@
         <v>102156</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
     </row>
     <row r="104" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4656,19 +4645,19 @@
         <v>102157</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4676,10 +4665,10 @@
         <v>102158</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
     </row>
     <row r="106" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4691,13 +4680,13 @@
         <v>105001</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>524</v>
+        <v>494</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
     </row>
     <row r="108" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4705,13 +4694,13 @@
         <v>105002</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>538</v>
+        <v>508</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
     </row>
     <row r="109" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4719,13 +4708,13 @@
         <v>105003</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>525</v>
+        <v>495</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
     </row>
     <row r="110" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4733,13 +4722,13 @@
         <v>105004</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>526</v>
+        <v>496</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
     </row>
     <row r="111" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4747,13 +4736,13 @@
         <v>105005</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>527</v>
+        <v>497</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
     </row>
     <row r="112" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4761,13 +4750,13 @@
         <v>105051</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>528</v>
+        <v>498</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
     </row>
     <row r="113" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4775,13 +4764,13 @@
         <v>105101</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>529</v>
+        <v>499</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
     </row>
     <row r="114" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4789,13 +4778,13 @@
         <v>105102</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>530</v>
+        <v>500</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
     </row>
     <row r="115" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4803,13 +4792,13 @@
         <v>105103</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>531</v>
+        <v>501</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
     </row>
     <row r="116" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4817,13 +4806,13 @@
         <v>105201</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>532</v>
+        <v>502</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
     </row>
     <row r="117" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4831,13 +4820,13 @@
         <v>105202</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>533</v>
+        <v>503</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
     </row>
     <row r="118" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4845,13 +4834,13 @@
         <v>105203</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>534</v>
+        <v>504</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
     </row>
     <row r="119" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4859,13 +4848,13 @@
         <v>105204</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>535</v>
+        <v>505</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="120" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4873,13 +4862,13 @@
         <v>105205</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>536</v>
+        <v>506</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
     </row>
     <row r="121" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4887,13 +4876,13 @@
         <v>105206</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>537</v>
+        <v>507</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
     </row>
     <row r="122" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4907,13 +4896,13 @@
         <v>105301</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>459</v>
+        <v>434</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>539</v>
+        <v>509</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>460</v>
+        <v>435</v>
       </c>
     </row>
     <row r="124" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4921,13 +4910,13 @@
         <v>105302</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>464</v>
+        <v>438</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>540</v>
+        <v>660</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>463</v>
+        <v>661</v>
       </c>
     </row>
     <row r="125" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4935,13 +4924,13 @@
         <v>105303</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>465</v>
+        <v>439</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>541</v>
+        <v>510</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
     </row>
     <row r="126" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4949,13 +4938,13 @@
         <v>105304</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>466</v>
+        <v>440</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>542</v>
+        <v>511</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
     </row>
     <row r="127" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4969,13 +4958,13 @@
         <v>105401</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>467</v>
+        <v>441</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>543</v>
+        <v>512</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>469</v>
+        <v>443</v>
       </c>
     </row>
     <row r="129" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4983,13 +4972,13 @@
         <v>105402</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>471</v>
+        <v>445</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>544</v>
+        <v>513</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>470</v>
+        <v>444</v>
       </c>
     </row>
     <row r="130" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4997,13 +4986,13 @@
         <v>105403</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>477</v>
+        <v>451</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>545</v>
+        <v>514</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>472</v>
+        <v>446</v>
       </c>
     </row>
     <row r="131" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5011,13 +5000,13 @@
         <v>105404</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>468</v>
+        <v>442</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>542</v>
+        <v>511</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
     </row>
     <row r="132" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5025,13 +5014,13 @@
         <v>105405</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>476</v>
+        <v>450</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>546</v>
+        <v>515</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
     </row>
     <row r="133" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5039,13 +5028,13 @@
         <v>105406</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>475</v>
+        <v>449</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>547</v>
+        <v>516</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>474</v>
+        <v>448</v>
       </c>
     </row>
     <row r="134" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5053,13 +5042,13 @@
         <v>105407</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>479</v>
+        <v>453</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>548</v>
+        <v>517</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>478</v>
+        <v>452</v>
       </c>
     </row>
     <row r="135" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5071,13 +5060,13 @@
         <v>200001</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
     </row>
     <row r="137" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5085,13 +5074,13 @@
         <v>200002</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>346</v>
+        <v>662</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>347</v>
+        <v>663</v>
       </c>
     </row>
     <row r="138" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -5099,13 +5088,13 @@
         <v>200003</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
     </row>
     <row r="139" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5113,13 +5102,13 @@
         <v>200004</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
     </row>
     <row r="140" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -5127,13 +5116,13 @@
         <v>200005</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
     </row>
     <row r="141" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5141,13 +5130,13 @@
         <v>200006</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
     </row>
     <row r="142" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5155,13 +5144,13 @@
         <v>200007</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
     </row>
     <row r="143" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5169,13 +5158,13 @@
         <v>200008</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
     </row>
     <row r="144" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5183,13 +5172,13 @@
         <v>200009</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
     </row>
     <row r="145" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5197,13 +5186,13 @@
         <v>200010</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
     </row>
     <row r="146" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5211,13 +5200,13 @@
         <v>200011</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
     </row>
     <row r="147" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5225,13 +5214,13 @@
         <v>200012</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
     </row>
     <row r="148" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5239,13 +5228,13 @@
         <v>200013</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
     </row>
     <row r="149" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5253,13 +5242,13 @@
         <v>200014</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>382</v>
+        <v>664</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>383</v>
+        <v>665</v>
       </c>
     </row>
     <row r="150" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5267,13 +5256,13 @@
         <v>200015</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
     </row>
     <row r="151" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5281,13 +5270,13 @@
         <v>200016</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>388</v>
+        <v>666</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>389</v>
+        <v>667</v>
       </c>
     </row>
     <row r="152" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5295,13 +5284,13 @@
         <v>200017</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
     </row>
     <row r="153" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -5309,13 +5298,13 @@
         <v>200018</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
     </row>
     <row r="154" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5323,13 +5312,13 @@
         <v>200019</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
     </row>
     <row r="155" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5337,13 +5326,13 @@
         <v>200020</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
     </row>
     <row r="156" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5351,13 +5340,13 @@
         <v>200021</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
     </row>
     <row r="157" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5365,13 +5354,13 @@
         <v>200022</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
     </row>
     <row r="158" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5379,13 +5368,13 @@
         <v>200023</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
     </row>
     <row r="159" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -5393,13 +5382,13 @@
         <v>200024</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
     </row>
     <row r="160" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5407,13 +5396,13 @@
         <v>200025</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
     </row>
     <row r="161" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5421,13 +5410,13 @@
         <v>200026</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
     </row>
     <row r="162" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5435,13 +5424,13 @@
         <v>200027</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
     </row>
     <row r="163" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5449,13 +5438,13 @@
         <v>200028</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
     </row>
     <row r="164" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5463,13 +5452,13 @@
         <v>200029</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
     </row>
     <row r="165" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5477,13 +5466,13 @@
         <v>200030</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
     </row>
     <row r="166" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5491,13 +5480,13 @@
         <v>200031</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
     </row>
     <row r="167" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5505,13 +5494,13 @@
         <v>200032</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>437</v>
+        <v>668</v>
       </c>
     </row>
     <row r="168" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5519,13 +5508,13 @@
         <v>200033</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>439</v>
+        <v>669</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>440</v>
+        <v>670</v>
       </c>
     </row>
     <row r="169" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5533,13 +5522,13 @@
         <v>200034</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
     </row>
     <row r="170" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5547,13 +5536,13 @@
         <v>200035</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>444</v>
+        <v>420</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
     </row>
     <row r="171" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5561,13 +5550,13 @@
         <v>200036</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>448</v>
+        <v>671</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>449</v>
+        <v>424</v>
       </c>
     </row>
     <row r="172" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5575,13 +5564,13 @@
         <v>200037</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>452</v>
+        <v>427</v>
       </c>
     </row>
     <row r="173" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5589,13 +5578,13 @@
         <v>200038</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>453</v>
+        <v>428</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>454</v>
+        <v>429</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>455</v>
+        <v>430</v>
       </c>
     </row>
     <row r="174" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5603,13 +5592,13 @@
         <v>200039</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
     </row>
     <row r="175" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5617,13 +5606,13 @@
         <v>200040</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>582</v>
+        <v>551</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>593</v>
+        <v>562</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>575</v>
+        <v>544</v>
       </c>
     </row>
     <row r="176" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -5631,13 +5620,13 @@
         <v>200041</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>583</v>
+        <v>552</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>601</v>
+        <v>570</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>600</v>
+        <v>569</v>
       </c>
     </row>
     <row r="177" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5645,13 +5634,13 @@
         <v>200042</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>584</v>
+        <v>553</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>594</v>
+        <v>563</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>576</v>
+        <v>545</v>
       </c>
     </row>
     <row r="178" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5659,13 +5648,13 @@
         <v>200043</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>585</v>
+        <v>554</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>595</v>
+        <v>564</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>577</v>
+        <v>546</v>
       </c>
     </row>
     <row r="179" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5673,13 +5662,13 @@
         <v>200044</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>586</v>
+        <v>555</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>596</v>
+        <v>565</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>578</v>
+        <v>547</v>
       </c>
     </row>
     <row r="180" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5687,13 +5676,13 @@
         <v>200045</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>587</v>
+        <v>556</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>597</v>
+        <v>566</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>579</v>
+        <v>548</v>
       </c>
     </row>
     <row r="181" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5701,13 +5690,13 @@
         <v>200046</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>588</v>
+        <v>557</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>598</v>
+        <v>567</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>580</v>
+        <v>549</v>
       </c>
     </row>
     <row r="182" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5715,13 +5704,13 @@
         <v>200047</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>589</v>
+        <v>558</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>603</v>
+        <v>572</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>602</v>
+        <v>571</v>
       </c>
     </row>
     <row r="183" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5729,13 +5718,13 @@
         <v>200048</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>590</v>
+        <v>559</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>599</v>
+        <v>568</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>581</v>
+        <v>550</v>
       </c>
     </row>
     <row r="184" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5743,13 +5732,13 @@
         <v>200049</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>591</v>
+        <v>560</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>613</v>
+        <v>582</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>604</v>
+        <v>573</v>
       </c>
     </row>
     <row r="185" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -5757,13 +5746,13 @@
         <v>200050</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>592</v>
+        <v>561</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>620</v>
+        <v>589</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>611</v>
+        <v>580</v>
       </c>
     </row>
     <row r="186" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -5771,13 +5760,13 @@
         <v>200051</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>622</v>
+        <v>591</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>614</v>
+        <v>583</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>605</v>
+        <v>574</v>
       </c>
     </row>
     <row r="187" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5785,13 +5774,13 @@
         <v>200052</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>623</v>
+        <v>592</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>615</v>
+        <v>584</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>606</v>
+        <v>575</v>
       </c>
     </row>
     <row r="188" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5799,13 +5788,13 @@
         <v>200053</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>624</v>
+        <v>593</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>616</v>
+        <v>585</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>607</v>
+        <v>576</v>
       </c>
     </row>
     <row r="189" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -5813,13 +5802,13 @@
         <v>200054</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>625</v>
+        <v>594</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>617</v>
+        <v>586</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>608</v>
+        <v>577</v>
       </c>
     </row>
     <row r="190" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5827,13 +5816,13 @@
         <v>200055</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>626</v>
+        <v>595</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>618</v>
+        <v>587</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>609</v>
+        <v>578</v>
       </c>
     </row>
     <row r="191" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5841,13 +5830,13 @@
         <v>200056</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>627</v>
+        <v>596</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>621</v>
+        <v>590</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>612</v>
+        <v>581</v>
       </c>
     </row>
     <row r="192" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5855,13 +5844,13 @@
         <v>200057</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>628</v>
+        <v>597</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>619</v>
+        <v>588</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>610</v>
+        <v>579</v>
       </c>
     </row>
     <row r="193" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5869,13 +5858,13 @@
         <v>200058</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>640</v>
+        <v>609</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>635</v>
+        <v>604</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>629</v>
+        <v>598</v>
       </c>
     </row>
     <row r="194" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5883,13 +5872,13 @@
         <v>200059</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>641</v>
+        <v>610</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>639</v>
+        <v>608</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>630</v>
+        <v>599</v>
       </c>
     </row>
     <row r="195" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5897,13 +5886,13 @@
         <v>200060</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>642</v>
+        <v>611</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>636</v>
+        <v>605</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>632</v>
+        <v>601</v>
       </c>
     </row>
     <row r="196" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5911,13 +5900,13 @@
         <v>200061</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>643</v>
+        <v>612</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>637</v>
+        <v>606</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>633</v>
+        <v>602</v>
       </c>
     </row>
     <row r="197" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5925,13 +5914,13 @@
         <v>200062</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>644</v>
+        <v>613</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>638</v>
+        <v>607</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>634</v>
+        <v>603</v>
       </c>
     </row>
     <row r="198" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5939,13 +5928,13 @@
         <v>200063</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>645</v>
+        <v>614</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>650</v>
+        <v>619</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>631</v>
+        <v>600</v>
       </c>
     </row>
     <row r="199" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5953,13 +5942,13 @@
         <v>200064</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>646</v>
+        <v>615</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>649</v>
+        <v>618</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>648</v>
+        <v>617</v>
       </c>
     </row>
     <row r="200" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5967,13 +5956,13 @@
         <v>200065</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>655</v>
+        <v>624</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>651</v>
+        <v>620</v>
       </c>
     </row>
     <row r="201" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5981,13 +5970,13 @@
         <v>200066</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>661</v>
+        <v>630</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>658</v>
+        <v>627</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>654</v>
+        <v>623</v>
       </c>
     </row>
     <row r="202" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5995,13 +5984,13 @@
         <v>200067</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>662</v>
+        <v>631</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>656</v>
+        <v>625</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>652</v>
+        <v>621</v>
       </c>
     </row>
     <row r="203" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -6009,13 +5998,13 @@
         <v>200068</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>663</v>
+        <v>632</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>657</v>
+        <v>626</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>653</v>
+        <v>622</v>
       </c>
     </row>
     <row r="204" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -6023,13 +6012,13 @@
         <v>200069</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>664</v>
+        <v>633</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>650</v>
+        <v>619</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>631</v>
+        <v>600</v>
       </c>
     </row>
     <row r="205" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -6037,13 +6026,13 @@
         <v>200070</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>665</v>
+        <v>634</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>660</v>
+        <v>629</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>659</v>
+        <v>628</v>
       </c>
     </row>
     <row r="206" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Excels/Language_多语言表.xlsx
+++ b/Excels/Language_多语言表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAEFDD5-555F-4ED2-BD4C-083BC459242B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E085228-8DCB-4CE6-8F69-C740A46D22DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2187,97 +2187,97 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Welcome to Dragonverse NEO, step in and become a part of this enchanting realm!</t>
-  </si>
-  <si>
-    <t>欢迎来到Dragonverse NEO，成为这里的一员！</t>
-  </si>
-  <si>
-    <t>Dragonverse NEO へようこそ!</t>
-  </si>
-  <si>
-    <t>Willkommen bei Dragonverse NEO und sei ein Teil davon!</t>
-  </si>
-  <si>
-    <t>What shall be unveiled in the world of Dragonverse NEO?</t>
-  </si>
-  <si>
-    <t>Dragonverse NEO是个怎么样的世界？</t>
-  </si>
-  <si>
-    <t>Was für eine Welt ist Dragonverse NEO?</t>
-  </si>
-  <si>
-    <t>Dragonverse NEO is a novel and delightful world where you can explore, discover, and create everything that belongs uniquely to you!</t>
-  </si>
-  <si>
-    <t>Dragonverse NEO是一个全新的充满乐趣的世界，你可以在这个世界中探索、发现、创造属于你的一切！</t>
-  </si>
-  <si>
-    <t>Dragonverse NEOは、探索し、発見し、自分のものをすべて作成できる、新しい楽しさに満ちた世界です!</t>
-  </si>
-  <si>
-    <t>Dragonverse NEO ist eine neue, unterhaltsame Welt, in der du alles erforschen, entdecken und erschaffen kannst, was dir gehört!</t>
-  </si>
-  <si>
-    <t>How can I experience Dragonverse NEO?</t>
-  </si>
-  <si>
-    <t>我要怎么体验Dragonverse NEO？</t>
-  </si>
-  <si>
-    <t>Dragonverse NEOを体験するにはどうすればいいですか?</t>
-  </si>
-  <si>
-    <t>Wie kann ich Dragonverse NEO erleben?</t>
-  </si>
-  <si>
-    <t>Mit dem Code in der Hand werde ich Dragonverse NEO erleben</t>
-  </si>
-  <si>
-    <t>Verification ··· Succeed! Congratulations on getting out of the novice village, get ready to explore the world of Dragonverse NEO!</t>
-  </si>
-  <si>
-    <t>验证···成功！恭喜你可以走出新手村落，尽情探索Dragonverse NEO吧~</t>
-  </si>
-  <si>
-    <t>Verifizierung ··· Gelingen! Herzlichen Glückwunsch, dass du das Anfängerdorf verlassen und Dragonverse NEO erkundet hast~</t>
-  </si>
-  <si>
-    <t>Have you received Elon Stark's invitation? Verify the invitation code below to enter Dragonverse NEO.</t>
-  </si>
-  <si>
-    <t>你收到埃隆·斯塔克的邀请了吗？在下方验证Code就能进入 Dragonverse NEO。</t>
-  </si>
-  <si>
-    <t>Hey, new adventurer! Welcome to Dragonverse NEO. This is a world of dragon fantasy! See those colorful objects on the ground? Those are the true treasures in this land: DragonBalls.</t>
-  </si>
-  <si>
-    <t>哟，新来的冒险家！欢迎来到Dragonverse NEO，这里可是个充满奇妙的世界。看到地上那些五光十色的物体了吗？那可是我们这里的宝贝DragonBall。</t>
-  </si>
-  <si>
-    <t>In the land of Dragonverse NEO, Gold Coins is a precious resource. It fell from distance space. Using Gold Coins, you may trade with other adventurers, buy items and craft rare items.</t>
-  </si>
-  <si>
-    <t>在我们的Dragonverse NEO中，金币是一种非常重要的资源。它们从遥远的星空落下，是很贵重的物品。你可以使用它与其他冒险家交易、购买物品，甚至用来合成一些珍贵的道具。</t>
-  </si>
-  <si>
-    <t>Exclusively in Dragonverse NEO! Now go and collect some of those Dragonballs, Pitaya and Gold Coins. Your adventure is await.</t>
-  </si>
-  <si>
-    <t>仅此一家，也只有在Dragonverse NEO中你才能体会到这种乐趣了！去吧，尝试着采集一些DragonBall,火龙果和金币吧。</t>
-  </si>
-  <si>
-    <t>...... 赶紧去试试吧，记得多捕捉一些Dragon，它们会成为你在Dragonverse NEO中的得力助手。</t>
-  </si>
-  <si>
-    <t>Yo new folk! Welcome to Dragonverse NEO, I am the master of emote in this land, and you can call be Barb! Ready to learn some funky move?</t>
-  </si>
-  <si>
-    <t>Yo，新来的小伙伴！欢迎来到Dragonverse NEO！我是这片土地上的动作指导大师，随意叫我巴巴。在这里，你可以和我嬉笑打闹，学习各种骚气的动作。</t>
-  </si>
-  <si>
-    <t>This is our siganature move, very popular in the land of Dragonverse NEO! Use it and turn on the crowd like we always do!</t>
+    <t>Welcome to Dragonverse Neo, step in and become a part of this enchanting realm!</t>
+  </si>
+  <si>
+    <t>欢迎来到Dragonverse Neo，成为这里的一员！</t>
+  </si>
+  <si>
+    <t>Dragonverse Neo へようこそ!</t>
+  </si>
+  <si>
+    <t>Willkommen bei Dragonverse Neo und sei ein Teil davon!</t>
+  </si>
+  <si>
+    <t>What shall be unveiled in the world of Dragonverse Neo?</t>
+  </si>
+  <si>
+    <t>Dragonverse Neo是个怎么样的世界？</t>
+  </si>
+  <si>
+    <t>Was für eine Welt ist Dragonverse Neo?</t>
+  </si>
+  <si>
+    <t>Dragonverse Neo is a novel and delightful world where you can explore, discover, and create everything that belongs uniquely to you!</t>
+  </si>
+  <si>
+    <t>Dragonverse Neo是一个全新的充满乐趣的世界，你可以在这个世界中探索、发现、创造属于你的一切！</t>
+  </si>
+  <si>
+    <t>Dragonverse Neoは、探索し、発見し、自分のものをすべて作成できる、新しい楽しさに満ちた世界です!</t>
+  </si>
+  <si>
+    <t>Dragonverse Neo ist eine neue, unterhaltsame Welt, in der du alles erforschen, entdecken und erschaffen kannst, was dir gehört!</t>
+  </si>
+  <si>
+    <t>How can I experience Dragonverse Neo?</t>
+  </si>
+  <si>
+    <t>我要怎么体验Dragonverse Neo？</t>
+  </si>
+  <si>
+    <t>Dragonverse Neoを体験するにはどうすればいいですか?</t>
+  </si>
+  <si>
+    <t>Wie kann ich Dragonverse Neo erleben?</t>
+  </si>
+  <si>
+    <t>Mit dem Code in der Hand werde ich Dragonverse Neo erleben</t>
+  </si>
+  <si>
+    <t>Verification ··· Succeed! Congratulations on getting out of the novice village, get ready to explore the world of Dragonverse Neo!</t>
+  </si>
+  <si>
+    <t>验证···成功！恭喜你可以走出新手村落，尽情探索Dragonverse Neo吧~</t>
+  </si>
+  <si>
+    <t>Verifizierung ··· Gelingen! Herzlichen Glückwunsch, dass du das Anfängerdorf verlassen und Dragonverse Neo erkundet hast~</t>
+  </si>
+  <si>
+    <t>Have you received Elon Stark's invitation? Verify the invitation code below to enter Dragonverse Neo.</t>
+  </si>
+  <si>
+    <t>你收到埃隆·斯塔克的邀请了吗？在下方验证Code就能进入 Dragonverse Neo。</t>
+  </si>
+  <si>
+    <t>Hey, new adventurer! Welcome to Dragonverse Neo. This is a world of dragon fantasy! See those colorful objects on the ground? Those are the true treasures in this land: DragonBalls.</t>
+  </si>
+  <si>
+    <t>哟，新来的冒险家！欢迎来到Dragonverse Neo，这里可是个充满奇妙的世界。看到地上那些五光十色的物体了吗？那可是我们这里的宝贝DragonBall。</t>
+  </si>
+  <si>
+    <t>In the land of Dragonverse Neo, Gold Coins is a precious resource. It fell from distance space. Using Gold Coins, you may trade with other adventurers, buy items and craft rare items.</t>
+  </si>
+  <si>
+    <t>在我们的Dragonverse Neo中，金币是一种非常重要的资源。它们从遥远的星空落下，是很贵重的物品。你可以使用它与其他冒险家交易、购买物品，甚至用来合成一些珍贵的道具。</t>
+  </si>
+  <si>
+    <t>Exclusively in Dragonverse Neo! Now go and collect some of those Dragonballs, Pitaya and Gold Coins. Your adventure is await.</t>
+  </si>
+  <si>
+    <t>仅此一家，也只有在Dragonverse Neo中你才能体会到这种乐趣了！去吧，尝试着采集一些DragonBall,火龙果和金币吧。</t>
+  </si>
+  <si>
+    <t>...... 赶紧去试试吧，记得多捕捉一些Dragon，它们会成为你在Dragonverse Neo中的得力助手。</t>
+  </si>
+  <si>
+    <t>Yo new folk! Welcome to Dragonverse Neo, I am the master of emote in this land, and you can call be Barb! Ready to learn some funky move?</t>
+  </si>
+  <si>
+    <t>Yo，新来的小伙伴！欢迎来到Dragonverse Neo！我是这片土地上的动作指导大师，随意叫我巴巴。在这里，你可以和我嬉笑打闹，学习各种骚气的动作。</t>
+  </si>
+  <si>
+    <t>This is our siganature move, very popular in the land of Dragonverse Neo! Use it and turn on the crowd like we always do!</t>
   </si>
 </sst>
 </file>
@@ -2651,7 +2651,7 @@
   <dimension ref="A1:F591"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>

--- a/Excels/Language_多语言表.xlsx
+++ b/Excels/Language_多语言表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E085228-8DCB-4CE6-8F69-C740A46D22DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67FB9CD-D34A-45F3-AE97-59CE4EEC7936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="681">
   <si>
     <t>int</t>
   </si>
@@ -1597,10 +1597,6 @@
     <t>AreaName0003</t>
   </si>
   <si>
-    <t>新手村</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>出生点</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1614,670 +1610,702 @@
     <t>AreaName0006</t>
   </si>
   <si>
+    <t>Enter your Dragonkey and start your debut journey right away, don't have a Dragonkey yet? Head over to Landing Page and check your eligibility!</t>
+  </si>
+  <si>
+    <t>Dragonkey, set! Drinks and snacks, set! I'm ready!</t>
+  </si>
+  <si>
+    <t>Press to capture and contain wild MODragon.</t>
+  </si>
+  <si>
+    <t>A delicate and juicy fruit, one of the favorite fruits of wild MODragons.</t>
+  </si>
+  <si>
+    <t>The magical coin fell from deep space, looks like a very valuable item.</t>
+  </si>
+  <si>
+    <t>Vigilant</t>
+  </si>
+  <si>
+    <t>Gentle</t>
+  </si>
+  <si>
+    <t>Flame MODragon</t>
+  </si>
+  <si>
+    <t>Aqua MODragon</t>
+  </si>
+  <si>
+    <t>Hibiscus MODragon</t>
+  </si>
+  <si>
+    <t>Megalithic MODragon</t>
+  </si>
+  <si>
+    <t>Infernal MODragon</t>
+  </si>
+  <si>
+    <t>Ocean MODragon</t>
+  </si>
+  <si>
+    <t>Forest MODragon</t>
+  </si>
+  <si>
+    <t>Mountain MODragon</t>
+  </si>
+  <si>
+    <t>Light MODragon</t>
+  </si>
+  <si>
+    <t>Shadow MODragon</t>
+  </si>
+  <si>
+    <t>I don't have a Dragonkey yet, where can I get it?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰龙娘</t>
+  </si>
+  <si>
+    <t>水浪龙娘</t>
+  </si>
+  <si>
+    <t>木槿龙娘</t>
+  </si>
+  <si>
+    <t>岩石龙娘</t>
+  </si>
+  <si>
+    <t>炼狱龙娘</t>
+  </si>
+  <si>
+    <t>海洋龙娘</t>
+  </si>
+  <si>
+    <t>森林龙娘</t>
+  </si>
+  <si>
+    <t>山脉龙娘</t>
+  </si>
+  <si>
+    <t>圣光龙娘</t>
+  </si>
+  <si>
+    <t>暗影龙娘</t>
+  </si>
+  <si>
+    <t>Bag</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Auto-follow</t>
+  </si>
+  <si>
+    <t>Rest</t>
+  </si>
+  <si>
+    <t>Reset</t>
+  </si>
+  <si>
+    <t>Collection Start</t>
+  </si>
+  <si>
+    <t>Collection Successful</t>
+  </si>
+  <si>
+    <t>Collection Failed</t>
+  </si>
+  <si>
+    <t>Boxing Start</t>
+  </si>
+  <si>
+    <t>Boxing Successful</t>
+  </si>
+  <si>
+    <t>Boxing Failed</t>
+  </si>
+  <si>
+    <t>Insufficient Dragonball, try again.</t>
+  </si>
+  <si>
+    <t>Perfect</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Modragon</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dear MOBOX family:</t>
+  </si>
+  <si>
+    <t>Enter the code</t>
+  </si>
+  <si>
+    <t>Verify</t>
+  </si>
+  <si>
+    <t>Setting</t>
+  </si>
+  <si>
+    <t>Rename</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Log out</t>
+  </si>
+  <si>
+    <t>Change avatar</t>
+  </si>
+  <si>
+    <t>Your name</t>
+  </si>
+  <si>
+    <t>CharacterName0005</t>
+  </si>
+  <si>
+    <t>CharacterName0006</t>
+  </si>
+  <si>
+    <t>CharacterName0007</t>
+  </si>
+  <si>
+    <t>CharacterName0008</t>
+  </si>
+  <si>
+    <t>CharacterName0009</t>
+  </si>
+  <si>
+    <t>木元素智者 · 芬尼亚</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>土元素智者 · 泰瑞克斯</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>火元素智者 · 艾莉娅</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>水元素智者 · 温蒂妮</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>木元素图腾</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>火元素图腾</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>水元素图腾</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterName0010</t>
+  </si>
+  <si>
+    <t>CharacterName0011</t>
+  </si>
+  <si>
+    <t>CharacterName0012</t>
+  </si>
+  <si>
+    <t>CharacterName0013</t>
+  </si>
+  <si>
+    <t>Wood Guardian · Fenia</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earth Guardian · Terrakus</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire Elemental Sage · Elia</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water Guardian · Undine</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑酷达人 · 卡勒姆</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parkour Master · Coleman</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Wood Element</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Earth Element</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Fire Element</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Water Element</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好，冒险者，我身后的这篇木林名为“举球消消乐”，它由一些机关和封印组成。</t>
+  </si>
+  <si>
+    <t>如你所见，我被限制在此处无法移动，里面究竟封印着什么，我并清楚，</t>
+  </si>
+  <si>
+    <t>无论如何，我会教你一些可能用的上的技能。</t>
+  </si>
+  <si>
+    <t>现在，尝试举起木球吧。</t>
+  </si>
+  <si>
+    <t>现在，尝试放下木球。</t>
+  </si>
+  <si>
+    <t>好了，冒险者，去一探究竟吧，祝你成功。</t>
+  </si>
+  <si>
+    <t>仔细观察周围的环境，运用我教你的技能，或许你能找到一些线索。（教程完成后重复）</t>
+  </si>
+  <si>
+    <t>Dialogue0048</t>
+  </si>
+  <si>
+    <t>Dialogue0049</t>
+  </si>
+  <si>
+    <t>Dialogue0050</t>
+  </si>
+  <si>
+    <t>Dialogue0051</t>
+  </si>
+  <si>
+    <t>Dialogue0052</t>
+  </si>
+  <si>
+    <t>Dialogue0053</t>
+  </si>
+  <si>
+    <t>Dialogue0054</t>
+  </si>
+  <si>
+    <t>Dialogue0055</t>
+  </si>
+  <si>
+    <t>Dialogue0056</t>
+  </si>
+  <si>
+    <t>Dialogue0057</t>
+  </si>
+  <si>
+    <t>Dialogue0058</t>
+  </si>
+  <si>
+    <t>Hello, adventurer. The stone structure behind me is called "Woodland Ball Buster," sealed by the mighty power of "wood" and mysterious mechanics.</t>
+  </si>
+  <si>
+    <t>I was retrained here decades ago, as you can see. I am not sure what's inside this mythical structure, not without my ability to move.</t>
+  </si>
+  <si>
+    <t>But I will teach you some technics, adventurer. The technics might help you unveil the myth behind it.</t>
+  </si>
+  <si>
+    <t>Now, try lifting the stone sphere.</t>
+  </si>
+  <si>
+    <t>Now, try putting down the stone sphere.</t>
+  </si>
+  <si>
+    <t>Well done, adventurer. Now go and explore, I wish you success.</t>
+  </si>
+  <si>
+    <t>Observe the structure carefully, use the technics and perhaps you will find some clues. (Repeated after completing the tutorial)</t>
+  </si>
+  <si>
+    <t>里面封印着什么？</t>
+  </si>
+  <si>
+    <t>What is sealed underneath?</t>
+  </si>
+  <si>
+    <t>还有其他线索吗？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are there any other clues?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好，冒险者。这座迷阵是由古老的土元素魔法构成的。</t>
+  </si>
+  <si>
+    <t>很遗憾，我被困在这里无法深入调查。但这片区域蕴藏浓厚的土元素，可能与土元素龙有关。</t>
+  </si>
+  <si>
+    <t>不过，我可以教你一些技能，也许对你有所帮助。</t>
+  </si>
+  <si>
+    <t>首先，从高处对准巨石板块跳跃下去。</t>
+  </si>
+  <si>
+    <t>不错，这种向下的冲击力能够摧毁顶部的巨石板块。</t>
+  </si>
+  <si>
+    <t>很好，看来你已经准备好挑战巨石迷阵了。祝你好运，冒险者。</t>
+  </si>
+  <si>
+    <t>仔细观察巨石的形状和颜色，也许会有隐藏的通道。（教程完成后重复）</t>
+  </si>
+  <si>
+    <t>魔法阵？里面封印了什么东西吗？</t>
+  </si>
+  <si>
+    <t>还有其他技巧吗？</t>
+  </si>
+  <si>
+    <t>Greetings, adventurer. This maze is crafted from ancient earth magic.</t>
+  </si>
+  <si>
+    <t>Unfortunately, my comfinement retrained my ability to investigate. But I sensed high density of earth elemental force from this area, it could be related to the Earth Dragon.</t>
+  </si>
+  <si>
+    <t>Let me teach you some skills that might be helpful.</t>
+  </si>
+  <si>
+    <t>First, leap from a high point onto the giant stone slabs below.</t>
+  </si>
+  <si>
+    <t>Well done! The gravitational velocity will help you destroy the top stone slabs.</t>
+  </si>
+  <si>
+    <t>Excellent, it seems you're ready to face the ancient stone maze. Good luck, adventurer.</t>
+  </si>
+  <si>
+    <t>Observe the shapes and colors of the stones carefully; There might be hidden pathway that leads you back to the surface! (Repeated after completing the tutorial)</t>
+  </si>
+  <si>
+    <t>Magic circle? What's sealed within?</t>
+  </si>
+  <si>
+    <t>Any other tips?</t>
+  </si>
+  <si>
+    <t>Dialogue0059</t>
+  </si>
+  <si>
+    <t>Dialogue0060</t>
+  </si>
+  <si>
+    <t>Dialogue0061</t>
+  </si>
+  <si>
+    <t>Dialogue0062</t>
+  </si>
+  <si>
+    <t>Dialogue0063</t>
+  </si>
+  <si>
+    <t>Dialogue0064</t>
+  </si>
+  <si>
+    <t>Dialogue0065</t>
+  </si>
+  <si>
+    <t>你好，冒险者。这片火炎地域被一种神秘的力量所影响。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里有什么值得一探究竟的吗？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有其他技巧吗？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>我无法深入火炎地域，但我感受到封印中似乎含有大量的火元素。</t>
+  </si>
+  <si>
+    <t>水与火是互相克制的关系，巧妙的运用水的力量，可以净化火炎，反之亦然。</t>
+  </si>
+  <si>
+    <t>干得不错，你成功将水池底部的岩浆净化了，看来你已经无师自通了。</t>
+  </si>
+  <si>
+    <t>Hello, adventurer. This infernal abyss has been conteminated by the mysterious force of Fire</t>
+  </si>
+  <si>
+    <t>I can't venture deep into the abyss, but I sense substantial fire energy coming out from the abyss.</t>
+  </si>
+  <si>
+    <t>Water and fire are mutually restraining elements. Use their power against each other, and you shall purify comtemination.</t>
+  </si>
+  <si>
+    <t>Well done. You successfully purified the lava at the bottom of the abyss. Looks like you've became a brilliant self-taught!</t>
+  </si>
+  <si>
+    <t>Is there anything worth exploring here?</t>
+  </si>
+  <si>
+    <t>Dialogue0066</t>
+  </si>
+  <si>
+    <t>Dialogue0067</t>
+  </si>
+  <si>
+    <t>Dialogue0068</t>
+  </si>
+  <si>
+    <t>Dialogue0069</t>
+  </si>
+  <si>
+    <t>Dialogue0070</t>
+  </si>
+  <si>
+    <t>Dialogue0071</t>
+  </si>
+  <si>
+    <t>Dialogue0072</t>
+  </si>
+  <si>
+    <t>Dialogue0073</t>
+  </si>
+  <si>
+    <t>水可以净化火炎，反之亦然。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water can purify lava, and vice versa.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Are there any other techniques? </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好，冒险者。这片云中迷宫充满了水元素的力量。</t>
+  </si>
+  <si>
+    <t>我感受到这片区域中有浓厚的水元素。但我无法亲自前往调查。</t>
+  </si>
+  <si>
+    <t>水与火是互相克制的关系，巧妙的运用火的力量，可以消散云雾，反之亦然。</t>
+  </si>
+  <si>
+    <t>迷宫的尽头是什么？</t>
+  </si>
+  <si>
+    <t>Hello, adventurer. This cloud maze was cleansed by the mighty power of water.</t>
+  </si>
+  <si>
+    <t>The power of water is burried deep by the mythical clouds. Sense the elemental force of water and find a way out.</t>
+  </si>
+  <si>
+    <t>As you know, water and fire are mutual retaining elements, summon the force and use them against each other!</t>
+  </si>
+  <si>
+    <t>What lies at the end of the maze?</t>
+  </si>
+  <si>
+    <t>当你无法一个人完成任务是，考虑装备你的宠物帮手吧。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>When you can't complete a task alone, try summoning your Modragons for assistant!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0074</t>
+  </si>
+  <si>
+    <t>Dialogue0075</t>
+  </si>
+  <si>
+    <t>Dialogue0076</t>
+  </si>
+  <si>
+    <t>Dialogue0077</t>
+  </si>
+  <si>
+    <t>Dialogue0078</t>
+  </si>
+  <si>
+    <t>Welcome to Dragonverse Neo, step in and become a part of this enchanting realm!</t>
+  </si>
+  <si>
+    <t>欢迎来到Dragonverse Neo，成为这里的一员！</t>
+  </si>
+  <si>
+    <t>Dragonverse Neo へようこそ!</t>
+  </si>
+  <si>
+    <t>Willkommen bei Dragonverse Neo und sei ein Teil davon!</t>
+  </si>
+  <si>
+    <t>What shall be unveiled in the world of Dragonverse Neo?</t>
+  </si>
+  <si>
+    <t>Dragonverse Neo是个怎么样的世界？</t>
+  </si>
+  <si>
+    <t>Was für eine Welt ist Dragonverse Neo?</t>
+  </si>
+  <si>
+    <t>Dragonverse Neo is a novel and delightful world where you can explore, discover, and create everything that belongs uniquely to you!</t>
+  </si>
+  <si>
+    <t>Dragonverse Neo是一个全新的充满乐趣的世界，你可以在这个世界中探索、发现、创造属于你的一切！</t>
+  </si>
+  <si>
+    <t>Dragonverse Neoは、探索し、発見し、自分のものをすべて作成できる、新しい楽しさに満ちた世界です!</t>
+  </si>
+  <si>
+    <t>Dragonverse Neo ist eine neue, unterhaltsame Welt, in der du alles erforschen, entdecken und erschaffen kannst, was dir gehört!</t>
+  </si>
+  <si>
+    <t>How can I experience Dragonverse Neo?</t>
+  </si>
+  <si>
+    <t>我要怎么体验Dragonverse Neo？</t>
+  </si>
+  <si>
+    <t>Dragonverse Neoを体験するにはどうすればいいですか?</t>
+  </si>
+  <si>
+    <t>Wie kann ich Dragonverse Neo erleben?</t>
+  </si>
+  <si>
+    <t>Mit dem Code in der Hand werde ich Dragonverse Neo erleben</t>
+  </si>
+  <si>
+    <t>Verification ··· Succeed! Congratulations on getting out of the novice village, get ready to explore the world of Dragonverse Neo!</t>
+  </si>
+  <si>
+    <t>验证···成功！恭喜你可以走出新手村落，尽情探索Dragonverse Neo吧~</t>
+  </si>
+  <si>
+    <t>Verifizierung ··· Gelingen! Herzlichen Glückwunsch, dass du das Anfängerdorf verlassen und Dragonverse Neo erkundet hast~</t>
+  </si>
+  <si>
+    <t>Have you received Elon Stark's invitation? Verify the invitation code below to enter Dragonverse Neo.</t>
+  </si>
+  <si>
+    <t>你收到埃隆·斯塔克的邀请了吗？在下方验证Code就能进入 Dragonverse Neo。</t>
+  </si>
+  <si>
+    <t>Hey, new adventurer! Welcome to Dragonverse Neo. This is a world of dragon fantasy! See those colorful objects on the ground? Those are the true treasures in this land: DragonBalls.</t>
+  </si>
+  <si>
+    <t>哟，新来的冒险家！欢迎来到Dragonverse Neo，这里可是个充满奇妙的世界。看到地上那些五光十色的物体了吗？那可是我们这里的宝贝DragonBall。</t>
+  </si>
+  <si>
+    <t>In the land of Dragonverse Neo, Gold Coins is a precious resource. It fell from distance space. Using Gold Coins, you may trade with other adventurers, buy items and craft rare items.</t>
+  </si>
+  <si>
+    <t>在我们的Dragonverse Neo中，金币是一种非常重要的资源。它们从遥远的星空落下，是很贵重的物品。你可以使用它与其他冒险家交易、购买物品，甚至用来合成一些珍贵的道具。</t>
+  </si>
+  <si>
+    <t>Exclusively in Dragonverse Neo! Now go and collect some of those Dragonballs, Pitaya and Gold Coins. Your adventure is await.</t>
+  </si>
+  <si>
+    <t>仅此一家，也只有在Dragonverse Neo中你才能体会到这种乐趣了！去吧，尝试着采集一些DragonBall,火龙果和金币吧。</t>
+  </si>
+  <si>
+    <t>...... 赶紧去试试吧，记得多捕捉一些Dragon，它们会成为你在Dragonverse Neo中的得力助手。</t>
+  </si>
+  <si>
+    <t>Yo new folk! Welcome to Dragonverse Neo, I am the master of emote in this land, and you can call be Barb! Ready to learn some funky move?</t>
+  </si>
+  <si>
+    <t>Yo，新来的小伙伴！欢迎来到Dragonverse Neo！我是这片土地上的动作指导大师，随意叫我巴巴。在这里，你可以和我嬉笑打闹，学习各种骚气的动作。</t>
+  </si>
+  <si>
+    <t>This is our siganature move, very popular in the land of Dragonverse Neo! Use it and turn on the crowd like we always do!</t>
+  </si>
+  <si>
+    <t>TinyGameLanKey0001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TinyGameLanKey0002</t>
+  </si>
+  <si>
+    <t>TinyGameLanKey0003</t>
+  </si>
+  <si>
+    <t>拾取</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>放下</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Put it down</t>
+  </si>
+  <si>
+    <t>Pick up</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>火球术</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙吟村</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drakeling Town</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spawn Point</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Azure Shore</t>
+  </si>
+  <si>
+    <t>碧波湖畔</t>
+  </si>
+  <si>
+    <t>Acient Abyss</t>
+  </si>
+  <si>
+    <t>远古遗迹</t>
+  </si>
+  <si>
+    <t>Mythical Wasteland</t>
+  </si>
+  <si>
     <t>神秘废墟</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>远古遗迹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glacial Realm</t>
   </si>
   <si>
     <t>冰霜天池</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>碧波湖畔</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enter your Dragonkey and start your debut journey right away, don't have a Dragonkey yet? Head over to Landing Page and check your eligibility!</t>
-  </si>
-  <si>
-    <t>Dragonkey, set! Drinks and snacks, set! I'm ready!</t>
-  </si>
-  <si>
-    <t>Press to capture and contain wild MODragon.</t>
-  </si>
-  <si>
-    <t>A delicate and juicy fruit, one of the favorite fruits of wild MODragons.</t>
-  </si>
-  <si>
-    <t>The magical coin fell from deep space, looks like a very valuable item.</t>
-  </si>
-  <si>
-    <t>Vigilant</t>
-  </si>
-  <si>
-    <t>Gentle</t>
-  </si>
-  <si>
-    <t>Flame MODragon</t>
-  </si>
-  <si>
-    <t>Aqua MODragon</t>
-  </si>
-  <si>
-    <t>Hibiscus MODragon</t>
-  </si>
-  <si>
-    <t>Megalithic MODragon</t>
-  </si>
-  <si>
-    <t>Infernal MODragon</t>
-  </si>
-  <si>
-    <t>Ocean MODragon</t>
-  </si>
-  <si>
-    <t>Forest MODragon</t>
-  </si>
-  <si>
-    <t>Mountain MODragon</t>
-  </si>
-  <si>
-    <t>Light MODragon</t>
-  </si>
-  <si>
-    <t>Shadow MODragon</t>
-  </si>
-  <si>
-    <t>I don't have a Dragonkey yet, where can I get it?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>火焰龙娘</t>
-  </si>
-  <si>
-    <t>水浪龙娘</t>
-  </si>
-  <si>
-    <t>木槿龙娘</t>
-  </si>
-  <si>
-    <t>岩石龙娘</t>
-  </si>
-  <si>
-    <t>炼狱龙娘</t>
-  </si>
-  <si>
-    <t>海洋龙娘</t>
-  </si>
-  <si>
-    <t>森林龙娘</t>
-  </si>
-  <si>
-    <t>山脉龙娘</t>
-  </si>
-  <si>
-    <t>圣光龙娘</t>
-  </si>
-  <si>
-    <t>暗影龙娘</t>
-  </si>
-  <si>
-    <t>Bag</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Auto-follow</t>
-  </si>
-  <si>
-    <t>Rest</t>
-  </si>
-  <si>
-    <t>Reset</t>
-  </si>
-  <si>
-    <t>Collection Start</t>
-  </si>
-  <si>
-    <t>Collection Successful</t>
-  </si>
-  <si>
-    <t>Collection Failed</t>
-  </si>
-  <si>
-    <t>Boxing Start</t>
-  </si>
-  <si>
-    <t>Boxing Successful</t>
-  </si>
-  <si>
-    <t>Boxing Failed</t>
-  </si>
-  <si>
-    <t>Insufficient Dragonball, try again.</t>
-  </si>
-  <si>
-    <t>Perfect</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>Modragon</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dear MOBOX family:</t>
-  </si>
-  <si>
-    <t>Enter the code</t>
-  </si>
-  <si>
-    <t>Verify</t>
-  </si>
-  <si>
-    <t>Setting</t>
-  </si>
-  <si>
-    <t>Rename</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Log out</t>
-  </si>
-  <si>
-    <t>Change avatar</t>
-  </si>
-  <si>
-    <t>Your name</t>
-  </si>
-  <si>
-    <t>CharacterName0005</t>
-  </si>
-  <si>
-    <t>CharacterName0006</t>
-  </si>
-  <si>
-    <t>CharacterName0007</t>
-  </si>
-  <si>
-    <t>CharacterName0008</t>
-  </si>
-  <si>
-    <t>CharacterName0009</t>
-  </si>
-  <si>
-    <t>木元素智者 · 芬尼亚</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>土元素智者 · 泰瑞克斯</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>火元素智者 · 艾莉娅</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>水元素智者 · 温蒂妮</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>木元素图腾</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>火元素图腾</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>水元素图腾</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CharacterName0010</t>
-  </si>
-  <si>
-    <t>CharacterName0011</t>
-  </si>
-  <si>
-    <t>CharacterName0012</t>
-  </si>
-  <si>
-    <t>CharacterName0013</t>
-  </si>
-  <si>
-    <t>Wood Guardian · Fenia</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Earth Guardian · Terrakus</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fire Elemental Sage · Elia</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Water Guardian · Undine</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>跑酷达人 · 卡勒姆</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Parkour Master · Coleman</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Wood Element</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Earth Element</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Fire Element</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Water Element</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>你好，冒险者，我身后的这篇木林名为“举球消消乐”，它由一些机关和封印组成。</t>
-  </si>
-  <si>
-    <t>如你所见，我被限制在此处无法移动，里面究竟封印着什么，我并清楚，</t>
-  </si>
-  <si>
-    <t>无论如何，我会教你一些可能用的上的技能。</t>
-  </si>
-  <si>
-    <t>现在，尝试举起木球吧。</t>
-  </si>
-  <si>
-    <t>现在，尝试放下木球。</t>
-  </si>
-  <si>
-    <t>好了，冒险者，去一探究竟吧，祝你成功。</t>
-  </si>
-  <si>
-    <t>仔细观察周围的环境，运用我教你的技能，或许你能找到一些线索。（教程完成后重复）</t>
-  </si>
-  <si>
-    <t>Dialogue0048</t>
-  </si>
-  <si>
-    <t>Dialogue0049</t>
-  </si>
-  <si>
-    <t>Dialogue0050</t>
-  </si>
-  <si>
-    <t>Dialogue0051</t>
-  </si>
-  <si>
-    <t>Dialogue0052</t>
-  </si>
-  <si>
-    <t>Dialogue0053</t>
-  </si>
-  <si>
-    <t>Dialogue0054</t>
-  </si>
-  <si>
-    <t>Dialogue0055</t>
-  </si>
-  <si>
-    <t>Dialogue0056</t>
-  </si>
-  <si>
-    <t>Dialogue0057</t>
-  </si>
-  <si>
-    <t>Dialogue0058</t>
-  </si>
-  <si>
-    <t>Hello, adventurer. The stone structure behind me is called "Woodland Ball Buster," sealed by the mighty power of "wood" and mysterious mechanics.</t>
-  </si>
-  <si>
-    <t>I was retrained here decades ago, as you can see. I am not sure what's inside this mythical structure, not without my ability to move.</t>
-  </si>
-  <si>
-    <t>But I will teach you some technics, adventurer. The technics might help you unveil the myth behind it.</t>
-  </si>
-  <si>
-    <t>Now, try lifting the stone sphere.</t>
-  </si>
-  <si>
-    <t>Now, try putting down the stone sphere.</t>
-  </si>
-  <si>
-    <t>Well done, adventurer. Now go and explore, I wish you success.</t>
-  </si>
-  <si>
-    <t>Observe the structure carefully, use the technics and perhaps you will find some clues. (Repeated after completing the tutorial)</t>
-  </si>
-  <si>
-    <t>里面封印着什么？</t>
-  </si>
-  <si>
-    <t>What is sealed underneath?</t>
-  </si>
-  <si>
-    <t>还有其他线索吗？</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Are there any other clues?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>你好，冒险者。这座迷阵是由古老的土元素魔法构成的。</t>
-  </si>
-  <si>
-    <t>很遗憾，我被困在这里无法深入调查。但这片区域蕴藏浓厚的土元素，可能与土元素龙有关。</t>
-  </si>
-  <si>
-    <t>不过，我可以教你一些技能，也许对你有所帮助。</t>
-  </si>
-  <si>
-    <t>首先，从高处对准巨石板块跳跃下去。</t>
-  </si>
-  <si>
-    <t>不错，这种向下的冲击力能够摧毁顶部的巨石板块。</t>
-  </si>
-  <si>
-    <t>很好，看来你已经准备好挑战巨石迷阵了。祝你好运，冒险者。</t>
-  </si>
-  <si>
-    <t>仔细观察巨石的形状和颜色，也许会有隐藏的通道。（教程完成后重复）</t>
-  </si>
-  <si>
-    <t>魔法阵？里面封印了什么东西吗？</t>
-  </si>
-  <si>
-    <t>还有其他技巧吗？</t>
-  </si>
-  <si>
-    <t>Greetings, adventurer. This maze is crafted from ancient earth magic.</t>
-  </si>
-  <si>
-    <t>Unfortunately, my comfinement retrained my ability to investigate. But I sensed high density of earth elemental force from this area, it could be related to the Earth Dragon.</t>
-  </si>
-  <si>
-    <t>Let me teach you some skills that might be helpful.</t>
-  </si>
-  <si>
-    <t>First, leap from a high point onto the giant stone slabs below.</t>
-  </si>
-  <si>
-    <t>Well done! The gravitational velocity will help you destroy the top stone slabs.</t>
-  </si>
-  <si>
-    <t>Excellent, it seems you're ready to face the ancient stone maze. Good luck, adventurer.</t>
-  </si>
-  <si>
-    <t>Observe the shapes and colors of the stones carefully; There might be hidden pathway that leads you back to the surface! (Repeated after completing the tutorial)</t>
-  </si>
-  <si>
-    <t>Magic circle? What's sealed within?</t>
-  </si>
-  <si>
-    <t>Any other tips?</t>
-  </si>
-  <si>
-    <t>Dialogue0059</t>
-  </si>
-  <si>
-    <t>Dialogue0060</t>
-  </si>
-  <si>
-    <t>Dialogue0061</t>
-  </si>
-  <si>
-    <t>Dialogue0062</t>
-  </si>
-  <si>
-    <t>Dialogue0063</t>
-  </si>
-  <si>
-    <t>Dialogue0064</t>
-  </si>
-  <si>
-    <t>Dialogue0065</t>
-  </si>
-  <si>
-    <t>你好，冒险者。这片火炎地域被一种神秘的力量所影响。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>这里有什么值得一探究竟的吗？</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>还有其他技巧吗？</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>我无法深入火炎地域，但我感受到封印中似乎含有大量的火元素。</t>
-  </si>
-  <si>
-    <t>水与火是互相克制的关系，巧妙的运用水的力量，可以净化火炎，反之亦然。</t>
-  </si>
-  <si>
-    <t>干得不错，你成功将水池底部的岩浆净化了，看来你已经无师自通了。</t>
-  </si>
-  <si>
-    <t>Hello, adventurer. This infernal abyss has been conteminated by the mysterious force of Fire</t>
-  </si>
-  <si>
-    <t>I can't venture deep into the abyss, but I sense substantial fire energy coming out from the abyss.</t>
-  </si>
-  <si>
-    <t>Water and fire are mutually restraining elements. Use their power against each other, and you shall purify comtemination.</t>
-  </si>
-  <si>
-    <t>Well done. You successfully purified the lava at the bottom of the abyss. Looks like you've became a brilliant self-taught!</t>
-  </si>
-  <si>
-    <t>Is there anything worth exploring here?</t>
-  </si>
-  <si>
-    <t>Dialogue0066</t>
-  </si>
-  <si>
-    <t>Dialogue0067</t>
-  </si>
-  <si>
-    <t>Dialogue0068</t>
-  </si>
-  <si>
-    <t>Dialogue0069</t>
-  </si>
-  <si>
-    <t>Dialogue0070</t>
-  </si>
-  <si>
-    <t>Dialogue0071</t>
-  </si>
-  <si>
-    <t>Dialogue0072</t>
-  </si>
-  <si>
-    <t>Dialogue0073</t>
-  </si>
-  <si>
-    <t>水可以净化火炎，反之亦然。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Water can purify lava, and vice versa.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Are there any other techniques? </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>你好，冒险者。这片云中迷宫充满了水元素的力量。</t>
-  </si>
-  <si>
-    <t>我感受到这片区域中有浓厚的水元素。但我无法亲自前往调查。</t>
-  </si>
-  <si>
-    <t>水与火是互相克制的关系，巧妙的运用火的力量，可以消散云雾，反之亦然。</t>
-  </si>
-  <si>
-    <t>迷宫的尽头是什么？</t>
-  </si>
-  <si>
-    <t>Hello, adventurer. This cloud maze was cleansed by the mighty power of water.</t>
-  </si>
-  <si>
-    <t>The power of water is burried deep by the mythical clouds. Sense the elemental force of water and find a way out.</t>
-  </si>
-  <si>
-    <t>As you know, water and fire are mutual retaining elements, summon the force and use them against each other!</t>
-  </si>
-  <si>
-    <t>What lies at the end of the maze?</t>
-  </si>
-  <si>
-    <t>当你无法一个人完成任务是，考虑装备你的宠物帮手吧。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>When you can't complete a task alone, try summoning your Modragons for assistant!</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0074</t>
-  </si>
-  <si>
-    <t>Dialogue0075</t>
-  </si>
-  <si>
-    <t>Dialogue0076</t>
-  </si>
-  <si>
-    <t>Dialogue0077</t>
-  </si>
-  <si>
-    <t>Dialogue0078</t>
-  </si>
-  <si>
-    <t>Ancient ruins</t>
-  </si>
-  <si>
-    <t>Mysterious ruins</t>
-  </si>
-  <si>
-    <t>Frost Sky Pool</t>
-  </si>
-  <si>
-    <t>Novice Village</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Birthplace</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lake Atitlan</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Welcome to Dragonverse Neo, step in and become a part of this enchanting realm!</t>
-  </si>
-  <si>
-    <t>欢迎来到Dragonverse Neo，成为这里的一员！</t>
-  </si>
-  <si>
-    <t>Dragonverse Neo へようこそ!</t>
-  </si>
-  <si>
-    <t>Willkommen bei Dragonverse Neo und sei ein Teil davon!</t>
-  </si>
-  <si>
-    <t>What shall be unveiled in the world of Dragonverse Neo?</t>
-  </si>
-  <si>
-    <t>Dragonverse Neo是个怎么样的世界？</t>
-  </si>
-  <si>
-    <t>Was für eine Welt ist Dragonverse Neo?</t>
-  </si>
-  <si>
-    <t>Dragonverse Neo is a novel and delightful world where you can explore, discover, and create everything that belongs uniquely to you!</t>
-  </si>
-  <si>
-    <t>Dragonverse Neo是一个全新的充满乐趣的世界，你可以在这个世界中探索、发现、创造属于你的一切！</t>
-  </si>
-  <si>
-    <t>Dragonverse Neoは、探索し、発見し、自分のものをすべて作成できる、新しい楽しさに満ちた世界です!</t>
-  </si>
-  <si>
-    <t>Dragonverse Neo ist eine neue, unterhaltsame Welt, in der du alles erforschen, entdecken und erschaffen kannst, was dir gehört!</t>
-  </si>
-  <si>
-    <t>How can I experience Dragonverse Neo?</t>
-  </si>
-  <si>
-    <t>我要怎么体验Dragonverse Neo？</t>
-  </si>
-  <si>
-    <t>Dragonverse Neoを体験するにはどうすればいいですか?</t>
-  </si>
-  <si>
-    <t>Wie kann ich Dragonverse Neo erleben?</t>
-  </si>
-  <si>
-    <t>Mit dem Code in der Hand werde ich Dragonverse Neo erleben</t>
-  </si>
-  <si>
-    <t>Verification ··· Succeed! Congratulations on getting out of the novice village, get ready to explore the world of Dragonverse Neo!</t>
-  </si>
-  <si>
-    <t>验证···成功！恭喜你可以走出新手村落，尽情探索Dragonverse Neo吧~</t>
-  </si>
-  <si>
-    <t>Verifizierung ··· Gelingen! Herzlichen Glückwunsch, dass du das Anfängerdorf verlassen und Dragonverse Neo erkundet hast~</t>
-  </si>
-  <si>
-    <t>Have you received Elon Stark's invitation? Verify the invitation code below to enter Dragonverse Neo.</t>
-  </si>
-  <si>
-    <t>你收到埃隆·斯塔克的邀请了吗？在下方验证Code就能进入 Dragonverse Neo。</t>
-  </si>
-  <si>
-    <t>Hey, new adventurer! Welcome to Dragonverse Neo. This is a world of dragon fantasy! See those colorful objects on the ground? Those are the true treasures in this land: DragonBalls.</t>
-  </si>
-  <si>
-    <t>哟，新来的冒险家！欢迎来到Dragonverse Neo，这里可是个充满奇妙的世界。看到地上那些五光十色的物体了吗？那可是我们这里的宝贝DragonBall。</t>
-  </si>
-  <si>
-    <t>In the land of Dragonverse Neo, Gold Coins is a precious resource. It fell from distance space. Using Gold Coins, you may trade with other adventurers, buy items and craft rare items.</t>
-  </si>
-  <si>
-    <t>在我们的Dragonverse Neo中，金币是一种非常重要的资源。它们从遥远的星空落下，是很贵重的物品。你可以使用它与其他冒险家交易、购买物品，甚至用来合成一些珍贵的道具。</t>
-  </si>
-  <si>
-    <t>Exclusively in Dragonverse Neo! Now go and collect some of those Dragonballs, Pitaya and Gold Coins. Your adventure is await.</t>
-  </si>
-  <si>
-    <t>仅此一家，也只有在Dragonverse Neo中你才能体会到这种乐趣了！去吧，尝试着采集一些DragonBall,火龙果和金币吧。</t>
-  </si>
-  <si>
-    <t>...... 赶紧去试试吧，记得多捕捉一些Dragon，它们会成为你在Dragonverse Neo中的得力助手。</t>
-  </si>
-  <si>
-    <t>Yo new folk! Welcome to Dragonverse Neo, I am the master of emote in this land, and you can call be Barb! Ready to learn some funky move?</t>
-  </si>
-  <si>
-    <t>Yo，新来的小伙伴！欢迎来到Dragonverse Neo！我是这片土地上的动作指导大师，随意叫我巴巴。在这里，你可以和我嬉笑打闹，学习各种骚气的动作。</t>
-  </si>
-  <si>
-    <t>This is our siganature move, very popular in the land of Dragonverse Neo! Use it and turn on the crowd like we always do!</t>
+  </si>
+  <si>
+    <t>Fire spells</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2648,10 +2676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F591"/>
+  <dimension ref="A1:F592"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="D131" sqref="D131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -2848,16 +2876,16 @@
         <v>42</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -2868,16 +2896,16 @@
         <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2888,16 +2916,16 @@
         <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2908,16 +2936,16 @@
         <v>46</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -2928,7 +2956,7 @@
         <v>47</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>48</v>
@@ -2948,7 +2976,7 @@
         <v>51</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>325</v>
@@ -2957,7 +2985,7 @@
         <v>52</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2968,7 +2996,7 @@
         <v>53</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>326</v>
@@ -2988,16 +3016,16 @@
         <v>56</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3068,7 +3096,7 @@
         <v>71</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>72</v>
@@ -3088,7 +3116,7 @@
         <v>75</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>76</v>
@@ -3108,7 +3136,7 @@
         <v>79</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>80</v>
@@ -3128,7 +3156,7 @@
         <v>83</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>84</v>
@@ -3208,7 +3236,7 @@
         <v>102</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>103</v>
@@ -3228,10 +3256,10 @@
         <v>106</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>107</v>
@@ -3248,10 +3276,10 @@
         <v>109</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>110</v>
@@ -3268,10 +3296,10 @@
         <v>112</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>113</v>
@@ -3288,10 +3316,10 @@
         <v>115</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>117</v>
@@ -3308,10 +3336,10 @@
         <v>118</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>119</v>
@@ -3328,10 +3356,10 @@
         <v>121</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>122</v>
@@ -3348,10 +3376,10 @@
         <v>124</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>125</v>
@@ -3368,10 +3396,10 @@
         <v>127</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>128</v>
@@ -3388,10 +3416,10 @@
         <v>130</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>131</v>
@@ -3408,10 +3436,10 @@
         <v>133</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>134</v>
@@ -3749,19 +3777,19 @@
         <v>100105</v>
       </c>
       <c r="B56" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>523</v>
-      </c>
       <c r="E56" s="5" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3769,19 +3797,19 @@
         <v>100106</v>
       </c>
       <c r="B57" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="D57" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="C57" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>524</v>
-      </c>
       <c r="E57" s="5" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3789,19 +3817,19 @@
         <v>100107</v>
       </c>
       <c r="B58" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>525</v>
-      </c>
       <c r="E58" s="5" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3809,19 +3837,19 @@
         <v>100108</v>
       </c>
       <c r="B59" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>526</v>
-      </c>
       <c r="E59" s="5" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3829,19 +3857,19 @@
         <v>100109</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3849,19 +3877,19 @@
         <v>100110</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3869,19 +3897,19 @@
         <v>100111</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="63" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3889,19 +3917,19 @@
         <v>100112</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3909,19 +3937,19 @@
         <v>100113</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3940,10 +3968,10 @@
         <v>454</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>638</v>
+        <v>670</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>457</v>
+        <v>669</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
@@ -3956,10 +3984,10 @@
         <v>455</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>639</v>
+        <v>671</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
@@ -3972,10 +4000,10 @@
         <v>456</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>640</v>
+        <v>672</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>465</v>
+        <v>673</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
@@ -3985,13 +4013,13 @@
         <v>100204</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>635</v>
+        <v>674</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>463</v>
+        <v>675</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
@@ -4001,13 +4029,13 @@
         <v>100205</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>636</v>
+        <v>676</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>462</v>
+        <v>677</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
@@ -4017,13 +4045,13 @@
         <v>100206</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>637</v>
+        <v>678</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>464</v>
+        <v>679</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
@@ -4683,7 +4711,7 @@
         <v>310</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>283</v>
@@ -4697,7 +4725,7 @@
         <v>311</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>312</v>
@@ -4711,7 +4739,7 @@
         <v>313</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>314</v>
@@ -4725,7 +4753,7 @@
         <v>323</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>315</v>
@@ -4739,7 +4767,7 @@
         <v>324</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>316</v>
@@ -4753,7 +4781,7 @@
         <v>317</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>284</v>
@@ -4767,7 +4795,7 @@
         <v>285</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>281</v>
@@ -4781,7 +4809,7 @@
         <v>318</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>282</v>
@@ -4795,7 +4823,7 @@
         <v>319</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>320</v>
@@ -4809,7 +4837,7 @@
         <v>286</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>280</v>
@@ -4823,7 +4851,7 @@
         <v>321</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>277</v>
@@ -4837,7 +4865,7 @@
         <v>287</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>278</v>
@@ -4851,7 +4879,7 @@
         <v>288</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>279</v>
@@ -4865,7 +4893,7 @@
         <v>322</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>309</v>
@@ -4879,1163 +4907,1192 @@
         <v>289</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="122" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="1"/>
-      <c r="B122" s="4"/>
-      <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
+      <c r="A122" s="1">
+        <v>105301</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="123" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
-        <v>105301</v>
+        <v>105302</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>509</v>
+        <v>649</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>435</v>
+        <v>650</v>
       </c>
     </row>
     <row r="124" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
-        <v>105302</v>
+        <v>105303</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>660</v>
+        <v>505</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>661</v>
+        <v>436</v>
       </c>
     </row>
     <row r="125" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
-        <v>105303</v>
+        <v>105304</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="126" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
-        <v>105304</v>
+        <v>105401</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
     </row>
     <row r="127" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="1"/>
-      <c r="B127" s="6"/>
-      <c r="C127" s="5"/>
-      <c r="D127" s="5"/>
+      <c r="A127" s="1">
+        <v>105402</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="128" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
-        <v>105401</v>
+        <v>105403</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="129" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
-        <v>105402</v>
+        <v>105404</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="130" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
-        <v>105403</v>
+        <v>105405</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="131" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
-        <v>105404</v>
+        <v>105406</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>511</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
     </row>
     <row r="132" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
-        <v>105405</v>
+        <v>105407</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="133" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
-        <v>105406</v>
+        <v>105501</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>449</v>
+        <v>661</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>516</v>
+        <v>667</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>448</v>
+        <v>664</v>
       </c>
     </row>
     <row r="134" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
-        <v>105407</v>
+        <v>105502</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>453</v>
+        <v>662</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>517</v>
+        <v>666</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>452</v>
+        <v>665</v>
       </c>
     </row>
     <row r="135" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C135"/>
-      <c r="D135"/>
+      <c r="A135" s="1">
+        <v>105503</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>668</v>
+      </c>
     </row>
     <row r="136" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="6">
-        <v>200001</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="C136" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="D136" s="7" t="s">
-        <v>329</v>
-      </c>
+      <c r="C136"/>
+      <c r="D136"/>
     </row>
     <row r="137" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="6">
+        <v>200001</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="6">
         <v>200002</v>
       </c>
-      <c r="B137" s="6" t="s">
+      <c r="B138" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="C137" s="7" t="s">
-        <v>662</v>
-      </c>
-      <c r="D137" s="7" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="6">
+      <c r="C138" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="6">
         <v>200003</v>
       </c>
-      <c r="B138" s="6" t="s">
+      <c r="B139" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="C138" s="7" t="s">
+      <c r="C139" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="D138" s="7" t="s">
+      <c r="D139" s="7" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="139" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="6">
+    <row r="140" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="6">
         <v>200004</v>
       </c>
-      <c r="B139" s="6" t="s">
+      <c r="B140" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="C139" s="7" t="s">
+      <c r="C140" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="D139" s="7" t="s">
+      <c r="D140" s="7" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="140" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="6">
+    <row r="141" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="6">
         <v>200005</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="B141" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="C140" s="7" t="s">
+      <c r="C141" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="D140" s="7" t="s">
+      <c r="D141" s="7" t="s">
         <v>339</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="6">
-        <v>200006</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="D141" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="142" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="6">
-        <v>200007</v>
+        <v>200006</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="143" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="6">
-        <v>200008</v>
+        <v>200007</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="144" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="6">
-        <v>200009</v>
+        <v>200008</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="145" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="6">
-        <v>200010</v>
+        <v>200009</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="146" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="6">
-        <v>200011</v>
+        <v>200010</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="147" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="6">
-        <v>200012</v>
+        <v>200011</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="148" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="6">
-        <v>200013</v>
+        <v>200012</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="149" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="6">
-        <v>200014</v>
+        <v>200013</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>664</v>
+        <v>362</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>665</v>
+        <v>363</v>
       </c>
     </row>
     <row r="150" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="6">
-        <v>200015</v>
+        <v>200014</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>366</v>
+        <v>653</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>367</v>
+        <v>654</v>
       </c>
     </row>
     <row r="151" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="6">
-        <v>200016</v>
+        <v>200015</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>666</v>
+        <v>366</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>667</v>
+        <v>367</v>
       </c>
     </row>
     <row r="152" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="6">
+        <v>200016</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="6">
         <v>200017</v>
       </c>
-      <c r="B152" s="6" t="s">
+      <c r="B153" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="C152" s="7" t="s">
+      <c r="C153" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="D152" s="7" t="s">
+      <c r="D153" s="7" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="153" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="6">
+    <row r="154" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="6">
         <v>200018</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="B154" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="C153" s="7" t="s">
+      <c r="C154" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="D153" s="7" t="s">
+      <c r="D154" s="7" t="s">
         <v>374</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="6">
-        <v>200019</v>
-      </c>
-      <c r="B154" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="C154" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="D154" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="155" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="6">
-        <v>200020</v>
+        <v>200019</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="156" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="6">
-        <v>200021</v>
+        <v>200020</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="157" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="6">
-        <v>200022</v>
+        <v>200021</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="158" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="6">
+        <v>200022</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="6">
         <v>200023</v>
       </c>
-      <c r="B158" s="6" t="s">
+      <c r="B159" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="C158" s="7" t="s">
+      <c r="C159" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="D158" s="7" t="s">
+      <c r="D159" s="7" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="159" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="6">
+    <row r="160" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="6">
         <v>200024</v>
       </c>
-      <c r="B159" s="6" t="s">
+      <c r="B160" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="C159" s="7" t="s">
+      <c r="C160" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="D159" s="7" t="s">
+      <c r="D160" s="7" t="s">
         <v>392</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="6">
-        <v>200025</v>
-      </c>
-      <c r="B160" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="C160" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="D160" s="7" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="161" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="6">
-        <v>200026</v>
+        <v>200025</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="162" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="6">
-        <v>200027</v>
+        <v>200026</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="163" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="6">
-        <v>200028</v>
+        <v>200027</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="164" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="6">
-        <v>200029</v>
+        <v>200028</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="165" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="6">
-        <v>200030</v>
+        <v>200029</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="166" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="6">
-        <v>200031</v>
+        <v>200030</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="167" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="6">
-        <v>200032</v>
+        <v>200031</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>668</v>
+        <v>413</v>
       </c>
     </row>
     <row r="168" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="6">
-        <v>200033</v>
+        <v>200032</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>669</v>
+        <v>415</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
     </row>
     <row r="169" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="6">
-        <v>200034</v>
+        <v>200033</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>418</v>
+        <v>658</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>419</v>
+        <v>659</v>
       </c>
     </row>
     <row r="170" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="6">
-        <v>200035</v>
+        <v>200034</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="171" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="6">
-        <v>200036</v>
+        <v>200035</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>671</v>
+        <v>421</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="172" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="6">
-        <v>200037</v>
+        <v>200036</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>426</v>
+        <v>660</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="173" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="6">
-        <v>200038</v>
+        <v>200037</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="174" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="6">
-        <v>200039</v>
+        <v>200038</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="175" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="6">
+        <v>200039</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="D175" s="7" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A176" s="6">
         <v>200040</v>
       </c>
-      <c r="B175" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="D175" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A176" s="6">
+      <c r="B176" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="6">
         <v>200041</v>
       </c>
-      <c r="B176" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="C176" s="5" t="s">
-        <v>570</v>
-      </c>
-      <c r="D176" s="5" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="6">
-        <v>200042</v>
-      </c>
       <c r="B177" s="6" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>563</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>545</v>
+        <v>565</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="178" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="6">
-        <v>200043</v>
+        <v>200042</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>564</v>
+        <v>548</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>558</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="179" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="6">
-        <v>200044</v>
+        <v>200043</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="180" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="6">
-        <v>200045</v>
+        <v>200044</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="181" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="6">
-        <v>200046</v>
+        <v>200045</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="182" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="6">
-        <v>200047</v>
+        <v>200046</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="C182" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="D182" s="5" t="s">
-        <v>571</v>
+        <v>552</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="183" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="6">
-        <v>200048</v>
+        <v>200047</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>550</v>
+        <v>553</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="184" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="6">
+        <v>200048</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A185" s="6">
         <v>200049</v>
       </c>
-      <c r="B184" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="C184" s="5" t="s">
-        <v>582</v>
-      </c>
-      <c r="D184" s="5" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A185" s="6">
-        <v>200050</v>
-      </c>
       <c r="B185" s="6" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
     </row>
     <row r="186" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A186" s="6">
+        <v>200050</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A187" s="6">
         <v>200051</v>
       </c>
-      <c r="B186" s="6" t="s">
-        <v>591</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="6">
-        <v>200052</v>
-      </c>
       <c r="B187" s="6" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
     </row>
     <row r="188" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="6">
+        <v>200052</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="6">
         <v>200053</v>
       </c>
-      <c r="B188" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A189" s="6">
+      <c r="B189" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="6">
         <v>200054</v>
       </c>
-      <c r="B189" s="6" t="s">
-        <v>594</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A190" s="6">
-        <v>200055</v>
-      </c>
       <c r="B190" s="6" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
     </row>
     <row r="191" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="6">
-        <v>200056</v>
+        <v>200055</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>596</v>
-      </c>
-      <c r="C191" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="D191" s="5" t="s">
-        <v>581</v>
+      <c r="C191" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="192" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="6">
-        <v>200057</v>
+        <v>200056</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>597</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>579</v>
+        <v>591</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="D192" s="5" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="193" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="6">
-        <v>200058</v>
+        <v>200057</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>609</v>
-      </c>
-      <c r="C193" s="5" t="s">
-        <v>604</v>
-      </c>
-      <c r="D193" s="5" t="s">
-        <v>598</v>
+        <v>592</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="194" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="6">
-        <v>200059</v>
+        <v>200058</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="195" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="6">
-        <v>200060</v>
+        <v>200059</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>611</v>
-      </c>
-      <c r="C195" s="2" t="s">
         <v>605</v>
       </c>
+      <c r="C195" s="5" t="s">
+        <v>603</v>
+      </c>
       <c r="D195" s="5" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
     </row>
     <row r="196" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="6">
-        <v>200061</v>
+        <v>200060</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
+      </c>
+      <c r="D196" s="5" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="197" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="6">
-        <v>200062</v>
+        <v>200061</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="D197" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="198" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="6">
-        <v>200063</v>
+        <v>200062</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>614</v>
-      </c>
-      <c r="C198" s="5" t="s">
-        <v>619</v>
+        <v>608</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>602</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="199" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="6">
-        <v>200064</v>
+        <v>200063</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>617</v>
+        <v>595</v>
       </c>
     </row>
     <row r="200" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="6">
-        <v>200065</v>
+        <v>200064</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
     </row>
     <row r="201" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="6">
-        <v>200066</v>
+        <v>200065</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>630</v>
+        <v>611</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
     </row>
     <row r="202" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="6">
-        <v>200067</v>
+        <v>200066</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>631</v>
-      </c>
-      <c r="C202" s="2" t="s">
         <v>625</v>
       </c>
+      <c r="C202" s="5" t="s">
+        <v>622</v>
+      </c>
       <c r="D202" s="5" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="203" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="6">
-        <v>200068</v>
+        <v>200067</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
+      </c>
+      <c r="D203" s="5" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="204" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="6">
-        <v>200069</v>
+        <v>200068</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>633</v>
-      </c>
-      <c r="C204" s="5" t="s">
-        <v>619</v>
-      </c>
-      <c r="D204" s="5" t="s">
-        <v>600</v>
+        <v>627</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="205" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="6">
+        <v>200069</v>
+      </c>
+      <c r="B205" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="D205" s="5" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A206" s="6">
         <v>200070</v>
       </c>
-      <c r="B205" s="6" t="s">
-        <v>634</v>
-      </c>
-      <c r="C205" s="5" t="s">
+      <c r="B206" s="6" t="s">
         <v>629</v>
       </c>
-      <c r="D205" s="5" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="C206" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="D206" s="5" t="s">
+        <v>623</v>
+      </c>
+    </row>
     <row r="207" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="208" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="209" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6053,7 +6110,7 @@
     <row r="221" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="222" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="223" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="224" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="224" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="225" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="226" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="227" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -6321,13 +6378,13 @@
     <row r="489" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="490" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="491" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="492" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="492" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="493" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="494" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="495" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="496" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="497" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="498" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="498" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="499" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="500" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="501" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -6394,8 +6451,8 @@
     <row r="562" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="563" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="564" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="565" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="566" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="565" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="566" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="567" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="568" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="569" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -6421,6 +6478,7 @@
     <row r="589" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="590" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="591" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="592" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Excels/Language_多语言表.xlsx
+++ b/Excels/Language_多语言表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67FB9CD-D34A-45F3-AE97-59CE4EEC7936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AD2531-1B01-4B49-BC72-4A690170472A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="709">
   <si>
     <t>int</t>
   </si>
@@ -1512,799 +1512,889 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>验证</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code003</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code004</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting004</t>
+  </si>
+  <si>
+    <t>设置</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改昵称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>多语言</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>登出</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改形象</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting006</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting005</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting003</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的昵称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting007</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AreaName0001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AreaName0002</t>
+  </si>
+  <si>
+    <t>AreaName0003</t>
+  </si>
+  <si>
+    <t>出生点</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AreaName0004</t>
+  </si>
+  <si>
+    <t>AreaName0005</t>
+  </si>
+  <si>
+    <t>AreaName0006</t>
+  </si>
+  <si>
+    <t>Enter your Dragonkey and start your debut journey right away, don't have a Dragonkey yet? Head over to Landing Page and check your eligibility!</t>
+  </si>
+  <si>
+    <t>Press to capture and contain wild MODragon.</t>
+  </si>
+  <si>
+    <t>A delicate and juicy fruit, one of the favorite fruits of wild MODragons.</t>
+  </si>
+  <si>
+    <t>The magical coin fell from deep space, looks like a very valuable item.</t>
+  </si>
+  <si>
+    <t>Vigilant</t>
+  </si>
+  <si>
+    <t>Gentle</t>
+  </si>
+  <si>
+    <t>Aqua MODragon</t>
+  </si>
+  <si>
+    <t>Hibiscus MODragon</t>
+  </si>
+  <si>
+    <t>Megalithic MODragon</t>
+  </si>
+  <si>
+    <t>Infernal MODragon</t>
+  </si>
+  <si>
+    <t>Ocean MODragon</t>
+  </si>
+  <si>
+    <t>Forest MODragon</t>
+  </si>
+  <si>
+    <t>Mountain MODragon</t>
+  </si>
+  <si>
+    <t>Light MODragon</t>
+  </si>
+  <si>
+    <t>Shadow MODragon</t>
+  </si>
+  <si>
+    <t>火焰龙娘</t>
+  </si>
+  <si>
+    <t>水浪龙娘</t>
+  </si>
+  <si>
+    <t>木槿龙娘</t>
+  </si>
+  <si>
+    <t>岩石龙娘</t>
+  </si>
+  <si>
+    <t>炼狱龙娘</t>
+  </si>
+  <si>
+    <t>海洋龙娘</t>
+  </si>
+  <si>
+    <t>森林龙娘</t>
+  </si>
+  <si>
+    <t>山脉龙娘</t>
+  </si>
+  <si>
+    <t>圣光龙娘</t>
+  </si>
+  <si>
+    <t>暗影龙娘</t>
+  </si>
+  <si>
+    <t>Bag</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Auto-follow</t>
+  </si>
+  <si>
+    <t>Rest</t>
+  </si>
+  <si>
+    <t>Reset</t>
+  </si>
+  <si>
+    <t>Collection Start</t>
+  </si>
+  <si>
+    <t>Collection Successful</t>
+  </si>
+  <si>
+    <t>Collection Failed</t>
+  </si>
+  <si>
+    <t>Boxing Start</t>
+  </si>
+  <si>
+    <t>Boxing Successful</t>
+  </si>
+  <si>
+    <t>Boxing Failed</t>
+  </si>
+  <si>
+    <t>Insufficient Dragonball, try again.</t>
+  </si>
+  <si>
+    <t>Perfect</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Modragon</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verify</t>
+  </si>
+  <si>
+    <t>Setting</t>
+  </si>
+  <si>
+    <t>Rename</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Log out</t>
+  </si>
+  <si>
+    <t>Change avatar</t>
+  </si>
+  <si>
+    <t>Your name</t>
+  </si>
+  <si>
+    <t>CharacterName0005</t>
+  </si>
+  <si>
+    <t>CharacterName0006</t>
+  </si>
+  <si>
+    <t>CharacterName0007</t>
+  </si>
+  <si>
+    <t>CharacterName0008</t>
+  </si>
+  <si>
+    <t>CharacterName0009</t>
+  </si>
+  <si>
+    <t>木元素智者 · 芬尼亚</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>土元素智者 · 泰瑞克斯</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>火元素智者 · 艾莉娅</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>水元素智者 · 温蒂妮</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>木元素图腾</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>火元素图腾</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>水元素图腾</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterName0010</t>
+  </si>
+  <si>
+    <t>CharacterName0011</t>
+  </si>
+  <si>
+    <t>CharacterName0012</t>
+  </si>
+  <si>
+    <t>CharacterName0013</t>
+  </si>
+  <si>
+    <t>Wood Guardian · Fenia</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earth Guardian · Terrakus</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire Elemental Sage · Elia</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water Guardian · Undine</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑酷达人 · 卡勒姆</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parkour Master · Coleman</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Wood Element</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Earth Element</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Fire Element</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Water Element</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好，冒险者，我身后的这篇木林名为“举球消消乐”，它由一些机关和封印组成。</t>
+  </si>
+  <si>
+    <t>如你所见，我被限制在此处无法移动，里面究竟封印着什么，我并清楚，</t>
+  </si>
+  <si>
+    <t>无论如何，我会教你一些可能用的上的技能。</t>
+  </si>
+  <si>
+    <t>现在，尝试举起木球吧。</t>
+  </si>
+  <si>
+    <t>现在，尝试放下木球。</t>
+  </si>
+  <si>
+    <t>好了，冒险者，去一探究竟吧，祝你成功。</t>
+  </si>
+  <si>
+    <t>仔细观察周围的环境，运用我教你的技能，或许你能找到一些线索。（教程完成后重复）</t>
+  </si>
+  <si>
+    <t>Dialogue0048</t>
+  </si>
+  <si>
+    <t>Dialogue0049</t>
+  </si>
+  <si>
+    <t>Dialogue0050</t>
+  </si>
+  <si>
+    <t>Dialogue0051</t>
+  </si>
+  <si>
+    <t>Dialogue0052</t>
+  </si>
+  <si>
+    <t>Dialogue0053</t>
+  </si>
+  <si>
+    <t>Dialogue0054</t>
+  </si>
+  <si>
+    <t>Dialogue0055</t>
+  </si>
+  <si>
+    <t>Dialogue0056</t>
+  </si>
+  <si>
+    <t>Dialogue0057</t>
+  </si>
+  <si>
+    <t>Dialogue0058</t>
+  </si>
+  <si>
+    <t>Hello, adventurer. The stone structure behind me is called "Woodland Ball Buster," sealed by the mighty power of "wood" and mysterious mechanics.</t>
+  </si>
+  <si>
+    <t>I was retrained here decades ago, as you can see. I am not sure what's inside this mythical structure, not without my ability to move.</t>
+  </si>
+  <si>
+    <t>But I will teach you some technics, adventurer. The technics might help you unveil the myth behind it.</t>
+  </si>
+  <si>
+    <t>Now, try lifting the stone sphere.</t>
+  </si>
+  <si>
+    <t>Now, try putting down the stone sphere.</t>
+  </si>
+  <si>
+    <t>Well done, adventurer. Now go and explore, I wish you success.</t>
+  </si>
+  <si>
+    <t>Observe the structure carefully, use the technics and perhaps you will find some clues. (Repeated after completing the tutorial)</t>
+  </si>
+  <si>
+    <t>里面封印着什么？</t>
+  </si>
+  <si>
+    <t>What is sealed underneath?</t>
+  </si>
+  <si>
+    <t>还有其他线索吗？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are there any other clues?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好，冒险者。这座迷阵是由古老的土元素魔法构成的。</t>
+  </si>
+  <si>
+    <t>很遗憾，我被困在这里无法深入调查。但这片区域蕴藏浓厚的土元素，可能与土元素龙有关。</t>
+  </si>
+  <si>
+    <t>不过，我可以教你一些技能，也许对你有所帮助。</t>
+  </si>
+  <si>
+    <t>首先，从高处对准巨石板块跳跃下去。</t>
+  </si>
+  <si>
+    <t>不错，这种向下的冲击力能够摧毁顶部的巨石板块。</t>
+  </si>
+  <si>
+    <t>很好，看来你已经准备好挑战巨石迷阵了。祝你好运，冒险者。</t>
+  </si>
+  <si>
+    <t>仔细观察巨石的形状和颜色，也许会有隐藏的通道。（教程完成后重复）</t>
+  </si>
+  <si>
+    <t>魔法阵？里面封印了什么东西吗？</t>
+  </si>
+  <si>
+    <t>还有其他技巧吗？</t>
+  </si>
+  <si>
+    <t>Greetings, adventurer. This maze is crafted from ancient earth magic.</t>
+  </si>
+  <si>
+    <t>Unfortunately, my comfinement retrained my ability to investigate. But I sensed high density of earth elemental force from this area, it could be related to the Earth Dragon.</t>
+  </si>
+  <si>
+    <t>Let me teach you some skills that might be helpful.</t>
+  </si>
+  <si>
+    <t>First, leap from a high point onto the giant stone slabs below.</t>
+  </si>
+  <si>
+    <t>Well done! The gravitational velocity will help you destroy the top stone slabs.</t>
+  </si>
+  <si>
+    <t>Excellent, it seems you're ready to face the ancient stone maze. Good luck, adventurer.</t>
+  </si>
+  <si>
+    <t>Observe the shapes and colors of the stones carefully; There might be hidden pathway that leads you back to the surface! (Repeated after completing the tutorial)</t>
+  </si>
+  <si>
+    <t>Magic circle? What's sealed within?</t>
+  </si>
+  <si>
+    <t>Any other tips?</t>
+  </si>
+  <si>
+    <t>Dialogue0059</t>
+  </si>
+  <si>
+    <t>Dialogue0060</t>
+  </si>
+  <si>
+    <t>Dialogue0061</t>
+  </si>
+  <si>
+    <t>Dialogue0062</t>
+  </si>
+  <si>
+    <t>Dialogue0063</t>
+  </si>
+  <si>
+    <t>Dialogue0064</t>
+  </si>
+  <si>
+    <t>Dialogue0065</t>
+  </si>
+  <si>
+    <t>你好，冒险者。这片火炎地域被一种神秘的力量所影响。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里有什么值得一探究竟的吗？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有其他技巧吗？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>我无法深入火炎地域，但我感受到封印中似乎含有大量的火元素。</t>
+  </si>
+  <si>
+    <t>水与火是互相克制的关系，巧妙的运用水的力量，可以净化火炎，反之亦然。</t>
+  </si>
+  <si>
+    <t>干得不错，你成功将水池底部的岩浆净化了，看来你已经无师自通了。</t>
+  </si>
+  <si>
+    <t>Hello, adventurer. This infernal abyss has been conteminated by the mysterious force of Fire</t>
+  </si>
+  <si>
+    <t>I can't venture deep into the abyss, but I sense substantial fire energy coming out from the abyss.</t>
+  </si>
+  <si>
+    <t>Water and fire are mutually restraining elements. Use their power against each other, and you shall purify comtemination.</t>
+  </si>
+  <si>
+    <t>Well done. You successfully purified the lava at the bottom of the abyss. Looks like you've became a brilliant self-taught!</t>
+  </si>
+  <si>
+    <t>Is there anything worth exploring here?</t>
+  </si>
+  <si>
+    <t>Dialogue0066</t>
+  </si>
+  <si>
+    <t>Dialogue0067</t>
+  </si>
+  <si>
+    <t>Dialogue0068</t>
+  </si>
+  <si>
+    <t>Dialogue0069</t>
+  </si>
+  <si>
+    <t>Dialogue0070</t>
+  </si>
+  <si>
+    <t>Dialogue0071</t>
+  </si>
+  <si>
+    <t>Dialogue0072</t>
+  </si>
+  <si>
+    <t>Dialogue0073</t>
+  </si>
+  <si>
+    <t>水可以净化火炎，反之亦然。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water can purify lava, and vice versa.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Are there any other techniques? </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好，冒险者。这片云中迷宫充满了水元素的力量。</t>
+  </si>
+  <si>
+    <t>我感受到这片区域中有浓厚的水元素。但我无法亲自前往调查。</t>
+  </si>
+  <si>
+    <t>水与火是互相克制的关系，巧妙的运用火的力量，可以消散云雾，反之亦然。</t>
+  </si>
+  <si>
+    <t>迷宫的尽头是什么？</t>
+  </si>
+  <si>
+    <t>Hello, adventurer. This cloud maze was cleansed by the mighty power of water.</t>
+  </si>
+  <si>
+    <t>The power of water is burried deep by the mythical clouds. Sense the elemental force of water and find a way out.</t>
+  </si>
+  <si>
+    <t>As you know, water and fire are mutual retaining elements, summon the force and use them against each other!</t>
+  </si>
+  <si>
+    <t>What lies at the end of the maze?</t>
+  </si>
+  <si>
+    <t>当你无法一个人完成任务是，考虑装备你的宠物帮手吧。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>When you can't complete a task alone, try summoning your Modragons for assistant!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0074</t>
+  </si>
+  <si>
+    <t>Dialogue0075</t>
+  </si>
+  <si>
+    <t>Dialogue0076</t>
+  </si>
+  <si>
+    <t>Dialogue0077</t>
+  </si>
+  <si>
+    <t>Dialogue0078</t>
+  </si>
+  <si>
+    <t>Welcome to Dragonverse Neo, step in and become a part of this enchanting realm!</t>
+  </si>
+  <si>
+    <t>欢迎来到Dragonverse Neo，成为这里的一员！</t>
+  </si>
+  <si>
+    <t>Dragonverse Neo へようこそ!</t>
+  </si>
+  <si>
+    <t>Willkommen bei Dragonverse Neo und sei ein Teil davon!</t>
+  </si>
+  <si>
+    <t>What shall be unveiled in the world of Dragonverse Neo?</t>
+  </si>
+  <si>
+    <t>Dragonverse Neo是个怎么样的世界？</t>
+  </si>
+  <si>
+    <t>Was für eine Welt ist Dragonverse Neo?</t>
+  </si>
+  <si>
+    <t>Dragonverse Neo is a novel and delightful world where you can explore, discover, and create everything that belongs uniquely to you!</t>
+  </si>
+  <si>
+    <t>Dragonverse Neo是一个全新的充满乐趣的世界，你可以在这个世界中探索、发现、创造属于你的一切！</t>
+  </si>
+  <si>
+    <t>Dragonverse Neoは、探索し、発見し、自分のものをすべて作成できる、新しい楽しさに満ちた世界です!</t>
+  </si>
+  <si>
+    <t>Dragonverse Neo ist eine neue, unterhaltsame Welt, in der du alles erforschen, entdecken und erschaffen kannst, was dir gehört!</t>
+  </si>
+  <si>
+    <t>How can I experience Dragonverse Neo?</t>
+  </si>
+  <si>
+    <t>我要怎么体验Dragonverse Neo？</t>
+  </si>
+  <si>
+    <t>Dragonverse Neoを体験するにはどうすればいいですか?</t>
+  </si>
+  <si>
+    <t>Wie kann ich Dragonverse Neo erleben?</t>
+  </si>
+  <si>
+    <t>Mit dem Code in der Hand werde ich Dragonverse Neo erleben</t>
+  </si>
+  <si>
+    <t>Verification ··· Succeed! Congratulations on getting out of the novice village, get ready to explore the world of Dragonverse Neo!</t>
+  </si>
+  <si>
+    <t>验证···成功！恭喜你可以走出新手村落，尽情探索Dragonverse Neo吧~</t>
+  </si>
+  <si>
+    <t>Verifizierung ··· Gelingen! Herzlichen Glückwunsch, dass du das Anfängerdorf verlassen und Dragonverse Neo erkundet hast~</t>
+  </si>
+  <si>
+    <t>Hey, new adventurer! Welcome to Dragonverse Neo. This is a world of dragon fantasy! See those colorful objects on the ground? Those are the true treasures in this land: DragonBalls.</t>
+  </si>
+  <si>
+    <t>哟，新来的冒险家！欢迎来到Dragonverse Neo，这里可是个充满奇妙的世界。看到地上那些五光十色的物体了吗？那可是我们这里的宝贝DragonBall。</t>
+  </si>
+  <si>
+    <t>In the land of Dragonverse Neo, Gold Coins is a precious resource. It fell from distance space. Using Gold Coins, you may trade with other adventurers, buy items and craft rare items.</t>
+  </si>
+  <si>
+    <t>在我们的Dragonverse Neo中，金币是一种非常重要的资源。它们从遥远的星空落下，是很贵重的物品。你可以使用它与其他冒险家交易、购买物品，甚至用来合成一些珍贵的道具。</t>
+  </si>
+  <si>
+    <t>Exclusively in Dragonverse Neo! Now go and collect some of those Dragonballs, Pitaya and Gold Coins. Your adventure is await.</t>
+  </si>
+  <si>
+    <t>仅此一家，也只有在Dragonverse Neo中你才能体会到这种乐趣了！去吧，尝试着采集一些DragonBall,火龙果和金币吧。</t>
+  </si>
+  <si>
+    <t>...... 赶紧去试试吧，记得多捕捉一些Dragon，它们会成为你在Dragonverse Neo中的得力助手。</t>
+  </si>
+  <si>
+    <t>Yo new folk! Welcome to Dragonverse Neo, I am the master of emote in this land, and you can call be Barb! Ready to learn some funky move?</t>
+  </si>
+  <si>
+    <t>Yo，新来的小伙伴！欢迎来到Dragonverse Neo！我是这片土地上的动作指导大师，随意叫我巴巴。在这里，你可以和我嬉笑打闹，学习各种骚气的动作。</t>
+  </si>
+  <si>
+    <t>This is our siganature move, very popular in the land of Dragonverse Neo! Use it and turn on the crowd like we always do!</t>
+  </si>
+  <si>
+    <t>TinyGameLanKey0001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TinyGameLanKey0002</t>
+  </si>
+  <si>
+    <t>TinyGameLanKey0003</t>
+  </si>
+  <si>
+    <t>拾取</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>放下</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Put it down</t>
+  </si>
+  <si>
+    <t>Pick up</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>火球术</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙吟村</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drakeling Town</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spawn Point</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Azure Shore</t>
+  </si>
+  <si>
+    <t>碧波湖畔</t>
+  </si>
+  <si>
+    <t>Acient Abyss</t>
+  </si>
+  <si>
+    <t>远古遗迹</t>
+  </si>
+  <si>
+    <t>Mythical Wasteland</t>
+  </si>
+  <si>
+    <t>神秘废墟</t>
+  </si>
+  <si>
+    <t>Glacial Realm</t>
+  </si>
+  <si>
+    <t>冰霜天池</t>
+  </si>
+  <si>
+    <t>Fire spells</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>My Dragonkey is ready!</t>
+  </si>
+  <si>
+    <t>I don't have a Dragonkey..</t>
+  </si>
+  <si>
+    <t>Dear MOBOXers:</t>
+  </si>
+  <si>
     <t>亲爱的MOBOX家人们：</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>你收到邀请了吗？在下方验证Code就能进入 DragonVerse Neo。</t>
   </si>
   <si>
     <t>输入验证码</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>验证</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code002</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code003</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code004</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Setting001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Setting004</t>
-  </si>
-  <si>
-    <t>设置</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改昵称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Setting002</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>多语言</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>登出</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改形象</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Setting006</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Setting005</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Setting003</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的昵称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Setting007</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>AreaName0001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>AreaName0002</t>
-  </si>
-  <si>
-    <t>AreaName0003</t>
-  </si>
-  <si>
-    <t>出生点</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>AreaName0004</t>
-  </si>
-  <si>
-    <t>AreaName0005</t>
-  </si>
-  <si>
-    <t>AreaName0006</t>
-  </si>
-  <si>
-    <t>Enter your Dragonkey and start your debut journey right away, don't have a Dragonkey yet? Head over to Landing Page and check your eligibility!</t>
-  </si>
-  <si>
-    <t>Dragonkey, set! Drinks and snacks, set! I'm ready!</t>
-  </si>
-  <si>
-    <t>Press to capture and contain wild MODragon.</t>
-  </si>
-  <si>
-    <t>A delicate and juicy fruit, one of the favorite fruits of wild MODragons.</t>
-  </si>
-  <si>
-    <t>The magical coin fell from deep space, looks like a very valuable item.</t>
-  </si>
-  <si>
-    <t>Vigilant</t>
-  </si>
-  <si>
-    <t>Gentle</t>
+  </si>
+  <si>
+    <t>Enter your Dragonkey code below and start your debut journey on Dragonverse Neo Alpha Test:</t>
+  </si>
+  <si>
+    <t>Enter your code</t>
+  </si>
+  <si>
+    <t>Amount</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bag_006</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Flame MODragon</t>
-  </si>
-  <si>
-    <t>Aqua MODragon</t>
-  </si>
-  <si>
-    <t>Hibiscus MODragon</t>
-  </si>
-  <si>
-    <t>Megalithic MODragon</t>
-  </si>
-  <si>
-    <t>Infernal MODragon</t>
-  </si>
-  <si>
-    <t>Ocean MODragon</t>
-  </si>
-  <si>
-    <t>Forest MODragon</t>
-  </si>
-  <si>
-    <t>Mountain MODragon</t>
-  </si>
-  <si>
-    <t>Light MODragon</t>
-  </si>
-  <si>
-    <t>Shadow MODragon</t>
-  </si>
-  <si>
-    <t>I don't have a Dragonkey yet, where can I get it?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>火焰龙娘</t>
-  </si>
-  <si>
-    <t>水浪龙娘</t>
-  </si>
-  <si>
-    <t>木槿龙娘</t>
-  </si>
-  <si>
-    <t>岩石龙娘</t>
-  </si>
-  <si>
-    <t>炼狱龙娘</t>
-  </si>
-  <si>
-    <t>海洋龙娘</t>
-  </si>
-  <si>
-    <t>森林龙娘</t>
-  </si>
-  <si>
-    <t>山脉龙娘</t>
-  </si>
-  <si>
-    <t>圣光龙娘</t>
-  </si>
-  <si>
-    <t>暗影龙娘</t>
-  </si>
-  <si>
-    <t>Bag</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Auto-follow</t>
-  </si>
-  <si>
-    <t>Rest</t>
-  </si>
-  <si>
-    <t>Reset</t>
-  </si>
-  <si>
-    <t>Collection Start</t>
-  </si>
-  <si>
-    <t>Collection Successful</t>
-  </si>
-  <si>
-    <t>Collection Failed</t>
-  </si>
-  <si>
-    <t>Boxing Start</t>
-  </si>
-  <si>
-    <t>Boxing Successful</t>
-  </si>
-  <si>
-    <t>Boxing Failed</t>
-  </si>
-  <si>
-    <t>Insufficient Dragonball, try again.</t>
-  </si>
-  <si>
-    <t>Perfect</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>Modragon</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dear MOBOX family:</t>
-  </si>
-  <si>
-    <t>Enter the code</t>
-  </si>
-  <si>
-    <t>Verify</t>
-  </si>
-  <si>
-    <t>Setting</t>
-  </si>
-  <si>
-    <t>Rename</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Log out</t>
-  </si>
-  <si>
-    <t>Change avatar</t>
-  </si>
-  <si>
-    <t>Your name</t>
-  </si>
-  <si>
-    <t>CharacterName0005</t>
-  </si>
-  <si>
-    <t>CharacterName0006</t>
-  </si>
-  <si>
-    <t>CharacterName0007</t>
-  </si>
-  <si>
-    <t>CharacterName0008</t>
-  </si>
-  <si>
-    <t>CharacterName0009</t>
-  </si>
-  <si>
-    <t>木元素智者 · 芬尼亚</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>土元素智者 · 泰瑞克斯</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>火元素智者 · 艾莉娅</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>水元素智者 · 温蒂妮</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>木元素图腾</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>火元素图腾</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>水元素图腾</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CharacterName0010</t>
-  </si>
-  <si>
-    <t>CharacterName0011</t>
-  </si>
-  <si>
-    <t>CharacterName0012</t>
-  </si>
-  <si>
-    <t>CharacterName0013</t>
-  </si>
-  <si>
-    <t>Wood Guardian · Fenia</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Earth Guardian · Terrakus</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fire Elemental Sage · Elia</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Water Guardian · Undine</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>跑酷达人 · 卡勒姆</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Parkour Master · Coleman</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Wood Element</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Earth Element</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Fire Element</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Water Element</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>你好，冒险者，我身后的这篇木林名为“举球消消乐”，它由一些机关和封印组成。</t>
-  </si>
-  <si>
-    <t>如你所见，我被限制在此处无法移动，里面究竟封印着什么，我并清楚，</t>
-  </si>
-  <si>
-    <t>无论如何，我会教你一些可能用的上的技能。</t>
-  </si>
-  <si>
-    <t>现在，尝试举起木球吧。</t>
-  </si>
-  <si>
-    <t>现在，尝试放下木球。</t>
-  </si>
-  <si>
-    <t>好了，冒险者，去一探究竟吧，祝你成功。</t>
-  </si>
-  <si>
-    <t>仔细观察周围的环境，运用我教你的技能，或许你能找到一些线索。（教程完成后重复）</t>
-  </si>
-  <si>
-    <t>Dialogue0048</t>
-  </si>
-  <si>
-    <t>Dialogue0049</t>
-  </si>
-  <si>
-    <t>Dialogue0050</t>
-  </si>
-  <si>
-    <t>Dialogue0051</t>
-  </si>
-  <si>
-    <t>Dialogue0052</t>
-  </si>
-  <si>
-    <t>Dialogue0053</t>
-  </si>
-  <si>
-    <t>Dialogue0054</t>
-  </si>
-  <si>
-    <t>Dialogue0055</t>
-  </si>
-  <si>
-    <t>Dialogue0056</t>
-  </si>
-  <si>
-    <t>Dialogue0057</t>
-  </si>
-  <si>
-    <t>Dialogue0058</t>
-  </si>
-  <si>
-    <t>Hello, adventurer. The stone structure behind me is called "Woodland Ball Buster," sealed by the mighty power of "wood" and mysterious mechanics.</t>
-  </si>
-  <si>
-    <t>I was retrained here decades ago, as you can see. I am not sure what's inside this mythical structure, not without my ability to move.</t>
-  </si>
-  <si>
-    <t>But I will teach you some technics, adventurer. The technics might help you unveil the myth behind it.</t>
-  </si>
-  <si>
-    <t>Now, try lifting the stone sphere.</t>
-  </si>
-  <si>
-    <t>Now, try putting down the stone sphere.</t>
-  </si>
-  <si>
-    <t>Well done, adventurer. Now go and explore, I wish you success.</t>
-  </si>
-  <si>
-    <t>Observe the structure carefully, use the technics and perhaps you will find some clues. (Repeated after completing the tutorial)</t>
-  </si>
-  <si>
-    <t>里面封印着什么？</t>
-  </si>
-  <si>
-    <t>What is sealed underneath?</t>
-  </si>
-  <si>
-    <t>还有其他线索吗？</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Are there any other clues?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>你好，冒险者。这座迷阵是由古老的土元素魔法构成的。</t>
-  </si>
-  <si>
-    <t>很遗憾，我被困在这里无法深入调查。但这片区域蕴藏浓厚的土元素，可能与土元素龙有关。</t>
-  </si>
-  <si>
-    <t>不过，我可以教你一些技能，也许对你有所帮助。</t>
-  </si>
-  <si>
-    <t>首先，从高处对准巨石板块跳跃下去。</t>
-  </si>
-  <si>
-    <t>不错，这种向下的冲击力能够摧毁顶部的巨石板块。</t>
-  </si>
-  <si>
-    <t>很好，看来你已经准备好挑战巨石迷阵了。祝你好运，冒险者。</t>
-  </si>
-  <si>
-    <t>仔细观察巨石的形状和颜色，也许会有隐藏的通道。（教程完成后重复）</t>
-  </si>
-  <si>
-    <t>魔法阵？里面封印了什么东西吗？</t>
-  </si>
-  <si>
-    <t>还有其他技巧吗？</t>
-  </si>
-  <si>
-    <t>Greetings, adventurer. This maze is crafted from ancient earth magic.</t>
-  </si>
-  <si>
-    <t>Unfortunately, my comfinement retrained my ability to investigate. But I sensed high density of earth elemental force from this area, it could be related to the Earth Dragon.</t>
-  </si>
-  <si>
-    <t>Let me teach you some skills that might be helpful.</t>
-  </si>
-  <si>
-    <t>First, leap from a high point onto the giant stone slabs below.</t>
-  </si>
-  <si>
-    <t>Well done! The gravitational velocity will help you destroy the top stone slabs.</t>
-  </si>
-  <si>
-    <t>Excellent, it seems you're ready to face the ancient stone maze. Good luck, adventurer.</t>
-  </si>
-  <si>
-    <t>Observe the shapes and colors of the stones carefully; There might be hidden pathway that leads you back to the surface! (Repeated after completing the tutorial)</t>
-  </si>
-  <si>
-    <t>Magic circle? What's sealed within?</t>
-  </si>
-  <si>
-    <t>Any other tips?</t>
-  </si>
-  <si>
-    <t>Dialogue0059</t>
-  </si>
-  <si>
-    <t>Dialogue0060</t>
-  </si>
-  <si>
-    <t>Dialogue0061</t>
-  </si>
-  <si>
-    <t>Dialogue0062</t>
-  </si>
-  <si>
-    <t>Dialogue0063</t>
-  </si>
-  <si>
-    <t>Dialogue0064</t>
-  </si>
-  <si>
-    <t>Dialogue0065</t>
-  </si>
-  <si>
-    <t>你好，冒险者。这片火炎地域被一种神秘的力量所影响。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>这里有什么值得一探究竟的吗？</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>还有其他技巧吗？</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>我无法深入火炎地域，但我感受到封印中似乎含有大量的火元素。</t>
-  </si>
-  <si>
-    <t>水与火是互相克制的关系，巧妙的运用水的力量，可以净化火炎，反之亦然。</t>
-  </si>
-  <si>
-    <t>干得不错，你成功将水池底部的岩浆净化了，看来你已经无师自通了。</t>
-  </si>
-  <si>
-    <t>Hello, adventurer. This infernal abyss has been conteminated by the mysterious force of Fire</t>
-  </si>
-  <si>
-    <t>I can't venture deep into the abyss, but I sense substantial fire energy coming out from the abyss.</t>
-  </si>
-  <si>
-    <t>Water and fire are mutually restraining elements. Use their power against each other, and you shall purify comtemination.</t>
-  </si>
-  <si>
-    <t>Well done. You successfully purified the lava at the bottom of the abyss. Looks like you've became a brilliant self-taught!</t>
-  </si>
-  <si>
-    <t>Is there anything worth exploring here?</t>
-  </si>
-  <si>
-    <t>Dialogue0066</t>
-  </si>
-  <si>
-    <t>Dialogue0067</t>
-  </si>
-  <si>
-    <t>Dialogue0068</t>
-  </si>
-  <si>
-    <t>Dialogue0069</t>
-  </si>
-  <si>
-    <t>Dialogue0070</t>
-  </si>
-  <si>
-    <t>Dialogue0071</t>
-  </si>
-  <si>
-    <t>Dialogue0072</t>
-  </si>
-  <si>
-    <t>Dialogue0073</t>
-  </si>
-  <si>
-    <t>水可以净化火炎，反之亦然。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Water can purify lava, and vice versa.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Are there any other techniques? </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>你好，冒险者。这片云中迷宫充满了水元素的力量。</t>
-  </si>
-  <si>
-    <t>我感受到这片区域中有浓厚的水元素。但我无法亲自前往调查。</t>
-  </si>
-  <si>
-    <t>水与火是互相克制的关系，巧妙的运用火的力量，可以消散云雾，反之亦然。</t>
-  </si>
-  <si>
-    <t>迷宫的尽头是什么？</t>
-  </si>
-  <si>
-    <t>Hello, adventurer. This cloud maze was cleansed by the mighty power of water.</t>
-  </si>
-  <si>
-    <t>The power of water is burried deep by the mythical clouds. Sense the elemental force of water and find a way out.</t>
-  </si>
-  <si>
-    <t>As you know, water and fire are mutual retaining elements, summon the force and use them against each other!</t>
-  </si>
-  <si>
-    <t>What lies at the end of the maze?</t>
-  </si>
-  <si>
-    <t>当你无法一个人完成任务是，考虑装备你的宠物帮手吧。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>When you can't complete a task alone, try summoning your Modragons for assistant!</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0074</t>
-  </si>
-  <si>
-    <t>Dialogue0075</t>
-  </si>
-  <si>
-    <t>Dialogue0076</t>
-  </si>
-  <si>
-    <t>Dialogue0077</t>
-  </si>
-  <si>
-    <t>Dialogue0078</t>
-  </si>
-  <si>
-    <t>Welcome to Dragonverse Neo, step in and become a part of this enchanting realm!</t>
-  </si>
-  <si>
-    <t>欢迎来到Dragonverse Neo，成为这里的一员！</t>
-  </si>
-  <si>
-    <t>Dragonverse Neo へようこそ!</t>
-  </si>
-  <si>
-    <t>Willkommen bei Dragonverse Neo und sei ein Teil davon!</t>
-  </si>
-  <si>
-    <t>What shall be unveiled in the world of Dragonverse Neo?</t>
-  </si>
-  <si>
-    <t>Dragonverse Neo是个怎么样的世界？</t>
-  </si>
-  <si>
-    <t>Was für eine Welt ist Dragonverse Neo?</t>
-  </si>
-  <si>
-    <t>Dragonverse Neo is a novel and delightful world where you can explore, discover, and create everything that belongs uniquely to you!</t>
-  </si>
-  <si>
-    <t>Dragonverse Neo是一个全新的充满乐趣的世界，你可以在这个世界中探索、发现、创造属于你的一切！</t>
-  </si>
-  <si>
-    <t>Dragonverse Neoは、探索し、発見し、自分のものをすべて作成できる、新しい楽しさに満ちた世界です!</t>
-  </si>
-  <si>
-    <t>Dragonverse Neo ist eine neue, unterhaltsame Welt, in der du alles erforschen, entdecken und erschaffen kannst, was dir gehört!</t>
-  </si>
-  <si>
-    <t>How can I experience Dragonverse Neo?</t>
-  </si>
-  <si>
-    <t>我要怎么体验Dragonverse Neo？</t>
-  </si>
-  <si>
-    <t>Dragonverse Neoを体験するにはどうすればいいですか?</t>
-  </si>
-  <si>
-    <t>Wie kann ich Dragonverse Neo erleben?</t>
-  </si>
-  <si>
-    <t>Mit dem Code in der Hand werde ich Dragonverse Neo erleben</t>
-  </si>
-  <si>
-    <t>Verification ··· Succeed! Congratulations on getting out of the novice village, get ready to explore the world of Dragonverse Neo!</t>
-  </si>
-  <si>
-    <t>验证···成功！恭喜你可以走出新手村落，尽情探索Dragonverse Neo吧~</t>
-  </si>
-  <si>
-    <t>Verifizierung ··· Gelingen! Herzlichen Glückwunsch, dass du das Anfängerdorf verlassen und Dragonverse Neo erkundet hast~</t>
-  </si>
-  <si>
-    <t>Have you received Elon Stark's invitation? Verify the invitation code below to enter Dragonverse Neo.</t>
-  </si>
-  <si>
-    <t>你收到埃隆·斯塔克的邀请了吗？在下方验证Code就能进入 Dragonverse Neo。</t>
-  </si>
-  <si>
-    <t>Hey, new adventurer! Welcome to Dragonverse Neo. This is a world of dragon fantasy! See those colorful objects on the ground? Those are the true treasures in this land: DragonBalls.</t>
-  </si>
-  <si>
-    <t>哟，新来的冒险家！欢迎来到Dragonverse Neo，这里可是个充满奇妙的世界。看到地上那些五光十色的物体了吗？那可是我们这里的宝贝DragonBall。</t>
-  </si>
-  <si>
-    <t>In the land of Dragonverse Neo, Gold Coins is a precious resource. It fell from distance space. Using Gold Coins, you may trade with other adventurers, buy items and craft rare items.</t>
-  </si>
-  <si>
-    <t>在我们的Dragonverse Neo中，金币是一种非常重要的资源。它们从遥远的星空落下，是很贵重的物品。你可以使用它与其他冒险家交易、购买物品，甚至用来合成一些珍贵的道具。</t>
-  </si>
-  <si>
-    <t>Exclusively in Dragonverse Neo! Now go and collect some of those Dragonballs, Pitaya and Gold Coins. Your adventure is await.</t>
-  </si>
-  <si>
-    <t>仅此一家，也只有在Dragonverse Neo中你才能体会到这种乐趣了！去吧，尝试着采集一些DragonBall,火龙果和金币吧。</t>
-  </si>
-  <si>
-    <t>...... 赶紧去试试吧，记得多捕捉一些Dragon，它们会成为你在Dragonverse Neo中的得力助手。</t>
-  </si>
-  <si>
-    <t>Yo new folk! Welcome to Dragonverse Neo, I am the master of emote in this land, and you can call be Barb! Ready to learn some funky move?</t>
-  </si>
-  <si>
-    <t>Yo，新来的小伙伴！欢迎来到Dragonverse Neo！我是这片土地上的动作指导大师，随意叫我巴巴。在这里，你可以和我嬉笑打闹，学习各种骚气的动作。</t>
-  </si>
-  <si>
-    <t>This is our siganature move, very popular in the land of Dragonverse Neo! Use it and turn on the crowd like we always do!</t>
-  </si>
-  <si>
-    <t>TinyGameLanKey0001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>TinyGameLanKey0002</t>
-  </si>
-  <si>
-    <t>TinyGameLanKey0003</t>
-  </si>
-  <si>
-    <t>拾取</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>放下</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Put it down</t>
-  </si>
-  <si>
-    <t>Pick up</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>火球术</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙吟村</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Drakeling Town</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spawn Point</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Azure Shore</t>
-  </si>
-  <si>
-    <t>碧波湖畔</t>
-  </si>
-  <si>
-    <t>Acient Abyss</t>
-  </si>
-  <si>
-    <t>远古遗迹</t>
-  </si>
-  <si>
-    <t>Mythical Wasteland</t>
-  </si>
-  <si>
-    <t>神秘废墟</t>
-  </si>
-  <si>
-    <t>Glacial Realm</t>
-  </si>
-  <si>
-    <t>冰霜天池</t>
-  </si>
-  <si>
-    <t>Fire spells</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoxingDragonName00001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoxingDragonName00002</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00003</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00004</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00005</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00006</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00007</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00008</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00009</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00010</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00011</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00012</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00013</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00014</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00015</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00016</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00017</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00018</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00019</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Flame MODragon</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aqua MODragon</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hibiscus MODragon</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Megalithic MODragon</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2676,10 +2766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F592"/>
+  <dimension ref="A1:H614"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="D131" sqref="D131"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="C153" sqref="C153:C157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -2876,16 +2966,16 @@
         <v>42</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -2896,16 +2986,16 @@
         <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2916,16 +3006,16 @@
         <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2936,16 +3026,16 @@
         <v>46</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -2956,7 +3046,7 @@
         <v>47</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>48</v>
@@ -2976,7 +3066,7 @@
         <v>51</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>462</v>
+        <v>672</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>325</v>
@@ -2985,7 +3075,7 @@
         <v>52</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2996,7 +3086,7 @@
         <v>53</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>478</v>
+        <v>673</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>326</v>
@@ -3016,16 +3106,16 @@
         <v>56</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3096,7 +3186,7 @@
         <v>71</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>72</v>
@@ -3116,7 +3206,7 @@
         <v>75</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>76</v>
@@ -3136,7 +3226,7 @@
         <v>79</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>80</v>
@@ -3156,7 +3246,7 @@
         <v>83</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>84</v>
@@ -3236,7 +3326,7 @@
         <v>102</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>103</v>
@@ -3255,11 +3345,11 @@
       <c r="B29" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>468</v>
+      <c r="C29" s="5" t="s">
+        <v>684</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>107</v>
@@ -3276,10 +3366,10 @@
         <v>109</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>110</v>
@@ -3296,10 +3386,10 @@
         <v>112</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>113</v>
@@ -3316,10 +3406,10 @@
         <v>115</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>117</v>
@@ -3336,10 +3426,10 @@
         <v>118</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>119</v>
@@ -3356,10 +3446,10 @@
         <v>121</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>122</v>
@@ -3376,10 +3466,10 @@
         <v>124</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>125</v>
@@ -3396,10 +3486,10 @@
         <v>127</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>128</v>
@@ -3416,10 +3506,10 @@
         <v>130</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>131</v>
@@ -3436,10 +3526,10 @@
         <v>133</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>134</v>
@@ -3777,19 +3867,19 @@
         <v>100105</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3797,19 +3887,19 @@
         <v>100106</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3817,19 +3907,19 @@
         <v>100107</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3837,19 +3927,19 @@
         <v>100108</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3857,19 +3947,19 @@
         <v>100109</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3877,19 +3967,19 @@
         <v>100110</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3897,19 +3987,19 @@
         <v>100111</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="63" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3917,19 +4007,19 @@
         <v>100112</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3937,19 +4027,19 @@
         <v>100113</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3965,13 +4055,13 @@
         <v>100201</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
@@ -3981,13 +4071,13 @@
         <v>100202</v>
       </c>
       <c r="B67" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>455</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>671</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>457</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
@@ -3997,13 +4087,13 @@
         <v>100203</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
@@ -4013,13 +4103,13 @@
         <v>100204</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
@@ -4029,13 +4119,13 @@
         <v>100205</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
@@ -4045,13 +4135,13 @@
         <v>100206</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
@@ -4711,7 +4801,7 @@
         <v>310</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>283</v>
@@ -4725,7 +4815,7 @@
         <v>311</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>312</v>
@@ -4739,7 +4829,7 @@
         <v>313</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>314</v>
@@ -4753,7 +4843,7 @@
         <v>323</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>315</v>
@@ -4767,7 +4857,7 @@
         <v>324</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>316</v>
@@ -4775,1364 +4865,1736 @@
     </row>
     <row r="112" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
-        <v>105051</v>
+        <v>105006</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>284</v>
+        <v>683</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="113" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
-        <v>105101</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>285</v>
+        <v>105051</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>317</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="114" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
-        <v>105102</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>318</v>
+        <v>105101</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>285</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="115" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
-        <v>105103</v>
+        <v>105102</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>320</v>
+        <v>490</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="116" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
-        <v>105201</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>286</v>
+        <v>105103</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>319</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>280</v>
+        <v>491</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="117" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
-        <v>105202</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>321</v>
+        <v>105201</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>286</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="118" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
-        <v>105203</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>287</v>
+        <v>105202</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>321</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="119" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
-        <v>105204</v>
+        <v>105203</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="120" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
-        <v>105205</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>309</v>
+        <v>105204</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="121" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
-        <v>105206</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>502</v>
+        <v>105205</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>496</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="122" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
-        <v>105301</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>434</v>
+        <v>105206</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>289</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>435</v>
+        <v>308</v>
       </c>
     </row>
     <row r="123" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
-        <v>105302</v>
+        <v>105301</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>649</v>
+        <v>674</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
     </row>
     <row r="124" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
-        <v>105303</v>
+        <v>105302</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>505</v>
+        <v>679</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>436</v>
+        <v>676</v>
       </c>
     </row>
     <row r="125" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
-        <v>105304</v>
+        <v>105303</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>506</v>
+        <v>680</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>437</v>
+        <v>677</v>
       </c>
     </row>
     <row r="126" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
-        <v>105401</v>
+        <v>105304</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>443</v>
+        <v>678</v>
       </c>
     </row>
     <row r="127" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
-        <v>105402</v>
+        <v>105401</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="128" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
+        <v>105402</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="1">
         <v>105403</v>
       </c>
-      <c r="B128" s="6" t="s">
+      <c r="B129" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="1">
+        <v>105404</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="1">
+        <v>105405</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="1">
+        <v>105406</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="1">
+        <v>105407</v>
+      </c>
+      <c r="B133" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="C128" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="D128" s="5" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="1">
-        <v>105404</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="D129" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="1">
-        <v>105405</v>
-      </c>
-      <c r="B130" s="6" t="s">
+      <c r="C133" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="D133" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="C130" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="D130" s="5" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="1">
-        <v>105406</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="D131" s="5" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="1">
-        <v>105407</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="D132" s="5" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="1">
+      <c r="E133" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="1">
         <v>105501</v>
       </c>
-      <c r="B133" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>667</v>
-      </c>
-      <c r="D133" s="5" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="1">
+      <c r="B134" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="1">
         <v>105502</v>
       </c>
-      <c r="B134" s="6" t="s">
-        <v>662</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>666</v>
-      </c>
-      <c r="D134" s="5" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="1">
+      <c r="B135" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="1">
         <v>105503</v>
       </c>
-      <c r="B135" s="6" t="s">
-        <v>663</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>680</v>
-      </c>
-      <c r="D135" s="5" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C136"/>
-      <c r="D136"/>
-    </row>
-    <row r="137" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="6">
-        <v>200001</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="D137" s="7" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="6">
-        <v>200002</v>
+      <c r="B136" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="1"/>
+      <c r="B137" s="6"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+    </row>
+    <row r="138" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="1">
+        <v>105601</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="C138" s="7" t="s">
-        <v>651</v>
-      </c>
-      <c r="D138" s="7" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="6">
-        <v>200003</v>
+        <v>685</v>
+      </c>
+      <c r="C138" s="2" t="str">
+        <f>G132&amp;$E$132</f>
+        <v>Vigilant Flame MODragon</v>
+      </c>
+      <c r="D138" s="2" t="str">
+        <f>H132&amp;$F$132</f>
+        <v>机警的火焰龙娘</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="1">
+        <v>105602</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="C139" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="D139" s="7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="6">
-        <v>200004</v>
+        <v>686</v>
+      </c>
+      <c r="C139" s="2" t="str">
+        <f t="shared" ref="C139:C142" si="0">G133&amp;$E$132</f>
+        <v>Grumpy Flame MODragon</v>
+      </c>
+      <c r="D139" s="2" t="str">
+        <f t="shared" ref="D139:D142" si="1">H133&amp;$F$132</f>
+        <v>暴躁的火焰龙娘</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="1">
+        <v>105603</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="D140" s="7" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="6">
-        <v>200005</v>
+        <v>687</v>
+      </c>
+      <c r="C140" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Timid Flame MODragon</v>
+      </c>
+      <c r="D140" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>胆小的火焰龙娘</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="1">
+        <v>105604</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="D141" s="7" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="6">
-        <v>200006</v>
+        <v>688</v>
+      </c>
+      <c r="C141" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Irritable Flame MODragon</v>
+      </c>
+      <c r="D141" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>易怒的火焰龙娘</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="1">
+        <v>105605</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="C142" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="D142" s="7" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="6">
-        <v>200007</v>
+        <v>689</v>
+      </c>
+      <c r="C142" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Gentle Flame MODragon</v>
+      </c>
+      <c r="D142" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>温和的火焰龙娘</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="1">
+        <v>105606</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="C143" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="D143" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="6">
-        <v>200008</v>
+        <v>690</v>
+      </c>
+      <c r="C143" s="2" t="str">
+        <f>G132&amp;$E$133</f>
+        <v>Vigilant Aqua MODragon</v>
+      </c>
+      <c r="D143" s="2" t="str">
+        <f>H132&amp;$F$133</f>
+        <v>机警的水浪龙娘</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="1">
+        <v>105607</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="C144" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="D144" s="7" t="s">
-        <v>348</v>
+        <v>691</v>
+      </c>
+      <c r="C144" s="2" t="str">
+        <f t="shared" ref="C144:C146" si="2">G133&amp;$E$133</f>
+        <v>Grumpy Aqua MODragon</v>
+      </c>
+      <c r="D144" s="2" t="str">
+        <f t="shared" ref="D144:D147" si="3">H133&amp;$F$133</f>
+        <v>暴躁的水浪龙娘</v>
       </c>
     </row>
     <row r="145" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="6">
-        <v>200009</v>
+      <c r="A145" s="1">
+        <v>105608</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="C145" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="D145" s="7" t="s">
-        <v>351</v>
+        <v>692</v>
+      </c>
+      <c r="C145" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Timid Aqua MODragon</v>
+      </c>
+      <c r="D145" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>胆小的水浪龙娘</v>
       </c>
     </row>
     <row r="146" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="6">
-        <v>200010</v>
+      <c r="A146" s="1">
+        <v>105609</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="D146" s="7" t="s">
-        <v>354</v>
+        <v>693</v>
+      </c>
+      <c r="C146" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Irritable Aqua MODragon</v>
+      </c>
+      <c r="D146" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>易怒的水浪龙娘</v>
       </c>
     </row>
     <row r="147" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="6">
-        <v>200011</v>
+      <c r="A147" s="1">
+        <v>105610</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="C147" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="D147" s="7" t="s">
-        <v>357</v>
+        <v>694</v>
+      </c>
+      <c r="C147" s="2" t="str">
+        <f>G136&amp;$E$133</f>
+        <v>Gentle Aqua MODragon</v>
+      </c>
+      <c r="D147" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>温和的水浪龙娘</v>
       </c>
     </row>
     <row r="148" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="6">
-        <v>200012</v>
+      <c r="A148" s="1">
+        <v>105611</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="C148" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="D148" s="7" t="s">
-        <v>360</v>
+        <v>695</v>
+      </c>
+      <c r="C148" s="5" t="str">
+        <f>G132&amp;$E$134</f>
+        <v>Vigilant Hibiscus MODragon</v>
+      </c>
+      <c r="D148" s="5" t="str">
+        <f>H132&amp;$F$134</f>
+        <v>机警的木槿龙娘</v>
       </c>
     </row>
     <row r="149" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="6">
-        <v>200013</v>
+      <c r="A149" s="1">
+        <v>105612</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="C149" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="D149" s="7" t="s">
-        <v>363</v>
+        <v>696</v>
+      </c>
+      <c r="C149" s="5" t="str">
+        <f t="shared" ref="C149:C152" si="4">G133&amp;$E$134</f>
+        <v>Grumpy Hibiscus MODragon</v>
+      </c>
+      <c r="D149" s="5" t="str">
+        <f t="shared" ref="D149:D152" si="5">H133&amp;$F$134</f>
+        <v>暴躁的木槿龙娘</v>
       </c>
     </row>
     <row r="150" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="6">
-        <v>200014</v>
+      <c r="A150" s="1">
+        <v>105613</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="C150" s="7" t="s">
-        <v>653</v>
-      </c>
-      <c r="D150" s="7" t="s">
-        <v>654</v>
+        <v>697</v>
+      </c>
+      <c r="C150" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Timid Hibiscus MODragon</v>
+      </c>
+      <c r="D150" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>胆小的木槿龙娘</v>
       </c>
     </row>
     <row r="151" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="6">
-        <v>200015</v>
+      <c r="A151" s="1">
+        <v>105614</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="C151" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="D151" s="7" t="s">
-        <v>367</v>
+        <v>698</v>
+      </c>
+      <c r="C151" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Irritable Hibiscus MODragon</v>
+      </c>
+      <c r="D151" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>易怒的木槿龙娘</v>
       </c>
     </row>
     <row r="152" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="6">
-        <v>200016</v>
+      <c r="A152" s="1">
+        <v>105615</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="C152" s="7" t="s">
-        <v>655</v>
-      </c>
-      <c r="D152" s="7" t="s">
-        <v>656</v>
+        <v>699</v>
+      </c>
+      <c r="C152" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Gentle Hibiscus MODragon</v>
+      </c>
+      <c r="D152" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>温和的木槿龙娘</v>
       </c>
     </row>
     <row r="153" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="6">
-        <v>200017</v>
+      <c r="A153" s="1">
+        <v>105616</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="C153" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="D153" s="7" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="6">
-        <v>200018</v>
+        <v>700</v>
+      </c>
+      <c r="C153" s="2" t="str">
+        <f>G132&amp;$E$135</f>
+        <v>Vigilant Megalithic MODragon</v>
+      </c>
+      <c r="D153" s="5" t="str">
+        <f>H132&amp;$F$135</f>
+        <v>机警的岩石龙娘</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="1">
+        <v>105617</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="C154" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="D154" s="7" t="s">
-        <v>374</v>
+        <v>701</v>
+      </c>
+      <c r="C154" s="2" t="str">
+        <f t="shared" ref="C154:C157" si="6">G133&amp;$E$135</f>
+        <v>Grumpy Megalithic MODragon</v>
+      </c>
+      <c r="D154" s="5" t="str">
+        <f t="shared" ref="D154:D157" si="7">H133&amp;$F$135</f>
+        <v>暴躁的岩石龙娘</v>
       </c>
     </row>
     <row r="155" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="6">
-        <v>200019</v>
+      <c r="A155" s="1">
+        <v>105618</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="C155" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="D155" s="7" t="s">
-        <v>377</v>
+        <v>702</v>
+      </c>
+      <c r="C155" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Timid Megalithic MODragon</v>
+      </c>
+      <c r="D155" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>胆小的岩石龙娘</v>
       </c>
     </row>
     <row r="156" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="6">
-        <v>200020</v>
+      <c r="A156" s="1">
+        <v>105619</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="C156" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="D156" s="7" t="s">
-        <v>380</v>
+        <v>703</v>
+      </c>
+      <c r="C156" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Irritable Megalithic MODragon</v>
+      </c>
+      <c r="D156" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>易怒的岩石龙娘</v>
       </c>
     </row>
     <row r="157" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="6">
-        <v>200021</v>
+      <c r="A157" s="1">
+        <v>105620</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="C157" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="D157" s="7" t="s">
-        <v>383</v>
+        <v>704</v>
+      </c>
+      <c r="C157" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Gentle Megalithic MODragon</v>
+      </c>
+      <c r="D157" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>温和的岩石龙娘</v>
       </c>
     </row>
     <row r="158" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="6">
-        <v>200022</v>
-      </c>
-      <c r="B158" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="C158" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="D158" s="7" t="s">
-        <v>386</v>
-      </c>
+      <c r="C158"/>
+      <c r="D158"/>
     </row>
     <row r="159" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="6">
-        <v>200023</v>
+        <v>200001</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>387</v>
+        <v>327</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>388</v>
+        <v>328</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="6">
-        <v>200024</v>
+        <v>200002</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>390</v>
+        <v>330</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>391</v>
+        <v>642</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A161" s="6">
-        <v>200025</v>
+        <v>200003</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>393</v>
+        <v>331</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>394</v>
+        <v>332</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>395</v>
+        <v>333</v>
       </c>
     </row>
     <row r="162" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="6">
-        <v>200026</v>
+        <v>200004</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>396</v>
+        <v>334</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>397</v>
+        <v>335</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A163" s="6">
-        <v>200027</v>
+        <v>200005</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>399</v>
+        <v>337</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>400</v>
+        <v>338</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>401</v>
+        <v>339</v>
       </c>
     </row>
     <row r="164" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="6">
-        <v>200028</v>
+        <v>200006</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>402</v>
+        <v>340</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>403</v>
+        <v>341</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>404</v>
+        <v>342</v>
       </c>
     </row>
     <row r="165" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="6">
-        <v>200029</v>
+        <v>200007</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>405</v>
+        <v>343</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>406</v>
+        <v>344</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>407</v>
+        <v>345</v>
       </c>
     </row>
     <row r="166" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="6">
-        <v>200030</v>
+        <v>200008</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>408</v>
+        <v>346</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>409</v>
+        <v>347</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>410</v>
+        <v>348</v>
       </c>
     </row>
     <row r="167" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="6">
-        <v>200031</v>
+        <v>200009</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>411</v>
+        <v>349</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>412</v>
+        <v>350</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>413</v>
+        <v>351</v>
       </c>
     </row>
     <row r="168" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="6">
-        <v>200032</v>
+        <v>200010</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>414</v>
+        <v>352</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>415</v>
+        <v>353</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>657</v>
+        <v>354</v>
       </c>
     </row>
     <row r="169" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="6">
-        <v>200033</v>
+        <v>200011</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>416</v>
+        <v>355</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>658</v>
+        <v>356</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>659</v>
+        <v>357</v>
       </c>
     </row>
     <row r="170" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="6">
-        <v>200034</v>
+        <v>200012</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>417</v>
+        <v>358</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>418</v>
+        <v>359</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>419</v>
+        <v>360</v>
       </c>
     </row>
     <row r="171" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="6">
-        <v>200035</v>
+        <v>200013</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>420</v>
+        <v>361</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>421</v>
+        <v>362</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>422</v>
+        <v>363</v>
       </c>
     </row>
     <row r="172" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="6">
-        <v>200036</v>
+        <v>200014</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>423</v>
+        <v>364</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>424</v>
+        <v>645</v>
       </c>
     </row>
     <row r="173" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="6">
-        <v>200037</v>
+        <v>200015</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>425</v>
+        <v>365</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>426</v>
+        <v>366</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>427</v>
+        <v>367</v>
       </c>
     </row>
     <row r="174" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="6">
-        <v>200038</v>
+        <v>200016</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>428</v>
+        <v>368</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>429</v>
+        <v>646</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>430</v>
+        <v>647</v>
       </c>
     </row>
     <row r="175" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="6">
-        <v>200039</v>
+        <v>200017</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>431</v>
+        <v>369</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>432</v>
+        <v>370</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A176" s="6">
-        <v>200040</v>
+        <v>200018</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="D176" s="5" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>372</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="D176" s="7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="6">
-        <v>200041</v>
+        <v>200019</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="C177" s="5" t="s">
-        <v>565</v>
-      </c>
-      <c r="D177" s="5" t="s">
-        <v>564</v>
+        <v>375</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="D177" s="7" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="178" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="6">
-        <v>200042</v>
+        <v>200020</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="C178" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>540</v>
+        <v>378</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="D178" s="7" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="179" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="6">
-        <v>200043</v>
+        <v>200021</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>541</v>
+        <v>381</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="D179" s="7" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="180" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="6">
-        <v>200044</v>
+        <v>200022</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>542</v>
+        <v>384</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="D180" s="7" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="181" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="6">
-        <v>200045</v>
+        <v>200023</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>387</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="D181" s="7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A182" s="6">
-        <v>200046</v>
+        <v>200024</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>544</v>
+        <v>390</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="D182" s="7" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="183" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="6">
-        <v>200047</v>
+        <v>200025</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>553</v>
-      </c>
-      <c r="C183" s="5" t="s">
-        <v>567</v>
-      </c>
-      <c r="D183" s="5" t="s">
-        <v>566</v>
+        <v>393</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="D183" s="7" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="184" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="6">
-        <v>200048</v>
+        <v>200026</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>545</v>
+        <v>396</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="D184" s="7" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="185" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="6">
-        <v>200049</v>
+        <v>200027</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>555</v>
-      </c>
-      <c r="C185" s="5" t="s">
-        <v>577</v>
-      </c>
-      <c r="D185" s="5" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>399</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="D185" s="7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="6">
-        <v>200050</v>
+        <v>200028</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>556</v>
-      </c>
-      <c r="C186" s="5" t="s">
-        <v>584</v>
-      </c>
-      <c r="D186" s="5" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>402</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="D186" s="7" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="6">
-        <v>200051</v>
+        <v>200029</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>586</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>569</v>
+        <v>405</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="D187" s="7" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="188" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="6">
-        <v>200052</v>
+        <v>200030</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>587</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>570</v>
+        <v>408</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="D188" s="7" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="189" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="6">
-        <v>200053</v>
+        <v>200031</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>588</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>411</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="D189" s="7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="6">
-        <v>200054</v>
+        <v>200032</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>589</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>572</v>
+        <v>414</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="D190" s="7" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="191" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="6">
-        <v>200055</v>
+        <v>200033</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>573</v>
+        <v>416</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="D191" s="7" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="192" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="6">
-        <v>200056</v>
+        <v>200034</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>591</v>
-      </c>
-      <c r="C192" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="D192" s="5" t="s">
-        <v>576</v>
+        <v>417</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="D192" s="7" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="193" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="6">
-        <v>200057</v>
+        <v>200035</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>574</v>
+        <v>420</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="D193" s="7" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="194" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="6">
-        <v>200058</v>
+        <v>200036</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>604</v>
-      </c>
-      <c r="C194" s="5" t="s">
-        <v>599</v>
-      </c>
-      <c r="D194" s="5" t="s">
-        <v>593</v>
+        <v>423</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="D194" s="7" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="195" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="6">
-        <v>200059</v>
+        <v>200037</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>605</v>
-      </c>
-      <c r="C195" s="5" t="s">
-        <v>603</v>
-      </c>
-      <c r="D195" s="5" t="s">
-        <v>594</v>
+        <v>425</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="D195" s="7" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="196" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="6">
-        <v>200060</v>
+        <v>200038</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="D196" s="5" t="s">
-        <v>596</v>
+        <v>428</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="D196" s="7" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="197" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="6">
-        <v>200061</v>
+        <v>200039</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>607</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>597</v>
+        <v>431</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="D197" s="7" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="198" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="6">
-        <v>200062</v>
+        <v>200040</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>608</v>
+        <v>539</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>602</v>
+        <v>550</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A199" s="6">
-        <v>200063</v>
+        <v>200041</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>609</v>
+        <v>540</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>614</v>
+        <v>558</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>595</v>
+        <v>557</v>
       </c>
     </row>
     <row r="200" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="6">
-        <v>200064</v>
+        <v>200042</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>610</v>
+        <v>541</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>613</v>
-      </c>
-      <c r="D200" s="5" t="s">
-        <v>612</v>
+        <v>551</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="201" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="6">
-        <v>200065</v>
+        <v>200043</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>611</v>
-      </c>
-      <c r="C201" s="5" t="s">
-        <v>619</v>
-      </c>
-      <c r="D201" s="5" t="s">
-        <v>615</v>
+        <v>542</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="202" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="6">
-        <v>200066</v>
+        <v>200044</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>625</v>
-      </c>
-      <c r="C202" s="5" t="s">
-        <v>622</v>
-      </c>
-      <c r="D202" s="5" t="s">
-        <v>618</v>
+        <v>543</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="203" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="6">
-        <v>200067</v>
+        <v>200045</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>626</v>
+        <v>544</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="D203" s="5" t="s">
-        <v>616</v>
+        <v>554</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="204" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="6">
-        <v>200068</v>
+        <v>200046</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>627</v>
+        <v>545</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>621</v>
+        <v>555</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>617</v>
+        <v>537</v>
       </c>
     </row>
     <row r="205" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="6">
-        <v>200069</v>
+        <v>200047</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>628</v>
+        <v>546</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>614</v>
+        <v>560</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>595</v>
+        <v>559</v>
       </c>
     </row>
     <row r="206" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="6">
+        <v>200048</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A207" s="6">
+        <v>200049</v>
+      </c>
+      <c r="B207" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="D207" s="5" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A208" s="6">
+        <v>200050</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="D208" s="5" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A209" s="6">
+        <v>200051</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A210" s="6">
+        <v>200052</v>
+      </c>
+      <c r="B210" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A211" s="6">
+        <v>200053</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A212" s="6">
+        <v>200054</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A213" s="6">
+        <v>200055</v>
+      </c>
+      <c r="B213" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A214" s="6">
+        <v>200056</v>
+      </c>
+      <c r="B214" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="D214" s="5" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A215" s="6">
+        <v>200057</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A216" s="6">
+        <v>200058</v>
+      </c>
+      <c r="B216" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="D216" s="5" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A217" s="6">
+        <v>200059</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="D217" s="5" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A218" s="6">
+        <v>200060</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="D218" s="5" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A219" s="6">
+        <v>200061</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A220" s="6">
+        <v>200062</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="D220" s="5" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A221" s="6">
+        <v>200063</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="D221" s="5" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A222" s="6">
+        <v>200064</v>
+      </c>
+      <c r="B222" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="D222" s="5" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A223" s="6">
+        <v>200065</v>
+      </c>
+      <c r="B223" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="D223" s="5" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A224" s="6">
+        <v>200066</v>
+      </c>
+      <c r="B224" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="D224" s="5" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A225" s="6">
+        <v>200067</v>
+      </c>
+      <c r="B225" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="D225" s="5" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A226" s="6">
+        <v>200068</v>
+      </c>
+      <c r="B226" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A227" s="6">
+        <v>200069</v>
+      </c>
+      <c r="B227" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="D227" s="5" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A228" s="6">
         <v>200070</v>
       </c>
-      <c r="B206" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="C206" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="D206" s="5" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="208" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="209" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="210" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="211" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="212" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="213" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="214" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="215" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="216" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="217" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="218" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="219" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="220" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="221" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="222" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="223" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="224" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="225" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="226" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="227" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="228" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="229" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="230" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="231" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="232" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="233" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="234" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="235" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="236" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="237" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="238" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="239" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="240" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="241" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="242" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="243" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="244" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="245" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="246" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+      <c r="B228" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="D228" s="5" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="230" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="231" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="232" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="233" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="234" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="235" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="236" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="237" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="238" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="239" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="240" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="241" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="242" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="243" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="244" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="245" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="246" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="247" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="248" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="249" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -6379,12 +6841,12 @@
     <row r="490" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="491" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="492" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="493" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="494" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="495" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="496" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="497" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="498" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="493" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="494" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="495" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="496" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="497" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="498" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="499" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="500" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="501" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -6401,12 +6863,12 @@
     <row r="512" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="513" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="514" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="515" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="516" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="517" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="518" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="519" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="520" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="515" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="516" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="517" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="518" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="519" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="520" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="521" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="522" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="523" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -6452,7 +6914,7 @@
     <row r="563" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="564" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="565" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="566" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="566" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="567" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="568" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="569" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -6474,11 +6936,33 @@
     <row r="585" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="586" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="587" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="588" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="588" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="589" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="590" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="591" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="592" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="593" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="594" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="595" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="596" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="597" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="598" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="599" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="600" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="601" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="602" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="603" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="604" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="605" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="606" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="607" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="608" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="609" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="610" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="611" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="612" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="613" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="614" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Excels/Language_多语言表.xlsx
+++ b/Excels/Language_多语言表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AD2531-1B01-4B49-BC72-4A690170472A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18E0206-4E97-4C6E-8802-29BEDFE79CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="712">
   <si>
     <t>int</t>
   </si>
@@ -2395,6 +2395,17 @@
   </si>
   <si>
     <t xml:space="preserve"> Megalithic MODragon</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0079</t>
+  </si>
+  <si>
+    <t>你还可以通过质押MBOX持有10000 veMBOX获得Dragon Key，可前往 https: //www.mobox.io/#/neo 了解详情。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>You can get Dragon Key by staking MBOX to holding 10,000 veMBOX, which can be found at https: //www.mobox.io/#/neo for more information.</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2768,8 +2779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H614"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="C153" sqref="C153:C157"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="C229" sqref="C229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -6577,7 +6588,20 @@
         <v>616</v>
       </c>
     </row>
-    <row r="229" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="229" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A229" s="6">
+        <v>200071</v>
+      </c>
+      <c r="B229" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="D229" s="5" t="s">
+        <v>710</v>
+      </c>
+    </row>
     <row r="230" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="231" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="232" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Excels/Language_多语言表.xlsx
+++ b/Excels/Language_多语言表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18E0206-4E97-4C6E-8802-29BEDFE79CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EBB7B3-895F-4778-AF62-6EE31D208127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="748">
   <si>
     <t>int</t>
   </si>
@@ -2407,6 +2407,120 @@
   <si>
     <t>You can get Dragon Key by staking MBOX to holding 10,000 veMBOX, which can be found at https: //www.mobox.io/#/neo for more information.</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoxingDragonName00021</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00022</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00023</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00024</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00025</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00026</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00027</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00028</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00029</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00030</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00031</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00032</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00033</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00034</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00035</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00036</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00037</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00038</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00039</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00040</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Infernal MODragon</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ocean MODragon</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Forest MODragon</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mountain MODragon</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Light MODragon</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shadow MODragon</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoxingDragonName00041</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00042</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00043</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00044</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00045</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00046</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00047</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00048</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00049</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00050</t>
   </si>
 </sst>
 </file>
@@ -2777,10 +2891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H614"/>
+  <dimension ref="A1:H644"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="C229" sqref="C229"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="E177" sqref="E177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -5271,6 +5385,12 @@
       <c r="D136" s="5" t="s">
         <v>659</v>
       </c>
+      <c r="E136" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>478</v>
+      </c>
       <c r="G136" s="2" t="s">
         <v>464</v>
       </c>
@@ -5283,6 +5403,12 @@
       <c r="B137" s="6"/>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
+      <c r="E137" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="138" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
@@ -5299,6 +5425,12 @@
         <f>H132&amp;$F$132</f>
         <v>机警的火焰龙娘</v>
       </c>
+      <c r="E138" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="139" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
@@ -5315,6 +5447,12 @@
         <f t="shared" ref="D139:D142" si="1">H133&amp;$F$132</f>
         <v>暴躁的火焰龙娘</v>
       </c>
+      <c r="E139" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="140" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
@@ -5331,6 +5469,12 @@
         <f t="shared" si="1"/>
         <v>胆小的火焰龙娘</v>
       </c>
+      <c r="E140" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="141" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
@@ -5347,6 +5491,12 @@
         <f t="shared" si="1"/>
         <v>易怒的火焰龙娘</v>
       </c>
+      <c r="E141" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="142" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
@@ -5605,1050 +5755,1500 @@
       </c>
     </row>
     <row r="158" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C158"/>
-      <c r="D158"/>
+      <c r="A158" s="1">
+        <v>105621</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="C158" s="2" t="str">
+        <f>G132&amp;$E$136</f>
+        <v>Vigilant Infernal MODragon</v>
+      </c>
+      <c r="D158" s="2" t="str">
+        <f>H132&amp;$F$136</f>
+        <v>机警的炼狱龙娘</v>
+      </c>
     </row>
     <row r="159" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="6">
-        <v>200001</v>
+      <c r="A159" s="1">
+        <v>105622</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="C159" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="D159" s="7" t="s">
-        <v>329</v>
+        <v>713</v>
+      </c>
+      <c r="C159" s="2" t="str">
+        <f t="shared" ref="C159:C162" si="8">G133&amp;$E$136</f>
+        <v>Grumpy Infernal MODragon</v>
+      </c>
+      <c r="D159" s="2" t="str">
+        <f t="shared" ref="D159:D162" si="9">H133&amp;$F$136</f>
+        <v>暴躁的炼狱龙娘</v>
       </c>
     </row>
     <row r="160" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="6">
-        <v>200002</v>
+      <c r="A160" s="1">
+        <v>105623</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="C160" s="7" t="s">
-        <v>642</v>
-      </c>
-      <c r="D160" s="7" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="6">
-        <v>200003</v>
+        <v>714</v>
+      </c>
+      <c r="C160" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Timid Infernal MODragon</v>
+      </c>
+      <c r="D160" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>胆小的炼狱龙娘</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="1">
+        <v>105624</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="C161" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="D161" s="7" t="s">
-        <v>333</v>
+        <v>715</v>
+      </c>
+      <c r="C161" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Irritable Infernal MODragon</v>
+      </c>
+      <c r="D161" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>易怒的炼狱龙娘</v>
       </c>
     </row>
     <row r="162" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="6">
-        <v>200004</v>
+      <c r="A162" s="1">
+        <v>105625</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="C162" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="D162" s="7" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="6">
-        <v>200005</v>
+        <v>716</v>
+      </c>
+      <c r="C162" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Gentle Infernal MODragon</v>
+      </c>
+      <c r="D162" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>温和的炼狱龙娘</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="1">
+        <v>105626</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="C163" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="D163" s="7" t="s">
-        <v>339</v>
+        <v>717</v>
+      </c>
+      <c r="C163" s="2" t="str">
+        <f>G132&amp;$E$137</f>
+        <v>Vigilant Ocean MODragon</v>
+      </c>
+      <c r="D163" s="2" t="str">
+        <f>H132&amp;$F$137</f>
+        <v>机警的海洋龙娘</v>
       </c>
     </row>
     <row r="164" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="6">
-        <v>200006</v>
+      <c r="A164" s="1">
+        <v>105627</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="C164" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="D164" s="7" t="s">
-        <v>342</v>
+        <v>718</v>
+      </c>
+      <c r="C164" s="2" t="str">
+        <f t="shared" ref="C164:C167" si="10">G133&amp;$E$137</f>
+        <v>Grumpy Ocean MODragon</v>
+      </c>
+      <c r="D164" s="2" t="str">
+        <f t="shared" ref="D164:D167" si="11">H133&amp;$F$137</f>
+        <v>暴躁的海洋龙娘</v>
       </c>
     </row>
     <row r="165" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="6">
-        <v>200007</v>
+      <c r="A165" s="1">
+        <v>105628</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="C165" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="D165" s="7" t="s">
-        <v>345</v>
+        <v>719</v>
+      </c>
+      <c r="C165" s="2" t="str">
+        <f>G134&amp;$E$137</f>
+        <v>Timid Ocean MODragon</v>
+      </c>
+      <c r="D165" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>胆小的海洋龙娘</v>
       </c>
     </row>
     <row r="166" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="6">
-        <v>200008</v>
+      <c r="A166" s="1">
+        <v>105629</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="C166" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="D166" s="7" t="s">
-        <v>348</v>
+        <v>720</v>
+      </c>
+      <c r="C166" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>Irritable Ocean MODragon</v>
+      </c>
+      <c r="D166" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>易怒的海洋龙娘</v>
       </c>
     </row>
     <row r="167" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="6">
-        <v>200009</v>
+      <c r="A167" s="1">
+        <v>105630</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="D167" s="7" t="s">
-        <v>351</v>
+        <v>721</v>
+      </c>
+      <c r="C167" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>Gentle Ocean MODragon</v>
+      </c>
+      <c r="D167" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>温和的海洋龙娘</v>
       </c>
     </row>
     <row r="168" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="6">
-        <v>200010</v>
+      <c r="A168" s="1">
+        <v>105631</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="C168" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="D168" s="7" t="s">
-        <v>354</v>
+        <v>722</v>
+      </c>
+      <c r="C168" s="5" t="str">
+        <f>G132&amp;$E$138</f>
+        <v>Vigilant Forest MODragon</v>
+      </c>
+      <c r="D168" s="5" t="str">
+        <f>H132&amp;$F$138</f>
+        <v>机警的森林龙娘</v>
       </c>
     </row>
     <row r="169" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="6">
-        <v>200011</v>
+      <c r="A169" s="1">
+        <v>105632</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="D169" s="7" t="s">
-        <v>357</v>
+        <v>723</v>
+      </c>
+      <c r="C169" s="5" t="str">
+        <f t="shared" ref="C169:C172" si="12">G133&amp;$E$138</f>
+        <v>Grumpy Forest MODragon</v>
+      </c>
+      <c r="D169" s="5" t="str">
+        <f t="shared" ref="D169:D172" si="13">H133&amp;$F$138</f>
+        <v>暴躁的森林龙娘</v>
       </c>
     </row>
     <row r="170" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="6">
-        <v>200012</v>
+      <c r="A170" s="1">
+        <v>105633</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="C170" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="D170" s="7" t="s">
-        <v>360</v>
+        <v>724</v>
+      </c>
+      <c r="C170" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v>Timid Forest MODragon</v>
+      </c>
+      <c r="D170" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>胆小的森林龙娘</v>
       </c>
     </row>
     <row r="171" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="6">
-        <v>200013</v>
+      <c r="A171" s="1">
+        <v>105634</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="C171" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="D171" s="7" t="s">
-        <v>363</v>
+        <v>725</v>
+      </c>
+      <c r="C171" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v>Irritable Forest MODragon</v>
+      </c>
+      <c r="D171" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>易怒的森林龙娘</v>
       </c>
     </row>
     <row r="172" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="6">
-        <v>200014</v>
+      <c r="A172" s="1">
+        <v>105635</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="C172" s="7" t="s">
-        <v>644</v>
-      </c>
-      <c r="D172" s="7" t="s">
-        <v>645</v>
+        <v>726</v>
+      </c>
+      <c r="C172" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v>Gentle Forest MODragon</v>
+      </c>
+      <c r="D172" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>温和的森林龙娘</v>
       </c>
     </row>
     <row r="173" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="6">
-        <v>200015</v>
+      <c r="A173" s="1">
+        <v>105636</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="C173" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="D173" s="7" t="s">
-        <v>367</v>
+        <v>727</v>
+      </c>
+      <c r="C173" s="2" t="str">
+        <f>G132&amp;$E$139</f>
+        <v>Vigilant Mountain MODragon</v>
+      </c>
+      <c r="D173" s="5" t="str">
+        <f>H132&amp;$F$139</f>
+        <v>机警的山脉龙娘</v>
       </c>
     </row>
     <row r="174" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A174" s="6">
-        <v>200016</v>
+      <c r="A174" s="1">
+        <v>105637</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="C174" s="7" t="s">
-        <v>646</v>
-      </c>
-      <c r="D174" s="7" t="s">
-        <v>647</v>
+        <v>728</v>
+      </c>
+      <c r="C174" s="2" t="str">
+        <f t="shared" ref="C174:C177" si="14">G133&amp;$E$139</f>
+        <v>Grumpy Mountain MODragon</v>
+      </c>
+      <c r="D174" s="5" t="str">
+        <f t="shared" ref="D174:D177" si="15">H133&amp;$F$139</f>
+        <v>暴躁的山脉龙娘</v>
       </c>
     </row>
     <row r="175" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="6">
-        <v>200017</v>
+      <c r="A175" s="1">
+        <v>105638</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="C175" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="D175" s="7" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A176" s="6">
-        <v>200018</v>
+        <v>729</v>
+      </c>
+      <c r="C175" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>Timid Mountain MODragon</v>
+      </c>
+      <c r="D175" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v>胆小的山脉龙娘</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A176" s="1">
+        <v>105639</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="C176" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="D176" s="7" t="s">
-        <v>374</v>
+        <v>730</v>
+      </c>
+      <c r="C176" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>Irritable Mountain MODragon</v>
+      </c>
+      <c r="D176" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v>易怒的山脉龙娘</v>
       </c>
     </row>
     <row r="177" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="6">
-        <v>200019</v>
+      <c r="A177" s="1">
+        <v>105640</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="C177" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="D177" s="7" t="s">
-        <v>377</v>
+        <v>731</v>
+      </c>
+      <c r="C177" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>Gentle Mountain MODragon</v>
+      </c>
+      <c r="D177" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v>温和的山脉龙娘</v>
       </c>
     </row>
     <row r="178" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="6">
-        <v>200020</v>
+      <c r="A178" s="1">
+        <v>105641</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="C178" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="D178" s="7" t="s">
-        <v>380</v>
+        <v>738</v>
+      </c>
+      <c r="C178" s="5" t="str">
+        <f>G132&amp;$E$140</f>
+        <v>Vigilant Light MODragon</v>
+      </c>
+      <c r="D178" s="5" t="str">
+        <f>H132&amp;$F$140</f>
+        <v>机警的圣光龙娘</v>
       </c>
     </row>
     <row r="179" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A179" s="6">
-        <v>200021</v>
+      <c r="A179" s="1">
+        <v>105642</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="C179" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="D179" s="7" t="s">
-        <v>383</v>
+        <v>739</v>
+      </c>
+      <c r="C179" s="5" t="str">
+        <f t="shared" ref="C179:C182" si="16">G133&amp;$E$140</f>
+        <v>Grumpy Light MODragon</v>
+      </c>
+      <c r="D179" s="5" t="str">
+        <f t="shared" ref="D179:D182" si="17">H133&amp;$F$140</f>
+        <v>暴躁的圣光龙娘</v>
       </c>
     </row>
     <row r="180" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="6">
-        <v>200022</v>
+      <c r="A180" s="1">
+        <v>105643</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="C180" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="D180" s="7" t="s">
-        <v>386</v>
+        <v>740</v>
+      </c>
+      <c r="C180" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>Timid Light MODragon</v>
+      </c>
+      <c r="D180" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v>胆小的圣光龙娘</v>
       </c>
     </row>
     <row r="181" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="6">
-        <v>200023</v>
+      <c r="A181" s="1">
+        <v>105644</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="C181" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D181" s="7" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A182" s="6">
-        <v>200024</v>
+        <v>741</v>
+      </c>
+      <c r="C181" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>Irritable Light MODragon</v>
+      </c>
+      <c r="D181" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v>易怒的圣光龙娘</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="1">
+        <v>105645</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="C182" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="D182" s="7" t="s">
-        <v>392</v>
+        <v>742</v>
+      </c>
+      <c r="C182" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>Gentle Light MODragon</v>
+      </c>
+      <c r="D182" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v>温和的圣光龙娘</v>
       </c>
     </row>
     <row r="183" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="6">
-        <v>200025</v>
+      <c r="A183" s="1">
+        <v>105646</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="C183" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="D183" s="7" t="s">
-        <v>395</v>
+        <v>743</v>
+      </c>
+      <c r="C183" s="2" t="str">
+        <f>G132&amp;$E$141</f>
+        <v>Vigilant Shadow MODragon</v>
+      </c>
+      <c r="D183" s="5" t="str">
+        <f>H132&amp;$F$141</f>
+        <v>机警的暗影龙娘</v>
       </c>
     </row>
     <row r="184" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A184" s="6">
-        <v>200026</v>
+      <c r="A184" s="1">
+        <v>105647</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="C184" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="D184" s="7" t="s">
-        <v>398</v>
+        <v>744</v>
+      </c>
+      <c r="C184" s="2" t="str">
+        <f t="shared" ref="C184:C187" si="18">G133&amp;$E$141</f>
+        <v>Grumpy Shadow MODragon</v>
+      </c>
+      <c r="D184" s="5" t="str">
+        <f t="shared" ref="D184:D187" si="19">H133&amp;$F$141</f>
+        <v>暴躁的暗影龙娘</v>
       </c>
     </row>
     <row r="185" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A185" s="6">
-        <v>200027</v>
+      <c r="A185" s="1">
+        <v>105648</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="C185" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="D185" s="7" t="s">
-        <v>401</v>
+        <v>745</v>
+      </c>
+      <c r="C185" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>Timid Shadow MODragon</v>
+      </c>
+      <c r="D185" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>胆小的暗影龙娘</v>
       </c>
     </row>
     <row r="186" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A186" s="6">
-        <v>200028</v>
+      <c r="A186" s="1">
+        <v>105649</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="C186" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="D186" s="7" t="s">
-        <v>404</v>
+        <v>746</v>
+      </c>
+      <c r="C186" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>Irritable Shadow MODragon</v>
+      </c>
+      <c r="D186" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>易怒的暗影龙娘</v>
       </c>
     </row>
     <row r="187" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="6">
-        <v>200029</v>
+      <c r="A187" s="1">
+        <v>105650</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="C187" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="D187" s="7" t="s">
-        <v>407</v>
+        <v>747</v>
+      </c>
+      <c r="C187" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>Gentle Shadow MODragon</v>
+      </c>
+      <c r="D187" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>温和的暗影龙娘</v>
       </c>
     </row>
     <row r="188" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="6">
-        <v>200030</v>
-      </c>
-      <c r="B188" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="C188" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="D188" s="7" t="s">
-        <v>410</v>
-      </c>
+      <c r="C188"/>
+      <c r="D188"/>
     </row>
     <row r="189" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="6">
-        <v>200031</v>
+        <v>200001</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>411</v>
+        <v>327</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>412</v>
+        <v>328</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>413</v>
+        <v>329</v>
       </c>
     </row>
     <row r="190" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="6">
-        <v>200032</v>
+        <v>200002</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>414</v>
+        <v>330</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>415</v>
+        <v>642</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A191" s="6">
-        <v>200033</v>
+        <v>200003</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>416</v>
+        <v>331</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>649</v>
+        <v>332</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>650</v>
+        <v>333</v>
       </c>
     </row>
     <row r="192" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="6">
-        <v>200034</v>
+        <v>200004</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>417</v>
+        <v>334</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>418</v>
+        <v>335</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A193" s="6">
-        <v>200035</v>
+        <v>200005</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>420</v>
+        <v>337</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>421</v>
+        <v>338</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>422</v>
+        <v>339</v>
       </c>
     </row>
     <row r="194" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="6">
-        <v>200036</v>
+        <v>200006</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>423</v>
+        <v>340</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>651</v>
+        <v>341</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>424</v>
+        <v>342</v>
       </c>
     </row>
     <row r="195" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="6">
-        <v>200037</v>
+        <v>200007</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>425</v>
+        <v>343</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>426</v>
+        <v>344</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>427</v>
+        <v>345</v>
       </c>
     </row>
     <row r="196" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="6">
-        <v>200038</v>
+        <v>200008</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>428</v>
+        <v>346</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>430</v>
+        <v>348</v>
       </c>
     </row>
     <row r="197" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="6">
-        <v>200039</v>
+        <v>200009</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>431</v>
+        <v>349</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>432</v>
+        <v>350</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>433</v>
+        <v>351</v>
       </c>
     </row>
     <row r="198" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="6">
-        <v>200040</v>
+        <v>200010</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="D198" s="5" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>352</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="D198" s="7" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="6">
-        <v>200041</v>
+        <v>200011</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>540</v>
-      </c>
-      <c r="C199" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="D199" s="5" t="s">
-        <v>557</v>
+        <v>355</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="D199" s="7" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="200" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="6">
-        <v>200042</v>
+        <v>200012</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="C200" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>533</v>
+        <v>358</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="D200" s="7" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="201" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="6">
-        <v>200043</v>
+        <v>200013</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>534</v>
+        <v>361</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="D201" s="7" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="202" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="6">
-        <v>200044</v>
+        <v>200014</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>535</v>
+        <v>364</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="D202" s="7" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="203" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="6">
-        <v>200045</v>
+        <v>200015</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>536</v>
+        <v>365</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="D203" s="7" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="204" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="6">
-        <v>200046</v>
+        <v>200016</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>537</v>
+        <v>368</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="D204" s="7" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="205" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="6">
-        <v>200047</v>
+        <v>200017</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="C205" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="D205" s="5" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>369</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="D205" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A206" s="6">
-        <v>200048</v>
+        <v>200018</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>538</v>
+        <v>372</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="D206" s="7" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="207" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="6">
-        <v>200049</v>
+        <v>200019</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="C207" s="5" t="s">
-        <v>570</v>
-      </c>
-      <c r="D207" s="5" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>375</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="D207" s="7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="6">
-        <v>200050</v>
+        <v>200020</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="C208" s="5" t="s">
-        <v>577</v>
-      </c>
-      <c r="D208" s="5" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>378</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="D208" s="7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="6">
-        <v>200051</v>
+        <v>200021</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>579</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>562</v>
+        <v>381</v>
+      </c>
+      <c r="C209" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="D209" s="7" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="210" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="6">
-        <v>200052</v>
+        <v>200022</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>580</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>563</v>
+        <v>384</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="D210" s="7" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="211" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="6">
-        <v>200053</v>
+        <v>200023</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>581</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>564</v>
+        <v>387</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="D211" s="7" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="212" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A212" s="6">
-        <v>200054</v>
+        <v>200024</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>582</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>565</v>
+        <v>390</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="D212" s="7" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="213" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="6">
-        <v>200055</v>
+        <v>200025</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>583</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>566</v>
+        <v>393</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="D213" s="7" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="214" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="6">
-        <v>200056</v>
+        <v>200026</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>584</v>
-      </c>
-      <c r="C214" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="D214" s="5" t="s">
-        <v>569</v>
+        <v>396</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="D214" s="7" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="215" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="6">
-        <v>200057</v>
+        <v>200027</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>585</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>567</v>
+        <v>399</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="D215" s="7" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="216" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="6">
-        <v>200058</v>
+        <v>200028</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>597</v>
-      </c>
-      <c r="C216" s="5" t="s">
-        <v>592</v>
-      </c>
-      <c r="D216" s="5" t="s">
-        <v>586</v>
+        <v>402</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="D216" s="7" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="217" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="6">
-        <v>200059</v>
+        <v>200029</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>598</v>
-      </c>
-      <c r="C217" s="5" t="s">
-        <v>596</v>
-      </c>
-      <c r="D217" s="5" t="s">
-        <v>587</v>
+        <v>405</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="D217" s="7" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="218" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="6">
-        <v>200060</v>
+        <v>200030</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="D218" s="5" t="s">
-        <v>589</v>
+        <v>408</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="D218" s="7" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="219" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="6">
-        <v>200061</v>
+        <v>200031</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>600</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>590</v>
+        <v>411</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="D219" s="7" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="220" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="6">
-        <v>200062</v>
+        <v>200032</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>601</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="D220" s="5" t="s">
-        <v>591</v>
+        <v>414</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="D220" s="7" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="221" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="6">
-        <v>200063</v>
+        <v>200033</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>602</v>
-      </c>
-      <c r="C221" s="5" t="s">
-        <v>607</v>
-      </c>
-      <c r="D221" s="5" t="s">
-        <v>588</v>
+        <v>416</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="D221" s="7" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="222" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="6">
-        <v>200064</v>
+        <v>200034</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>603</v>
-      </c>
-      <c r="C222" s="5" t="s">
-        <v>606</v>
-      </c>
-      <c r="D222" s="5" t="s">
-        <v>605</v>
+        <v>417</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="D222" s="7" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="223" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="6">
-        <v>200065</v>
+        <v>200035</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>604</v>
-      </c>
-      <c r="C223" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="D223" s="5" t="s">
-        <v>608</v>
+        <v>420</v>
+      </c>
+      <c r="C223" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="D223" s="7" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="224" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="6">
-        <v>200066</v>
+        <v>200036</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>618</v>
-      </c>
-      <c r="C224" s="5" t="s">
-        <v>615</v>
-      </c>
-      <c r="D224" s="5" t="s">
-        <v>611</v>
+        <v>423</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="D224" s="7" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="225" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="6">
-        <v>200067</v>
+        <v>200037</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>619</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="D225" s="5" t="s">
-        <v>609</v>
+        <v>425</v>
+      </c>
+      <c r="C225" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="D225" s="7" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="226" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="6">
-        <v>200068</v>
+        <v>200038</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>620</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>610</v>
+        <v>428</v>
+      </c>
+      <c r="C226" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="D226" s="7" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="227" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="6">
-        <v>200069</v>
+        <v>200039</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>621</v>
-      </c>
-      <c r="C227" s="5" t="s">
-        <v>607</v>
-      </c>
-      <c r="D227" s="5" t="s">
-        <v>588</v>
+        <v>431</v>
+      </c>
+      <c r="C227" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="D227" s="7" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="228" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="6">
+        <v>200040</v>
+      </c>
+      <c r="B228" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="D228" s="5" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A229" s="6">
+        <v>200041</v>
+      </c>
+      <c r="B229" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="D229" s="5" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A230" s="6">
+        <v>200042</v>
+      </c>
+      <c r="B230" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A231" s="6">
+        <v>200043</v>
+      </c>
+      <c r="B231" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A232" s="6">
+        <v>200044</v>
+      </c>
+      <c r="B232" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A233" s="6">
+        <v>200045</v>
+      </c>
+      <c r="B233" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A234" s="6">
+        <v>200046</v>
+      </c>
+      <c r="B234" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A235" s="6">
+        <v>200047</v>
+      </c>
+      <c r="B235" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="D235" s="5" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A236" s="6">
+        <v>200048</v>
+      </c>
+      <c r="B236" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A237" s="6">
+        <v>200049</v>
+      </c>
+      <c r="B237" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="D237" s="5" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A238" s="6">
+        <v>200050</v>
+      </c>
+      <c r="B238" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="D238" s="5" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A239" s="6">
+        <v>200051</v>
+      </c>
+      <c r="B239" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A240" s="6">
+        <v>200052</v>
+      </c>
+      <c r="B240" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A241" s="6">
+        <v>200053</v>
+      </c>
+      <c r="B241" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A242" s="6">
+        <v>200054</v>
+      </c>
+      <c r="B242" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A243" s="6">
+        <v>200055</v>
+      </c>
+      <c r="B243" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A244" s="6">
+        <v>200056</v>
+      </c>
+      <c r="B244" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="D244" s="5" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A245" s="6">
+        <v>200057</v>
+      </c>
+      <c r="B245" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A246" s="6">
+        <v>200058</v>
+      </c>
+      <c r="B246" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="D246" s="5" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A247" s="6">
+        <v>200059</v>
+      </c>
+      <c r="B247" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="C247" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="D247" s="5" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A248" s="6">
+        <v>200060</v>
+      </c>
+      <c r="B248" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="D248" s="5" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A249" s="6">
+        <v>200061</v>
+      </c>
+      <c r="B249" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A250" s="6">
+        <v>200062</v>
+      </c>
+      <c r="B250" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="D250" s="5" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A251" s="6">
+        <v>200063</v>
+      </c>
+      <c r="B251" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="C251" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="D251" s="5" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A252" s="6">
+        <v>200064</v>
+      </c>
+      <c r="B252" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="C252" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="D252" s="5" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A253" s="6">
+        <v>200065</v>
+      </c>
+      <c r="B253" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="C253" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="D253" s="5" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A254" s="6">
+        <v>200066</v>
+      </c>
+      <c r="B254" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="D254" s="5" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A255" s="6">
+        <v>200067</v>
+      </c>
+      <c r="B255" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="D255" s="5" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A256" s="6">
+        <v>200068</v>
+      </c>
+      <c r="B256" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A257" s="6">
+        <v>200069</v>
+      </c>
+      <c r="B257" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="C257" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="D257" s="5" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A258" s="6">
         <v>200070</v>
       </c>
-      <c r="B228" s="6" t="s">
+      <c r="B258" s="6" t="s">
         <v>622</v>
       </c>
-      <c r="C228" s="5" t="s">
+      <c r="C258" s="5" t="s">
         <v>617</v>
       </c>
-      <c r="D228" s="5" t="s">
+      <c r="D258" s="5" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="229" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A229" s="6">
+    <row r="259" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A259" s="6">
         <v>200071</v>
       </c>
-      <c r="B229" s="6" t="s">
+      <c r="B259" s="6" t="s">
         <v>709</v>
       </c>
-      <c r="C229" s="5" t="s">
+      <c r="C259" s="5" t="s">
         <v>711</v>
       </c>
-      <c r="D229" s="5" t="s">
+      <c r="D259" s="5" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="230" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="231" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="232" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="233" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="234" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="235" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="236" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="237" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="238" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="239" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="240" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="241" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="242" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="243" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="244" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="245" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="246" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="247" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="248" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="249" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="250" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="251" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="252" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="253" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="254" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="255" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="256" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="257" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="258" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="259" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="260" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="261" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="262" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="263" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="264" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="265" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="266" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="267" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="268" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="269" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="270" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="271" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="272" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="273" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="274" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="275" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="276" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="260" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="261" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="262" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="263" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="264" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="265" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="266" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="267" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="268" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="269" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="270" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="271" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="272" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="273" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="274" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="275" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="276" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="277" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="278" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="279" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -6887,12 +7487,12 @@
     <row r="512" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="513" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="514" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="515" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="516" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="517" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="518" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="519" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="520" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="515" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="516" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="517" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="518" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="519" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="520" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="521" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="522" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="523" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -6917,12 +7517,12 @@
     <row r="542" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="543" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="544" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="545" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="546" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="547" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="548" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="549" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="550" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="545" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="546" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="547" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="548" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="549" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="550" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="551" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="552" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="553" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -6960,7 +7560,7 @@
     <row r="585" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="586" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="587" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="588" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="588" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="589" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="590" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="591" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -6987,6 +7587,36 @@
     <row r="612" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="613" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="614" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="615" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="616" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="617" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="618" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="619" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="620" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="621" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="622" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="623" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="624" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="625" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="626" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="627" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="628" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="629" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="630" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="631" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="632" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="633" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="634" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="635" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="636" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="637" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="638" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="639" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="640" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="641" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="642" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="643" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="644" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Excels/Language_多语言表.xlsx
+++ b/Excels/Language_多语言表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EBB7B3-895F-4778-AF62-6EE31D208127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490C935C-ECE4-4E35-B546-A087D22F09D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="750">
   <si>
     <t>int</t>
   </si>
@@ -60,9 +60,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>名称</t>
-  </si>
-  <si>
     <t>英文</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t>Test000001</t>
   </si>
   <si>
-    <t>测试000001</t>
-  </si>
-  <si>
     <t>テスト000001</t>
   </si>
   <si>
@@ -105,9 +99,6 @@
     <t>TestQuality</t>
   </si>
   <si>
-    <t>测试质量</t>
-  </si>
-  <si>
     <t>テスト品質</t>
   </si>
   <si>
@@ -120,9 +111,6 @@
     <t>TestBagItem</t>
   </si>
   <si>
-    <t>测试背包物品</t>
-  </si>
-  <si>
     <t>テストバッグアイテム</t>
   </si>
   <si>
@@ -135,22 +123,13 @@
     <t>TestBagItemDescTestBagItemDescTestBagItemDescTestBagItemDescTestBagItemDesc</t>
   </si>
   <si>
-    <t>测试背包描述测试背包描述测试背包描述测试背包描述测试背包描述</t>
-  </si>
-  <si>
     <t>テストバッグアイテムの説明</t>
   </si>
   <si>
-    <t xml:space="preserve">Testbeutel-Artikel-Desc </t>
-  </si>
-  <si>
     <t>TestAreaName0001</t>
   </si>
   <si>
     <t>TestArea</t>
-  </si>
-  <si>
-    <t>测试区域</t>
   </si>
   <si>
     <t>テストエリア</t>
@@ -205,21 +184,12 @@
     <t>Dialogue0005</t>
   </si>
   <si>
-    <t>输入你的Code即可立马体验，还没拥有Code？立即前往Landing Page获取！</t>
-  </si>
-  <si>
-    <t>コードを入力するとすぐに体験できますが、まだコードをお持ちではありませんか?ランディングページにアクセスして、今すぐ入手してください!</t>
-  </si>
-  <si>
     <t>Geben Sie Ihren Code ein, um es sofort zu erleben, Sie haben noch keinen Code? Gehen Sie zur Landing Page, um es jetzt zu erhalten!</t>
   </si>
   <si>
     <t>Dialogue0006</t>
   </si>
   <si>
-    <t>コードを手に、ドラゴンバースネオを体験するつもりです</t>
-  </si>
-  <si>
     <t>Dialogue0007</t>
   </si>
   <si>
@@ -253,9 +223,6 @@
     <t>Pitaya</t>
   </si>
   <si>
-    <t>火龙果</t>
-  </si>
-  <si>
     <t>ドラゴンフルーツ</t>
   </si>
   <si>
@@ -268,30 +235,18 @@
     <t>Gold</t>
   </si>
   <si>
-    <t>金币</t>
-  </si>
-  <si>
     <t>金</t>
   </si>
   <si>
     <t>BagItemDesc0001</t>
   </si>
   <si>
-    <t>按下开关便可以捕捉Dragon，并封装在内的位面球。</t>
-  </si>
-  <si>
-    <t>スイッチを押すだけで、ドラゴンを捕らえ、平面の球体にカプセル化することができます。</t>
-  </si>
-  <si>
     <t>Auf Knopfdruck kann der Drache eingefangen und in einer ebenen Kugel eingekapselt werden.</t>
   </si>
   <si>
     <t>BagItemDesc0002</t>
   </si>
   <si>
-    <t>果肉细腻无核，汁水丰盈，是野生Dragon最喜爱的果实之一。</t>
-  </si>
-  <si>
     <t>果肉は繊細で種がなく、果汁が豊富で、野生のドラゴンのお気に入りの果物の1つになっています。</t>
   </si>
   <si>
@@ -301,9 +256,6 @@
     <t>BagItemDesc0003</t>
   </si>
   <si>
-    <t>从遥远的星空落下的神奇货币，看起来是很贵重的物品。</t>
-  </si>
-  <si>
     <t>遠くの星空から落ちてくる魔法の貨幣は、とても貴重なアイテムに見えます。</t>
   </si>
   <si>
@@ -313,9 +265,6 @@
     <t>DragonCharacter0001</t>
   </si>
   <si>
-    <t>机警的</t>
-  </si>
-  <si>
     <t>アラート</t>
   </si>
   <si>
@@ -343,9 +292,6 @@
     <t>Timid</t>
   </si>
   <si>
-    <t>胆小的</t>
-  </si>
-  <si>
     <t>臆病</t>
   </si>
   <si>
@@ -370,9 +316,6 @@
     <t>DragonCharacter0005</t>
   </si>
   <si>
-    <t>温和的</t>
-  </si>
-  <si>
     <t>軽度</t>
   </si>
   <si>
@@ -505,9 +448,6 @@
     <t>Unique</t>
   </si>
   <si>
-    <t>优秀</t>
-  </si>
-  <si>
     <t>ユニーク</t>
   </si>
   <si>
@@ -535,9 +475,6 @@
     <t>Epic</t>
   </si>
   <si>
-    <t>史诗</t>
-  </si>
-  <si>
     <t>エピック</t>
   </si>
   <si>
@@ -550,9 +487,6 @@
     <t>Legendary</t>
   </si>
   <si>
-    <t>传说</t>
-  </si>
-  <si>
     <t>伝説</t>
   </si>
   <si>
@@ -655,9 +589,6 @@
     <t>Handstand</t>
   </si>
   <si>
-    <t>倒立旋转</t>
-  </si>
-  <si>
     <t>Danmu_Content_3131</t>
   </si>
   <si>
@@ -682,9 +613,6 @@
     <t>Mechan</t>
   </si>
   <si>
-    <t>机械舞</t>
-  </si>
-  <si>
     <t>Danmu_Content_3134</t>
   </si>
   <si>
@@ -700,27 +628,18 @@
     <t>Jackson</t>
   </si>
   <si>
-    <t>迈克尔</t>
-  </si>
-  <si>
     <t>Danmu_Content_3136</t>
   </si>
   <si>
     <t>Modern</t>
   </si>
   <si>
-    <t>现代舞</t>
-  </si>
-  <si>
     <t>Danmu_Content_3137</t>
   </si>
   <si>
     <t>Group</t>
   </si>
   <si>
-    <t>团舞</t>
-  </si>
-  <si>
     <t>Danmu_Content_3138</t>
   </si>
   <si>
@@ -736,36 +655,24 @@
     <t>Shoulder</t>
   </si>
   <si>
-    <t>搂肩</t>
-  </si>
-  <si>
     <t>Danmu_Content_3140</t>
   </si>
   <si>
     <t>Cheer</t>
   </si>
   <si>
-    <t>欢呼</t>
-  </si>
-  <si>
     <t>Danmu_Content_3141</t>
   </si>
   <si>
     <t>Defy</t>
   </si>
   <si>
-    <t>不服气</t>
-  </si>
-  <si>
     <t>Danmu_Content_3142</t>
   </si>
   <si>
     <t>Viral</t>
   </si>
   <si>
-    <t>两只老虎</t>
-  </si>
-  <si>
     <t>Danmu_Content_3143</t>
   </si>
   <si>
@@ -787,45 +694,30 @@
     <t>Salute</t>
   </si>
   <si>
-    <t>行礼</t>
-  </si>
-  <si>
     <t>Danmu_Content_3146</t>
   </si>
   <si>
     <t>Wave</t>
   </si>
   <si>
-    <t>挥手</t>
-  </si>
-  <si>
     <t>Danmu_Content_3147</t>
   </si>
   <si>
     <t>Like</t>
   </si>
   <si>
-    <t>点赞</t>
-  </si>
-  <si>
     <t>Danmu_Content_3148</t>
   </si>
   <si>
     <t>Kiss</t>
   </si>
   <si>
-    <t>飞吻</t>
-  </si>
-  <si>
     <t>Danmu_Content_3149</t>
   </si>
   <si>
     <t>Angry</t>
   </si>
   <si>
-    <t>生气</t>
-  </si>
-  <si>
     <t>Danmu_Content_3150</t>
   </si>
   <si>
@@ -835,9 +727,6 @@
     <t>ShakeHead</t>
   </si>
   <si>
-    <t>摇头</t>
-  </si>
-  <si>
     <t>Danmu_Content_3152</t>
   </si>
   <si>
@@ -853,18 +742,12 @@
     <t>Hug</t>
   </si>
   <si>
-    <t>拥抱</t>
-  </si>
-  <si>
     <t>Danmu_Content_3154</t>
   </si>
   <si>
     <t>Pas deux</t>
   </si>
   <si>
-    <t>双人舞</t>
-  </si>
-  <si>
     <t>Danmu_Content_3155</t>
   </si>
   <si>
@@ -883,47 +766,17 @@
     <t>Wrestle</t>
   </si>
   <si>
-    <t>过肩摔</t>
-  </si>
-  <si>
     <t>Dragontip_Content_0001</t>
   </si>
   <si>
-    <t>需要*元素龙才能解开该法阵！</t>
-  </si>
-  <si>
     <t>捕捉成功</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>捕捉失败</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的DragonBall不足，无法捕捉。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始捕捉</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始采集</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集成功</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>背包</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>点我复位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Collection_001</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -951,18 +804,6 @@
     <t>CharacterName0003</t>
   </si>
   <si>
-    <t>采集导师 · 瑞奇</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手导师 · 奥利弗</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕龙专家 · 瑟琳娜</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>舞者 · 芭芭拉</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -970,1557 +811,1786 @@
     <t>Newbie Mentor · Oliver</t>
   </si>
   <si>
+    <t>CharacterName0004</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterInteract0001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterInteract0002</t>
+  </si>
+  <si>
+    <t>Emote</t>
+  </si>
+  <si>
+    <t>一般的</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>完美的</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bag_001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bag_002</t>
+  </si>
+  <si>
+    <t>Bag_003</t>
+  </si>
+  <si>
+    <t>物品</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>休息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reset_001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collection_002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collection_003</t>
+  </si>
+  <si>
+    <t>Catch_002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Catch_005</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bag_004</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bag_005</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code在手，我要出去</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0009</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is there anything interesting around here?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0010</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0011</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dragonball? looks pretty cool?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0012</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>You bet! Dragonballs are preciously unique in this land, it's designed to capture DragonBorns or as an crafting material for mysterious items! Let me help you recognize them.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0013</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>The rarities of these DragonBalls are determined by their colors and textures. Rare DragonBalls have higher odds in capturing DragonBorns.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0014</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>How can I get Dragonball?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0015</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eazy peasy! Just aim at the Dragonball and hit "collect".</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0016</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fanstastic, and what are those red fruits over there? Can I eat them?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0017</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>That's Pitaya: A delicate and juicy fruit, one of the favorite fruits of Dragonborns. To collect Pitaya, just stand underneath the trees and press "collect".</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0018</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pitaya sounds delicious!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0019</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indeed, not only are they tasty, but they're also crucial materials for crafting. Take some Pitaya with you, and they might help you along your journey in this land!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0020</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>There is something else I want you to know, we call it "Gold Coins"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0021</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold Coins? Are they also collectibles?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0022</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0023</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>So lucky-strikes are true! I hope I am the "hit by gold" version of Isaac Newton&gt;3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0024</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0025</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hey, new adventurer! Looks like you have mastered the collection skills, now it's time for you to get your lovely DragonBorn pal!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0026</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aha! Never say no to free Dragons!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0027</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your honesty is... quite straightfoward. You will need to use your Dragonballs to capture them, I will show you how.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0028</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>You see this Dragonball? All you have to do is capture them using the "Capture" controller, select your Dragonball and tose it to the Dragonborn you wish to capture. But it's not easy! Dragonborns could be quite stubborn to capture!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0029</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0030</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0031</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0032</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's quite simple, just look at the name and color of the Dragonborn, that will be your hint. Anyway, observation will help.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0033</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>You said it like it's so simple..</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0034</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not that hard anyway!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0035</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can't you tell I'm being ironic?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0036</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>......, you are lucky I'm not the grumpy one. Actually, I can teach you a technic, it can efficiently increase your odds of capturing them.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0037</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm listening.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0038</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remember, controls the your strength. If the strength indicator slides right into the highest strength section (the narrow section in the force indicator), You can dramatically increase your odds of capture.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0039</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bingo! Wait.. I don't think I'm the only one that konw this..</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0040</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>......Just go and try, remember to capture as much as possible. They will be your key helper along your journey!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0041</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0042</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emote? Like what?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0043</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open your Emote panel, select an emote and play it, it's quite fun and I can show it to you!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0044</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0045</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Also here's a reminder for you: some emotes can boost your level of friendship with other masters. But be careful not to choose the wrong emote, people might get angry!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0046</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>O...kay, what's new..</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0047</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>You'll get there, like the wiseman once said: communications are delicacy, learn to be artful!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code003</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code004</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting004</t>
+  </si>
+  <si>
+    <t>Setting002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>登出</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改形象</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting006</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting005</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting003</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting007</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AreaName0001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AreaName0002</t>
+  </si>
+  <si>
+    <t>AreaName0003</t>
+  </si>
+  <si>
+    <t>AreaName0004</t>
+  </si>
+  <si>
+    <t>AreaName0005</t>
+  </si>
+  <si>
+    <t>AreaName0006</t>
+  </si>
+  <si>
+    <t>The magical coin fell from deep space, looks like a very valuable item.</t>
+  </si>
+  <si>
+    <t>Vigilant</t>
+  </si>
+  <si>
+    <t>Gentle</t>
+  </si>
+  <si>
+    <t>Bag</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Auto-follow</t>
+  </si>
+  <si>
+    <t>Rest</t>
+  </si>
+  <si>
+    <t>Reset</t>
+  </si>
+  <si>
+    <t>Collection Start</t>
+  </si>
+  <si>
+    <t>Collection Successful</t>
+  </si>
+  <si>
+    <t>Collection Failed</t>
+  </si>
+  <si>
+    <t>Boxing Start</t>
+  </si>
+  <si>
+    <t>Boxing Successful</t>
+  </si>
+  <si>
+    <t>Boxing Failed</t>
+  </si>
+  <si>
+    <t>Insufficient Dragonball, try again.</t>
+  </si>
+  <si>
+    <t>Perfect</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Verify</t>
+  </si>
+  <si>
+    <t>Setting</t>
+  </si>
+  <si>
+    <t>Rename</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Log out</t>
+  </si>
+  <si>
+    <t>Change avatar</t>
+  </si>
+  <si>
+    <t>Your name</t>
+  </si>
+  <si>
+    <t>CharacterName0005</t>
+  </si>
+  <si>
+    <t>CharacterName0006</t>
+  </si>
+  <si>
+    <t>CharacterName0007</t>
+  </si>
+  <si>
+    <t>CharacterName0008</t>
+  </si>
+  <si>
+    <t>CharacterName0009</t>
+  </si>
+  <si>
+    <t>土元素智者 · 泰瑞克斯</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterName0010</t>
+  </si>
+  <si>
+    <t>CharacterName0011</t>
+  </si>
+  <si>
+    <t>CharacterName0012</t>
+  </si>
+  <si>
+    <t>CharacterName0013</t>
+  </si>
+  <si>
+    <t>Dialogue0048</t>
+  </si>
+  <si>
+    <t>Dialogue0049</t>
+  </si>
+  <si>
+    <t>Dialogue0050</t>
+  </si>
+  <si>
+    <t>Dialogue0051</t>
+  </si>
+  <si>
+    <t>Dialogue0052</t>
+  </si>
+  <si>
+    <t>Dialogue0053</t>
+  </si>
+  <si>
+    <t>Dialogue0054</t>
+  </si>
+  <si>
+    <t>Dialogue0055</t>
+  </si>
+  <si>
+    <t>Dialogue0056</t>
+  </si>
+  <si>
+    <t>Dialogue0057</t>
+  </si>
+  <si>
+    <t>Dialogue0058</t>
+  </si>
+  <si>
+    <t>Hello, adventurer. The stone structure behind me is called "Woodland Ball Buster," sealed by the mighty power of "wood" and mysterious mechanics.</t>
+  </si>
+  <si>
+    <t>I was retrained here decades ago, as you can see. I am not sure what's inside this mythical structure, not without my ability to move.</t>
+  </si>
+  <si>
+    <t>But I will teach you some technics, adventurer. The technics might help you unveil the myth behind it.</t>
+  </si>
+  <si>
+    <t>Now, try lifting the stone sphere.</t>
+  </si>
+  <si>
+    <t>Now, try putting down the stone sphere.</t>
+  </si>
+  <si>
+    <t>Well done, adventurer. Now go and explore, I wish you success.</t>
+  </si>
+  <si>
+    <t>Observe the structure carefully, use the technics and perhaps you will find some clues. (Repeated after completing the tutorial)</t>
+  </si>
+  <si>
+    <t>What is sealed underneath?</t>
+  </si>
+  <si>
+    <t>Are there any other clues?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greetings, adventurer. This maze is crafted from ancient earth magic.</t>
+  </si>
+  <si>
+    <t>Unfortunately, my comfinement retrained my ability to investigate. But I sensed high density of earth elemental force from this area, it could be related to the Earth Dragon.</t>
+  </si>
+  <si>
+    <t>Let me teach you some skills that might be helpful.</t>
+  </si>
+  <si>
+    <t>First, leap from a high point onto the giant stone slabs below.</t>
+  </si>
+  <si>
+    <t>Well done! The gravitational velocity will help you destroy the top stone slabs.</t>
+  </si>
+  <si>
+    <t>Excellent, it seems you're ready to face the ancient stone maze. Good luck, adventurer.</t>
+  </si>
+  <si>
+    <t>Observe the shapes and colors of the stones carefully; There might be hidden pathway that leads you back to the surface! (Repeated after completing the tutorial)</t>
+  </si>
+  <si>
+    <t>Magic circle? What's sealed within?</t>
+  </si>
+  <si>
+    <t>Any other tips?</t>
+  </si>
+  <si>
+    <t>Dialogue0059</t>
+  </si>
+  <si>
+    <t>Dialogue0060</t>
+  </si>
+  <si>
+    <t>Dialogue0061</t>
+  </si>
+  <si>
+    <t>Dialogue0062</t>
+  </si>
+  <si>
+    <t>Dialogue0063</t>
+  </si>
+  <si>
+    <t>Dialogue0064</t>
+  </si>
+  <si>
+    <t>Dialogue0065</t>
+  </si>
+  <si>
+    <t>I can't venture deep into the abyss, but I sense substantial fire energy coming out from the abyss.</t>
+  </si>
+  <si>
+    <t>Water and fire are mutually restraining elements. Use their power against each other, and you shall purify comtemination.</t>
+  </si>
+  <si>
+    <t>Well done. You successfully purified the lava at the bottom of the abyss. Looks like you've became a brilliant self-taught!</t>
+  </si>
+  <si>
+    <t>Is there anything worth exploring here?</t>
+  </si>
+  <si>
+    <t>Dialogue0066</t>
+  </si>
+  <si>
+    <t>Dialogue0067</t>
+  </si>
+  <si>
+    <t>Dialogue0068</t>
+  </si>
+  <si>
+    <t>Dialogue0069</t>
+  </si>
+  <si>
+    <t>Dialogue0070</t>
+  </si>
+  <si>
+    <t>Dialogue0071</t>
+  </si>
+  <si>
+    <t>Dialogue0072</t>
+  </si>
+  <si>
+    <t>Dialogue0073</t>
+  </si>
+  <si>
+    <t>Water can purify lava, and vice versa.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello, adventurer. This cloud maze was cleansed by the mighty power of water.</t>
+  </si>
+  <si>
+    <t>The power of water is burried deep by the mythical clouds. Sense the elemental force of water and find a way out.</t>
+  </si>
+  <si>
+    <t>As you know, water and fire are mutual retaining elements, summon the force and use them against each other!</t>
+  </si>
+  <si>
+    <t>What lies at the end of the maze?</t>
+  </si>
+  <si>
+    <t>Dialogue0074</t>
+  </si>
+  <si>
+    <t>Dialogue0075</t>
+  </si>
+  <si>
+    <t>Dialogue0076</t>
+  </si>
+  <si>
+    <t>Dialogue0077</t>
+  </si>
+  <si>
+    <t>Dialogue0078</t>
+  </si>
+  <si>
+    <t>Dragonverse Neo へようこそ!</t>
+  </si>
+  <si>
+    <t>Willkommen bei Dragonverse Neo und sei ein Teil davon!</t>
+  </si>
+  <si>
+    <t>What shall be unveiled in the world of Dragonverse Neo?</t>
+  </si>
+  <si>
+    <t>Was für eine Welt ist Dragonverse Neo?</t>
+  </si>
+  <si>
+    <t>Dragonverse Neoは、探索し、発見し、自分のものをすべて作成できる、新しい楽しさに満ちた世界です!</t>
+  </si>
+  <si>
+    <t>Dragonverse Neo ist eine neue, unterhaltsame Welt, in der du alles erforschen, entdecken und erschaffen kannst, was dir gehört!</t>
+  </si>
+  <si>
+    <t>Wie kann ich Dragonverse Neo erleben?</t>
+  </si>
+  <si>
+    <t>Mit dem Code in der Hand werde ich Dragonverse Neo erleben</t>
+  </si>
+  <si>
+    <t>Verification ··· Succeed! Congratulations on getting out of the novice village, get ready to explore the world of Dragonverse Neo!</t>
+  </si>
+  <si>
+    <t>Verifizierung ··· Gelingen! Herzlichen Glückwunsch, dass du das Anfängerdorf verlassen und Dragonverse Neo erkundet hast~</t>
+  </si>
+  <si>
+    <t>Hey, new adventurer! Welcome to Dragonverse Neo. This is a world of dragon fantasy! See those colorful objects on the ground? Those are the true treasures in this land: DragonBalls.</t>
+  </si>
+  <si>
+    <t>In the land of Dragonverse Neo, Gold Coins is a precious resource. It fell from distance space. Using Gold Coins, you may trade with other adventurers, buy items and craft rare items.</t>
+  </si>
+  <si>
+    <t>Exclusively in Dragonverse Neo! Now go and collect some of those Dragonballs, Pitaya and Gold Coins. Your adventure is await.</t>
+  </si>
+  <si>
+    <t>Yo new folk! Welcome to Dragonverse Neo, I am the master of emote in this land, and you can call be Barb! Ready to learn some funky move?</t>
+  </si>
+  <si>
+    <t>This is our siganature move, very popular in the land of Dragonverse Neo! Use it and turn on the crowd like we always do!</t>
+  </si>
+  <si>
+    <t>TinyGameLanKey0001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TinyGameLanKey0002</t>
+  </si>
+  <si>
+    <t>TinyGameLanKey0003</t>
+  </si>
+  <si>
+    <t>拾取</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>放下</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Put it down</t>
+  </si>
+  <si>
+    <t>Pick up</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Azure Shore</t>
+  </si>
+  <si>
+    <t>碧波湖畔</t>
+  </si>
+  <si>
+    <t>Acient Abyss</t>
+  </si>
+  <si>
+    <t>Mythical Wasteland</t>
+  </si>
+  <si>
+    <t>Glacial Realm</t>
+  </si>
+  <si>
+    <t>冰霜天池</t>
+  </si>
+  <si>
+    <t>Fire spells</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>My Dragonkey is ready!</t>
+  </si>
+  <si>
+    <t>I don't have a Dragonkey..</t>
+  </si>
+  <si>
+    <t>Enter your code</t>
+  </si>
+  <si>
+    <t>Amount</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bag_006</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoxingDragonName00001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoxingDragonName00002</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00003</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00004</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00005</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00006</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00007</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00008</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00009</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00010</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00011</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00012</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00013</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00014</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00015</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00016</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00017</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00018</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00019</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00020</t>
+  </si>
+  <si>
+    <t>Dialogue0079</t>
+  </si>
+  <si>
+    <t>You can get Dragon Key by staking MBOX to holding 10,000 veMBOX, which can be found at https: //www.mobox.io/#/neo for more information.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoxingDragonName00021</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00022</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00023</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00024</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00025</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00026</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00027</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00028</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00029</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00030</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00031</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00032</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00033</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00034</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00035</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00036</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00037</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00038</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00039</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00040</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00041</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00042</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00043</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00044</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00045</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00046</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00047</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00048</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00049</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00050</t>
+  </si>
+  <si>
+    <t>Welcome to DragonVerse Neo, step in and become a part of this enchanting realm!</t>
+  </si>
+  <si>
+    <t>DragonVerse Neo is a novel and delightful world where you can explore, discover, and create everything that belongs uniquely to you!</t>
+  </si>
+  <si>
+    <t>How can I experience DragonVerse Neo?</t>
+  </si>
+  <si>
+    <t>Enter your Dragonkey and start your debut journey right away. Head over to Landing Page and check your eligibility if you don't have your Dragonkey yet.</t>
+  </si>
+  <si>
+    <t>Master of Collection · Ricky</t>
+  </si>
+  <si>
+    <t>Master of Dragons · Selina</t>
+  </si>
+  <si>
     <t>Master of Emote · Barbara</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Master of Dragons · Selina</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Master of Collection · Ricky</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CharacterName0004</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CharacterInteract0001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CharacterInteract0002</t>
-  </si>
-  <si>
-    <t>对话</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>动作交互</t>
-  </si>
-  <si>
-    <t>Emote</t>
-  </si>
-  <si>
-    <t>Talk</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般的</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>完美的</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bag_001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bag_002</t>
-  </si>
-  <si>
-    <t>龙娘</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bag_003</t>
-  </si>
-  <si>
-    <t>物品</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟随</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>休息</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reset_001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Collection_002</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Collection_003</t>
-  </si>
-  <si>
-    <t>采集失败</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Catch_002</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Catch_005</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bag_004</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bag_005</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code在手，我要出去</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>我还没有Code，哪里获取</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0009</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Is there anything interesting around here?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>这附近有什么有趣的东西吗？</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0010</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0011</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dragonball? looks pretty cool?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DragonBall？很厉害的样子？</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0012</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>You bet! Dragonballs are preciously unique in this land, it's designed to capture DragonBorns or as an crafting material for mysterious items! Let me help you recognize them.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>没错！DragonBall是这片大陆上独有的特产。你可以用它们来捕捉MODragon，也能用来合成一些有趣的东西。来，我教你如何辨认DragonBall。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0013</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>The rarities of these DragonBalls are determined by their colors and textures. Rare DragonBalls have higher odds in capturing DragonBorns.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>这些DragonBall有不同的颜色和纹理，代表着它们的不同稀有度，越稀有的DragonBall捕获成功率越高。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0014</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>How can I get Dragonball?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>我要如何获得DragonBall呢？</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0015</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eazy peasy! Just aim at the Dragonball and hit "collect".</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>对准它们，按下采集按钮，就能轻松采集到手。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0016</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fanstastic, and what are those red fruits over there? Can I eat them?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>原来如此，那边的红色果实又是什么，可以吃吗？</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0017</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>That's Pitaya: A delicate and juicy fruit, one of the favorite fruits of Dragonborns. To collect Pitaya, just stand underneath the trees and press "collect".</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>那是我们的火龙果。果肉细腻无核，汁水丰盈，是野生MODragon最喜爱的果实之一。要采集火龙果，只需走到果树下，按下采集按钮即可。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0018</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pitaya sounds delicious!</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>火龙果听起来好好吃啊！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0019</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Indeed, not only are they tasty, but they're also crucial materials for crafting. Take some Pitaya with you, and they might help you along your journey in this land!</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是的，不仅好吃，而且还是一些合成材料的重要组成部分。收集一些火龙果，它们可能对你未来的冒险起到帮助。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0020</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>There is something else I want you to know, we call it "Gold Coins"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>还有一种采集物我要介绍给你，那就是金币。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0021</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gold Coins? Are they also collectibles?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币？这也是一种采集物吗？</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0022</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0023</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>So lucky-strikes are true! I hope I am the "hit by gold" version of Isaac Newton&gt;3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>原来天上掉金币这种事是真的会发生啊！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0024</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0025</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hey, new adventurer! Looks like you have mastered the collection skills, now it's time for you to get your lovely DragonBorn pal!</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘿，新冒险者，听说你已经掌握了采集的技巧，那么是不是也想要拥有属于自己的小伙伴MODragon呢？</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0026</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aha! Never say no to free Dragons!</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>来都来了，肯定要搞一只吧。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0027</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Your honesty is... quite straightfoward. You will need to use your Dragonballs to capture them, I will show you how.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>你倒是很坦诚嘛！其实，只需要使用DragonBall就可以捕捉到属于你的Dragon了。先来了解一下如何使用DragonBall吧。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0028</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>You see this Dragonball? All you have to do is capture them using the "Capture" controller, select your Dragonball and tose it to the Dragonborn you wish to capture. But it's not easy! Dragonborns could be quite stubborn to capture!</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>看到这颗DragonBall了吗？你可以通过MODragon捕获面板的操纵杆，选择它，然后投掷到想要捕捉的MODragon附近。不过，这可不是一件简单的事情，每个MODragon都有自己的个性。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0029</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stubborn? You mean they have personalities?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>个性？</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0030</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>That's right, there are 5 personalities Dragonborns might have: Vigilant; Grumpy; Timid; Irritable or Gentle. Personalities are crucial when it comes to capturing them, so you might want to know their personalities before you waste your dragonball.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>没错，每个Dragon都有五种个性，包括机警的、暴躁的、胆小的、易怒的、温和的。而且，它们的个性还会影响到捕捉的难度。所以在捕捉之前，最好先了解一下你要捕捉的MODragon的个性。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0031</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Interesting! How would I know about their personalities?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>原来如此，我要怎么了解它们的个性呢？</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0032</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>It's quite simple, just look at the name and color of the Dragonborn, that will be your hint. Anyway, observation will help.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>很简单，你只需要观察MODragon头上的名称和颜色，他们会提示你这只MODragon的个性；总之，多观察，你就能熟知它们的个性。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0033</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>You said it like it's so simple..</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>听上去很简单的样子。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0034</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Not that hard anyway!</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>那当然了，没有大家说的那么难！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0035</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Can't you tell I'm being ironic?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>我在说反话你听不出来吗？</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0036</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>......, you are lucky I'm not the grumpy one. Actually, I can teach you a technic, it can efficiently increase your odds of capturing them.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>……，别在这阴阳怪气了，我破例传授你一个投掷诀窍，可以很好的提高你的捕获概率。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0037</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>I'm listening.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>说来听听。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0038</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remember, controls the your strength. If the strength indicator slides right into the highest strength section (the narrow section in the force indicator), You can dramatically increase your odds of capture.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>记住，力度是关键，投掷的瞬间，如果力度指示器指针刚好摆动到最高档力度区间（力度指示器中间最窄的那一档），就能够大大的提高捕获的成功率哦。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0039</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bingo! Wait.. I don't think I'm the only one that konw this..</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>还有这种操作？你不会只告诉我一个人吧？</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0040</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>......Just go and try, remember to capture as much as possible. They will be your key helper along your journey!</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0041</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0042</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Emote? Like what?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>动作？比如说？</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0043</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open your Emote panel, select an emote and play it, it's quite fun and I can show it to you!</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击你的动作面板，选择一个动作，保证比你想象中还要嗨！看我来给你演示一下~</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0044</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个动作是我们这里的代表性动作，你一学就能成为街头巷尾的焦点。用它向其他冒险者示好，他们肯定会跟着你一起high起来。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0045</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Also here's a reminder for you: some emotes can boost your level of friendship with other masters. But be careful not to choose the wrong emote, people might get angry!</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>提醒你一下，有些动作可以提高他对你的好感度，而有些动作……你可得小心点，在%&amp;￥#@导师那里可千万别做%*&amp;@这个动作。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0046</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>O...kay, what's new..</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>额，还有这种操作。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0047</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>You'll get there, like the wiseman once said: communications are delicacy, learn to be artful!</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>这就是所谓的见人说人话，见龙走龙步了吧。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code002</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code003</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code004</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Setting001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Setting004</t>
-  </si>
-  <si>
-    <t>设置</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改昵称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Setting002</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>多语言</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>登出</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改形象</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Setting006</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Setting005</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Setting003</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的昵称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Setting007</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>AreaName0001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>AreaName0002</t>
-  </si>
-  <si>
-    <t>AreaName0003</t>
-  </si>
-  <si>
-    <t>出生点</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>AreaName0004</t>
-  </si>
-  <si>
-    <t>AreaName0005</t>
-  </si>
-  <si>
-    <t>AreaName0006</t>
-  </si>
-  <si>
-    <t>Enter your Dragonkey and start your debut journey right away, don't have a Dragonkey yet? Head over to Landing Page and check your eligibility!</t>
-  </si>
-  <si>
-    <t>Press to capture and contain wild MODragon.</t>
-  </si>
-  <si>
-    <t>A delicate and juicy fruit, one of the favorite fruits of wild MODragons.</t>
-  </si>
-  <si>
-    <t>The magical coin fell from deep space, looks like a very valuable item.</t>
-  </si>
-  <si>
-    <t>Vigilant</t>
-  </si>
-  <si>
-    <t>Gentle</t>
-  </si>
-  <si>
-    <t>Aqua MODragon</t>
-  </si>
-  <si>
-    <t>Hibiscus MODragon</t>
-  </si>
-  <si>
-    <t>Megalithic MODragon</t>
-  </si>
-  <si>
-    <t>Infernal MODragon</t>
-  </si>
-  <si>
-    <t>Ocean MODragon</t>
-  </si>
-  <si>
-    <t>Forest MODragon</t>
-  </si>
-  <si>
-    <t>Mountain MODragon</t>
-  </si>
-  <si>
-    <t>Light MODragon</t>
-  </si>
-  <si>
-    <t>Shadow MODragon</t>
-  </si>
-  <si>
-    <t>火焰龙娘</t>
-  </si>
-  <si>
-    <t>水浪龙娘</t>
-  </si>
-  <si>
-    <t>木槿龙娘</t>
-  </si>
-  <si>
-    <t>岩石龙娘</t>
-  </si>
-  <si>
-    <t>炼狱龙娘</t>
-  </si>
-  <si>
-    <t>海洋龙娘</t>
-  </si>
-  <si>
-    <t>森林龙娘</t>
-  </si>
-  <si>
-    <t>山脉龙娘</t>
-  </si>
-  <si>
-    <t>圣光龙娘</t>
-  </si>
-  <si>
-    <t>暗影龙娘</t>
-  </si>
-  <si>
-    <t>Bag</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Auto-follow</t>
-  </si>
-  <si>
-    <t>Rest</t>
-  </si>
-  <si>
-    <t>Reset</t>
-  </si>
-  <si>
-    <t>Collection Start</t>
-  </si>
-  <si>
-    <t>Collection Successful</t>
-  </si>
-  <si>
-    <t>Collection Failed</t>
-  </si>
-  <si>
-    <t>Boxing Start</t>
-  </si>
-  <si>
-    <t>Boxing Successful</t>
-  </si>
-  <si>
-    <t>Boxing Failed</t>
-  </si>
-  <si>
-    <t>Insufficient Dragonball, try again.</t>
-  </si>
-  <si>
-    <t>Perfect</t>
-  </si>
-  <si>
-    <t>Normal</t>
+  </si>
+  <si>
+    <t>Wood Guardian · Fenia</t>
+  </si>
+  <si>
+    <t>Earth Guardian · Terrakus</t>
+  </si>
+  <si>
+    <t>Fire Guardian · Elia</t>
+  </si>
+  <si>
+    <t>Water Guardian · Wendy</t>
+  </si>
+  <si>
+    <t>Parkour Master · Coleman</t>
+  </si>
+  <si>
+    <t>Wood Monolith</t>
+  </si>
+  <si>
+    <t>Earth Monolith</t>
+  </si>
+  <si>
+    <t>Fire Monolith</t>
+  </si>
+  <si>
+    <t>Water Monolith</t>
+  </si>
+  <si>
+    <t>Drakeling Town</t>
+  </si>
+  <si>
+    <t>Spawn Point</t>
+  </si>
+  <si>
+    <t>*Modragon required to unlock this magical seal.</t>
+  </si>
+  <si>
+    <t>Dear Moboxers:</t>
+  </si>
+  <si>
+    <t>Press to capture and contain wild Modragon.</t>
+  </si>
+  <si>
+    <t>A delicate and juicy fruit, one of the favorite fruits of wild Modragons.</t>
+  </si>
+  <si>
+    <t>Flame Modragon</t>
+  </si>
+  <si>
+    <t>Aqua Modragon</t>
+  </si>
+  <si>
+    <t>Hibiscus Modragon</t>
+  </si>
+  <si>
+    <t>Megalithic Modragon</t>
+  </si>
+  <si>
+    <t>Infernal Modragon</t>
+  </si>
+  <si>
+    <t>Ocean Modragon</t>
+  </si>
+  <si>
+    <t>Forest Modragon</t>
+  </si>
+  <si>
+    <t>Mountain Modragon</t>
+  </si>
+  <si>
+    <t>Light Modragon</t>
+  </si>
+  <si>
+    <t>Shadow Modragon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Flame Modragon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aqua Modragon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hibiscus Modragon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Megalithic Modragon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Infernal Modragon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ocean Modragon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Forest Modragon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mountain Modragon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Light Modragon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shadow Modragon</t>
+  </si>
+  <si>
+    <t>When you can't complete a task alone, try summoning your Modragons for assistant!</t>
+  </si>
+  <si>
+    <t>Enter your Dragonkey code below and start your debut journey on Dragonverse Neo Alpha Test:</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>名稱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試000001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試品質</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試背包物品</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試背包描述測試背包描述測試背包描述測試背包描述測試背包描述</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Testbeutel-Artikel-Desc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試區域</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>歡迎來到Dragonverse Neo，成為這裡的一員！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dragonverse Neo是個怎麼樣的世界？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dragonverse Neo是一個全新的充滿樂趣的世界，你可以在這個世界中探索、發現、創造屬於你的一切！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要怎麼體驗Dragonverse Neo？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dragonverse Neoを體験するにはどうすればいいですか?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入你的Code即可立馬體驗，還沒擁有Code？立即前往Landing Page獲取！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>コードを入力するとすぐに體験できますが、まだコードをお持ちではありませんか?ランディングページにアクセスして、今すぐ入手してください!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>コードを手に、ドラゴンバースネオを體験するつもりです</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>我還沒有Code，哪裡獲取</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>驗證···成功！恭喜你可以走出新手村落，盡情探索Dragonverse Neo吧~</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>火龍果</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金幣</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>按下開關便可以捕捉Dragon，並封裝在內的位面球。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>スイッチを押すだけで、ドラゴンを捕らえ、平面の球體にカプセル化することができます。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>果肉細膩無核，汁水豐盈，是野生Dragon最喜愛的果實之一。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>從遙遠的星空落下的神奇貨幣，看起來是很貴重的物品。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>機警的</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>膽小的</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>溫和的</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰龍娘</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>水浪龍娘</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>木槿龍娘</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>岩石龍娘</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>煉獄龍娘</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>海洋龍娘</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>森林龍娘</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>山脈龍娘</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>聖光龍娘</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗影龍娘</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>優秀</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>史詩</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>傳說</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手導師 · 奧利弗</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>採集導師 · 瑞奇</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕龍專家 · 瑟琳娜</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>木元素智者 · 芬尼亞</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>火元素智者 · 艾莉婭</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>水元素智者 · 溫蒂妮</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑酷達人 · 卡勒姆</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>木元素圖騰</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>火元素圖騰</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>水元素圖騰</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>龍吟村</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生點</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>遠古遺跡</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘廢墟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>對話</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>動作交互</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒立旋轉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>機械舞</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>邁克爾</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>現代舞</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>團舞</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>摟肩</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>歡呼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不服氣</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>兩隻老虎</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>行禮</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>揮手</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>點贊</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>飛吻</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>生氣</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>搖頭</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>擁抱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>雙人舞</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>過肩摔</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要*元素龍才能解開該法陣</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>龍娘</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟隨</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>數量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>點我復位</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>開始採集</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>採集成功</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>採集失敗</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>開始捕捉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕捉失敗</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的DragonBall不足，無法捕捉。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入驗證碼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>驗證</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>設置</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改昵稱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>多語言</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的昵稱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>火球術</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>這附近有什麼有趣的東西嗎？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>喲，新來的冒險家！歡迎來到Dragonverse Neo，這裡可是個充滿奇妙的世界。看到地上那些五光十色的物體了嗎？那可是我們這裡的寶貝DragonBall。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DragonBall？很厲害的樣子？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>沒錯！DragonBall是這片大陸上獨有的特產。你可以用它們來捕捉Modragon，也能用來合成一些有趣的東西。來，我教你如何辨認DragonBall。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>這些DragonBall有不同的顏色和紋理，代表著它們的不同稀有度，越稀有的DragonBall捕獲成功率越高。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要如何獲得DragonBall呢？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>對準它們，按下採集按鈕，就能輕鬆採集到手。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>原來如此，那邊的紅色果實又是什麼，可以吃嗎？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>那是我們的火龍果。果肉細膩無核，汁水豐盈，是野生Modragon最喜愛的果實之一。要採集火龍果，只需走到果樹下，按下採集按鈕即可。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>火龍果聽起來好好吃啊！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是的，不僅好吃，而且還是一些合成材料的重要組成部分。收集一些火龍果，它們可能對你未來的冒險起到幫助。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>還有一種採集物我要介紹給你，那就是金幣。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金幣？這也是一種採集物嗎？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>在我們的Dragonverse Neo中，金幣是一種非常重要的資源。它們從遙遠的星空落下，是很貴重的物品。你可以使用它與其他冒險家交易、購買物品，甚至用來合成一些珍貴的道具。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>原來天上掉金幣這種事是真的會發生啊！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>僅此一家，也只有在Dragonverse Neo中你才能體會到這種樂趣了！去吧，嘗試著採集一些DragonBall,火龍果和金幣吧。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘿，新冒險者，聽說你已經掌握了採集的技巧，那麼是不是也想要擁有屬於自己的小夥伴Modragon呢？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>來都來了，肯定要搞一隻吧。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>你倒是很坦誠嘛！其實，只需要使用DragonBall就可以捕捉到屬於你的Dragon了。先來瞭解一下如何使用DragonBall吧。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>看到這顆DragonBall了嗎？你可以通過Modragon捕獲面板的操縱杆，選擇它，然後投擲到想要捕捉的Modragon附近。不過，這可不是一件簡單的事情，每個Modragon都有自己的個性。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>個性？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>沒錯，每個Dragon都有五種個性，包括機警的、暴躁的、膽小的、易怒的、溫和的。而且，它們的個性還會影響到捕捉的難度。所以在捕捉之前，最好先瞭解一下你要捕捉的Modragon的個性。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>原來如此，我要怎麼瞭解它們的個性呢？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>很簡單，你只需要觀察Modragon頭上的名稱和顏色，他們會提示你這只Modragon的個性；總之，多觀察，你就能熟知它們的個性。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>聽上去很簡單的樣子。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>那當然了，沒有大家說的那麼難！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>我在說反話你聽不出來嗎？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>……，別在這陰陽怪氣了，我破例傳授你一個投擲訣竅，可以很好的提高你的捕獲概率。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>說來聽聽。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>記住，力度是關鍵，投擲的瞬間，如果力度指示器指標剛好擺動到最高檔力度區間（力度指示器中間最窄的那一檔），就能夠大大的提高捕獲的成功率哦。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>還有這種操作？你不會只告訴我一個人吧？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>...... 趕緊去試試吧，記得多捕捉一些Dragon，它們會成為你在Dragonverse Neo中的得力助手。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yo，新來的小夥伴！歡迎來到Dragonverse Neo！我是這片土地上的動作指導大師，隨意叫我巴巴。在這裡，你可以和我嬉笑打鬧，學習各種騷氣的動作。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>動作？比如說？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>點擊你的動作面板，選擇一個動作，保證比你想像中還要嗨！看我來給你演示一下~</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>這個動作是我們這裡的代表性動作，你一學就能成為街頭巷尾的焦點。用它向其他冒險者示好，他們肯定會跟著你一起high起來。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒你一下，有些動作可以提高他對你的好感度，而有些動作……你可得小心點，在%&amp;￥#@導師那裡可千萬別做%*&amp;@這個動作。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>額，還有這種操作。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>這就是所謂的見人說人話，見龍走龍步了吧。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好，冒險者，我身後的這篇木林名為“舉球消消樂”，它由一些機關和封印組成。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>裡面封印著什麼？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>如你所見，我被限制在此處無法移動，裡面究竟封印著什麼，我並清楚，</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>無論如何，我會教你一些可能用的上的技能。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>現在，嘗試舉起木球吧。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>現在，嘗試放下木球。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>好了，冒險者，去一探究竟吧，祝你成功。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>還有其他線索嗎？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>仔細觀察周圍的環境，運用我教你的技能，或許你能找到一些線索。（教程完成後重複）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好，冒險者。這座迷陣是由古老的土元素魔法構成的。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法陣？裡面封印了什麼東西嗎？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>很遺憾，我被困在這裡無法深入調查。但這片區域蘊藏濃厚的土元素，可能與土元素龍有關。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不過，我可以教你一些技能，也許對你有所幫助。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>首先，從高處對準巨石板塊跳躍下去。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不錯，這種向下的衝擊力能夠摧毀頂部的巨石板塊。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>很好，看來你已經準備好挑戰巨石迷陣了。祝你好運，冒險者。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>還有其他技巧嗎？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>仔細觀察巨石的形狀和顏色，也許會有隱藏的通道。（教程完成後重複）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好，冒險者。這片火炎地域被一種神秘的力量所影響。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>這裡有什麼值得一探究竟的嗎？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>我無法深入火炎地域，但我感受到封印中似乎含有大量的火元素。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>水與火是互相克制的關係，巧妙的運用水的力量，可以淨化火炎，反之亦然。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>幹得不錯，你成功將水池底部的岩漿淨化了，看來你已經無師自通了。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are there any other techniques?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>水可以淨化火炎，反之亦然。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好，冒險者。這片雲中迷宮充滿了水元素的力量。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷宮的盡頭是什麼？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>我感受到這片區域中有濃厚的水元素。但我無法親自前往調查。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>水與火是互相克制的關係，巧妙的運用火的力量，可以消散雲霧，反之亦然。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>當你無法一個人完成任務是，考慮裝備你的寵物幫手吧。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>你還可以通過質押MBOX持有10000 veMBOX獲得Dragon Key，可前往 https: //www.mobox.io/#/neo 瞭解詳情。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TinyGameLanKey0004</t>
+  </si>
+  <si>
+    <t>尊敬的MOBOX社區：</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>在下方輸入您的Dragonkey驗證碼即可開始探索Dragonverse Neo刪檔內測的完整內容:</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chat</t>
+  </si>
+  <si>
+    <t>Stubborn? You mean they have traits?</t>
+  </si>
+  <si>
+    <t>That's right, there are 5 traits Dragonborns might have: Vigilant; Grumpy; Timid; Irritable or Gentle. traits are crucial when it comes to capturing them, so you might want to know their traits before you waste your dragonball.</t>
+  </si>
+  <si>
+    <t>Interesting! How would I know about their traits?</t>
   </si>
   <si>
     <t>Modragon</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Verify</t>
-  </si>
-  <si>
-    <t>Setting</t>
-  </si>
-  <si>
-    <t>Rename</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Log out</t>
-  </si>
-  <si>
-    <t>Change avatar</t>
-  </si>
-  <si>
-    <t>Your name</t>
-  </si>
-  <si>
-    <t>CharacterName0005</t>
-  </si>
-  <si>
-    <t>CharacterName0006</t>
-  </si>
-  <si>
-    <t>CharacterName0007</t>
-  </si>
-  <si>
-    <t>CharacterName0008</t>
-  </si>
-  <si>
-    <t>CharacterName0009</t>
-  </si>
-  <si>
-    <t>木元素智者 · 芬尼亚</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>土元素智者 · 泰瑞克斯</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>火元素智者 · 艾莉娅</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>水元素智者 · 温蒂妮</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>木元素图腾</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>火元素图腾</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>水元素图腾</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CharacterName0010</t>
-  </si>
-  <si>
-    <t>CharacterName0011</t>
-  </si>
-  <si>
-    <t>CharacterName0012</t>
-  </si>
-  <si>
-    <t>CharacterName0013</t>
-  </si>
-  <si>
-    <t>Wood Guardian · Fenia</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Earth Guardian · Terrakus</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fire Elemental Sage · Elia</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Water Guardian · Undine</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>跑酷达人 · 卡勒姆</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Parkour Master · Coleman</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Wood Element</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Earth Element</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Fire Element</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Water Element</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>你好，冒险者，我身后的这篇木林名为“举球消消乐”，它由一些机关和封印组成。</t>
-  </si>
-  <si>
-    <t>如你所见，我被限制在此处无法移动，里面究竟封印着什么，我并清楚，</t>
-  </si>
-  <si>
-    <t>无论如何，我会教你一些可能用的上的技能。</t>
-  </si>
-  <si>
-    <t>现在，尝试举起木球吧。</t>
-  </si>
-  <si>
-    <t>现在，尝试放下木球。</t>
-  </si>
-  <si>
-    <t>好了，冒险者，去一探究竟吧，祝你成功。</t>
-  </si>
-  <si>
-    <t>仔细观察周围的环境，运用我教你的技能，或许你能找到一些线索。（教程完成后重复）</t>
-  </si>
-  <si>
-    <t>Dialogue0048</t>
-  </si>
-  <si>
-    <t>Dialogue0049</t>
-  </si>
-  <si>
-    <t>Dialogue0050</t>
-  </si>
-  <si>
-    <t>Dialogue0051</t>
-  </si>
-  <si>
-    <t>Dialogue0052</t>
-  </si>
-  <si>
-    <t>Dialogue0053</t>
-  </si>
-  <si>
-    <t>Dialogue0054</t>
-  </si>
-  <si>
-    <t>Dialogue0055</t>
-  </si>
-  <si>
-    <t>Dialogue0056</t>
-  </si>
-  <si>
-    <t>Dialogue0057</t>
-  </si>
-  <si>
-    <t>Dialogue0058</t>
-  </si>
-  <si>
-    <t>Hello, adventurer. The stone structure behind me is called "Woodland Ball Buster," sealed by the mighty power of "wood" and mysterious mechanics.</t>
-  </si>
-  <si>
-    <t>I was retrained here decades ago, as you can see. I am not sure what's inside this mythical structure, not without my ability to move.</t>
-  </si>
-  <si>
-    <t>But I will teach you some technics, adventurer. The technics might help you unveil the myth behind it.</t>
-  </si>
-  <si>
-    <t>Now, try lifting the stone sphere.</t>
-  </si>
-  <si>
-    <t>Now, try putting down the stone sphere.</t>
-  </si>
-  <si>
-    <t>Well done, adventurer. Now go and explore, I wish you success.</t>
-  </si>
-  <si>
-    <t>Observe the structure carefully, use the technics and perhaps you will find some clues. (Repeated after completing the tutorial)</t>
-  </si>
-  <si>
-    <t>里面封印着什么？</t>
-  </si>
-  <si>
-    <t>What is sealed underneath?</t>
-  </si>
-  <si>
-    <t>还有其他线索吗？</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Are there any other clues?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>你好，冒险者。这座迷阵是由古老的土元素魔法构成的。</t>
-  </si>
-  <si>
-    <t>很遗憾，我被困在这里无法深入调查。但这片区域蕴藏浓厚的土元素，可能与土元素龙有关。</t>
-  </si>
-  <si>
-    <t>不过，我可以教你一些技能，也许对你有所帮助。</t>
-  </si>
-  <si>
-    <t>首先，从高处对准巨石板块跳跃下去。</t>
-  </si>
-  <si>
-    <t>不错，这种向下的冲击力能够摧毁顶部的巨石板块。</t>
-  </si>
-  <si>
-    <t>很好，看来你已经准备好挑战巨石迷阵了。祝你好运，冒险者。</t>
-  </si>
-  <si>
-    <t>仔细观察巨石的形状和颜色，也许会有隐藏的通道。（教程完成后重复）</t>
-  </si>
-  <si>
-    <t>魔法阵？里面封印了什么东西吗？</t>
-  </si>
-  <si>
-    <t>还有其他技巧吗？</t>
-  </si>
-  <si>
-    <t>Greetings, adventurer. This maze is crafted from ancient earth magic.</t>
-  </si>
-  <si>
-    <t>Unfortunately, my comfinement retrained my ability to investigate. But I sensed high density of earth elemental force from this area, it could be related to the Earth Dragon.</t>
-  </si>
-  <si>
-    <t>Let me teach you some skills that might be helpful.</t>
-  </si>
-  <si>
-    <t>First, leap from a high point onto the giant stone slabs below.</t>
-  </si>
-  <si>
-    <t>Well done! The gravitational velocity will help you destroy the top stone slabs.</t>
-  </si>
-  <si>
-    <t>Excellent, it seems you're ready to face the ancient stone maze. Good luck, adventurer.</t>
-  </si>
-  <si>
-    <t>Observe the shapes and colors of the stones carefully; There might be hidden pathway that leads you back to the surface! (Repeated after completing the tutorial)</t>
-  </si>
-  <si>
-    <t>Magic circle? What's sealed within?</t>
-  </si>
-  <si>
-    <t>Any other tips?</t>
-  </si>
-  <si>
-    <t>Dialogue0059</t>
-  </si>
-  <si>
-    <t>Dialogue0060</t>
-  </si>
-  <si>
-    <t>Dialogue0061</t>
-  </si>
-  <si>
-    <t>Dialogue0062</t>
-  </si>
-  <si>
-    <t>Dialogue0063</t>
-  </si>
-  <si>
-    <t>Dialogue0064</t>
-  </si>
-  <si>
-    <t>Dialogue0065</t>
-  </si>
-  <si>
-    <t>你好，冒险者。这片火炎地域被一种神秘的力量所影响。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>这里有什么值得一探究竟的吗？</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>还有其他技巧吗？</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>我无法深入火炎地域，但我感受到封印中似乎含有大量的火元素。</t>
-  </si>
-  <si>
-    <t>水与火是互相克制的关系，巧妙的运用水的力量，可以净化火炎，反之亦然。</t>
-  </si>
-  <si>
-    <t>干得不错，你成功将水池底部的岩浆净化了，看来你已经无师自通了。</t>
+    <t>Congrats on nailing the game! Check reward right in your bag!</t>
+  </si>
+  <si>
+    <t>恭喜通關小遊戲，請在背包中查收獎勵</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Hello, adventurer. This infernal abyss has been conteminated by the mysterious force of Fire</t>
-  </si>
-  <si>
-    <t>I can't venture deep into the abyss, but I sense substantial fire energy coming out from the abyss.</t>
-  </si>
-  <si>
-    <t>Water and fire are mutually restraining elements. Use their power against each other, and you shall purify comtemination.</t>
-  </si>
-  <si>
-    <t>Well done. You successfully purified the lava at the bottom of the abyss. Looks like you've became a brilliant self-taught!</t>
-  </si>
-  <si>
-    <t>Is there anything worth exploring here?</t>
-  </si>
-  <si>
-    <t>Dialogue0066</t>
-  </si>
-  <si>
-    <t>Dialogue0067</t>
-  </si>
-  <si>
-    <t>Dialogue0068</t>
-  </si>
-  <si>
-    <t>Dialogue0069</t>
-  </si>
-  <si>
-    <t>Dialogue0070</t>
-  </si>
-  <si>
-    <t>Dialogue0071</t>
-  </si>
-  <si>
-    <t>Dialogue0072</t>
-  </si>
-  <si>
-    <t>Dialogue0073</t>
-  </si>
-  <si>
-    <t>水可以净化火炎，反之亦然。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Water can purify lava, and vice versa.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Are there any other techniques? </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>你好，冒险者。这片云中迷宫充满了水元素的力量。</t>
-  </si>
-  <si>
-    <t>我感受到这片区域中有浓厚的水元素。但我无法亲自前往调查。</t>
-  </si>
-  <si>
-    <t>水与火是互相克制的关系，巧妙的运用火的力量，可以消散云雾，反之亦然。</t>
-  </si>
-  <si>
-    <t>迷宫的尽头是什么？</t>
-  </si>
-  <si>
-    <t>Hello, adventurer. This cloud maze was cleansed by the mighty power of water.</t>
-  </si>
-  <si>
-    <t>The power of water is burried deep by the mythical clouds. Sense the elemental force of water and find a way out.</t>
-  </si>
-  <si>
-    <t>As you know, water and fire are mutual retaining elements, summon the force and use them against each other!</t>
-  </si>
-  <si>
-    <t>What lies at the end of the maze?</t>
-  </si>
-  <si>
-    <t>当你无法一个人完成任务是，考虑装备你的宠物帮手吧。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>When you can't complete a task alone, try summoning your Modragons for assistant!</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0074</t>
-  </si>
-  <si>
-    <t>Dialogue0075</t>
-  </si>
-  <si>
-    <t>Dialogue0076</t>
-  </si>
-  <si>
-    <t>Dialogue0077</t>
-  </si>
-  <si>
-    <t>Dialogue0078</t>
-  </si>
-  <si>
-    <t>Welcome to Dragonverse Neo, step in and become a part of this enchanting realm!</t>
-  </si>
-  <si>
-    <t>欢迎来到Dragonverse Neo，成为这里的一员！</t>
-  </si>
-  <si>
-    <t>Dragonverse Neo へようこそ!</t>
-  </si>
-  <si>
-    <t>Willkommen bei Dragonverse Neo und sei ein Teil davon!</t>
-  </si>
-  <si>
-    <t>What shall be unveiled in the world of Dragonverse Neo?</t>
-  </si>
-  <si>
-    <t>Dragonverse Neo是个怎么样的世界？</t>
-  </si>
-  <si>
-    <t>Was für eine Welt ist Dragonverse Neo?</t>
-  </si>
-  <si>
-    <t>Dragonverse Neo is a novel and delightful world where you can explore, discover, and create everything that belongs uniquely to you!</t>
-  </si>
-  <si>
-    <t>Dragonverse Neo是一个全新的充满乐趣的世界，你可以在这个世界中探索、发现、创造属于你的一切！</t>
-  </si>
-  <si>
-    <t>Dragonverse Neoは、探索し、発見し、自分のものをすべて作成できる、新しい楽しさに満ちた世界です!</t>
-  </si>
-  <si>
-    <t>Dragonverse Neo ist eine neue, unterhaltsame Welt, in der du alles erforschen, entdecken und erschaffen kannst, was dir gehört!</t>
-  </si>
-  <si>
-    <t>How can I experience Dragonverse Neo?</t>
-  </si>
-  <si>
-    <t>我要怎么体验Dragonverse Neo？</t>
-  </si>
-  <si>
-    <t>Dragonverse Neoを体験するにはどうすればいいですか?</t>
-  </si>
-  <si>
-    <t>Wie kann ich Dragonverse Neo erleben?</t>
-  </si>
-  <si>
-    <t>Mit dem Code in der Hand werde ich Dragonverse Neo erleben</t>
-  </si>
-  <si>
-    <t>Verification ··· Succeed! Congratulations on getting out of the novice village, get ready to explore the world of Dragonverse Neo!</t>
-  </si>
-  <si>
-    <t>验证···成功！恭喜你可以走出新手村落，尽情探索Dragonverse Neo吧~</t>
-  </si>
-  <si>
-    <t>Verifizierung ··· Gelingen! Herzlichen Glückwunsch, dass du das Anfängerdorf verlassen und Dragonverse Neo erkundet hast~</t>
-  </si>
-  <si>
-    <t>Hey, new adventurer! Welcome to Dragonverse Neo. This is a world of dragon fantasy! See those colorful objects on the ground? Those are the true treasures in this land: DragonBalls.</t>
-  </si>
-  <si>
-    <t>哟，新来的冒险家！欢迎来到Dragonverse Neo，这里可是个充满奇妙的世界。看到地上那些五光十色的物体了吗？那可是我们这里的宝贝DragonBall。</t>
-  </si>
-  <si>
-    <t>In the land of Dragonverse Neo, Gold Coins is a precious resource. It fell from distance space. Using Gold Coins, you may trade with other adventurers, buy items and craft rare items.</t>
-  </si>
-  <si>
-    <t>在我们的Dragonverse Neo中，金币是一种非常重要的资源。它们从遥远的星空落下，是很贵重的物品。你可以使用它与其他冒险家交易、购买物品，甚至用来合成一些珍贵的道具。</t>
-  </si>
-  <si>
-    <t>Exclusively in Dragonverse Neo! Now go and collect some of those Dragonballs, Pitaya and Gold Coins. Your adventure is await.</t>
-  </si>
-  <si>
-    <t>仅此一家，也只有在Dragonverse Neo中你才能体会到这种乐趣了！去吧，尝试着采集一些DragonBall,火龙果和金币吧。</t>
-  </si>
-  <si>
-    <t>...... 赶紧去试试吧，记得多捕捉一些Dragon，它们会成为你在Dragonverse Neo中的得力助手。</t>
-  </si>
-  <si>
-    <t>Yo new folk! Welcome to Dragonverse Neo, I am the master of emote in this land, and you can call be Barb! Ready to learn some funky move?</t>
-  </si>
-  <si>
-    <t>Yo，新来的小伙伴！欢迎来到Dragonverse Neo！我是这片土地上的动作指导大师，随意叫我巴巴。在这里，你可以和我嬉笑打闹，学习各种骚气的动作。</t>
-  </si>
-  <si>
-    <t>This is our siganature move, very popular in the land of Dragonverse Neo! Use it and turn on the crowd like we always do!</t>
-  </si>
-  <si>
-    <t>TinyGameLanKey0001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>TinyGameLanKey0002</t>
-  </si>
-  <si>
-    <t>TinyGameLanKey0003</t>
-  </si>
-  <si>
-    <t>拾取</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>放下</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Put it down</t>
-  </si>
-  <si>
-    <t>Pick up</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>火球术</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙吟村</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Drakeling Town</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spawn Point</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Azure Shore</t>
-  </si>
-  <si>
-    <t>碧波湖畔</t>
-  </si>
-  <si>
-    <t>Acient Abyss</t>
-  </si>
-  <si>
-    <t>远古遗迹</t>
-  </si>
-  <si>
-    <t>Mythical Wasteland</t>
-  </si>
-  <si>
-    <t>神秘废墟</t>
-  </si>
-  <si>
-    <t>Glacial Realm</t>
-  </si>
-  <si>
-    <t>冰霜天池</t>
-  </si>
-  <si>
-    <t>Fire spells</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>My Dragonkey is ready!</t>
-  </si>
-  <si>
-    <t>I don't have a Dragonkey..</t>
-  </si>
-  <si>
-    <t>Dear MOBOXers:</t>
-  </si>
-  <si>
-    <t>亲爱的MOBOX家人们：</t>
-  </si>
-  <si>
-    <t>你收到邀请了吗？在下方验证Code就能进入 DragonVerse Neo。</t>
-  </si>
-  <si>
-    <t>输入验证码</t>
-  </si>
-  <si>
-    <t>验证</t>
-  </si>
-  <si>
-    <t>Enter your Dragonkey code below and start your debut journey on Dragonverse Neo Alpha Test:</t>
-  </si>
-  <si>
-    <t>Enter your code</t>
-  </si>
-  <si>
-    <t>Amount</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bag_006</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flame MODragon</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoxingDragonName00001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoxingDragonName00002</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00003</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00004</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00005</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00006</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00007</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00008</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00009</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00010</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00011</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00012</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00013</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00014</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00015</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00016</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00017</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00018</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00019</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00020</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Flame MODragon</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aqua MODragon</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hibiscus MODragon</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Megalithic MODragon</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue0079</t>
-  </si>
-  <si>
-    <t>你还可以通过质押MBOX持有10000 veMBOX获得Dragon Key，可前往 https: //www.mobox.io/#/neo 了解详情。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>You can get Dragon Key by staking MBOX to holding 10,000 veMBOX, which can be found at https: //www.mobox.io/#/neo for more information.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoxingDragonName00021</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00022</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00023</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00024</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00025</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00026</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00027</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00028</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00029</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00030</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00031</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00032</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00033</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00034</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00035</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00036</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00037</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00038</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00039</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00040</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Infernal MODragon</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ocean MODragon</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Forest MODragon</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mountain MODragon</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Light MODragon</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Shadow MODragon</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoxingDragonName00041</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00042</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00043</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00044</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00045</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00046</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00047</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00048</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00049</t>
-  </si>
-  <si>
-    <t>BoxingDragonName00050</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2891,10 +2961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H644"/>
+  <dimension ref="A1:H645"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="E177" sqref="E177"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="C251" sqref="C251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -2950,37 +3020,37 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2988,19 +3058,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3008,19 +3078,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3028,19 +3098,19 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3048,19 +3118,19 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>582</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>36</v>
+        <v>583</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3068,19 +3138,19 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>584</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3088,19 +3158,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>623</v>
+        <v>534</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>624</v>
+        <v>585</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>625</v>
+        <v>448</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>626</v>
+        <v>449</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3108,19 +3178,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>627</v>
+        <v>450</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>628</v>
+        <v>586</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>629</v>
+        <v>451</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3128,19 +3198,19 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>630</v>
+        <v>535</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>631</v>
+        <v>587</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>632</v>
+        <v>452</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>633</v>
+        <v>453</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3148,19 +3218,19 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>634</v>
+        <v>536</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>635</v>
+        <v>588</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>636</v>
+        <v>589</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>637</v>
+        <v>454</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3168,19 +3238,19 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>459</v>
+        <v>537</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>48</v>
+        <v>590</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>49</v>
+        <v>591</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3188,19 +3258,19 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>672</v>
+        <v>477</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>325</v>
+        <v>266</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>52</v>
+        <v>592</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>638</v>
+        <v>455</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3208,19 +3278,19 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>673</v>
+        <v>478</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>326</v>
+        <v>593</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3228,19 +3298,19 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>639</v>
+        <v>456</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>640</v>
+        <v>594</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>641</v>
+        <v>457</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3248,19 +3318,19 @@
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3268,19 +3338,19 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>64</v>
+        <v>595</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3288,19 +3358,19 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>69</v>
+        <v>596</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3308,19 +3378,19 @@
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>460</v>
+        <v>554</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>72</v>
+        <v>597</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>73</v>
+        <v>598</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3328,19 +3398,19 @@
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>461</v>
+        <v>555</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>76</v>
+        <v>599</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3348,19 +3418,19 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>462</v>
+        <v>356</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>80</v>
+        <v>600</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3368,19 +3438,19 @@
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>463</v>
+        <v>357</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>84</v>
+        <v>601</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3388,19 +3458,19 @@
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3408,19 +3478,19 @@
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>94</v>
+        <v>602</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3428,19 +3498,19 @@
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3448,19 +3518,19 @@
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>464</v>
+        <v>358</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>103</v>
+        <v>603</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3468,19 +3538,19 @@
         <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>684</v>
+        <v>556</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>474</v>
+        <v>604</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3488,19 +3558,19 @@
         <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>465</v>
+        <v>557</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>475</v>
+        <v>605</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3508,19 +3578,19 @@
         <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>466</v>
+        <v>558</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>476</v>
+        <v>606</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3528,19 +3598,19 @@
         <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>467</v>
+        <v>559</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>477</v>
+        <v>607</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3548,19 +3618,19 @@
         <v>29</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>468</v>
+        <v>560</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>478</v>
+        <v>608</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3568,19 +3638,19 @@
         <v>30</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>469</v>
+        <v>561</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>479</v>
+        <v>609</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3588,19 +3658,19 @@
         <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>470</v>
+        <v>562</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>480</v>
+        <v>610</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3608,19 +3678,19 @@
         <v>32</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>471</v>
+        <v>563</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>481</v>
+        <v>611</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3628,19 +3698,19 @@
         <v>33</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>472</v>
+        <v>564</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>482</v>
+        <v>612</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3648,19 +3718,19 @@
         <v>34</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>473</v>
+        <v>565</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>483</v>
+        <v>613</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3668,19 +3738,19 @@
         <v>35</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3688,19 +3758,19 @@
         <v>36</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3708,19 +3778,19 @@
         <v>37</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>148</v>
+        <v>614</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3728,19 +3798,19 @@
         <v>38</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3748,19 +3818,19 @@
         <v>39</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>158</v>
+        <v>615</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3768,19 +3838,19 @@
         <v>40</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>163</v>
+        <v>616</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3788,19 +3858,19 @@
         <v>41</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3808,19 +3878,19 @@
         <v>42</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3828,19 +3898,19 @@
         <v>43</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3848,19 +3918,19 @@
         <v>44</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3868,19 +3938,19 @@
         <v>45</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3888,19 +3958,19 @@
         <v>46</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3912,19 +3982,19 @@
         <v>100101</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>297</v>
+        <v>247</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>294</v>
+        <v>617</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>297</v>
+        <v>247</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>297</v>
+        <v>247</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3932,19 +4002,19 @@
         <v>100102</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>291</v>
+        <v>244</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>300</v>
+        <v>538</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>293</v>
+        <v>618</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>300</v>
+        <v>538</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>300</v>
+        <v>538</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3952,19 +4022,19 @@
         <v>100103</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>292</v>
+        <v>245</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>299</v>
+        <v>539</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>295</v>
+        <v>619</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>299</v>
+        <v>539</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>299</v>
+        <v>539</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3972,19 +4042,19 @@
         <v>100104</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>301</v>
+        <v>248</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>298</v>
+        <v>540</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>296</v>
+        <v>246</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>298</v>
+        <v>540</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>298</v>
+        <v>540</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3992,19 +4062,19 @@
         <v>100105</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>506</v>
+        <v>380</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>522</v>
+        <v>541</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>511</v>
+        <v>620</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>522</v>
+        <v>541</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>522</v>
+        <v>541</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -4012,19 +4082,19 @@
         <v>100106</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>507</v>
+        <v>381</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>523</v>
+        <v>542</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>512</v>
+        <v>385</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>523</v>
+        <v>542</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>523</v>
+        <v>542</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -4032,19 +4102,19 @@
         <v>100107</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>508</v>
+        <v>382</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>524</v>
+        <v>544</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>513</v>
+        <v>622</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>524</v>
+        <v>544</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>524</v>
+        <v>544</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -4052,19 +4122,19 @@
         <v>100108</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>509</v>
+        <v>383</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>525</v>
+        <v>543</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>514</v>
+        <v>621</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>525</v>
+        <v>543</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>525</v>
+        <v>543</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -4072,19 +4142,19 @@
         <v>100109</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>510</v>
+        <v>384</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>527</v>
+        <v>545</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>526</v>
+        <v>623</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>527</v>
+        <v>545</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>527</v>
+        <v>545</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -4092,19 +4162,19 @@
         <v>100110</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>518</v>
+        <v>386</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>528</v>
+        <v>546</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>515</v>
+        <v>624</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>528</v>
+        <v>546</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>528</v>
+        <v>546</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -4112,19 +4182,19 @@
         <v>100111</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>519</v>
+        <v>387</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>529</v>
+        <v>547</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>515</v>
+        <v>624</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>529</v>
+        <v>547</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>529</v>
+        <v>547</v>
       </c>
     </row>
     <row r="63" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -4132,19 +4202,19 @@
         <v>100112</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>520</v>
+        <v>388</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>516</v>
+        <v>625</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -4152,19 +4222,19 @@
         <v>100113</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>521</v>
+        <v>389</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>517</v>
+        <v>626</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -4180,13 +4250,13 @@
         <v>100201</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>452</v>
+        <v>350</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>661</v>
+        <v>550</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>660</v>
+        <v>627</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
@@ -4196,13 +4266,13 @@
         <v>100202</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>453</v>
+        <v>351</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>662</v>
+        <v>551</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>455</v>
+        <v>628</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
@@ -4212,13 +4282,13 @@
         <v>100203</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>454</v>
+        <v>352</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>663</v>
+        <v>470</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>664</v>
+        <v>471</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
@@ -4228,13 +4298,13 @@
         <v>100204</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>456</v>
+        <v>353</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>665</v>
+        <v>472</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>666</v>
+        <v>629</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
@@ -4244,13 +4314,13 @@
         <v>100205</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>457</v>
+        <v>354</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>667</v>
+        <v>473</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>668</v>
+        <v>630</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
@@ -4260,13 +4330,13 @@
         <v>100206</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>458</v>
+        <v>355</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>669</v>
+        <v>474</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>670</v>
+        <v>475</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
@@ -4284,19 +4354,19 @@
         <v>101001</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>302</v>
+        <v>249</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>307</v>
+        <v>742</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>304</v>
+        <v>631</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>307</v>
+        <v>742</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>307</v>
+        <v>742</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -4304,19 +4374,19 @@
         <v>101002</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>306</v>
+        <v>251</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>305</v>
+        <v>632</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>306</v>
+        <v>251</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>306</v>
+        <v>251</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -4328,19 +4398,19 @@
         <v>102129</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
     </row>
     <row r="77" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
@@ -4348,19 +4418,19 @@
         <v>102130</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>198</v>
+        <v>633</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
@@ -4368,19 +4438,19 @@
         <v>102131</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
@@ -4388,19 +4458,19 @@
         <v>102132</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4408,19 +4478,19 @@
         <v>102133</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>207</v>
+        <v>634</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4428,19 +4498,19 @@
         <v>102134</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4448,19 +4518,19 @@
         <v>102135</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>213</v>
+        <v>635</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4468,19 +4538,19 @@
         <v>102136</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>216</v>
+        <v>636</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4488,19 +4558,19 @@
         <v>102137</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>219</v>
+        <v>637</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4508,19 +4578,19 @@
         <v>102138</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4528,19 +4598,19 @@
         <v>102139</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>225</v>
+        <v>638</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
     </row>
     <row r="87" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
@@ -4548,19 +4618,19 @@
         <v>102140</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>228</v>
+        <v>639</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4568,19 +4638,19 @@
         <v>102141</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>231</v>
+        <v>640</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4588,19 +4658,19 @@
         <v>102142</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>234</v>
+        <v>641</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
     </row>
     <row r="90" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4608,19 +4678,19 @@
         <v>102143</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4628,19 +4698,19 @@
         <v>102144</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
     </row>
     <row r="92" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4648,19 +4718,19 @@
         <v>102145</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>242</v>
+        <v>642</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4668,19 +4738,19 @@
         <v>102146</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>245</v>
+        <v>643</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
     </row>
     <row r="94" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4688,19 +4758,19 @@
         <v>102147</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>248</v>
+        <v>644</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
     </row>
     <row r="95" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4708,19 +4778,19 @@
         <v>102148</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>251</v>
+        <v>645</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
     </row>
     <row r="96" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4728,19 +4798,19 @@
         <v>102149</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>254</v>
+        <v>646</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
     </row>
     <row r="97" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4748,19 +4818,19 @@
         <v>102150</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
     </row>
     <row r="98" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4768,19 +4838,19 @@
         <v>102151</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>258</v>
+        <v>647</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
     </row>
     <row r="99" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4788,19 +4858,19 @@
         <v>102152</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>260</v>
+        <v>223</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>260</v>
+        <v>223</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>260</v>
+        <v>223</v>
       </c>
     </row>
     <row r="100" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4808,19 +4878,19 @@
         <v>102153</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>264</v>
+        <v>648</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
     </row>
     <row r="101" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4828,19 +4898,19 @@
         <v>102154</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>267</v>
+        <v>649</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
     </row>
     <row r="102" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4848,19 +4918,19 @@
         <v>102155</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4868,19 +4938,19 @@
         <v>102156</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>213</v>
+        <v>635</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
     </row>
     <row r="104" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4888,19 +4958,19 @@
         <v>102157</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>274</v>
+        <v>650</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4908,10 +4978,19 @@
         <v>102158</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>276</v>
+        <v>235</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="106" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4923,13 +5002,13 @@
         <v>105001</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>310</v>
+        <v>254</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>484</v>
+        <v>359</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>283</v>
+        <v>237</v>
       </c>
     </row>
     <row r="108" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4937,13 +5016,13 @@
         <v>105002</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>311</v>
+        <v>255</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>498</v>
+        <v>746</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>312</v>
+        <v>652</v>
       </c>
     </row>
     <row r="109" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4951,13 +5030,13 @@
         <v>105003</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>313</v>
+        <v>256</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>485</v>
+        <v>360</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>314</v>
+        <v>257</v>
       </c>
     </row>
     <row r="110" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4965,13 +5044,13 @@
         <v>105004</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>323</v>
+        <v>264</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>486</v>
+        <v>361</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>315</v>
+        <v>653</v>
       </c>
     </row>
     <row r="111" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4979,13 +5058,13 @@
         <v>105005</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>324</v>
+        <v>265</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>487</v>
+        <v>362</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>316</v>
+        <v>258</v>
       </c>
     </row>
     <row r="112" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4993,13 +5072,13 @@
         <v>105006</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>683</v>
+        <v>481</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>681</v>
+        <v>480</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>682</v>
+        <v>654</v>
       </c>
     </row>
     <row r="113" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5007,13 +5086,13 @@
         <v>105051</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>317</v>
+        <v>259</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>488</v>
+        <v>363</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>284</v>
+        <v>655</v>
       </c>
     </row>
     <row r="114" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5021,13 +5100,13 @@
         <v>105101</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>285</v>
+        <v>238</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>489</v>
+        <v>364</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>281</v>
+        <v>656</v>
       </c>
     </row>
     <row r="115" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5035,13 +5114,13 @@
         <v>105102</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>318</v>
+        <v>260</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>490</v>
+        <v>365</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>282</v>
+        <v>657</v>
       </c>
     </row>
     <row r="116" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5049,13 +5128,13 @@
         <v>105103</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>319</v>
+        <v>261</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>491</v>
+        <v>366</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>320</v>
+        <v>658</v>
       </c>
     </row>
     <row r="117" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5063,13 +5142,13 @@
         <v>105201</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>286</v>
+        <v>239</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>492</v>
+        <v>367</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>280</v>
+        <v>659</v>
       </c>
     </row>
     <row r="118" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5077,13 +5156,13 @@
         <v>105202</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>321</v>
+        <v>262</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>493</v>
+        <v>368</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
     </row>
     <row r="119" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5091,13 +5170,13 @@
         <v>105203</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>287</v>
+        <v>240</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>494</v>
+        <v>369</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>278</v>
+        <v>660</v>
       </c>
     </row>
     <row r="120" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5105,13 +5184,13 @@
         <v>105204</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>288</v>
+        <v>241</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>495</v>
+        <v>370</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>279</v>
+        <v>661</v>
       </c>
     </row>
     <row r="121" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5119,13 +5198,13 @@
         <v>105205</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>322</v>
+        <v>263</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>496</v>
+        <v>371</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>309</v>
+        <v>253</v>
       </c>
     </row>
     <row r="122" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5133,13 +5212,13 @@
         <v>105206</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>289</v>
+        <v>242</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>497</v>
+        <v>372</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>308</v>
+        <v>252</v>
       </c>
     </row>
     <row r="123" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5147,13 +5226,13 @@
         <v>105301</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>434</v>
+        <v>337</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>674</v>
+        <v>553</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>675</v>
+        <v>740</v>
       </c>
     </row>
     <row r="124" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5161,13 +5240,13 @@
         <v>105302</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>436</v>
+        <v>338</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>679</v>
+        <v>577</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>676</v>
+        <v>741</v>
       </c>
     </row>
     <row r="125" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5175,13 +5254,13 @@
         <v>105303</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>437</v>
+        <v>339</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>680</v>
+        <v>479</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>677</v>
+        <v>662</v>
       </c>
     </row>
     <row r="126" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5189,13 +5268,13 @@
         <v>105304</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>438</v>
+        <v>340</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>499</v>
+        <v>373</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>678</v>
+        <v>663</v>
       </c>
     </row>
     <row r="127" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5203,13 +5282,13 @@
         <v>105401</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>439</v>
+        <v>341</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>500</v>
+        <v>374</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>441</v>
+        <v>664</v>
       </c>
     </row>
     <row r="128" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5217,13 +5296,13 @@
         <v>105402</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>443</v>
+        <v>343</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>501</v>
+        <v>375</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>442</v>
+        <v>665</v>
       </c>
     </row>
     <row r="129" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5231,13 +5310,13 @@
         <v>105403</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>449</v>
+        <v>348</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>502</v>
+        <v>376</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>444</v>
+        <v>666</v>
       </c>
     </row>
     <row r="130" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5245,13 +5324,13 @@
         <v>105404</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>440</v>
+        <v>342</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>499</v>
+        <v>373</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
     </row>
     <row r="131" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5259,13 +5338,13 @@
         <v>105405</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>448</v>
+        <v>347</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>503</v>
+        <v>377</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>445</v>
+        <v>344</v>
       </c>
     </row>
     <row r="132" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5273,25 +5352,13 @@
         <v>105406</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>447</v>
+        <v>346</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>504</v>
+        <v>378</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="E132" s="5" t="s">
-        <v>705</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>84</v>
+        <v>345</v>
       </c>
     </row>
     <row r="133" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5299,25 +5366,13 @@
         <v>105407</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>451</v>
+        <v>349</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>505</v>
+        <v>379</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="E133" s="5" t="s">
-        <v>706</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>89</v>
+        <v>667</v>
       </c>
     </row>
     <row r="134" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5325,25 +5380,13 @@
         <v>105501</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>652</v>
+        <v>463</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>658</v>
+        <v>469</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>655</v>
-      </c>
-      <c r="E134" s="5" t="s">
-        <v>707</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>94</v>
+        <v>466</v>
       </c>
     </row>
     <row r="135" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5351,25 +5394,13 @@
         <v>105502</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>653</v>
+        <v>464</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>657</v>
+        <v>468</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>656</v>
-      </c>
-      <c r="E135" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>99</v>
+        <v>467</v>
       </c>
     </row>
     <row r="136" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5377,1862 +5408,1923 @@
         <v>105503</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>654</v>
+        <v>465</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>671</v>
+        <v>476</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>659</v>
-      </c>
-      <c r="E136" s="5" t="s">
-        <v>732</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>103</v>
+        <v>668</v>
       </c>
     </row>
     <row r="137" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="1"/>
-      <c r="B137" s="6"/>
-      <c r="C137" s="5"/>
-      <c r="D137" s="5"/>
-      <c r="E137" s="5" t="s">
-        <v>733</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>479</v>
+      <c r="A137" s="1">
+        <v>105504</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="138" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="1">
-        <v>105601</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>685</v>
-      </c>
-      <c r="C138" s="2" t="str">
-        <f>G132&amp;$E$132</f>
-        <v>Vigilant Flame MODragon</v>
-      </c>
-      <c r="D138" s="2" t="str">
-        <f>H132&amp;$F$132</f>
-        <v>机警的火焰龙娘</v>
-      </c>
-      <c r="E138" s="5" t="s">
-        <v>734</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>480</v>
-      </c>
+      <c r="A138" s="1"/>
+      <c r="B138" s="6"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
     </row>
     <row r="139" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
-        <v>105602</v>
+        <v>105601</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>686</v>
+        <v>482</v>
       </c>
       <c r="C139" s="2" t="str">
-        <f t="shared" ref="C139:C142" si="0">G133&amp;$E$132</f>
-        <v>Grumpy Flame MODragon</v>
+        <f>G139&amp;$E$139</f>
+        <v>Vigilant Flame Modragon</v>
       </c>
       <c r="D139" s="2" t="str">
-        <f t="shared" ref="D139:D142" si="1">H133&amp;$F$132</f>
-        <v>暴躁的火焰龙娘</v>
+        <f>H139&amp;$F$139</f>
+        <v>機警的火焰龍娘</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>735</v>
+        <v>566</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>481</v>
+        <v>604</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="140" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
-        <v>105603</v>
+        <v>105602</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>687</v>
+        <v>483</v>
       </c>
       <c r="C140" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Timid Flame MODragon</v>
+        <f>G140&amp;$E$139</f>
+        <v>Grumpy Flame Modragon</v>
       </c>
       <c r="D140" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>胆小的火焰龙娘</v>
+        <f>H140&amp;$F$139</f>
+        <v>暴躁的火焰龍娘</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>736</v>
+        <v>567</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>482</v>
+        <v>605</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="141" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
-        <v>105604</v>
+        <v>105603</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>688</v>
+        <v>484</v>
       </c>
       <c r="C141" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Irritable Flame MODragon</v>
+        <f>G141&amp;$E$139</f>
+        <v>Timid Flame Modragon</v>
       </c>
       <c r="D141" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>易怒的火焰龙娘</v>
+        <f>H141&amp;$F$139</f>
+        <v>膽小的火焰龍娘</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>737</v>
+        <v>568</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>483</v>
+        <v>606</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="142" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
-        <v>105605</v>
+        <v>105604</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>689</v>
+        <v>485</v>
       </c>
       <c r="C142" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Gentle Flame MODragon</v>
+        <f>G142&amp;$E$139</f>
+        <v>Irritable Flame Modragon</v>
       </c>
       <c r="D142" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>温和的火焰龙娘</v>
+        <f>H142&amp;$F$139</f>
+        <v>易怒的火焰龍娘</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="143" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
-        <v>105606</v>
+        <v>105605</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>690</v>
+        <v>486</v>
       </c>
       <c r="C143" s="2" t="str">
-        <f>G132&amp;$E$133</f>
-        <v>Vigilant Aqua MODragon</v>
+        <f>G143&amp;$E$139</f>
+        <v>Gentle Flame Modragon</v>
       </c>
       <c r="D143" s="2" t="str">
-        <f>H132&amp;$F$133</f>
-        <v>机警的水浪龙娘</v>
+        <f>H143&amp;$F$139</f>
+        <v>溫和的火焰龍娘</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="144" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
+        <v>105606</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="C144" s="2" t="str">
+        <f>G139&amp;$E$140</f>
+        <v>Vigilant Aqua Modragon</v>
+      </c>
+      <c r="D144" s="2" t="str">
+        <f>H139&amp;$F$140</f>
+        <v>機警的水浪龍娘</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="1">
         <v>105607</v>
       </c>
-      <c r="B144" s="6" t="s">
-        <v>691</v>
-      </c>
-      <c r="C144" s="2" t="str">
-        <f t="shared" ref="C144:C146" si="2">G133&amp;$E$133</f>
-        <v>Grumpy Aqua MODragon</v>
-      </c>
-      <c r="D144" s="2" t="str">
-        <f t="shared" ref="D144:D147" si="3">H133&amp;$F$133</f>
-        <v>暴躁的水浪龙娘</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="1">
+      <c r="B145" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="C145" s="2" t="str">
+        <f>G140&amp;$E$140</f>
+        <v>Grumpy Aqua Modragon</v>
+      </c>
+      <c r="D145" s="2" t="str">
+        <f>H140&amp;$F$140</f>
+        <v>暴躁的水浪龍娘</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="1">
         <v>105608</v>
       </c>
-      <c r="B145" s="6" t="s">
-        <v>692</v>
-      </c>
-      <c r="C145" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Timid Aqua MODragon</v>
-      </c>
-      <c r="D145" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>胆小的水浪龙娘</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="1">
+      <c r="B146" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="C146" s="2" t="str">
+        <f>G141&amp;$E$140</f>
+        <v>Timid Aqua Modragon</v>
+      </c>
+      <c r="D146" s="2" t="str">
+        <f>H141&amp;$F$140</f>
+        <v>膽小的水浪龍娘</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="1">
         <v>105609</v>
       </c>
-      <c r="B146" s="6" t="s">
-        <v>693</v>
-      </c>
-      <c r="C146" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Irritable Aqua MODragon</v>
-      </c>
-      <c r="D146" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>易怒的水浪龙娘</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="1">
+      <c r="B147" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="C147" s="2" t="str">
+        <f>G142&amp;$E$140</f>
+        <v>Irritable Aqua Modragon</v>
+      </c>
+      <c r="D147" s="2" t="str">
+        <f>H142&amp;$F$140</f>
+        <v>易怒的水浪龍娘</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="1">
         <v>105610</v>
       </c>
-      <c r="B147" s="6" t="s">
-        <v>694</v>
-      </c>
-      <c r="C147" s="2" t="str">
-        <f>G136&amp;$E$133</f>
-        <v>Gentle Aqua MODragon</v>
-      </c>
-      <c r="D147" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>温和的水浪龙娘</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="1">
+      <c r="B148" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="C148" s="2" t="str">
+        <f>G143&amp;$E$140</f>
+        <v>Gentle Aqua Modragon</v>
+      </c>
+      <c r="D148" s="2" t="str">
+        <f>H143&amp;$F$140</f>
+        <v>溫和的水浪龍娘</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="1">
         <v>105611</v>
       </c>
-      <c r="B148" s="6" t="s">
-        <v>695</v>
-      </c>
-      <c r="C148" s="5" t="str">
-        <f>G132&amp;$E$134</f>
-        <v>Vigilant Hibiscus MODragon</v>
-      </c>
-      <c r="D148" s="5" t="str">
-        <f>H132&amp;$F$134</f>
-        <v>机警的木槿龙娘</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="1">
+      <c r="B149" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="C149" s="5" t="str">
+        <f>G139&amp;$E$141</f>
+        <v>Vigilant Hibiscus Modragon</v>
+      </c>
+      <c r="D149" s="5" t="str">
+        <f>H139&amp;$F$141</f>
+        <v>機警的木槿龍娘</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="1">
         <v>105612</v>
       </c>
-      <c r="B149" s="6" t="s">
-        <v>696</v>
-      </c>
-      <c r="C149" s="5" t="str">
-        <f t="shared" ref="C149:C152" si="4">G133&amp;$E$134</f>
-        <v>Grumpy Hibiscus MODragon</v>
-      </c>
-      <c r="D149" s="5" t="str">
-        <f t="shared" ref="D149:D152" si="5">H133&amp;$F$134</f>
-        <v>暴躁的木槿龙娘</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="1">
+      <c r="B150" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="C150" s="5" t="str">
+        <f>G140&amp;$E$141</f>
+        <v>Grumpy Hibiscus Modragon</v>
+      </c>
+      <c r="D150" s="5" t="str">
+        <f>H140&amp;$F$141</f>
+        <v>暴躁的木槿龍娘</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="1">
         <v>105613</v>
       </c>
-      <c r="B150" s="6" t="s">
-        <v>697</v>
-      </c>
-      <c r="C150" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Timid Hibiscus MODragon</v>
-      </c>
-      <c r="D150" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>胆小的木槿龙娘</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="1">
+      <c r="B151" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="C151" s="5" t="str">
+        <f>G141&amp;$E$141</f>
+        <v>Timid Hibiscus Modragon</v>
+      </c>
+      <c r="D151" s="5" t="str">
+        <f>H141&amp;$F$141</f>
+        <v>膽小的木槿龍娘</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="1">
         <v>105614</v>
       </c>
-      <c r="B151" s="6" t="s">
-        <v>698</v>
-      </c>
-      <c r="C151" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Irritable Hibiscus MODragon</v>
-      </c>
-      <c r="D151" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>易怒的木槿龙娘</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="1">
+      <c r="B152" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="C152" s="5" t="str">
+        <f>G142&amp;$E$141</f>
+        <v>Irritable Hibiscus Modragon</v>
+      </c>
+      <c r="D152" s="5" t="str">
+        <f>H142&amp;$F$141</f>
+        <v>易怒的木槿龍娘</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="1">
         <v>105615</v>
       </c>
-      <c r="B152" s="6" t="s">
-        <v>699</v>
-      </c>
-      <c r="C152" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Gentle Hibiscus MODragon</v>
-      </c>
-      <c r="D152" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>温和的木槿龙娘</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="1">
+      <c r="B153" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="C153" s="5" t="str">
+        <f>G143&amp;$E$141</f>
+        <v>Gentle Hibiscus Modragon</v>
+      </c>
+      <c r="D153" s="5" t="str">
+        <f>H143&amp;$F$141</f>
+        <v>溫和的木槿龍娘</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="1">
         <v>105616</v>
       </c>
-      <c r="B153" s="6" t="s">
-        <v>700</v>
-      </c>
-      <c r="C153" s="2" t="str">
-        <f>G132&amp;$E$135</f>
-        <v>Vigilant Megalithic MODragon</v>
-      </c>
-      <c r="D153" s="5" t="str">
-        <f>H132&amp;$F$135</f>
-        <v>机警的岩石龙娘</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="1">
+      <c r="B154" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="C154" s="2" t="str">
+        <f>G139&amp;$E$142</f>
+        <v>Vigilant Megalithic Modragon</v>
+      </c>
+      <c r="D154" s="5" t="str">
+        <f>H139&amp;$F$142</f>
+        <v>機警的岩石龍娘</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="1">
         <v>105617</v>
       </c>
-      <c r="B154" s="6" t="s">
-        <v>701</v>
-      </c>
-      <c r="C154" s="2" t="str">
-        <f t="shared" ref="C154:C157" si="6">G133&amp;$E$135</f>
-        <v>Grumpy Megalithic MODragon</v>
-      </c>
-      <c r="D154" s="5" t="str">
-        <f t="shared" ref="D154:D157" si="7">H133&amp;$F$135</f>
-        <v>暴躁的岩石龙娘</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="1">
+      <c r="B155" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="C155" s="2" t="str">
+        <f>G140&amp;$E$142</f>
+        <v>Grumpy Megalithic Modragon</v>
+      </c>
+      <c r="D155" s="5" t="str">
+        <f>H140&amp;$F$142</f>
+        <v>暴躁的岩石龍娘</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="1">
         <v>105618</v>
       </c>
-      <c r="B155" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="C155" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>Timid Megalithic MODragon</v>
-      </c>
-      <c r="D155" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>胆小的岩石龙娘</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="1">
+      <c r="B156" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="C156" s="2" t="str">
+        <f>G141&amp;$E$142</f>
+        <v>Timid Megalithic Modragon</v>
+      </c>
+      <c r="D156" s="5" t="str">
+        <f>H141&amp;$F$142</f>
+        <v>膽小的岩石龍娘</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="1">
         <v>105619</v>
       </c>
-      <c r="B156" s="6" t="s">
-        <v>703</v>
-      </c>
-      <c r="C156" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>Irritable Megalithic MODragon</v>
-      </c>
-      <c r="D156" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>易怒的岩石龙娘</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="1">
+      <c r="B157" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="C157" s="2" t="str">
+        <f>G142&amp;$E$142</f>
+        <v>Irritable Megalithic Modragon</v>
+      </c>
+      <c r="D157" s="5" t="str">
+        <f>H142&amp;$F$142</f>
+        <v>易怒的岩石龍娘</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="1">
         <v>105620</v>
       </c>
-      <c r="B157" s="6" t="s">
-        <v>704</v>
-      </c>
-      <c r="C157" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>Gentle Megalithic MODragon</v>
-      </c>
-      <c r="D157" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>温和的岩石龙娘</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="1">
+      <c r="B158" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="C158" s="2" t="str">
+        <f>G143&amp;$E$142</f>
+        <v>Gentle Megalithic Modragon</v>
+      </c>
+      <c r="D158" s="5" t="str">
+        <f>H143&amp;$F$142</f>
+        <v>溫和的岩石龍娘</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="1">
         <v>105621</v>
       </c>
-      <c r="B158" s="6" t="s">
-        <v>712</v>
-      </c>
-      <c r="C158" s="2" t="str">
-        <f>G132&amp;$E$136</f>
-        <v>Vigilant Infernal MODragon</v>
-      </c>
-      <c r="D158" s="2" t="str">
-        <f>H132&amp;$F$136</f>
-        <v>机警的炼狱龙娘</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="1">
+      <c r="B159" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="C159" s="2" t="str">
+        <f>G139&amp;$E$143</f>
+        <v>Vigilant Infernal Modragon</v>
+      </c>
+      <c r="D159" s="2" t="str">
+        <f>H139&amp;$F$143</f>
+        <v>機警的煉獄龍娘</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="1">
         <v>105622</v>
       </c>
-      <c r="B159" s="6" t="s">
-        <v>713</v>
-      </c>
-      <c r="C159" s="2" t="str">
-        <f t="shared" ref="C159:C162" si="8">G133&amp;$E$136</f>
-        <v>Grumpy Infernal MODragon</v>
-      </c>
-      <c r="D159" s="2" t="str">
-        <f t="shared" ref="D159:D162" si="9">H133&amp;$F$136</f>
-        <v>暴躁的炼狱龙娘</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="1">
-        <v>105623</v>
-      </c>
       <c r="B160" s="6" t="s">
-        <v>714</v>
+        <v>505</v>
       </c>
       <c r="C160" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>Timid Infernal MODragon</v>
+        <f>G140&amp;$E$143</f>
+        <v>Grumpy Infernal Modragon</v>
       </c>
       <c r="D160" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>胆小的炼狱龙娘</v>
+        <f>H140&amp;$F$143</f>
+        <v>暴躁的煉獄龍娘</v>
       </c>
     </row>
     <row r="161" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
-        <v>105624</v>
+        <v>105623</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>715</v>
+        <v>506</v>
       </c>
       <c r="C161" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>Irritable Infernal MODragon</v>
+        <f>G141&amp;$E$143</f>
+        <v>Timid Infernal Modragon</v>
       </c>
       <c r="D161" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>易怒的炼狱龙娘</v>
+        <f>H141&amp;$F$143</f>
+        <v>膽小的煉獄龍娘</v>
       </c>
     </row>
     <row r="162" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
-        <v>105625</v>
+        <v>105624</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>716</v>
+        <v>507</v>
       </c>
       <c r="C162" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>Gentle Infernal MODragon</v>
+        <f>G142&amp;$E$143</f>
+        <v>Irritable Infernal Modragon</v>
       </c>
       <c r="D162" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>温和的炼狱龙娘</v>
+        <f>H142&amp;$F$143</f>
+        <v>易怒的煉獄龍娘</v>
       </c>
     </row>
     <row r="163" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
-        <v>105626</v>
+        <v>105625</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>717</v>
+        <v>508</v>
       </c>
       <c r="C163" s="2" t="str">
-        <f>G132&amp;$E$137</f>
-        <v>Vigilant Ocean MODragon</v>
+        <f>G143&amp;$E$143</f>
+        <v>Gentle Infernal Modragon</v>
       </c>
       <c r="D163" s="2" t="str">
-        <f>H132&amp;$F$137</f>
-        <v>机警的海洋龙娘</v>
+        <f>H143&amp;$F$143</f>
+        <v>溫和的煉獄龍娘</v>
       </c>
     </row>
     <row r="164" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
-        <v>105627</v>
+        <v>105626</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>718</v>
+        <v>509</v>
       </c>
       <c r="C164" s="2" t="str">
-        <f t="shared" ref="C164:C167" si="10">G133&amp;$E$137</f>
-        <v>Grumpy Ocean MODragon</v>
+        <f>G139&amp;$E$144</f>
+        <v>Vigilant Ocean Modragon</v>
       </c>
       <c r="D164" s="2" t="str">
-        <f t="shared" ref="D164:D167" si="11">H133&amp;$F$137</f>
-        <v>暴躁的海洋龙娘</v>
+        <f>H139&amp;$F$144</f>
+        <v>機警的海洋龍娘</v>
       </c>
     </row>
     <row r="165" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
-        <v>105628</v>
+        <v>105627</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>719</v>
+        <v>510</v>
       </c>
       <c r="C165" s="2" t="str">
-        <f>G134&amp;$E$137</f>
-        <v>Timid Ocean MODragon</v>
+        <f>G140&amp;$E$144</f>
+        <v>Grumpy Ocean Modragon</v>
       </c>
       <c r="D165" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>胆小的海洋龙娘</v>
+        <f>H140&amp;$F$144</f>
+        <v>暴躁的海洋龍娘</v>
       </c>
     </row>
     <row r="166" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
-        <v>105629</v>
+        <v>105628</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>720</v>
+        <v>511</v>
       </c>
       <c r="C166" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>Irritable Ocean MODragon</v>
+        <f>G141&amp;$E$144</f>
+        <v>Timid Ocean Modragon</v>
       </c>
       <c r="D166" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>易怒的海洋龙娘</v>
+        <f>H141&amp;$F$144</f>
+        <v>膽小的海洋龍娘</v>
       </c>
     </row>
     <row r="167" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
-        <v>105630</v>
+        <v>105629</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>721</v>
+        <v>512</v>
       </c>
       <c r="C167" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>Gentle Ocean MODragon</v>
+        <f>G142&amp;$E$144</f>
+        <v>Irritable Ocean Modragon</v>
       </c>
       <c r="D167" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>温和的海洋龙娘</v>
+        <f>H142&amp;$F$144</f>
+        <v>易怒的海洋龍娘</v>
       </c>
     </row>
     <row r="168" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
-        <v>105631</v>
+        <v>105630</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>722</v>
-      </c>
-      <c r="C168" s="5" t="str">
-        <f>G132&amp;$E$138</f>
-        <v>Vigilant Forest MODragon</v>
-      </c>
-      <c r="D168" s="5" t="str">
-        <f>H132&amp;$F$138</f>
-        <v>机警的森林龙娘</v>
+        <v>513</v>
+      </c>
+      <c r="C168" s="2" t="str">
+        <f>G143&amp;$E$144</f>
+        <v>Gentle Ocean Modragon</v>
+      </c>
+      <c r="D168" s="2" t="str">
+        <f>H143&amp;$F$144</f>
+        <v>溫和的海洋龍娘</v>
       </c>
     </row>
     <row r="169" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
-        <v>105632</v>
+        <v>105631</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>723</v>
+        <v>514</v>
       </c>
       <c r="C169" s="5" t="str">
-        <f t="shared" ref="C169:C172" si="12">G133&amp;$E$138</f>
-        <v>Grumpy Forest MODragon</v>
+        <f>G139&amp;$E$145</f>
+        <v>Vigilant Forest Modragon</v>
       </c>
       <c r="D169" s="5" t="str">
-        <f t="shared" ref="D169:D172" si="13">H133&amp;$F$138</f>
-        <v>暴躁的森林龙娘</v>
+        <f>H139&amp;$F$145</f>
+        <v>機警的森林龍娘</v>
       </c>
     </row>
     <row r="170" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
-        <v>105633</v>
+        <v>105632</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>724</v>
+        <v>515</v>
       </c>
       <c r="C170" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v>Timid Forest MODragon</v>
+        <f>G140&amp;$E$145</f>
+        <v>Grumpy Forest Modragon</v>
       </c>
       <c r="D170" s="5" t="str">
-        <f t="shared" si="13"/>
-        <v>胆小的森林龙娘</v>
+        <f>H140&amp;$F$145</f>
+        <v>暴躁的森林龍娘</v>
       </c>
     </row>
     <row r="171" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
-        <v>105634</v>
+        <v>105633</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>725</v>
+        <v>516</v>
       </c>
       <c r="C171" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v>Irritable Forest MODragon</v>
+        <f>G141&amp;$E$145</f>
+        <v>Timid Forest Modragon</v>
       </c>
       <c r="D171" s="5" t="str">
-        <f t="shared" si="13"/>
-        <v>易怒的森林龙娘</v>
+        <f>H141&amp;$F$145</f>
+        <v>膽小的森林龍娘</v>
       </c>
     </row>
     <row r="172" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
-        <v>105635</v>
+        <v>105634</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>726</v>
+        <v>517</v>
       </c>
       <c r="C172" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v>Gentle Forest MODragon</v>
+        <f>G142&amp;$E$145</f>
+        <v>Irritable Forest Modragon</v>
       </c>
       <c r="D172" s="5" t="str">
-        <f t="shared" si="13"/>
-        <v>温和的森林龙娘</v>
+        <f>H142&amp;$F$145</f>
+        <v>易怒的森林龍娘</v>
       </c>
     </row>
     <row r="173" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
-        <v>105636</v>
+        <v>105635</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>727</v>
-      </c>
-      <c r="C173" s="2" t="str">
-        <f>G132&amp;$E$139</f>
-        <v>Vigilant Mountain MODragon</v>
+        <v>518</v>
+      </c>
+      <c r="C173" s="5" t="str">
+        <f>G143&amp;$E$145</f>
+        <v>Gentle Forest Modragon</v>
       </c>
       <c r="D173" s="5" t="str">
-        <f>H132&amp;$F$139</f>
-        <v>机警的山脉龙娘</v>
+        <f>H143&amp;$F$145</f>
+        <v>溫和的森林龍娘</v>
       </c>
     </row>
     <row r="174" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
-        <v>105637</v>
+        <v>105636</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>728</v>
+        <v>519</v>
       </c>
       <c r="C174" s="2" t="str">
-        <f t="shared" ref="C174:C177" si="14">G133&amp;$E$139</f>
-        <v>Grumpy Mountain MODragon</v>
+        <f>G139&amp;$E$146</f>
+        <v>Vigilant Mountain Modragon</v>
       </c>
       <c r="D174" s="5" t="str">
-        <f t="shared" ref="D174:D177" si="15">H133&amp;$F$139</f>
-        <v>暴躁的山脉龙娘</v>
+        <f>H139&amp;$F$146</f>
+        <v>機警的山脈龍娘</v>
       </c>
     </row>
     <row r="175" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
-        <v>105638</v>
+        <v>105637</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>729</v>
+        <v>520</v>
       </c>
       <c r="C175" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>Timid Mountain MODragon</v>
+        <f>G140&amp;$E$146</f>
+        <v>Grumpy Mountain Modragon</v>
       </c>
       <c r="D175" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v>胆小的山脉龙娘</v>
+        <f>H140&amp;$F$146</f>
+        <v>暴躁的山脈龍娘</v>
       </c>
     </row>
     <row r="176" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
-        <v>105639</v>
+        <v>105638</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>730</v>
+        <v>521</v>
       </c>
       <c r="C176" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>Irritable Mountain MODragon</v>
+        <f>G141&amp;$E$146</f>
+        <v>Timid Mountain Modragon</v>
       </c>
       <c r="D176" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v>易怒的山脉龙娘</v>
+        <f>H141&amp;$F$146</f>
+        <v>膽小的山脈龍娘</v>
       </c>
     </row>
     <row r="177" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
-        <v>105640</v>
+        <v>105639</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>731</v>
+        <v>522</v>
       </c>
       <c r="C177" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>Gentle Mountain MODragon</v>
+        <f>G142&amp;$E$146</f>
+        <v>Irritable Mountain Modragon</v>
       </c>
       <c r="D177" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v>温和的山脉龙娘</v>
+        <f>H142&amp;$F$146</f>
+        <v>易怒的山脈龍娘</v>
       </c>
     </row>
     <row r="178" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
-        <v>105641</v>
+        <v>105640</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>738</v>
-      </c>
-      <c r="C178" s="5" t="str">
-        <f>G132&amp;$E$140</f>
-        <v>Vigilant Light MODragon</v>
+        <v>523</v>
+      </c>
+      <c r="C178" s="2" t="str">
+        <f>G143&amp;$E$146</f>
+        <v>Gentle Mountain Modragon</v>
       </c>
       <c r="D178" s="5" t="str">
-        <f>H132&amp;$F$140</f>
-        <v>机警的圣光龙娘</v>
+        <f>H143&amp;$F$146</f>
+        <v>溫和的山脈龍娘</v>
       </c>
     </row>
     <row r="179" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
-        <v>105642</v>
+        <v>105641</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>739</v>
+        <v>524</v>
       </c>
       <c r="C179" s="5" t="str">
-        <f t="shared" ref="C179:C182" si="16">G133&amp;$E$140</f>
-        <v>Grumpy Light MODragon</v>
+        <f>G139&amp;$E$147</f>
+        <v>Vigilant Light Modragon</v>
       </c>
       <c r="D179" s="5" t="str">
-        <f t="shared" ref="D179:D182" si="17">H133&amp;$F$140</f>
-        <v>暴躁的圣光龙娘</v>
+        <f>H139&amp;$F$147</f>
+        <v>機警的聖光龍娘</v>
       </c>
     </row>
     <row r="180" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
-        <v>105643</v>
+        <v>105642</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>740</v>
+        <v>525</v>
       </c>
       <c r="C180" s="5" t="str">
-        <f t="shared" si="16"/>
-        <v>Timid Light MODragon</v>
+        <f>G140&amp;$E$147</f>
+        <v>Grumpy Light Modragon</v>
       </c>
       <c r="D180" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>胆小的圣光龙娘</v>
+        <f>H140&amp;$F$147</f>
+        <v>暴躁的聖光龍娘</v>
       </c>
     </row>
     <row r="181" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
-        <v>105644</v>
+        <v>105643</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>741</v>
+        <v>526</v>
       </c>
       <c r="C181" s="5" t="str">
-        <f t="shared" si="16"/>
-        <v>Irritable Light MODragon</v>
+        <f>G141&amp;$E$147</f>
+        <v>Timid Light Modragon</v>
       </c>
       <c r="D181" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>易怒的圣光龙娘</v>
+        <f>H141&amp;$F$147</f>
+        <v>膽小的聖光龍娘</v>
       </c>
     </row>
     <row r="182" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
-        <v>105645</v>
+        <v>105644</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>742</v>
+        <v>527</v>
       </c>
       <c r="C182" s="5" t="str">
-        <f t="shared" si="16"/>
-        <v>Gentle Light MODragon</v>
+        <f>G142&amp;$E$147</f>
+        <v>Irritable Light Modragon</v>
       </c>
       <c r="D182" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>温和的圣光龙娘</v>
+        <f>H142&amp;$F$147</f>
+        <v>易怒的聖光龍娘</v>
       </c>
     </row>
     <row r="183" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
-        <v>105646</v>
+        <v>105645</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>743</v>
-      </c>
-      <c r="C183" s="2" t="str">
-        <f>G132&amp;$E$141</f>
-        <v>Vigilant Shadow MODragon</v>
+        <v>528</v>
+      </c>
+      <c r="C183" s="5" t="str">
+        <f>G143&amp;$E$147</f>
+        <v>Gentle Light Modragon</v>
       </c>
       <c r="D183" s="5" t="str">
-        <f>H132&amp;$F$141</f>
-        <v>机警的暗影龙娘</v>
+        <f>H143&amp;$F$147</f>
+        <v>溫和的聖光龍娘</v>
       </c>
     </row>
     <row r="184" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
-        <v>105647</v>
+        <v>105646</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>744</v>
+        <v>529</v>
       </c>
       <c r="C184" s="2" t="str">
-        <f t="shared" ref="C184:C187" si="18">G133&amp;$E$141</f>
-        <v>Grumpy Shadow MODragon</v>
+        <f>G139&amp;$E$148</f>
+        <v>Vigilant Shadow Modragon</v>
       </c>
       <c r="D184" s="5" t="str">
-        <f t="shared" ref="D184:D187" si="19">H133&amp;$F$141</f>
-        <v>暴躁的暗影龙娘</v>
+        <f>H139&amp;$F$148</f>
+        <v>機警的暗影龍娘</v>
       </c>
     </row>
     <row r="185" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
-        <v>105648</v>
+        <v>105647</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>745</v>
+        <v>530</v>
       </c>
       <c r="C185" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v>Timid Shadow MODragon</v>
+        <f>G140&amp;$E$148</f>
+        <v>Grumpy Shadow Modragon</v>
       </c>
       <c r="D185" s="5" t="str">
-        <f t="shared" si="19"/>
-        <v>胆小的暗影龙娘</v>
+        <f>H140&amp;$F$148</f>
+        <v>暴躁的暗影龍娘</v>
       </c>
     </row>
     <row r="186" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
-        <v>105649</v>
+        <v>105648</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>746</v>
+        <v>531</v>
       </c>
       <c r="C186" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v>Irritable Shadow MODragon</v>
+        <f>G141&amp;$E$148</f>
+        <v>Timid Shadow Modragon</v>
       </c>
       <c r="D186" s="5" t="str">
-        <f t="shared" si="19"/>
-        <v>易怒的暗影龙娘</v>
+        <f>H141&amp;$F$148</f>
+        <v>膽小的暗影龍娘</v>
       </c>
     </row>
     <row r="187" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
+        <v>105649</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="C187" s="2" t="str">
+        <f>G142&amp;$E$148</f>
+        <v>Irritable Shadow Modragon</v>
+      </c>
+      <c r="D187" s="5" t="str">
+        <f>H142&amp;$F$148</f>
+        <v>易怒的暗影龍娘</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A188" s="1">
         <v>105650</v>
       </c>
-      <c r="B187" s="6" t="s">
-        <v>747</v>
-      </c>
-      <c r="C187" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v>Gentle Shadow MODragon</v>
-      </c>
-      <c r="D187" s="5" t="str">
-        <f t="shared" si="19"/>
-        <v>温和的暗影龙娘</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C188"/>
-      <c r="D188"/>
+      <c r="B188" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="C188" s="2" t="str">
+        <f>G143&amp;$E$148</f>
+        <v>Gentle Shadow Modragon</v>
+      </c>
+      <c r="D188" s="5" t="str">
+        <f>H143&amp;$F$148</f>
+        <v>溫和的暗影龍娘</v>
+      </c>
     </row>
     <row r="189" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A189" s="6">
-        <v>200001</v>
-      </c>
-      <c r="B189" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="C189" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="D189" s="7" t="s">
-        <v>329</v>
-      </c>
+      <c r="C189"/>
+      <c r="D189"/>
     </row>
     <row r="190" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="6">
+        <v>200001</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D190" s="7" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="6">
         <v>200002</v>
       </c>
-      <c r="B190" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="C190" s="7" t="s">
-        <v>642</v>
-      </c>
-      <c r="D190" s="7" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A191" s="6">
+      <c r="B191" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="D191" s="7" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="6">
         <v>200003</v>
       </c>
-      <c r="B191" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="C191" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="D191" s="7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A192" s="6">
+      <c r="B192" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D192" s="7" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A193" s="6">
         <v>200004</v>
       </c>
-      <c r="B192" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="C192" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="D192" s="7" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A193" s="6">
+      <c r="B193" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D193" s="7" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A194" s="6">
         <v>200005</v>
       </c>
-      <c r="B193" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="C193" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="D193" s="7" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A194" s="6">
-        <v>200006</v>
-      </c>
       <c r="B194" s="6" t="s">
-        <v>340</v>
+        <v>274</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>341</v>
+        <v>275</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>342</v>
+        <v>673</v>
       </c>
     </row>
     <row r="195" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="6">
-        <v>200007</v>
+        <v>200006</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>343</v>
+        <v>276</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>344</v>
+        <v>277</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>345</v>
+        <v>674</v>
       </c>
     </row>
     <row r="196" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="6">
-        <v>200008</v>
+        <v>200007</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>346</v>
+        <v>278</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>347</v>
+        <v>279</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>348</v>
+        <v>675</v>
       </c>
     </row>
     <row r="197" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="6">
-        <v>200009</v>
+        <v>200008</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>349</v>
+        <v>280</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>350</v>
+        <v>281</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>351</v>
+        <v>676</v>
       </c>
     </row>
     <row r="198" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="6">
-        <v>200010</v>
+        <v>200009</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>352</v>
+        <v>282</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>353</v>
+        <v>283</v>
       </c>
       <c r="D198" s="7" t="s">
-        <v>354</v>
+        <v>677</v>
       </c>
     </row>
     <row r="199" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="6">
-        <v>200011</v>
+        <v>200010</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>355</v>
+        <v>284</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>356</v>
+        <v>285</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>357</v>
+        <v>678</v>
       </c>
     </row>
     <row r="200" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="6">
-        <v>200012</v>
+        <v>200011</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>358</v>
+        <v>286</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>359</v>
+        <v>287</v>
       </c>
       <c r="D200" s="7" t="s">
-        <v>360</v>
+        <v>679</v>
       </c>
     </row>
     <row r="201" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="6">
-        <v>200013</v>
+        <v>200012</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>361</v>
+        <v>288</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>362</v>
+        <v>289</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>363</v>
+        <v>680</v>
       </c>
     </row>
     <row r="202" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="6">
-        <v>200014</v>
+        <v>200013</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>364</v>
+        <v>290</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>644</v>
+        <v>291</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>645</v>
+        <v>681</v>
       </c>
     </row>
     <row r="203" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="6">
-        <v>200015</v>
+        <v>200014</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>365</v>
+        <v>292</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>366</v>
+        <v>459</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>367</v>
+        <v>682</v>
       </c>
     </row>
     <row r="204" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="6">
-        <v>200016</v>
+        <v>200015</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>368</v>
+        <v>293</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>646</v>
+        <v>294</v>
       </c>
       <c r="D204" s="7" t="s">
-        <v>647</v>
+        <v>683</v>
       </c>
     </row>
     <row r="205" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="6">
+        <v>200016</v>
+      </c>
+      <c r="B205" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="D205" s="7" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A206" s="6">
         <v>200017</v>
       </c>
-      <c r="B205" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="C205" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="D205" s="7" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A206" s="6">
+      <c r="B206" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="D206" s="7" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A207" s="6">
         <v>200018</v>
       </c>
-      <c r="B206" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="C206" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="D206" s="7" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A207" s="6">
-        <v>200019</v>
-      </c>
       <c r="B207" s="6" t="s">
-        <v>375</v>
+        <v>298</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>376</v>
+        <v>299</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>377</v>
+        <v>686</v>
       </c>
     </row>
     <row r="208" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="6">
-        <v>200020</v>
+        <v>200019</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>378</v>
+        <v>300</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>379</v>
+        <v>301</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>380</v>
+        <v>687</v>
       </c>
     </row>
     <row r="209" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="6">
-        <v>200021</v>
+        <v>200020</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>381</v>
+        <v>302</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>382</v>
+        <v>303</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>383</v>
+        <v>688</v>
       </c>
     </row>
     <row r="210" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="6">
-        <v>200022</v>
+        <v>200021</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>384</v>
+        <v>304</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>385</v>
+        <v>743</v>
       </c>
       <c r="D210" s="7" t="s">
-        <v>386</v>
+        <v>689</v>
       </c>
     </row>
     <row r="211" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="6">
+        <v>200022</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="D211" s="7" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A212" s="6">
         <v>200023</v>
       </c>
-      <c r="B211" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="C211" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D211" s="7" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A212" s="6">
+      <c r="B212" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="D212" s="7" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A213" s="6">
         <v>200024</v>
       </c>
-      <c r="B212" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="C212" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="D212" s="7" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A213" s="6">
-        <v>200025</v>
-      </c>
       <c r="B213" s="6" t="s">
-        <v>393</v>
+        <v>307</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>394</v>
+        <v>308</v>
       </c>
       <c r="D213" s="7" t="s">
-        <v>395</v>
+        <v>692</v>
       </c>
     </row>
     <row r="214" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="6">
-        <v>200026</v>
+        <v>200025</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>396</v>
+        <v>309</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>397</v>
+        <v>310</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>398</v>
+        <v>693</v>
       </c>
     </row>
     <row r="215" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="6">
-        <v>200027</v>
+        <v>200026</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>399</v>
+        <v>311</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>400</v>
+        <v>312</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>401</v>
+        <v>694</v>
       </c>
     </row>
     <row r="216" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="6">
-        <v>200028</v>
+        <v>200027</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>402</v>
+        <v>313</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>403</v>
+        <v>314</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>404</v>
+        <v>695</v>
       </c>
     </row>
     <row r="217" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="6">
-        <v>200029</v>
+        <v>200028</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>405</v>
+        <v>315</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>406</v>
+        <v>316</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>407</v>
+        <v>696</v>
       </c>
     </row>
     <row r="218" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="6">
-        <v>200030</v>
+        <v>200029</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>408</v>
+        <v>317</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>409</v>
+        <v>318</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>410</v>
+        <v>697</v>
       </c>
     </row>
     <row r="219" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="6">
-        <v>200031</v>
+        <v>200030</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>411</v>
+        <v>319</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>412</v>
+        <v>320</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>413</v>
+        <v>698</v>
       </c>
     </row>
     <row r="220" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="6">
-        <v>200032</v>
+        <v>200031</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>414</v>
+        <v>321</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>415</v>
+        <v>322</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>648</v>
+        <v>699</v>
       </c>
     </row>
     <row r="221" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="6">
-        <v>200033</v>
+        <v>200032</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>416</v>
+        <v>323</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>649</v>
+        <v>324</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>650</v>
+        <v>700</v>
       </c>
     </row>
     <row r="222" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="6">
-        <v>200034</v>
+        <v>200033</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>417</v>
+        <v>325</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>418</v>
+        <v>461</v>
       </c>
       <c r="D222" s="7" t="s">
-        <v>419</v>
+        <v>701</v>
       </c>
     </row>
     <row r="223" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="6">
-        <v>200035</v>
+        <v>200034</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>420</v>
+        <v>326</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>421</v>
+        <v>327</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>422</v>
+        <v>702</v>
       </c>
     </row>
     <row r="224" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="6">
-        <v>200036</v>
+        <v>200035</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>423</v>
+        <v>328</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>651</v>
+        <v>329</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>424</v>
+        <v>703</v>
       </c>
     </row>
     <row r="225" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="6">
-        <v>200037</v>
+        <v>200036</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>425</v>
+        <v>330</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>426</v>
+        <v>462</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>427</v>
+        <v>704</v>
       </c>
     </row>
     <row r="226" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="6">
-        <v>200038</v>
+        <v>200037</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>428</v>
+        <v>331</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>429</v>
+        <v>332</v>
       </c>
       <c r="D226" s="7" t="s">
-        <v>430</v>
+        <v>705</v>
       </c>
     </row>
     <row r="227" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="6">
-        <v>200039</v>
+        <v>200038</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>431</v>
+        <v>333</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>432</v>
+        <v>334</v>
       </c>
       <c r="D227" s="7" t="s">
-        <v>433</v>
+        <v>706</v>
       </c>
     </row>
     <row r="228" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="6">
+        <v>200039</v>
+      </c>
+      <c r="B228" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="C228" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="D228" s="7" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A229" s="6">
         <v>200040</v>
       </c>
-      <c r="B228" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="D228" s="5" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A229" s="6">
+      <c r="B229" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D229" s="5" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A230" s="6">
         <v>200041</v>
       </c>
-      <c r="B229" s="6" t="s">
-        <v>540</v>
-      </c>
-      <c r="C229" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="D229" s="5" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A230" s="6">
-        <v>200042</v>
-      </c>
       <c r="B230" s="6" t="s">
-        <v>541</v>
+        <v>391</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>533</v>
+        <v>408</v>
+      </c>
+      <c r="D230" s="5" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="231" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="6">
-        <v>200043</v>
+        <v>200042</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>552</v>
+        <v>392</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>534</v>
+        <v>710</v>
       </c>
     </row>
     <row r="232" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="6">
-        <v>200044</v>
+        <v>200043</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>543</v>
+        <v>393</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>553</v>
+        <v>403</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>535</v>
+        <v>711</v>
       </c>
     </row>
     <row r="233" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="6">
-        <v>200045</v>
+        <v>200044</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>544</v>
+        <v>394</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>554</v>
+        <v>404</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>536</v>
+        <v>712</v>
       </c>
     </row>
     <row r="234" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="6">
-        <v>200046</v>
+        <v>200045</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>545</v>
+        <v>395</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>555</v>
+        <v>405</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>537</v>
+        <v>713</v>
       </c>
     </row>
     <row r="235" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="6">
-        <v>200047</v>
+        <v>200046</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="C235" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="D235" s="5" t="s">
-        <v>559</v>
+        <v>396</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="236" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="6">
-        <v>200048</v>
+        <v>200047</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>538</v>
+        <v>397</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="D236" s="5" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="237" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="6">
+        <v>200048</v>
+      </c>
+      <c r="B237" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A238" s="6">
         <v>200049</v>
       </c>
-      <c r="B237" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="C237" s="5" t="s">
-        <v>570</v>
-      </c>
-      <c r="D237" s="5" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A238" s="6">
-        <v>200050</v>
-      </c>
       <c r="B238" s="6" t="s">
-        <v>549</v>
+        <v>399</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>577</v>
+        <v>410</v>
       </c>
       <c r="D238" s="5" t="s">
-        <v>568</v>
+        <v>717</v>
       </c>
     </row>
     <row r="239" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A239" s="6">
+        <v>200050</v>
+      </c>
+      <c r="B239" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="D239" s="5" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A240" s="6">
         <v>200051</v>
       </c>
-      <c r="B239" s="6" t="s">
-        <v>579</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A240" s="6">
-        <v>200052</v>
-      </c>
       <c r="B240" s="6" t="s">
-        <v>580</v>
+        <v>419</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>572</v>
+        <v>411</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>563</v>
+        <v>719</v>
       </c>
     </row>
     <row r="241" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="6">
+        <v>200052</v>
+      </c>
+      <c r="B241" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A242" s="6">
         <v>200053</v>
       </c>
-      <c r="B241" s="6" t="s">
-        <v>581</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A242" s="6">
+      <c r="B242" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A243" s="6">
         <v>200054</v>
       </c>
-      <c r="B242" s="6" t="s">
-        <v>582</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A243" s="6">
-        <v>200055</v>
-      </c>
       <c r="B243" s="6" t="s">
-        <v>583</v>
+        <v>422</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>575</v>
+        <v>414</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>566</v>
+        <v>722</v>
       </c>
     </row>
     <row r="244" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="6">
-        <v>200056</v>
+        <v>200055</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>584</v>
-      </c>
-      <c r="C244" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="D244" s="5" t="s">
-        <v>569</v>
+        <v>423</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="245" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="6">
-        <v>200057</v>
+        <v>200056</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>585</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>567</v>
+        <v>424</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="D245" s="5" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="246" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="6">
-        <v>200058</v>
+        <v>200057</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>597</v>
-      </c>
-      <c r="C246" s="5" t="s">
-        <v>592</v>
-      </c>
-      <c r="D246" s="5" t="s">
-        <v>586</v>
+        <v>425</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="247" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="6">
-        <v>200059</v>
+        <v>200058</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>598</v>
+        <v>430</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>596</v>
+        <v>749</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>587</v>
+        <v>726</v>
       </c>
     </row>
     <row r="248" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="6">
-        <v>200060</v>
+        <v>200059</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>593</v>
+        <v>431</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>429</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>589</v>
+        <v>727</v>
       </c>
     </row>
     <row r="249" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="6">
-        <v>200061</v>
+        <v>200060</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>600</v>
+        <v>432</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>590</v>
+        <v>426</v>
+      </c>
+      <c r="D249" s="5" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="250" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="6">
-        <v>200062</v>
+        <v>200061</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>601</v>
+        <v>433</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="D250" s="5" t="s">
-        <v>591</v>
+        <v>427</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="251" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="6">
-        <v>200063</v>
+        <v>200062</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>602</v>
-      </c>
-      <c r="C251" s="5" t="s">
-        <v>607</v>
+        <v>434</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>428</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>588</v>
+        <v>730</v>
       </c>
     </row>
     <row r="252" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="6">
-        <v>200064</v>
+        <v>200063</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>603</v>
+        <v>435</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>606</v>
+        <v>731</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>605</v>
+        <v>724</v>
       </c>
     </row>
     <row r="253" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="6">
-        <v>200065</v>
+        <v>200064</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>604</v>
+        <v>436</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>612</v>
+        <v>438</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>608</v>
+        <v>732</v>
       </c>
     </row>
     <row r="254" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="6">
-        <v>200066</v>
+        <v>200065</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>618</v>
+        <v>437</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>615</v>
+        <v>439</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>611</v>
+        <v>733</v>
       </c>
     </row>
     <row r="255" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="6">
-        <v>200067</v>
+        <v>200066</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>619</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>613</v>
+        <v>443</v>
+      </c>
+      <c r="C255" s="5" t="s">
+        <v>442</v>
       </c>
       <c r="D255" s="5" t="s">
-        <v>609</v>
+        <v>734</v>
       </c>
     </row>
     <row r="256" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="6">
-        <v>200068</v>
+        <v>200067</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>620</v>
+        <v>444</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="D256" s="2" t="s">
-        <v>610</v>
+        <v>440</v>
+      </c>
+      <c r="D256" s="5" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="257" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="6">
-        <v>200069</v>
+        <v>200068</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>621</v>
-      </c>
-      <c r="C257" s="5" t="s">
-        <v>607</v>
-      </c>
-      <c r="D257" s="5" t="s">
-        <v>588</v>
+        <v>445</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="258" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="6">
-        <v>200070</v>
+        <v>200069</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>622</v>
+        <v>446</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>617</v>
+        <v>731</v>
       </c>
       <c r="D258" s="5" t="s">
-        <v>616</v>
+        <v>724</v>
       </c>
     </row>
     <row r="259" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="6">
+        <v>200070</v>
+      </c>
+      <c r="B259" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="D259" s="5" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A260" s="6">
         <v>200071</v>
       </c>
-      <c r="B259" s="6" t="s">
-        <v>709</v>
-      </c>
-      <c r="C259" s="5" t="s">
-        <v>711</v>
-      </c>
-      <c r="D259" s="5" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="B260" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="D260" s="5" t="s">
+        <v>738</v>
+      </c>
+    </row>
     <row r="261" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="262" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="263" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7249,7 +7341,7 @@
     <row r="274" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="275" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="276" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="277" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="277" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="278" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="279" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="280" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -7517,13 +7609,13 @@
     <row r="542" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="543" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="544" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="545" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="545" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="546" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="547" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="548" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="549" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="550" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="551" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="551" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="552" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="553" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="554" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -7590,8 +7682,8 @@
     <row r="615" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="616" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="617" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="618" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="619" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="618" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="619" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="620" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="621" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="622" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -7617,6 +7709,7 @@
     <row r="642" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="643" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="644" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="645" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Excels/Language_多语言表.xlsx
+++ b/Excels/Language_多语言表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490C935C-ECE4-4E35-B546-A087D22F09D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C33446-06C9-4838-99B7-67DD2BA899D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="804">
   <si>
     <t>int</t>
   </si>
@@ -2590,6 +2590,202 @@
   </si>
   <si>
     <t>Hello, adventurer. This infernal abyss has been conteminated by the mysterious force of Fire</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0080</t>
+  </si>
+  <si>
+    <t>Dialogue0081</t>
+  </si>
+  <si>
+    <t>Dialogue0082</t>
+  </si>
+  <si>
+    <t>Dialogue0083</t>
+  </si>
+  <si>
+    <t>Dialogue0084</t>
+  </si>
+  <si>
+    <t>Dialogue0085</t>
+  </si>
+  <si>
+    <t>Dialogue0086</t>
+  </si>
+  <si>
+    <t>Dialogue0087</t>
+  </si>
+  <si>
+    <t>Dialogue0088</t>
+  </si>
+  <si>
+    <t>你好，冒險家。感受到我身後茂盛的木之能量了嗎？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>木之能量？那是什麼？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>芬尼亞（木元素智者）這是一片由木之能量匯聚而成的迷陣，探索並解開其中的奧秘吧。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>你是誰？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是木元素智者，負責守護茂盛的木元素之力。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello, DragonOwner. Are you feeling the flourishing vitality of wood glowing behind me?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood power?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Behind me is the mythical maze form by wood energy, explore and unravel the mysteries within!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Who are you?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am Fenia, the guardian of wood. Entrusted by this land to safeguard the flourishing power of wood element.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好，冒險家。在我的身後封印著強大的土之能量，巧妙地運用重力，用你的龍之身軀衝破這層封印吧！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>重力才是關鍵？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的龍之身軀蘊涵強大的能量，重力能幫助其擊碎堅硬的表面。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是土元素智者泰瑞克斯，負責掌管堅硬的土元素之力。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0089</t>
+  </si>
+  <si>
+    <t>Hello, adventurer. The resilient earth power is sealed behind me. Harness the force of gravity and break through this seal!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gravity is the key?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>The dragonblood flowing in your vein carrys powerful energy, use it and shatter the seal with gravity!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am Terrakus, the guardian of earth. Entrusted by this land to oversee the resilient power of earth element.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好，冒險家。水生雾，雾生云，拨云方可见日。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>拨雲見日？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷宮將引導你。但首先，你需要克服雲之障礙。記住，水火乃相生相克之物。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是水元素智者溫蒂妮，流水之力輕柔但深邃，不可控制，只可順應。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0090</t>
+  </si>
+  <si>
+    <t>Dialogue0091</t>
+  </si>
+  <si>
+    <t>Dialogue0092</t>
+  </si>
+  <si>
+    <t>Dialogue0093</t>
+  </si>
+  <si>
+    <t>Dialogue0094</t>
+  </si>
+  <si>
+    <t>Dialogue0095</t>
+  </si>
+  <si>
+    <t>Dialogue0096</t>
+  </si>
+  <si>
+    <t>Dialogue0097</t>
+  </si>
+  <si>
+    <t>Dialogue0098</t>
+  </si>
+  <si>
+    <t>Dialogue0099</t>
+  </si>
+  <si>
+    <t>The raging power of infernal is roaring from the abyss, cleanse and purification will be the only way out!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cleanse? How?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>In the land of Dragonverse, fire and water exist in the harmony of creation and restraint. Water cleanse fire, and vice versa.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am Elia, the guardian of fire. Entrusted by this land to contain the fiery power of fire element.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好，冒險家。憤怒的火之煉獄正在咆哮，淨化它才是唯一的出路。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>何為凈化？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>在這片大陸，火與水相生相克，水元素擁有淨化火元素的能力，相反亦是如此。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是火元素智者艾莉娅，負責掌管並控制憤怒的火元素之力。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greetings, adventurer. From water emerges the mist, from mist forms the clouds; it is through parting the clouds that one may behold the sun.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>And after the sun..?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>The maze shall guide you, but first, conquer the mythical clouds. Remember the restraint of water and fire.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am Wendy, the guardian of water. The power of flowing water is gentle but yet profound, uncontrollable, only to be accommodated.</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2961,10 +3157,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H645"/>
+  <dimension ref="A1:H641"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="C251" sqref="C251"/>
+    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
+      <selection activeCell="C278" sqref="C278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -7325,34 +7521,294 @@
         <v>738</v>
       </c>
     </row>
-    <row r="261" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="262" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="263" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="264" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="265" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="266" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="267" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="268" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="269" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="270" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="271" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="272" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="273" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="274" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="275" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="276" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="277" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="278" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="279" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="280" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="281" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="282" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="283" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="284" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="285" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="286" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="287" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="288" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="261" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A261" s="6">
+        <v>200072</v>
+      </c>
+      <c r="B261" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="C261" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="D261" s="5" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A262" s="6">
+        <v>200073</v>
+      </c>
+      <c r="B262" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="D262" s="5" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A263" s="6">
+        <v>200074</v>
+      </c>
+      <c r="B263" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="D263" s="5" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A264" s="6">
+        <v>200075</v>
+      </c>
+      <c r="B264" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="D264" s="5" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A265" s="6">
+        <v>200076</v>
+      </c>
+      <c r="B265" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="D265" s="5" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A266" s="6">
+        <v>200077</v>
+      </c>
+      <c r="B266" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="D266" s="5" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A267" s="6">
+        <v>200078</v>
+      </c>
+      <c r="B267" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="D267" s="5" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A268" s="6">
+        <v>200079</v>
+      </c>
+      <c r="B268" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D268" s="5" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A269" s="6">
+        <v>200080</v>
+      </c>
+      <c r="B269" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="C269" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="D269" s="5" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A270" s="6">
+        <v>200081</v>
+      </c>
+      <c r="B270" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="D270" s="5" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A271" s="6">
+        <v>200082</v>
+      </c>
+      <c r="B271" s="6" t="s">
+        <v>782</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="D271" s="5" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A272" s="6">
+        <v>200083</v>
+      </c>
+      <c r="B272" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="D272" s="5" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A273" s="6">
+        <v>200084</v>
+      </c>
+      <c r="B273" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="C273" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="D273" s="5" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A274" s="6">
+        <v>200085</v>
+      </c>
+      <c r="B274" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="D274" s="5" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A275" s="6">
+        <v>200086</v>
+      </c>
+      <c r="B275" s="6" t="s">
+        <v>786</v>
+      </c>
+      <c r="C275" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="D275" s="5" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A276" s="6">
+        <v>200087</v>
+      </c>
+      <c r="B276" s="6" t="s">
+        <v>787</v>
+      </c>
+      <c r="C276" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="D276" s="5" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A277" s="6">
+        <v>200088</v>
+      </c>
+      <c r="B277" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="C277" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="D277" s="5" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A278" s="6">
+        <v>200089</v>
+      </c>
+      <c r="B278" s="6" t="s">
+        <v>789</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="D278" s="5" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A279" s="6">
+        <v>200090</v>
+      </c>
+      <c r="B279" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="C279" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="D279" s="5" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A280" s="6">
+        <v>200091</v>
+      </c>
+      <c r="B280" s="6" t="s">
+        <v>791</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="D280" s="5" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="282" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="283" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="284" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="285" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="286" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="287" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="288" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="289" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="290" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="291" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -7606,16 +8062,16 @@
     <row r="539" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="540" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="541" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="542" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="543" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="544" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="545" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="542" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="543" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="544" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="545" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="546" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="547" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="548" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="549" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="550" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="551" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="548" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="549" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="550" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="551" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="552" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="553" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="554" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -7679,37 +8135,37 @@
     <row r="612" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="613" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="614" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="615" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="615" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="616" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="617" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="618" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="619" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="619" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="620" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="621" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="622" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="623" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="624" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="625" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="626" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="627" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="628" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="629" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="630" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="631" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="632" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="633" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="634" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="635" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="636" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="637" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="638" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="639" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="640" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="641" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="642" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="643" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="644" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="645" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="625" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="626" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="627" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="628" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="629" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="630" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="631" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="632" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="633" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="634" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="635" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="636" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="637" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="638" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="639" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="640" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C640"/>
+    </row>
+    <row r="641" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C641"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Excels/Language_多语言表.xlsx
+++ b/Excels/Language_多语言表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C33446-06C9-4838-99B7-67DD2BA899D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B65B8A-9A14-4A40-96AE-927E56B72367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="805">
   <si>
     <t>int</t>
   </si>
@@ -2628,10 +2628,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>芬尼亞（木元素智者）這是一片由木之能量匯聚而成的迷陣，探索並解開其中的奧秘吧。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>你是誰？</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2695,18 +2691,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>你好，冒險家。水生雾，雾生云，拨云方可见日。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>拨雲見日？</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>迷宮將引導你。但首先，你需要克服雲之障礙。記住，水火乃相生相克之物。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>我是水元素智者溫蒂妮，流水之力輕柔但深邃，不可控制，只可順應。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2765,14 +2749,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>在這片大陸，火與水相生相克，水元素擁有淨化火元素的能力，相反亦是如此。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>我是火元素智者艾莉娅，負責掌管並控制憤怒的火元素之力。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Greetings, adventurer. From water emerges the mist, from mist forms the clouds; it is through parting the clouds that one may behold the sun.</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2786,6 +2762,34 @@
   </si>
   <si>
     <t>I am Wendy, the guardian of water. The power of flowing water is gentle but yet profound, uncontrollable, only to be accommodated.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>木槿龍少</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好，冒險家。水生霧，霧生雲，撥雲方可見日。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>撥雲見日？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷宮將引導你。但首先，你需要克服雲之障礙。記住，水火乃相生相剋之物。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>在這片大陸，火與水相生相剋，水元素擁有淨化火元素的能力，相反亦是如此。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是火元素智者艾莉婭，負責掌管並控制憤怒的火元素之力。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是一片由木之能量匯聚而成的迷陣，探索並解開其中的奧秘吧。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3159,8 +3163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H641"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
-      <selection activeCell="C278" sqref="C278"/>
+    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="D265" sqref="D265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -3779,8 +3783,8 @@
       <c r="C31" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>606</v>
+      <c r="D31" s="5" t="s">
+        <v>798</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>94</v>
@@ -7529,7 +7533,7 @@
         <v>750</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D261" s="5" t="s">
         <v>759</v>
@@ -7543,7 +7547,7 @@
         <v>751</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D262" s="5" t="s">
         <v>760</v>
@@ -7557,10 +7561,10 @@
         <v>752</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>761</v>
+        <v>804</v>
       </c>
     </row>
     <row r="264" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -7571,10 +7575,10 @@
         <v>753</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="265" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -7585,10 +7589,10 @@
         <v>754</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D265" s="5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="266" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -7599,10 +7603,10 @@
         <v>755</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="267" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -7613,10 +7617,10 @@
         <v>756</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D267" s="5" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="268" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -7627,10 +7631,10 @@
         <v>757</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D268" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="269" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -7641,10 +7645,10 @@
         <v>758</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D269" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="270" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -7652,13 +7656,13 @@
         <v>200081</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D270" s="5" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="271" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -7666,13 +7670,13 @@
         <v>200082</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="D271" s="5" t="s">
-        <v>778</v>
+        <v>799</v>
       </c>
     </row>
     <row r="272" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -7680,13 +7684,13 @@
         <v>200083</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="D272" s="5" t="s">
-        <v>779</v>
+        <v>800</v>
       </c>
     </row>
     <row r="273" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -7694,13 +7698,13 @@
         <v>200084</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="D273" s="5" t="s">
-        <v>780</v>
+        <v>801</v>
       </c>
     </row>
     <row r="274" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -7708,13 +7712,13 @@
         <v>200085</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D274" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="275" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -7722,13 +7726,13 @@
         <v>200086</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="D275" s="5" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="276" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -7736,13 +7740,13 @@
         <v>200087</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="C276" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="D276" s="5" t="s">
         <v>792</v>
-      </c>
-      <c r="D276" s="5" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="277" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -7750,13 +7754,13 @@
         <v>200088</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="C277" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="D277" s="5" t="s">
         <v>793</v>
-      </c>
-      <c r="D277" s="5" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="278" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -7764,13 +7768,13 @@
         <v>200089</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="D278" s="5" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
     </row>
     <row r="279" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -7778,13 +7782,13 @@
         <v>200090</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D279" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="280" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -7792,13 +7796,13 @@
         <v>200091</v>
       </c>
       <c r="B280" s="6" t="s">
+        <v>787</v>
+      </c>
+      <c r="C280" s="5" t="s">
         <v>791</v>
       </c>
-      <c r="C280" s="5" t="s">
-        <v>795</v>
-      </c>
       <c r="D280" s="5" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
     </row>
     <row r="281" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>

--- a/Excels/Language_多语言表.xlsx
+++ b/Excels/Language_多语言表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B65B8A-9A14-4A40-96AE-927E56B72367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103EB9D9-3501-40F6-AA28-574C653E0827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="1012">
   <si>
     <t>int</t>
   </si>
@@ -1811,9 +1811,6 @@
     <t>Water Guardian · Wendy</t>
   </si>
   <si>
-    <t>Parkour Master · Coleman</t>
-  </si>
-  <si>
     <t>Wood Monolith</t>
   </si>
   <si>
@@ -2091,10 +2088,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>跑酷達人 · 卡勒姆</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>木元素圖騰</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2791,6 +2784,686 @@
   <si>
     <t>這是一片由木之能量匯聚而成的迷陣，探索並解開其中的奧秘吧。</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是瑞奇，这片大陆的采集导师。不懂采集的话在这片大陆可是很难混的！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>你是谁？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可采集的物品通常会发光，靠近它们后采集的按钮就会自动出现，别忘记多留点备用哦！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何才能采集呢？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>地上可采集的红色果实就是火龙果。果肉细腻无核，汁水丰盈，是野生Modragon最喜爱的果实之一。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>火龙果又是啥。。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>比如说Dragonball，这是这片大陆上独有的特产，你可以用它们来捕捉Modragon。当然还有火龙果，你的龙娘宝宝们可全靠它吃饱肚子！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品？比如呢？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>哟，新来的冒险家！欢迎来到DragonVerse Neo！在开始冒险之前，你最好先了解一下一些物品的使用方法哦。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0100</t>
+  </si>
+  <si>
+    <t>Dialogue0101</t>
+  </si>
+  <si>
+    <t>Dialogue0102</t>
+  </si>
+  <si>
+    <t>Dialogue0103</t>
+  </si>
+  <si>
+    <t>Dialogue0104</t>
+  </si>
+  <si>
+    <t>Dialogue0105</t>
+  </si>
+  <si>
+    <t>Dialogue0106</t>
+  </si>
+  <si>
+    <t>Dialogue0107</t>
+  </si>
+  <si>
+    <t>Dialogue0108</t>
+  </si>
+  <si>
+    <t>Greetings new Dragonowner! Welcome to the land of Dragonverse Neo, before you start your journey, you might want to get familiar with some collectable items.</t>
+  </si>
+  <si>
+    <t>Greetings new Dragonowner! Welcome to the land of Dragonverse Neo, before you start your journey, you might want to get familiar with some collectable items.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items? Like what?</t>
+  </si>
+  <si>
+    <t>Items? Like what?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Like Dragonball, designed to capture wild Modragons! and Pitaya as well, your Modragons loves Pitaya!</t>
+  </si>
+  <si>
+    <t>Like Dragonball, designed to capture wild Modragons! and Pitaya as well, your Modragons loves Pitaya!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pitaya..?</t>
+  </si>
+  <si>
+    <t>Pitaya..?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Those collectable red fruits are Pitaya, A delicate and juicy fruit, one of the favorite fruits of Modragons.</t>
+  </si>
+  <si>
+    <t>Those collectable red fruits are Pitaya, A delicate and juicy fruit, one of the favorite fruits of Modragons.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collect? How?</t>
+  </si>
+  <si>
+    <t>Collect? How?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collectible items are usually floating items with light. Once you get close to them, the collect button will become available. Collect as many as you can!</t>
+  </si>
+  <si>
+    <t>Collectible items are usually floating items with light. Once you get close to them, the collect button will become available. Collect as many as you can!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Who are you?</t>
+  </si>
+  <si>
+    <t>I am Ricky, master of collection in this land. gonna be a rough time for you around here if you don't know how to collect!</t>
+  </si>
+  <si>
+    <t>I am Ricky, master of collection in this land. gonna be a rough time for you around here if you don't know how to collect!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>哟，新来的冒险家！欢迎来到DragonVerse Neo！想不想拥有一只乖巧无比的龙娘跟着你到处跑呢？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dragonowner, Welcome to DragonVerse Neo! Go get a Modragon before you get too lonely during your journey, they are great companions!</t>
+  </si>
+  <si>
+    <t>Dragonowner, Welcome to DragonVerse Neo! Go get a Modragon before you get too lonely during your journey, they are great companions!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>它不咬人吧。。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>你别打岔！龙娘是你接下来冒险的必要伴侣，捉不捉得到全凭自己！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么捉它呢</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用你的捕捉操纵杆即可，不过首先你要确保你的背包里有Dragonball</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100%捕捉？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可没那么容易，想要提高你的捕捉成功率，你必须在完美区域释放你的Dragonball。性格不好的龙娘尤其难抓！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>性格？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>没错，每个龙娘都有自己的性格。多观察龙娘头顶的性格，不要浪费自己的Dragonball哦！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是瑟琳娜，这片大陆的捕龙专家。谁会拒绝一个可爱的龙娘呢！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>They don't bite...?</t>
+  </si>
+  <si>
+    <t>They don't bite...?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ofcourse not! Modragons are your essential companions along the journey, boxing them takes skills!</t>
+  </si>
+  <si>
+    <t>Ofcourse not! Modragons are your essential companions along the journey, boxing them takes skills!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Box? How?</t>
+  </si>
+  <si>
+    <t>Box? How?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Just use your capture controller, but make sure you have sufficient Dragonball in your bag.</t>
+  </si>
+  <si>
+    <t>Just use your capture controller, but make sure you have sufficient Dragonball in your bag.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guaranteed?</t>
+  </si>
+  <si>
+    <t>Guaranteed?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not that easy, but if you wanna increase the odds, make sure you release your dragonball in the "perfect zone". Also, it takes luck to box Modragons with tough personalities.</t>
+  </si>
+  <si>
+    <t>Not that easy, but if you wanna increase the odds, make sure you release your dragonball in the "perfect zone". Also, it takes luck to box Modragons with tough personalities.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>They could be.. stubborn?</t>
+  </si>
+  <si>
+    <t>They could be.. stubborn?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>That's right, each Modragons has unique personality. Observe their personality in their name tag, helps you save your dragonball for sure!</t>
+  </si>
+  <si>
+    <t>That's right, each Modragons has unique personality. Observe their personality in their name tag, helps you save your dragonball for sure!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am Selina, master of dragon in this land. Who will say NO to a cute Modragon, right?!</t>
+  </si>
+  <si>
+    <t>I am Selina, master of dragon in this land. Who will say NO to a cute Modragon, right?!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0109</t>
+  </si>
+  <si>
+    <t>Dialogue0110</t>
+  </si>
+  <si>
+    <t>Dialogue0111</t>
+  </si>
+  <si>
+    <t>Dialogue0112</t>
+  </si>
+  <si>
+    <t>Dialogue0113</t>
+  </si>
+  <si>
+    <t>Dialogue0114</t>
+  </si>
+  <si>
+    <t>Dialogue0115</t>
+  </si>
+  <si>
+    <t>Dialogue0116</t>
+  </si>
+  <si>
+    <t>Dialogue0117</t>
+  </si>
+  <si>
+    <t>Dialogue0118</t>
+  </si>
+  <si>
+    <t>Dialogue0119</t>
+  </si>
+  <si>
+    <t>接着奏乐，接着舞！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>还能跳舞？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>那肯定！点击“动作交互”就可以和NPC一起跳舞啦！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是芭芭拉，这片大陆的动作大师！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dance? Damn!</t>
+  </si>
+  <si>
+    <t>Dance? Damn!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>That's for sure! Just click "emote" and get funky with some sick moves!</t>
+  </si>
+  <si>
+    <t>That's for sure! Just click "emote" and get funky with some sick moves!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am Barbara, master of emote in this land.</t>
+  </si>
+  <si>
+    <t>I am Barbara, master of emote in this land.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0120</t>
+  </si>
+  <si>
+    <t>Dialogue0121</t>
+  </si>
+  <si>
+    <t>Dialogue0122</t>
+  </si>
+  <si>
+    <t>Dialogue0123</t>
+  </si>
+  <si>
+    <t>Dialogue0124</t>
+  </si>
+  <si>
+    <t>And this time..we're gonna get funky!</t>
+  </si>
+  <si>
+    <t>And this time..we're gonna get funky!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好，冒险家。黎明将至，汇聚元素之力，迎接新的挑战吧。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黎明将至？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇聚元素之力，图腾会带给你答案。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello, Dragonowner. The dawn is upon us, unseal the magic by converging the elemental power. New challenge shall be imposed!</t>
+  </si>
+  <si>
+    <t>Hello, Dragonowner. The dawn is upon us, unseal the magic by converging the elemental power. New challenge shall be imposed!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>The dawn?</t>
+  </si>
+  <si>
+    <t>The dawn?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Converge the power of the elementals, monoliths will be the hint.</t>
+  </si>
+  <si>
+    <t>Converge the power of the elementals, monoliths will be the hint.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue0125</t>
+  </si>
+  <si>
+    <t>Dialogue0126</t>
+  </si>
+  <si>
+    <t>Dialogue0127</t>
+  </si>
+  <si>
+    <t>Mysterious</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘人</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vigilant Flame Modragon</t>
+  </si>
+  <si>
+    <t>Grumpy Flame Modragon</t>
+  </si>
+  <si>
+    <t>Timid Flame Modragon</t>
+  </si>
+  <si>
+    <t>Irritable Flame Modragon</t>
+  </si>
+  <si>
+    <t>Gentle Flame Modragon</t>
+  </si>
+  <si>
+    <t>Vigilant Aqua Modragon</t>
+  </si>
+  <si>
+    <t>Grumpy Aqua Modragon</t>
+  </si>
+  <si>
+    <t>Timid Aqua Modragon</t>
+  </si>
+  <si>
+    <t>Irritable Aqua Modragon</t>
+  </si>
+  <si>
+    <t>Gentle Aqua Modragon</t>
+  </si>
+  <si>
+    <t>Vigilant Hibiscus Modragon</t>
+  </si>
+  <si>
+    <t>Grumpy Hibiscus Modragon</t>
+  </si>
+  <si>
+    <t>Timid Hibiscus Modragon</t>
+  </si>
+  <si>
+    <t>Irritable Hibiscus Modragon</t>
+  </si>
+  <si>
+    <t>Gentle Hibiscus Modragon</t>
+  </si>
+  <si>
+    <t>Vigilant Megalithic Modragon</t>
+  </si>
+  <si>
+    <t>Grumpy Megalithic Modragon</t>
+  </si>
+  <si>
+    <t>Timid Megalithic Modragon</t>
+  </si>
+  <si>
+    <t>Irritable Megalithic Modragon</t>
+  </si>
+  <si>
+    <t>Gentle Megalithic Modragon</t>
+  </si>
+  <si>
+    <t>Vigilant Infernal Modragon</t>
+  </si>
+  <si>
+    <t>Grumpy Infernal Modragon</t>
+  </si>
+  <si>
+    <t>Timid Infernal Modragon</t>
+  </si>
+  <si>
+    <t>Irritable Infernal Modragon</t>
+  </si>
+  <si>
+    <t>Gentle Infernal Modragon</t>
+  </si>
+  <si>
+    <t>Vigilant Ocean Modragon</t>
+  </si>
+  <si>
+    <t>Grumpy Ocean Modragon</t>
+  </si>
+  <si>
+    <t>Timid Ocean Modragon</t>
+  </si>
+  <si>
+    <t>Irritable Ocean Modragon</t>
+  </si>
+  <si>
+    <t>Gentle Ocean Modragon</t>
+  </si>
+  <si>
+    <t>Vigilant Forest Modragon</t>
+  </si>
+  <si>
+    <t>Grumpy Forest Modragon</t>
+  </si>
+  <si>
+    <t>Timid Forest Modragon</t>
+  </si>
+  <si>
+    <t>Irritable Forest Modragon</t>
+  </si>
+  <si>
+    <t>Gentle Forest Modragon</t>
+  </si>
+  <si>
+    <t>Vigilant Mountain Modragon</t>
+  </si>
+  <si>
+    <t>Grumpy Mountain Modragon</t>
+  </si>
+  <si>
+    <t>Timid Mountain Modragon</t>
+  </si>
+  <si>
+    <t>Irritable Mountain Modragon</t>
+  </si>
+  <si>
+    <t>Gentle Mountain Modragon</t>
+  </si>
+  <si>
+    <t>Vigilant Light Modragon</t>
+  </si>
+  <si>
+    <t>Grumpy Light Modragon</t>
+  </si>
+  <si>
+    <t>Timid Light Modragon</t>
+  </si>
+  <si>
+    <t>Irritable Light Modragon</t>
+  </si>
+  <si>
+    <t>Gentle Light Modragon</t>
+  </si>
+  <si>
+    <t>Vigilant Shadow Modragon</t>
+  </si>
+  <si>
+    <t>Grumpy Shadow Modragon</t>
+  </si>
+  <si>
+    <t>Timid Shadow Modragon</t>
+  </si>
+  <si>
+    <t>Irritable Shadow Modragon</t>
+  </si>
+  <si>
+    <t>Gentle Shadow Modragon</t>
+  </si>
+  <si>
+    <t>Is there anything interesting around here?</t>
+  </si>
+  <si>
+    <t>Dragonball? looks pretty cool?</t>
+  </si>
+  <si>
+    <t>You bet! Dragonballs are preciously unique in this land, it's designed to capture DragonBorns or as an crafting material for mysterious items! Let me help you recognize them.</t>
+  </si>
+  <si>
+    <t>The rarities of these DragonBalls are determined by their colors and textures. Rare DragonBalls have higher odds in capturing DragonBorns.</t>
+  </si>
+  <si>
+    <t>How can I get Dragonball?</t>
+  </si>
+  <si>
+    <t>Eazy peasy! Just aim at the Dragonball and hit "collect".</t>
+  </si>
+  <si>
+    <t>Fanstastic, and what are those red fruits over there? Can I eat them?</t>
+  </si>
+  <si>
+    <t>That's Pitaya: A delicate and juicy fruit, one of the favorite fruits of Dragonborns. To collect Pitaya, just stand underneath the trees and press "collect".</t>
+  </si>
+  <si>
+    <t>Pitaya sounds delicious!</t>
+  </si>
+  <si>
+    <t>Indeed, not only are they tasty, but they're also crucial materials for crafting. Take some Pitaya with you, and they might help you along your journey in this land!</t>
+  </si>
+  <si>
+    <t>There is something else I want you to know, we call it "Gold Coins"</t>
+  </si>
+  <si>
+    <t>Gold Coins? Are they also collectibles?</t>
+  </si>
+  <si>
+    <t>So lucky-strikes are true! I hope I am the "hit by gold" version of Isaac Newton&gt;3</t>
+  </si>
+  <si>
+    <t>Hey, new adventurer! Looks like you have mastered the collection skills, now it's time for you to get your lovely DragonBorn pal!</t>
+  </si>
+  <si>
+    <t>Aha! Never say no to free Dragons!</t>
+  </si>
+  <si>
+    <t>Your honesty is... quite straightfoward. You will need to use your Dragonballs to capture them, I will show you how.</t>
+  </si>
+  <si>
+    <t>You see this Dragonball? All you have to do is capture them using the "Capture" controller, select your Dragonball and tose it to the Dragonborn you wish to capture. But it's not easy! Dragonborns could be quite stubborn to capture!</t>
+  </si>
+  <si>
+    <t>It's quite simple, just look at the name and color of the Dragonborn, that will be your hint. Anyway, observation will help.</t>
+  </si>
+  <si>
+    <t>You said it like it's so simple..</t>
+  </si>
+  <si>
+    <t>Not that hard anyway!</t>
+  </si>
+  <si>
+    <t>Can't you tell I'm being ironic?</t>
+  </si>
+  <si>
+    <t>......, you are lucky I'm not the grumpy one. Actually, I can teach you a technic, it can efficiently increase your odds of capturing them.</t>
+  </si>
+  <si>
+    <t>I'm listening.</t>
+  </si>
+  <si>
+    <t>Remember, controls the your strength. If the strength indicator slides right into the highest strength section (the narrow section in the force indicator), You can dramatically increase your odds of capture.</t>
+  </si>
+  <si>
+    <t>Bingo! Wait.. I don't think I'm the only one that konw this..</t>
+  </si>
+  <si>
+    <t>......Just go and try, remember to capture as much as possible. They will be your key helper along your journey!</t>
+  </si>
+  <si>
+    <t>Emote? Like what?</t>
+  </si>
+  <si>
+    <t>Open your Emote panel, select an emote and play it, it's quite fun and I can show it to you!</t>
+  </si>
+  <si>
+    <t>Also here's a reminder for you: some emotes can boost your level of friendship with other masters. But be careful not to choose the wrong emote, people might get angry!</t>
+  </si>
+  <si>
+    <t>O...kay, what's new..</t>
+  </si>
+  <si>
+    <t>You'll get there, like the wiseman once said: communications are delicacy, learn to be artful!</t>
+  </si>
+  <si>
+    <t>Are there any other clues?</t>
+  </si>
+  <si>
+    <t>Hello, adventurer. This infernal abyss has been conteminated by the mysterious force of Fire</t>
+  </si>
+  <si>
+    <t>Are there any other techniques?</t>
+  </si>
+  <si>
+    <t>Water can purify lava, and vice versa.</t>
+  </si>
+  <si>
+    <t>You can get Dragon Key by staking MBOX to holding 10,000 veMBOX, which can be found at https: //www.mobox.io/#/neo for more information.</t>
+  </si>
+  <si>
+    <t>Hello, DragonOwner. Are you feeling the flourishing vitality of wood glowing behind me?</t>
+  </si>
+  <si>
+    <t>Wood power?</t>
+  </si>
+  <si>
+    <t>Behind me is the mythical maze form by wood energy, explore and unravel the mysteries within!</t>
+  </si>
+  <si>
+    <t>I am Fenia, the guardian of wood. Entrusted by this land to safeguard the flourishing power of wood element.</t>
+  </si>
+  <si>
+    <t>Hello, adventurer. The resilient earth power is sealed behind me. Harness the force of gravity and break through this seal!</t>
+  </si>
+  <si>
+    <t>Gravity is the key?</t>
+  </si>
+  <si>
+    <t>The dragonblood flowing in your vein carrys powerful energy, use it and shatter the seal with gravity!</t>
+  </si>
+  <si>
+    <t>I am Terrakus, the guardian of earth. Entrusted by this land to oversee the resilient power of earth element.</t>
+  </si>
+  <si>
+    <t>Greetings, adventurer. From water emerges the mist, from mist forms the clouds; it is through parting the clouds that one may behold the sun.</t>
+  </si>
+  <si>
+    <t>And after the sun..?</t>
+  </si>
+  <si>
+    <t>The maze shall guide you, but first, conquer the mythical clouds. Remember the restraint of water and fire.</t>
+  </si>
+  <si>
+    <t>I am Wendy, the guardian of water. The power of flowing water is gentle but yet profound, uncontrollable, only to be accommodated.</t>
+  </si>
+  <si>
+    <t>The raging power of infernal is roaring from the abyss, cleanse and purification will be the only way out!</t>
+  </si>
+  <si>
+    <t>Cleanse? How?</t>
+  </si>
+  <si>
+    <t>In the land of Dragonverse, fire and water exist in the harmony of creation and restraint. Water cleanse fire, and vice versa.</t>
+  </si>
+  <si>
+    <t>I am Elia, the guardian of fire. Entrusted by this land to contain the fiery power of fire element.</t>
   </si>
 </sst>
 </file>
@@ -3161,10 +3834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H641"/>
+  <dimension ref="A1:J641"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="D265" sqref="D265"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -3220,7 +3893,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -3264,7 +3937,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -3284,7 +3957,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>22</v>
@@ -3304,7 +3977,7 @@
         <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>26</v>
@@ -3324,13 +3997,13 @@
         <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3344,7 +4017,7 @@
         <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>33</v>
@@ -3364,7 +4037,7 @@
         <v>534</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>448</v>
@@ -3384,7 +4057,7 @@
         <v>450</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>37</v>
@@ -3404,7 +4077,7 @@
         <v>535</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>452</v>
@@ -3424,10 +4097,10 @@
         <v>536</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>588</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>589</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>454</v>
@@ -3444,10 +4117,10 @@
         <v>537</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>590</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>591</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>41</v>
@@ -3467,7 +4140,7 @@
         <v>266</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>455</v>
@@ -3484,7 +4157,7 @@
         <v>478</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -3504,7 +4177,7 @@
         <v>456</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>47</v>
@@ -3544,7 +4217,7 @@
         <v>53</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>54</v>
@@ -3564,7 +4237,7 @@
         <v>57</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>58</v>
@@ -3581,13 +4254,13 @@
         <v>59</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>597</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>598</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>60</v>
@@ -3601,10 +4274,10 @@
         <v>61</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>62</v>
@@ -3624,7 +4297,7 @@
         <v>356</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>65</v>
@@ -3644,7 +4317,7 @@
         <v>357</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>68</v>
@@ -3684,7 +4357,7 @@
         <v>76</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>77</v>
@@ -3724,7 +4397,7 @@
         <v>358</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>85</v>
@@ -3741,10 +4414,10 @@
         <v>87</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>88</v>
@@ -3761,10 +4434,10 @@
         <v>90</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>91</v>
@@ -3781,10 +4454,10 @@
         <v>93</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>94</v>
@@ -3801,10 +4474,10 @@
         <v>96</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>98</v>
@@ -3821,10 +4494,10 @@
         <v>99</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>100</v>
@@ -3841,10 +4514,10 @@
         <v>102</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>103</v>
@@ -3861,10 +4534,10 @@
         <v>105</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>106</v>
@@ -3881,10 +4554,10 @@
         <v>108</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>109</v>
@@ -3901,10 +4574,10 @@
         <v>111</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>112</v>
@@ -3921,10 +4594,10 @@
         <v>114</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>115</v>
@@ -3984,7 +4657,7 @@
         <v>128</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>129</v>
@@ -4024,7 +4697,7 @@
         <v>137</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>138</v>
@@ -4044,7 +4717,7 @@
         <v>141</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>142</v>
@@ -4188,7 +4861,7 @@
         <v>247</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>247</v>
@@ -4208,7 +4881,7 @@
         <v>538</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>538</v>
@@ -4228,7 +4901,7 @@
         <v>539</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>539</v>
@@ -4268,7 +4941,7 @@
         <v>541</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>541</v>
@@ -4308,7 +4981,7 @@
         <v>544</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>544</v>
@@ -4328,7 +5001,7 @@
         <v>543</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>543</v>
@@ -4345,16 +5018,16 @@
         <v>384</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>545</v>
+        <v>908</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>623</v>
+        <v>909</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>545</v>
+        <v>908</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>545</v>
+        <v>908</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -4365,16 +5038,16 @@
         <v>386</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -4385,16 +5058,16 @@
         <v>387</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="63" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -4405,16 +5078,16 @@
         <v>388</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -4425,16 +5098,16 @@
         <v>389</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -4453,13 +5126,17 @@
         <v>350</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
+        <v>625</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="67" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
@@ -4469,13 +5146,17 @@
         <v>351</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
+        <v>626</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="68" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
@@ -4490,8 +5171,12 @@
       <c r="D68" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
+      <c r="E68" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="69" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
@@ -4504,10 +5189,14 @@
         <v>472</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>629</v>
-      </c>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
+        <v>627</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="70" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
@@ -4520,10 +5209,14 @@
         <v>473</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>630</v>
-      </c>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
+        <v>628</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="71" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
@@ -4538,8 +5231,12 @@
       <c r="D71" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
+      <c r="E71" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="72" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
@@ -4557,16 +5254,16 @@
         <v>249</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -4580,7 +5277,7 @@
         <v>251</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>251</v>
@@ -4624,7 +5321,7 @@
         <v>175</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>175</v>
@@ -4684,7 +5381,7 @@
         <v>183</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E80" s="9" t="s">
         <v>183</v>
@@ -4724,7 +5421,7 @@
         <v>188</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E82" s="9" t="s">
         <v>188</v>
@@ -4744,7 +5441,7 @@
         <v>190</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>190</v>
@@ -4764,7 +5461,7 @@
         <v>192</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E84" s="9" t="s">
         <v>192</v>
@@ -4804,7 +5501,7 @@
         <v>197</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E86" s="9" t="s">
         <v>197</v>
@@ -4824,7 +5521,7 @@
         <v>199</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E87" s="9" t="s">
         <v>199</v>
@@ -4844,7 +5541,7 @@
         <v>201</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E88" s="9" t="s">
         <v>201</v>
@@ -4864,7 +5561,7 @@
         <v>203</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E89" s="9" t="s">
         <v>203</v>
@@ -4924,7 +5621,7 @@
         <v>210</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E92" s="9" t="s">
         <v>210</v>
@@ -4944,7 +5641,7 @@
         <v>212</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E93" s="9" t="s">
         <v>212</v>
@@ -4964,7 +5661,7 @@
         <v>214</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E94" s="9" t="s">
         <v>214</v>
@@ -4984,7 +5681,7 @@
         <v>216</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>216</v>
@@ -5004,7 +5701,7 @@
         <v>218</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E96" s="9" t="s">
         <v>218</v>
@@ -5044,7 +5741,7 @@
         <v>221</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E98" s="9" t="s">
         <v>221</v>
@@ -5084,7 +5781,7 @@
         <v>226</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E100" s="9" t="s">
         <v>226</v>
@@ -5104,7 +5801,7 @@
         <v>228</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E101" s="9" t="s">
         <v>228</v>
@@ -5144,7 +5841,7 @@
         <v>188</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E103" s="9" t="s">
         <v>188</v>
@@ -5164,7 +5861,7 @@
         <v>234</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E104" s="9" t="s">
         <v>234</v>
@@ -5181,16 +5878,16 @@
         <v>235</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="106" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5210,6 +5907,12 @@
       <c r="D107" s="3" t="s">
         <v>237</v>
       </c>
+      <c r="E107" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="108" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
@@ -5219,10 +5922,16 @@
         <v>255</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>652</v>
+        <v>650</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="109" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5238,6 +5947,12 @@
       <c r="D109" s="5" t="s">
         <v>257</v>
       </c>
+      <c r="E109" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="110" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
@@ -5250,7 +5965,13 @@
         <v>361</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>653</v>
+        <v>651</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="111" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5266,6 +5987,12 @@
       <c r="D111" s="5" t="s">
         <v>258</v>
       </c>
+      <c r="E111" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="112" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
@@ -5278,10 +6005,16 @@
         <v>480</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>652</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>105051</v>
       </c>
@@ -5292,10 +6025,16 @@
         <v>363</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>653</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>105101</v>
       </c>
@@ -5306,10 +6045,16 @@
         <v>364</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>654</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>105102</v>
       </c>
@@ -5320,10 +6065,16 @@
         <v>365</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>655</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>105103</v>
       </c>
@@ -5334,10 +6085,16 @@
         <v>366</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>656</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>105201</v>
       </c>
@@ -5348,10 +6105,16 @@
         <v>367</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>657</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>105202</v>
       </c>
@@ -5364,8 +6127,14 @@
       <c r="D118" s="3" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E118" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>105203</v>
       </c>
@@ -5376,10 +6145,16 @@
         <v>369</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>658</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>105204</v>
       </c>
@@ -5390,10 +6165,16 @@
         <v>370</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>659</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>105205</v>
       </c>
@@ -5406,8 +6187,14 @@
       <c r="D121" s="5" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E121" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>105206</v>
       </c>
@@ -5420,8 +6207,14 @@
       <c r="D122" s="5" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E122" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>105301</v>
       </c>
@@ -5429,13 +6222,19 @@
         <v>337</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>738</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>105302</v>
       </c>
@@ -5443,13 +6242,19 @@
         <v>338</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>739</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>105303</v>
       </c>
@@ -5460,10 +6265,16 @@
         <v>479</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>660</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>105304</v>
       </c>
@@ -5474,10 +6285,16 @@
         <v>373</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>661</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>105401</v>
       </c>
@@ -5488,10 +6305,16 @@
         <v>374</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>662</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>105402</v>
       </c>
@@ -5502,10 +6325,16 @@
         <v>375</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>663</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>105403</v>
       </c>
@@ -5516,10 +6345,16 @@
         <v>376</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>664</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>105404</v>
       </c>
@@ -5530,10 +6365,16 @@
         <v>373</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>661</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>105405</v>
       </c>
@@ -5546,8 +6387,14 @@
       <c r="D131" s="5" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E131" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>105406</v>
       </c>
@@ -5560,8 +6407,14 @@
       <c r="D132" s="5" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E132" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>105407</v>
       </c>
@@ -5572,10 +6425,16 @@
         <v>379</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>665</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>105501</v>
       </c>
@@ -5588,8 +6447,14 @@
       <c r="D134" s="5" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E134" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>105502</v>
       </c>
@@ -5602,8 +6467,14 @@
       <c r="D135" s="5" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E135" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>105503</v>
       </c>
@@ -5614,30 +6485,42 @@
         <v>476</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>666</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>105504</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>746</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1"/>
       <c r="B138" s="6"/>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
     </row>
-    <row r="139" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>105601</v>
       </c>
@@ -5645,27 +6528,33 @@
         <v>482</v>
       </c>
       <c r="C139" s="2" t="str">
-        <f>G139&amp;$E$139</f>
+        <f>I139&amp;$G$139</f>
         <v>Vigilant Flame Modragon</v>
       </c>
       <c r="D139" s="2" t="str">
-        <f>H139&amp;$F$139</f>
+        <f>J139&amp;$H$139</f>
         <v>機警的火焰龍娘</v>
       </c>
-      <c r="E139" s="5" t="s">
-        <v>566</v>
+      <c r="E139" s="2" t="s">
+        <v>910</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="G139" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="G139" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="I139" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="H139" s="2" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J139" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>105602</v>
       </c>
@@ -5673,27 +6562,33 @@
         <v>483</v>
       </c>
       <c r="C140" s="2" t="str">
-        <f>G140&amp;$E$139</f>
+        <f>I140&amp;$G$139</f>
         <v>Grumpy Flame Modragon</v>
       </c>
       <c r="D140" s="2" t="str">
-        <f>H140&amp;$F$139</f>
+        <f>J140&amp;$H$139</f>
         <v>暴躁的火焰龍娘</v>
       </c>
-      <c r="E140" s="5" t="s">
-        <v>567</v>
+      <c r="E140" s="2" t="s">
+        <v>911</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="G140" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="I140" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H140" s="2" t="s">
+      <c r="J140" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="141" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>105603</v>
       </c>
@@ -5701,27 +6596,33 @@
         <v>484</v>
       </c>
       <c r="C141" s="2" t="str">
-        <f>G141&amp;$E$139</f>
+        <f>I141&amp;$G$139</f>
         <v>Timid Flame Modragon</v>
       </c>
       <c r="D141" s="2" t="str">
-        <f>H141&amp;$F$139</f>
+        <f>J141&amp;$H$139</f>
         <v>膽小的火焰龍娘</v>
       </c>
-      <c r="E141" s="5" t="s">
-        <v>568</v>
+      <c r="E141" s="2" t="s">
+        <v>912</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="G141" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="G141" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="I141" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H141" s="2" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J141" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>105604</v>
       </c>
@@ -5729,27 +6630,33 @@
         <v>485</v>
       </c>
       <c r="C142" s="2" t="str">
-        <f>G142&amp;$E$139</f>
+        <f>I142&amp;$G$139</f>
         <v>Irritable Flame Modragon</v>
       </c>
       <c r="D142" s="2" t="str">
-        <f>H142&amp;$F$139</f>
+        <f>J142&amp;$H$139</f>
         <v>易怒的火焰龍娘</v>
       </c>
-      <c r="E142" s="5" t="s">
-        <v>569</v>
+      <c r="E142" s="2" t="s">
+        <v>913</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="G142" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="G142" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="I142" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H142" s="2" t="s">
+      <c r="J142" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="143" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>105605</v>
       </c>
@@ -5757,27 +6664,33 @@
         <v>486</v>
       </c>
       <c r="C143" s="2" t="str">
-        <f>G143&amp;$E$139</f>
+        <f>I143&amp;$G$139</f>
         <v>Gentle Flame Modragon</v>
       </c>
       <c r="D143" s="2" t="str">
-        <f>H143&amp;$F$139</f>
+        <f>J143&amp;$H$139</f>
         <v>溫和的火焰龍娘</v>
       </c>
-      <c r="E143" s="5" t="s">
-        <v>570</v>
+      <c r="E143" s="2" t="s">
+        <v>914</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="G143" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G143" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="I143" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="H143" s="2" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J143" s="2" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>105606</v>
       </c>
@@ -5785,21 +6698,27 @@
         <v>487</v>
       </c>
       <c r="C144" s="2" t="str">
-        <f>G139&amp;$E$140</f>
+        <f>I139&amp;$G$140</f>
         <v>Vigilant Aqua Modragon</v>
       </c>
       <c r="D144" s="2" t="str">
-        <f>H139&amp;$F$140</f>
+        <f>J139&amp;$H$140</f>
         <v>機警的水浪龍娘</v>
       </c>
-      <c r="E144" s="5" t="s">
-        <v>571</v>
+      <c r="E144" s="2" t="s">
+        <v>915</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>915</v>
+      </c>
+      <c r="G144" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>105607</v>
       </c>
@@ -5807,21 +6726,27 @@
         <v>488</v>
       </c>
       <c r="C145" s="2" t="str">
-        <f>G140&amp;$E$140</f>
+        <f>I140&amp;$G$140</f>
         <v>Grumpy Aqua Modragon</v>
       </c>
       <c r="D145" s="2" t="str">
-        <f>H140&amp;$F$140</f>
+        <f>J140&amp;$H$140</f>
         <v>暴躁的水浪龍娘</v>
       </c>
-      <c r="E145" s="5" t="s">
-        <v>572</v>
+      <c r="E145" s="2" t="s">
+        <v>916</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>916</v>
+      </c>
+      <c r="G145" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>105608</v>
       </c>
@@ -5829,21 +6754,27 @@
         <v>489</v>
       </c>
       <c r="C146" s="2" t="str">
-        <f>G141&amp;$E$140</f>
+        <f>I141&amp;$G$140</f>
         <v>Timid Aqua Modragon</v>
       </c>
       <c r="D146" s="2" t="str">
-        <f>H141&amp;$F$140</f>
+        <f>J141&amp;$H$140</f>
         <v>膽小的水浪龍娘</v>
       </c>
-      <c r="E146" s="5" t="s">
-        <v>573</v>
+      <c r="E146" s="2" t="s">
+        <v>917</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>917</v>
+      </c>
+      <c r="G146" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>105609</v>
       </c>
@@ -5851,21 +6782,27 @@
         <v>490</v>
       </c>
       <c r="C147" s="2" t="str">
-        <f>G142&amp;$E$140</f>
+        <f>I142&amp;$G$140</f>
         <v>Irritable Aqua Modragon</v>
       </c>
       <c r="D147" s="2" t="str">
-        <f>H142&amp;$F$140</f>
+        <f>J142&amp;$H$140</f>
         <v>易怒的水浪龍娘</v>
       </c>
-      <c r="E147" s="5" t="s">
-        <v>574</v>
+      <c r="E147" s="2" t="s">
+        <v>918</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>918</v>
+      </c>
+      <c r="G147" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>105610</v>
       </c>
@@ -5873,21 +6810,27 @@
         <v>491</v>
       </c>
       <c r="C148" s="2" t="str">
-        <f>G143&amp;$E$140</f>
+        <f>I143&amp;$G$140</f>
         <v>Gentle Aqua Modragon</v>
       </c>
       <c r="D148" s="2" t="str">
-        <f>H143&amp;$F$140</f>
+        <f>J143&amp;$H$140</f>
         <v>溫和的水浪龍娘</v>
       </c>
-      <c r="E148" s="5" t="s">
-        <v>575</v>
+      <c r="E148" s="2" t="s">
+        <v>919</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>919</v>
+      </c>
+      <c r="G148" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>105611</v>
       </c>
@@ -5895,15 +6838,21 @@
         <v>492</v>
       </c>
       <c r="C149" s="5" t="str">
-        <f>G139&amp;$E$141</f>
+        <f>I139&amp;$G$141</f>
         <v>Vigilant Hibiscus Modragon</v>
       </c>
       <c r="D149" s="5" t="str">
-        <f>H139&amp;$F$141</f>
+        <f>J139&amp;$H$141</f>
         <v>機警的木槿龍娘</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E149" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>105612</v>
       </c>
@@ -5911,15 +6860,21 @@
         <v>493</v>
       </c>
       <c r="C150" s="5" t="str">
-        <f>G140&amp;$E$141</f>
+        <f>I140&amp;$G$141</f>
         <v>Grumpy Hibiscus Modragon</v>
       </c>
       <c r="D150" s="5" t="str">
-        <f>H140&amp;$F$141</f>
+        <f>J140&amp;$H$141</f>
         <v>暴躁的木槿龍娘</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E150" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>105613</v>
       </c>
@@ -5927,15 +6882,21 @@
         <v>494</v>
       </c>
       <c r="C151" s="5" t="str">
-        <f>G141&amp;$E$141</f>
+        <f>I141&amp;$G$141</f>
         <v>Timid Hibiscus Modragon</v>
       </c>
       <c r="D151" s="5" t="str">
-        <f>H141&amp;$F$141</f>
+        <f>J141&amp;$H$141</f>
         <v>膽小的木槿龍娘</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E151" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>105614</v>
       </c>
@@ -5943,15 +6904,21 @@
         <v>495</v>
       </c>
       <c r="C152" s="5" t="str">
-        <f>G142&amp;$E$141</f>
+        <f>I142&amp;$G$141</f>
         <v>Irritable Hibiscus Modragon</v>
       </c>
       <c r="D152" s="5" t="str">
-        <f>H142&amp;$F$141</f>
+        <f>J142&amp;$H$141</f>
         <v>易怒的木槿龍娘</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E152" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>105615</v>
       </c>
@@ -5959,15 +6926,21 @@
         <v>496</v>
       </c>
       <c r="C153" s="5" t="str">
-        <f>G143&amp;$E$141</f>
+        <f>I143&amp;$G$141</f>
         <v>Gentle Hibiscus Modragon</v>
       </c>
       <c r="D153" s="5" t="str">
-        <f>H143&amp;$F$141</f>
+        <f>J143&amp;$H$141</f>
         <v>溫和的木槿龍娘</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E153" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>105616</v>
       </c>
@@ -5975,15 +6948,21 @@
         <v>497</v>
       </c>
       <c r="C154" s="2" t="str">
-        <f>G139&amp;$E$142</f>
+        <f>I139&amp;$G$142</f>
         <v>Vigilant Megalithic Modragon</v>
       </c>
       <c r="D154" s="5" t="str">
-        <f>H139&amp;$F$142</f>
+        <f>J139&amp;$H$142</f>
         <v>機警的岩石龍娘</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E154" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>105617</v>
       </c>
@@ -5991,15 +6970,21 @@
         <v>498</v>
       </c>
       <c r="C155" s="2" t="str">
-        <f>G140&amp;$E$142</f>
+        <f>I140&amp;$G$142</f>
         <v>Grumpy Megalithic Modragon</v>
       </c>
       <c r="D155" s="5" t="str">
-        <f>H140&amp;$F$142</f>
+        <f>J140&amp;$H$142</f>
         <v>暴躁的岩石龍娘</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E155" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>105618</v>
       </c>
@@ -6007,15 +6992,21 @@
         <v>499</v>
       </c>
       <c r="C156" s="2" t="str">
-        <f>G141&amp;$E$142</f>
+        <f>I141&amp;$G$142</f>
         <v>Timid Megalithic Modragon</v>
       </c>
       <c r="D156" s="5" t="str">
-        <f>H141&amp;$F$142</f>
+        <f>J141&amp;$H$142</f>
         <v>膽小的岩石龍娘</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E156" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>105619</v>
       </c>
@@ -6023,15 +7014,21 @@
         <v>500</v>
       </c>
       <c r="C157" s="2" t="str">
-        <f>G142&amp;$E$142</f>
+        <f>I142&amp;$G$142</f>
         <v>Irritable Megalithic Modragon</v>
       </c>
       <c r="D157" s="5" t="str">
-        <f>H142&amp;$F$142</f>
+        <f>J142&amp;$H$142</f>
         <v>易怒的岩石龍娘</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E157" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>105620</v>
       </c>
@@ -6039,15 +7036,21 @@
         <v>501</v>
       </c>
       <c r="C158" s="2" t="str">
-        <f>G143&amp;$E$142</f>
+        <f>I143&amp;$G$142</f>
         <v>Gentle Megalithic Modragon</v>
       </c>
       <c r="D158" s="5" t="str">
-        <f>H143&amp;$F$142</f>
+        <f>J143&amp;$H$142</f>
         <v>溫和的岩石龍娘</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E158" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>105621</v>
       </c>
@@ -6055,15 +7058,21 @@
         <v>504</v>
       </c>
       <c r="C159" s="2" t="str">
-        <f>G139&amp;$E$143</f>
+        <f>I139&amp;$G$143</f>
         <v>Vigilant Infernal Modragon</v>
       </c>
       <c r="D159" s="2" t="str">
-        <f>H139&amp;$F$143</f>
+        <f>J139&amp;$H$143</f>
         <v>機警的煉獄龍娘</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E159" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>105622</v>
       </c>
@@ -6071,15 +7080,21 @@
         <v>505</v>
       </c>
       <c r="C160" s="2" t="str">
-        <f>G140&amp;$E$143</f>
+        <f>I140&amp;$G$143</f>
         <v>Grumpy Infernal Modragon</v>
       </c>
       <c r="D160" s="2" t="str">
-        <f>H140&amp;$F$143</f>
+        <f>J140&amp;$H$143</f>
         <v>暴躁的煉獄龍娘</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E160" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>105623</v>
       </c>
@@ -6087,15 +7102,21 @@
         <v>506</v>
       </c>
       <c r="C161" s="2" t="str">
-        <f>G141&amp;$E$143</f>
+        <f>I141&amp;$G$143</f>
         <v>Timid Infernal Modragon</v>
       </c>
       <c r="D161" s="2" t="str">
-        <f>H141&amp;$F$143</f>
+        <f>J141&amp;$H$143</f>
         <v>膽小的煉獄龍娘</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E161" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>105624</v>
       </c>
@@ -6103,15 +7124,21 @@
         <v>507</v>
       </c>
       <c r="C162" s="2" t="str">
-        <f>G142&amp;$E$143</f>
+        <f>I142&amp;$G$143</f>
         <v>Irritable Infernal Modragon</v>
       </c>
       <c r="D162" s="2" t="str">
-        <f>H142&amp;$F$143</f>
+        <f>J142&amp;$H$143</f>
         <v>易怒的煉獄龍娘</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E162" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>105625</v>
       </c>
@@ -6119,15 +7146,21 @@
         <v>508</v>
       </c>
       <c r="C163" s="2" t="str">
-        <f>G143&amp;$E$143</f>
+        <f>I143&amp;$G$143</f>
         <v>Gentle Infernal Modragon</v>
       </c>
       <c r="D163" s="2" t="str">
-        <f>H143&amp;$F$143</f>
+        <f>J143&amp;$H$143</f>
         <v>溫和的煉獄龍娘</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E163" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>105626</v>
       </c>
@@ -6135,15 +7168,21 @@
         <v>509</v>
       </c>
       <c r="C164" s="2" t="str">
-        <f>G139&amp;$E$144</f>
+        <f>I139&amp;$G$144</f>
         <v>Vigilant Ocean Modragon</v>
       </c>
       <c r="D164" s="2" t="str">
-        <f>H139&amp;$F$144</f>
+        <f>J139&amp;$H$144</f>
         <v>機警的海洋龍娘</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E164" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>105627</v>
       </c>
@@ -6151,15 +7190,21 @@
         <v>510</v>
       </c>
       <c r="C165" s="2" t="str">
-        <f>G140&amp;$E$144</f>
+        <f>I140&amp;$G$144</f>
         <v>Grumpy Ocean Modragon</v>
       </c>
       <c r="D165" s="2" t="str">
-        <f>H140&amp;$F$144</f>
+        <f>J140&amp;$H$144</f>
         <v>暴躁的海洋龍娘</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E165" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>105628</v>
       </c>
@@ -6167,15 +7212,21 @@
         <v>511</v>
       </c>
       <c r="C166" s="2" t="str">
-        <f>G141&amp;$E$144</f>
+        <f>I141&amp;$G$144</f>
         <v>Timid Ocean Modragon</v>
       </c>
       <c r="D166" s="2" t="str">
-        <f>H141&amp;$F$144</f>
+        <f>J141&amp;$H$144</f>
         <v>膽小的海洋龍娘</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E166" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>105629</v>
       </c>
@@ -6183,15 +7234,21 @@
         <v>512</v>
       </c>
       <c r="C167" s="2" t="str">
-        <f>G142&amp;$E$144</f>
+        <f>I142&amp;$G$144</f>
         <v>Irritable Ocean Modragon</v>
       </c>
       <c r="D167" s="2" t="str">
-        <f>H142&amp;$F$144</f>
+        <f>J142&amp;$H$144</f>
         <v>易怒的海洋龍娘</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E167" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>105630</v>
       </c>
@@ -6199,15 +7256,21 @@
         <v>513</v>
       </c>
       <c r="C168" s="2" t="str">
-        <f>G143&amp;$E$144</f>
+        <f>I143&amp;$G$144</f>
         <v>Gentle Ocean Modragon</v>
       </c>
       <c r="D168" s="2" t="str">
-        <f>H143&amp;$F$144</f>
+        <f>J143&amp;$H$144</f>
         <v>溫和的海洋龍娘</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E168" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>105631</v>
       </c>
@@ -6215,15 +7278,21 @@
         <v>514</v>
       </c>
       <c r="C169" s="5" t="str">
-        <f>G139&amp;$E$145</f>
+        <f>I139&amp;$G$145</f>
         <v>Vigilant Forest Modragon</v>
       </c>
       <c r="D169" s="5" t="str">
-        <f>H139&amp;$F$145</f>
+        <f>J139&amp;$H$145</f>
         <v>機警的森林龍娘</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E169" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>105632</v>
       </c>
@@ -6231,15 +7300,21 @@
         <v>515</v>
       </c>
       <c r="C170" s="5" t="str">
-        <f>G140&amp;$E$145</f>
+        <f>I140&amp;$G$145</f>
         <v>Grumpy Forest Modragon</v>
       </c>
       <c r="D170" s="5" t="str">
-        <f>H140&amp;$F$145</f>
+        <f>J140&amp;$H$145</f>
         <v>暴躁的森林龍娘</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E170" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>105633</v>
       </c>
@@ -6247,15 +7322,21 @@
         <v>516</v>
       </c>
       <c r="C171" s="5" t="str">
-        <f>G141&amp;$E$145</f>
+        <f>I141&amp;$G$145</f>
         <v>Timid Forest Modragon</v>
       </c>
       <c r="D171" s="5" t="str">
-        <f>H141&amp;$F$145</f>
+        <f>J141&amp;$H$145</f>
         <v>膽小的森林龍娘</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E171" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>105634</v>
       </c>
@@ -6263,15 +7344,21 @@
         <v>517</v>
       </c>
       <c r="C172" s="5" t="str">
-        <f>G142&amp;$E$145</f>
+        <f>I142&amp;$G$145</f>
         <v>Irritable Forest Modragon</v>
       </c>
       <c r="D172" s="5" t="str">
-        <f>H142&amp;$F$145</f>
+        <f>J142&amp;$H$145</f>
         <v>易怒的森林龍娘</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E172" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>105635</v>
       </c>
@@ -6279,15 +7366,21 @@
         <v>518</v>
       </c>
       <c r="C173" s="5" t="str">
-        <f>G143&amp;$E$145</f>
+        <f>I143&amp;$G$145</f>
         <v>Gentle Forest Modragon</v>
       </c>
       <c r="D173" s="5" t="str">
-        <f>H143&amp;$F$145</f>
+        <f>J143&amp;$H$145</f>
         <v>溫和的森林龍娘</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E173" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>105636</v>
       </c>
@@ -6295,15 +7388,21 @@
         <v>519</v>
       </c>
       <c r="C174" s="2" t="str">
-        <f>G139&amp;$E$146</f>
+        <f>I139&amp;$G$146</f>
         <v>Vigilant Mountain Modragon</v>
       </c>
       <c r="D174" s="5" t="str">
-        <f>H139&amp;$F$146</f>
+        <f>J139&amp;$H$146</f>
         <v>機警的山脈龍娘</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E174" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>105637</v>
       </c>
@@ -6311,15 +7410,21 @@
         <v>520</v>
       </c>
       <c r="C175" s="2" t="str">
-        <f>G140&amp;$E$146</f>
+        <f>I140&amp;$G$146</f>
         <v>Grumpy Mountain Modragon</v>
       </c>
       <c r="D175" s="5" t="str">
-        <f>H140&amp;$F$146</f>
+        <f>J140&amp;$H$146</f>
         <v>暴躁的山脈龍娘</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E175" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>105638</v>
       </c>
@@ -6327,15 +7432,21 @@
         <v>521</v>
       </c>
       <c r="C176" s="2" t="str">
-        <f>G141&amp;$E$146</f>
+        <f>I141&amp;$G$146</f>
         <v>Timid Mountain Modragon</v>
       </c>
       <c r="D176" s="5" t="str">
-        <f>H141&amp;$F$146</f>
+        <f>J141&amp;$H$146</f>
         <v>膽小的山脈龍娘</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E176" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>105639</v>
       </c>
@@ -6343,15 +7454,21 @@
         <v>522</v>
       </c>
       <c r="C177" s="2" t="str">
-        <f>G142&amp;$E$146</f>
+        <f>I142&amp;$G$146</f>
         <v>Irritable Mountain Modragon</v>
       </c>
       <c r="D177" s="5" t="str">
-        <f>H142&amp;$F$146</f>
+        <f>J142&amp;$H$146</f>
         <v>易怒的山脈龍娘</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E177" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>105640</v>
       </c>
@@ -6359,15 +7476,21 @@
         <v>523</v>
       </c>
       <c r="C178" s="2" t="str">
-        <f>G143&amp;$E$146</f>
+        <f>I143&amp;$G$146</f>
         <v>Gentle Mountain Modragon</v>
       </c>
       <c r="D178" s="5" t="str">
-        <f>H143&amp;$F$146</f>
+        <f>J143&amp;$H$146</f>
         <v>溫和的山脈龍娘</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E178" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>105641</v>
       </c>
@@ -6375,15 +7498,21 @@
         <v>524</v>
       </c>
       <c r="C179" s="5" t="str">
-        <f>G139&amp;$E$147</f>
+        <f>I139&amp;$G$147</f>
         <v>Vigilant Light Modragon</v>
       </c>
       <c r="D179" s="5" t="str">
-        <f>H139&amp;$F$147</f>
+        <f>J139&amp;$H$147</f>
         <v>機警的聖光龍娘</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E179" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>105642</v>
       </c>
@@ -6391,15 +7520,21 @@
         <v>525</v>
       </c>
       <c r="C180" s="5" t="str">
-        <f>G140&amp;$E$147</f>
+        <f>I140&amp;$G$147</f>
         <v>Grumpy Light Modragon</v>
       </c>
       <c r="D180" s="5" t="str">
-        <f>H140&amp;$F$147</f>
+        <f>J140&amp;$H$147</f>
         <v>暴躁的聖光龍娘</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E180" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>105643</v>
       </c>
@@ -6407,15 +7542,21 @@
         <v>526</v>
       </c>
       <c r="C181" s="5" t="str">
-        <f>G141&amp;$E$147</f>
+        <f>I141&amp;$G$147</f>
         <v>Timid Light Modragon</v>
       </c>
       <c r="D181" s="5" t="str">
-        <f>H141&amp;$F$147</f>
+        <f>J141&amp;$H$147</f>
         <v>膽小的聖光龍娘</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E181" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>105644</v>
       </c>
@@ -6423,15 +7564,21 @@
         <v>527</v>
       </c>
       <c r="C182" s="5" t="str">
-        <f>G142&amp;$E$147</f>
+        <f>I142&amp;$G$147</f>
         <v>Irritable Light Modragon</v>
       </c>
       <c r="D182" s="5" t="str">
-        <f>H142&amp;$F$147</f>
+        <f>J142&amp;$H$147</f>
         <v>易怒的聖光龍娘</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E182" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>105645</v>
       </c>
@@ -6439,15 +7586,21 @@
         <v>528</v>
       </c>
       <c r="C183" s="5" t="str">
-        <f>G143&amp;$E$147</f>
+        <f>I143&amp;$G$147</f>
         <v>Gentle Light Modragon</v>
       </c>
       <c r="D183" s="5" t="str">
-        <f>H143&amp;$F$147</f>
+        <f>J143&amp;$H$147</f>
         <v>溫和的聖光龍娘</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E183" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>105646</v>
       </c>
@@ -6455,15 +7608,21 @@
         <v>529</v>
       </c>
       <c r="C184" s="2" t="str">
-        <f>G139&amp;$E$148</f>
+        <f>I139&amp;$G$148</f>
         <v>Vigilant Shadow Modragon</v>
       </c>
       <c r="D184" s="5" t="str">
-        <f>H139&amp;$F$148</f>
+        <f>J139&amp;$H$148</f>
         <v>機警的暗影龍娘</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E184" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>105647</v>
       </c>
@@ -6471,15 +7630,21 @@
         <v>530</v>
       </c>
       <c r="C185" s="2" t="str">
-        <f>G140&amp;$E$148</f>
+        <f>I140&amp;$G$148</f>
         <v>Grumpy Shadow Modragon</v>
       </c>
       <c r="D185" s="5" t="str">
-        <f>H140&amp;$F$148</f>
+        <f>J140&amp;$H$148</f>
         <v>暴躁的暗影龍娘</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E185" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>105648</v>
       </c>
@@ -6487,15 +7652,21 @@
         <v>531</v>
       </c>
       <c r="C186" s="2" t="str">
-        <f>G141&amp;$E$148</f>
+        <f>I141&amp;$G$148</f>
         <v>Timid Shadow Modragon</v>
       </c>
       <c r="D186" s="5" t="str">
-        <f>H141&amp;$F$148</f>
+        <f>J141&amp;$H$148</f>
         <v>膽小的暗影龍娘</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E186" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>105649</v>
       </c>
@@ -6503,15 +7674,21 @@
         <v>532</v>
       </c>
       <c r="C187" s="2" t="str">
-        <f>G142&amp;$E$148</f>
+        <f>I142&amp;$G$148</f>
         <v>Irritable Shadow Modragon</v>
       </c>
       <c r="D187" s="5" t="str">
-        <f>H142&amp;$F$148</f>
+        <f>J142&amp;$H$148</f>
         <v>易怒的暗影龍娘</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E187" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>105650</v>
       </c>
@@ -6519,19 +7696,25 @@
         <v>533</v>
       </c>
       <c r="C188" s="2" t="str">
-        <f>G143&amp;$E$148</f>
+        <f>I143&amp;$G$148</f>
         <v>Gentle Shadow Modragon</v>
       </c>
       <c r="D188" s="5" t="str">
-        <f>H143&amp;$F$148</f>
+        <f>J143&amp;$H$148</f>
         <v>溫和的暗影龍娘</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E188" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C189"/>
       <c r="D189"/>
     </row>
-    <row r="190" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="6">
         <v>200001</v>
       </c>
@@ -6542,10 +7725,16 @@
         <v>268</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>667</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="6">
         <v>200002</v>
       </c>
@@ -6556,10 +7745,16 @@
         <v>458</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>668</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A192" s="6">
         <v>200003</v>
       </c>
@@ -6570,10 +7765,16 @@
         <v>271</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>669</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="6">
         <v>200004</v>
       </c>
@@ -6584,10 +7785,16 @@
         <v>273</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>670</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A194" s="6">
         <v>200005</v>
       </c>
@@ -6598,10 +7805,16 @@
         <v>275</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>671</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="6">
         <v>200006</v>
       </c>
@@ -6612,10 +7825,16 @@
         <v>277</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>672</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="6">
         <v>200007</v>
       </c>
@@ -6626,10 +7845,16 @@
         <v>279</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>673</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="6">
         <v>200008</v>
       </c>
@@ -6640,10 +7865,16 @@
         <v>281</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>674</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="6">
         <v>200009</v>
       </c>
@@ -6654,10 +7885,16 @@
         <v>283</v>
       </c>
       <c r="D198" s="7" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>675</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="6">
         <v>200010</v>
       </c>
@@ -6668,10 +7905,16 @@
         <v>285</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>676</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="6">
         <v>200011</v>
       </c>
@@ -6682,10 +7925,16 @@
         <v>287</v>
       </c>
       <c r="D200" s="7" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>677</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="6">
         <v>200012</v>
       </c>
@@ -6696,10 +7945,16 @@
         <v>289</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>678</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="6">
         <v>200013</v>
       </c>
@@ -6710,10 +7965,16 @@
         <v>291</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>679</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="6">
         <v>200014</v>
       </c>
@@ -6724,10 +7985,16 @@
         <v>459</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>680</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="6">
         <v>200015</v>
       </c>
@@ -6738,10 +8005,16 @@
         <v>294</v>
       </c>
       <c r="D204" s="7" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>681</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="6">
         <v>200016</v>
       </c>
@@ -6752,10 +8025,16 @@
         <v>460</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>682</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="6">
         <v>200017</v>
       </c>
@@ -6766,10 +8045,16 @@
         <v>297</v>
       </c>
       <c r="D206" s="7" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>683</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A207" s="6">
         <v>200018</v>
       </c>
@@ -6780,10 +8065,16 @@
         <v>299</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>684</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="6">
         <v>200019</v>
       </c>
@@ -6794,10 +8085,16 @@
         <v>301</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>685</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="6">
         <v>200020</v>
       </c>
@@ -6808,10 +8105,16 @@
         <v>303</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>686</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="6">
         <v>200021</v>
       </c>
@@ -6819,13 +8122,19 @@
         <v>304</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D210" s="7" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>687</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="6">
         <v>200022</v>
       </c>
@@ -6833,13 +8142,19 @@
         <v>305</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>688</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="6">
         <v>200023</v>
       </c>
@@ -6847,13 +8162,19 @@
         <v>306</v>
       </c>
       <c r="C212" s="7" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>689</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A213" s="6">
         <v>200024</v>
       </c>
@@ -6864,10 +8185,16 @@
         <v>308</v>
       </c>
       <c r="D213" s="7" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>690</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="6">
         <v>200025</v>
       </c>
@@ -6878,10 +8205,16 @@
         <v>310</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>691</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="6">
         <v>200026</v>
       </c>
@@ -6892,10 +8225,16 @@
         <v>312</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>692</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="6">
         <v>200027</v>
       </c>
@@ -6906,10 +8245,16 @@
         <v>314</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>693</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="6">
         <v>200028</v>
       </c>
@@ -6920,10 +8265,16 @@
         <v>316</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>694</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="6">
         <v>200029</v>
       </c>
@@ -6934,10 +8285,16 @@
         <v>318</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>695</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="6">
         <v>200030</v>
       </c>
@@ -6948,10 +8305,16 @@
         <v>320</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>696</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="6">
         <v>200031</v>
       </c>
@@ -6962,10 +8325,16 @@
         <v>322</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>697</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="6">
         <v>200032</v>
       </c>
@@ -6976,10 +8345,16 @@
         <v>324</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>698</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="6">
         <v>200033</v>
       </c>
@@ -6990,10 +8365,16 @@
         <v>461</v>
       </c>
       <c r="D222" s="7" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>699</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="6">
         <v>200034</v>
       </c>
@@ -7004,10 +8385,16 @@
         <v>327</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>700</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="6">
         <v>200035</v>
       </c>
@@ -7018,10 +8405,16 @@
         <v>329</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>701</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="6">
         <v>200036</v>
       </c>
@@ -7032,10 +8425,16 @@
         <v>462</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>702</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="6">
         <v>200037</v>
       </c>
@@ -7046,10 +8445,16 @@
         <v>332</v>
       </c>
       <c r="D226" s="7" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>703</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="6">
         <v>200038</v>
       </c>
@@ -7060,10 +8465,16 @@
         <v>334</v>
       </c>
       <c r="D227" s="7" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>704</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="6">
         <v>200039</v>
       </c>
@@ -7074,10 +8485,16 @@
         <v>336</v>
       </c>
       <c r="D228" s="7" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>705</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="6">
         <v>200040</v>
       </c>
@@ -7088,10 +8505,16 @@
         <v>401</v>
       </c>
       <c r="D229" s="5" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>706</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A230" s="6">
         <v>200041</v>
       </c>
@@ -7102,10 +8525,16 @@
         <v>408</v>
       </c>
       <c r="D230" s="5" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>707</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="6">
         <v>200042</v>
       </c>
@@ -7116,10 +8545,16 @@
         <v>402</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>708</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="6">
         <v>200043</v>
       </c>
@@ -7130,10 +8565,16 @@
         <v>403</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>709</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="6">
         <v>200044</v>
       </c>
@@ -7144,10 +8585,16 @@
         <v>404</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>710</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="6">
         <v>200045</v>
       </c>
@@ -7158,10 +8605,16 @@
         <v>405</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>711</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="6">
         <v>200046</v>
       </c>
@@ -7172,10 +8625,16 @@
         <v>406</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>712</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="6">
         <v>200047</v>
       </c>
@@ -7186,10 +8645,16 @@
         <v>409</v>
       </c>
       <c r="D236" s="5" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>713</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="6">
         <v>200048</v>
       </c>
@@ -7200,10 +8665,16 @@
         <v>407</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>714</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="6">
         <v>200049</v>
       </c>
@@ -7214,10 +8685,16 @@
         <v>410</v>
       </c>
       <c r="D238" s="5" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>715</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A239" s="6">
         <v>200050</v>
       </c>
@@ -7228,10 +8705,16 @@
         <v>417</v>
       </c>
       <c r="D239" s="5" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>716</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A240" s="6">
         <v>200051</v>
       </c>
@@ -7242,10 +8725,16 @@
         <v>411</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>717</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="6">
         <v>200052</v>
       </c>
@@ -7256,10 +8745,16 @@
         <v>412</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>718</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="6">
         <v>200053</v>
       </c>
@@ -7270,10 +8765,16 @@
         <v>413</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>719</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A243" s="6">
         <v>200054</v>
       </c>
@@ -7284,10 +8785,16 @@
         <v>414</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>720</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="6">
         <v>200055</v>
       </c>
@@ -7298,10 +8805,16 @@
         <v>415</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>721</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="6">
         <v>200056</v>
       </c>
@@ -7312,10 +8825,16 @@
         <v>418</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>722</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="6">
         <v>200057</v>
       </c>
@@ -7326,10 +8845,16 @@
         <v>416</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>723</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="6">
         <v>200058</v>
       </c>
@@ -7337,13 +8862,19 @@
         <v>430</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>724</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="6">
         <v>200059</v>
       </c>
@@ -7354,10 +8885,16 @@
         <v>429</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>725</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="6">
         <v>200060</v>
       </c>
@@ -7368,10 +8905,16 @@
         <v>426</v>
       </c>
       <c r="D249" s="5" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>726</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="6">
         <v>200061</v>
       </c>
@@ -7382,10 +8925,16 @@
         <v>427</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>727</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="F250" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="6">
         <v>200062</v>
       </c>
@@ -7396,10 +8945,16 @@
         <v>428</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>728</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="F251" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="6">
         <v>200063</v>
       </c>
@@ -7407,13 +8962,19 @@
         <v>435</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>722</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="F252" s="2" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="6">
         <v>200064</v>
       </c>
@@ -7424,10 +8985,16 @@
         <v>438</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>730</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="F253" s="2" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="6">
         <v>200065</v>
       </c>
@@ -7438,10 +9005,16 @@
         <v>439</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>731</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="F254" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="6">
         <v>200066</v>
       </c>
@@ -7452,10 +9025,16 @@
         <v>442</v>
       </c>
       <c r="D255" s="5" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>732</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="F255" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="6">
         <v>200067</v>
       </c>
@@ -7466,10 +9045,16 @@
         <v>440</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>733</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="F256" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="6">
         <v>200068</v>
       </c>
@@ -7480,10 +9065,16 @@
         <v>441</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>734</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="F257" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="6">
         <v>200069</v>
       </c>
@@ -7491,13 +9082,19 @@
         <v>446</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D258" s="5" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>722</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="F258" s="2" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="6">
         <v>200070</v>
       </c>
@@ -7505,13 +9102,19 @@
         <v>447</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>735</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="F259" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="6">
         <v>200071</v>
       </c>
@@ -7522,329 +9125,987 @@
         <v>503</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>736</v>
+      </c>
+      <c r="E260" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="F260" s="2" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" s="6">
         <v>200072</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>757</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="F261" s="2" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="6">
         <v>200073</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D262" s="5" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>758</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="F262" s="2" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="6">
         <v>200074</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>802</v>
+      </c>
+      <c r="E263" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="F263" s="2" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="6">
         <v>200075</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>759</v>
+      </c>
+      <c r="E264" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="F264" s="2" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="6">
         <v>200076</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D265" s="5" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>760</v>
+      </c>
+      <c r="E265" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="F265" s="2" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="6">
         <v>200077</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>766</v>
+      </c>
+      <c r="E266" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F266" s="2" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="6">
         <v>200078</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D267" s="5" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>767</v>
+      </c>
+      <c r="E267" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F267" s="2" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="6">
         <v>200079</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D268" s="5" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>768</v>
+      </c>
+      <c r="E268" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F268" s="2" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="6">
         <v>200080</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D269" s="5" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>759</v>
+      </c>
+      <c r="E269" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="F269" s="2" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="6">
         <v>200081</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D270" s="5" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>769</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F270" s="2" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="6">
         <v>200082</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D271" s="5" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>797</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F271" s="2" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="6">
         <v>200083</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D272" s="5" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>798</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F272" s="2" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="6">
         <v>200084</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D273" s="5" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>799</v>
+      </c>
+      <c r="E273" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F273" s="2" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="6">
         <v>200085</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D274" s="5" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>759</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="F274" s="2" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="6">
         <v>200086</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D275" s="5" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>775</v>
+      </c>
+      <c r="E275" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F275" s="2" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A276" s="6">
         <v>200087</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D276" s="5" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>790</v>
+      </c>
+      <c r="E276" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F276" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A277" s="6">
         <v>200088</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D277" s="5" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>791</v>
+      </c>
+      <c r="E277" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F277" s="2" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A278" s="6">
         <v>200089</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D278" s="5" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>800</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F278" s="2" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A279" s="6">
         <v>200090</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D279" s="5" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>759</v>
+      </c>
+      <c r="E279" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="F279" s="2" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A280" s="6">
         <v>200091</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D280" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="E280" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F280" s="2" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A281" s="6">
+        <v>200092</v>
+      </c>
+      <c r="B281" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="C281" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="D281" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="E281" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="F281" s="2" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A282" s="6">
+        <v>200093</v>
+      </c>
+      <c r="B282" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="C282" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="D282" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="E282" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="F282" s="2" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A283" s="6">
+        <v>200094</v>
+      </c>
+      <c r="B283" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="C283" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="D283" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="E283" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="F283" s="2" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A284" s="6">
+        <v>200095</v>
+      </c>
+      <c r="B284" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="D284" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="E284" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="F284" s="2" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A285" s="6">
+        <v>200096</v>
+      </c>
+      <c r="B285" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="C285" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="D285" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="E285" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="F285" s="2" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A286" s="6">
+        <v>200097</v>
+      </c>
+      <c r="B286" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="C286" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="D286" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="E286" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="F286" s="2" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A287" s="6">
+        <v>200098</v>
+      </c>
+      <c r="B287" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="C287" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="D287" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="E287" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="F287" s="2" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A288" s="6">
+        <v>200099</v>
+      </c>
+      <c r="B288" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="C288" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="D288" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="E288" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="F288" s="2" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A289" s="6">
+        <v>200100</v>
+      </c>
+      <c r="B289" s="6" t="s">
+        <v>820</v>
+      </c>
+      <c r="C289" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="D289" s="5" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="282" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="283" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="284" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="285" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="286" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="287" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="288" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="289" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="290" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="291" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="292" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="293" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="294" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="295" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="296" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="297" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="298" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="299" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="300" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="301" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="302" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="303" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="304" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="305" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="306" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="307" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="308" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="309" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="310" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="311" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="312" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="313" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="314" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="315" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="316" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="317" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="318" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="319" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="320" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+      <c r="E289" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="F289" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A290" s="6">
+        <v>200101</v>
+      </c>
+      <c r="B290" s="6" t="s">
+        <v>868</v>
+      </c>
+      <c r="C290" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="D290" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="E290" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="F290" s="2" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A291" s="6">
+        <v>200102</v>
+      </c>
+      <c r="B291" s="6" t="s">
+        <v>869</v>
+      </c>
+      <c r="C291" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="D291" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="E291" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="F291" s="2" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A292" s="6">
+        <v>200103</v>
+      </c>
+      <c r="B292" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="C292" s="5" t="s">
+        <v>853</v>
+      </c>
+      <c r="D292" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="E292" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="F292" s="2" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A293" s="6">
+        <v>200104</v>
+      </c>
+      <c r="B293" s="6" t="s">
+        <v>871</v>
+      </c>
+      <c r="C293" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="D293" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="E293" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="F293" s="2" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A294" s="6">
+        <v>200105</v>
+      </c>
+      <c r="B294" s="6" t="s">
+        <v>872</v>
+      </c>
+      <c r="C294" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="D294" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="E294" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="F294" s="2" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A295" s="6">
+        <v>200106</v>
+      </c>
+      <c r="B295" s="6" t="s">
+        <v>873</v>
+      </c>
+      <c r="C295" s="5" t="s">
+        <v>859</v>
+      </c>
+      <c r="D295" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="F295" s="2" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A296" s="6">
+        <v>200107</v>
+      </c>
+      <c r="B296" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="C296" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="D296" s="5" t="s">
+        <v>846</v>
+      </c>
+      <c r="E296" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="F296" s="2" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A297" s="6">
+        <v>200108</v>
+      </c>
+      <c r="B297" s="6" t="s">
+        <v>875</v>
+      </c>
+      <c r="C297" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="D297" s="5" t="s">
+        <v>847</v>
+      </c>
+      <c r="E297" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="F297" s="2" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A298" s="6">
+        <v>200109</v>
+      </c>
+      <c r="B298" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="C298" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="D298" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="E298" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="F298" s="2" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A299" s="6">
+        <v>200110</v>
+      </c>
+      <c r="B299" s="6" t="s">
+        <v>877</v>
+      </c>
+      <c r="C299" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="D299" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="E299" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="F299" s="2" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A300" s="6">
+        <v>200111</v>
+      </c>
+      <c r="B300" s="6" t="s">
+        <v>878</v>
+      </c>
+      <c r="C300" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="D300" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="E300" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="F300" s="2" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A301" s="6">
+        <v>200112</v>
+      </c>
+      <c r="B301" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="C301" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="D301" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="F301" s="2" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A302" s="6">
+        <v>200113</v>
+      </c>
+      <c r="B302" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="C302" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="D302" s="5" t="s">
+        <v>880</v>
+      </c>
+      <c r="E302" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="F302" s="2" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A303" s="6">
+        <v>200114</v>
+      </c>
+      <c r="B303" s="6" t="s">
+        <v>891</v>
+      </c>
+      <c r="C303" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="D303" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="E303" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="F303" s="2" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A304" s="6">
+        <v>200115</v>
+      </c>
+      <c r="B304" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="C304" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="D304" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="E304" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="F304" s="2" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A305" s="6">
+        <v>200116</v>
+      </c>
+      <c r="B305" s="6" t="s">
+        <v>893</v>
+      </c>
+      <c r="C305" s="5" t="s">
+        <v>888</v>
+      </c>
+      <c r="D305" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="E305" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="F305" s="2" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A306" s="6">
+        <v>200117</v>
+      </c>
+      <c r="B306" s="6" t="s">
+        <v>905</v>
+      </c>
+      <c r="C306" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="D306" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="E306" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="F306" s="2" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A307" s="6">
+        <v>200118</v>
+      </c>
+      <c r="B307" s="6" t="s">
+        <v>906</v>
+      </c>
+      <c r="C307" s="5" t="s">
+        <v>902</v>
+      </c>
+      <c r="D307" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="E307" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="F307" s="2" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A308" s="6">
+        <v>200119</v>
+      </c>
+      <c r="B308" s="6" t="s">
+        <v>907</v>
+      </c>
+      <c r="C308" s="5" t="s">
+        <v>904</v>
+      </c>
+      <c r="D308" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E308" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="F308" s="2" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="310" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="311" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="312" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="313" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="314" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="315" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="316" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="317" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="318" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="319" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="320" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="321" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="322" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="323" s="2" customFormat="1" x14ac:dyDescent="0.35"/>

--- a/Excels/Language_多语言表.xlsx
+++ b/Excels/Language_多语言表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103EB9D9-3501-40F6-AA28-574C653E0827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5957BA77-129A-4E06-8413-4C954A3C54E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="1012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="1010">
   <si>
     <t>int</t>
   </si>
@@ -1247,9 +1247,6 @@
     <t>Item</t>
   </si>
   <si>
-    <t>Auto-follow</t>
-  </si>
-  <si>
     <t>Rest</t>
   </si>
   <si>
@@ -2020,10 +2017,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>木槿龍娘</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>岩石龍娘</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2204,10 +2197,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>跟隨</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>數量</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2575,9 +2564,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Congrats on nailing the game! Check reward right in your bag!</t>
-  </si>
-  <si>
     <t>恭喜通關小遊戲，請在背包中查收獎勵</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2786,42 +2772,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>我是瑞奇，这片大陆的采集导师。不懂采集的话在这片大陆可是很难混的！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>你是谁？</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>可采集的物品通常会发光，靠近它们后采集的按钮就会自动出现，别忘记多留点备用哦！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何才能采集呢？</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>地上可采集的红色果实就是火龙果。果肉细腻无核，汁水丰盈，是野生Modragon最喜爱的果实之一。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>火龙果又是啥。。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>比如说Dragonball，这是这片大陆上独有的特产，你可以用它们来捕捉Modragon。当然还有火龙果，你的龙娘宝宝们可全靠它吃饱肚子！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>物品？比如呢？</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>哟，新来的冒险家！欢迎来到DragonVerse Neo！在开始冒险之前，你最好先了解一下一些物品的使用方法哦。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Dialogue0100</t>
   </si>
   <si>
@@ -2908,10 +2862,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>哟，新来的冒险家！欢迎来到DragonVerse Neo！想不想拥有一只乖巧无比的龙娘跟着你到处跑呢？</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Dragonowner, Welcome to DragonVerse Neo! Go get a Modragon before you get too lonely during your journey, they are great companions!</t>
   </si>
   <si>
@@ -2923,38 +2873,14 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>你别打岔！龙娘是你接下来冒险的必要伴侣，捉不捉得到全凭自己！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>怎么捉它呢</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>利用你的捕捉操纵杆即可，不过首先你要确保你的背包里有Dragonball</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>100%捕捉？</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>可没那么容易，想要提高你的捕捉成功率，你必须在完美区域释放你的Dragonball。性格不好的龙娘尤其难抓！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>性格？</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>没错，每个龙娘都有自己的性格。多观察龙娘头顶的性格，不要浪费自己的Dragonball哦！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>我是瑟琳娜，这片大陆的捕龙专家。谁会拒绝一个可爱的龙娘呢！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>They don't bite...?</t>
   </si>
   <si>
@@ -3051,22 +2977,6 @@
     <t>Dialogue0119</t>
   </si>
   <si>
-    <t>接着奏乐，接着舞！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>还能跳舞？</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>那肯定！点击“动作交互”就可以和NPC一起跳舞啦！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>我是芭芭拉，这片大陆的动作大师！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Dance? Damn!</t>
   </si>
   <si>
@@ -3110,39 +3020,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>你好，冒险家。黎明将至，汇聚元素之力，迎接新的挑战吧。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>黎明将至？</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇聚元素之力，图腾会带给你答案。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hello, Dragonowner. The dawn is upon us, unseal the magic by converging the elemental power. New challenge shall be imposed!</t>
-  </si>
-  <si>
-    <t>Hello, Dragonowner. The dawn is upon us, unseal the magic by converging the elemental power. New challenge shall be imposed!</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>The dawn?</t>
-  </si>
-  <si>
-    <t>The dawn?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Converge the power of the elementals, monoliths will be the hint.</t>
-  </si>
-  <si>
-    <t>Converge the power of the elementals, monoliths will be the hint.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Dialogue0125</t>
   </si>
   <si>
@@ -3464,6 +3341,124 @@
   </si>
   <si>
     <t>I am Elia, the guardian of fire. Entrusted by this land to contain the fiery power of fire element.</t>
+  </si>
+  <si>
+    <t>Need_FireDargon</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Summon your Flame Modragon to continue</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要召喚出火焰龍娘才能解鎖該法陣</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>喲，新來的冒險家！歡迎來到DragonVerse Neo！在開始冒險之前，你最好先瞭解一下一些物品的使用方法哦。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>比如說Dragonball，這是這片大陸上獨有的特產，你可以用它們來捕捉Modragon。當然還有火龍果，你的龍娘寶寶們可全靠它吃飽肚子！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>火龍果又是啥。。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>地上可採集的紅色果實就是火龍果。果肉細膩無核，汁水豐盈，是野生Modragon最喜愛的果實之一。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何才能採集呢？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可採集的物品通常會發光，靠近它們後採集的按鈕就會自動出現，別忘記多留點備用哦！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是瑞奇，這片大陸的採集導師。不懂採集的話在這片大陸可是很難混的！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>喲，新來的冒險家！歡迎來到DragonVerse Neo！想不想擁有一隻乖巧無比的龍娘跟著你到處跑呢？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>你別打岔！龍娘是你接下來冒險的必要伴侶，捉不捉得到全憑自己！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎麼捉它呢</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用你的捕捉操縱杆即可，不過首先你要確保你的背包裡有Dragonball</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可沒那麼容易，想要提高你的捕捉成功率，你必須在完美區域釋放你的Dragonball。性格不好的龍娘尤其難抓！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>沒錯，每個龍娘都有自己的性格。多觀察龍娘頭頂的性格，不要浪費自己的Dragonball哦！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是瑟琳娜，這片大陸的捕龍專家。誰會拒絕一個可愛的龍娘呢！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>接著奏樂，接著舞！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>還能跳舞？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>那肯定！點擊“動作交互”就可以和NPC一起跳舞啦！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是芭芭拉，這片大陸的動作大師！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Summon</t>
+  </si>
+  <si>
+    <t>Mini-game completed! Check your bag for Modragon reward!</t>
+  </si>
+  <si>
+    <t>Hello, Dragonowner. The dawn is upon us.. Governance and consensus shall impose new challenge ahead of you.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Governance?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cast your vote on Snapshot, the consensus of our community will unseal new game contents ahead of us.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>治理之力？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>召喚</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好，冒險家。黎明將至。治理之力與共識將解鎖新的挑戰！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>前往Snapshot進行投票，聚集社區的共識方可解鎖新的遊戲內容。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3834,10 +3829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J641"/>
+  <dimension ref="A1:J642"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="D138" sqref="D138"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -3893,7 +3888,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -3937,7 +3932,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -3957,7 +3952,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>22</v>
@@ -3977,7 +3972,7 @@
         <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>26</v>
@@ -3997,13 +3992,13 @@
         <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -4017,7 +4012,7 @@
         <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>33</v>
@@ -4034,16 +4029,16 @@
         <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4054,16 +4049,16 @@
         <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -4074,16 +4069,16 @@
         <v>38</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>452</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -4094,16 +4089,16 @@
         <v>39</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>588</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4114,13 +4109,13 @@
         <v>40</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>589</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>590</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>41</v>
@@ -4134,16 +4129,16 @@
         <v>42</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>266</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -4154,10 +4149,10 @@
         <v>43</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -4174,16 +4169,16 @@
         <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -4217,7 +4212,7 @@
         <v>53</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>54</v>
@@ -4237,7 +4232,7 @@
         <v>57</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>58</v>
@@ -4254,13 +4249,13 @@
         <v>59</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>596</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>597</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>60</v>
@@ -4274,10 +4269,10 @@
         <v>61</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>62</v>
@@ -4297,7 +4292,7 @@
         <v>356</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>65</v>
@@ -4317,7 +4312,7 @@
         <v>357</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>68</v>
@@ -4357,7 +4352,7 @@
         <v>76</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>77</v>
@@ -4397,7 +4392,7 @@
         <v>358</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>85</v>
@@ -4414,10 +4409,10 @@
         <v>87</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>603</v>
+        <v>554</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>602</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>88</v>
@@ -4434,10 +4429,10 @@
         <v>90</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>91</v>
@@ -4454,10 +4449,10 @@
         <v>93</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>94</v>
@@ -4474,10 +4469,10 @@
         <v>96</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>98</v>
@@ -4494,10 +4489,10 @@
         <v>99</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>100</v>
@@ -4514,10 +4509,10 @@
         <v>102</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>103</v>
@@ -4534,10 +4529,10 @@
         <v>105</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>106</v>
@@ -4554,10 +4549,10 @@
         <v>108</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>109</v>
@@ -4574,10 +4569,10 @@
         <v>111</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>112</v>
@@ -4594,10 +4589,10 @@
         <v>114</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>115</v>
@@ -4657,7 +4652,7 @@
         <v>128</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>129</v>
@@ -4697,7 +4692,7 @@
         <v>137</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>138</v>
@@ -4717,7 +4712,7 @@
         <v>141</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>142</v>
@@ -4861,7 +4856,7 @@
         <v>247</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>247</v>
@@ -4878,16 +4873,16 @@
         <v>244</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -4898,16 +4893,16 @@
         <v>245</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -4918,16 +4913,16 @@
         <v>248</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>246</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -4935,19 +4930,19 @@
         <v>100105</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -4955,19 +4950,19 @@
         <v>100106</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -4975,19 +4970,19 @@
         <v>100107</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -4995,19 +4990,19 @@
         <v>100108</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -5015,19 +5010,19 @@
         <v>100109</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>908</v>
+        <v>876</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>909</v>
+        <v>877</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>908</v>
+        <v>876</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>908</v>
+        <v>876</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -5035,19 +5030,19 @@
         <v>100110</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -5055,19 +5050,19 @@
         <v>100111</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="63" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -5075,19 +5070,19 @@
         <v>100112</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -5095,19 +5090,19 @@
         <v>100113</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -5126,16 +5121,16 @@
         <v>350</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="67" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -5146,16 +5141,16 @@
         <v>351</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="68" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -5166,16 +5161,16 @@
         <v>352</v>
       </c>
       <c r="C68" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="D68" s="5" t="s">
-        <v>471</v>
-      </c>
       <c r="E68" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="69" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -5186,16 +5181,16 @@
         <v>353</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="70" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -5206,16 +5201,16 @@
         <v>354</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="71" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -5226,16 +5221,16 @@
         <v>355</v>
       </c>
       <c r="C71" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="D71" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="D71" s="5" t="s">
-        <v>475</v>
-      </c>
       <c r="E71" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="72" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -5254,16 +5249,16 @@
         <v>249</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -5277,7 +5272,7 @@
         <v>251</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>251</v>
@@ -5321,7 +5316,7 @@
         <v>175</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>175</v>
@@ -5381,7 +5376,7 @@
         <v>183</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E80" s="9" t="s">
         <v>183</v>
@@ -5421,7 +5416,7 @@
         <v>188</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E82" s="9" t="s">
         <v>188</v>
@@ -5441,7 +5436,7 @@
         <v>190</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>190</v>
@@ -5461,7 +5456,7 @@
         <v>192</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E84" s="9" t="s">
         <v>192</v>
@@ -5501,7 +5496,7 @@
         <v>197</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E86" s="9" t="s">
         <v>197</v>
@@ -5521,7 +5516,7 @@
         <v>199</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E87" s="9" t="s">
         <v>199</v>
@@ -5541,7 +5536,7 @@
         <v>201</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E88" s="9" t="s">
         <v>201</v>
@@ -5561,7 +5556,7 @@
         <v>203</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E89" s="9" t="s">
         <v>203</v>
@@ -5621,7 +5616,7 @@
         <v>210</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E92" s="9" t="s">
         <v>210</v>
@@ -5641,7 +5636,7 @@
         <v>212</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E93" s="9" t="s">
         <v>212</v>
@@ -5661,7 +5656,7 @@
         <v>214</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E94" s="9" t="s">
         <v>214</v>
@@ -5681,7 +5676,7 @@
         <v>216</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>216</v>
@@ -5701,7 +5696,7 @@
         <v>218</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E96" s="9" t="s">
         <v>218</v>
@@ -5741,7 +5736,7 @@
         <v>221</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E98" s="9" t="s">
         <v>221</v>
@@ -5781,7 +5776,7 @@
         <v>226</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E100" s="9" t="s">
         <v>226</v>
@@ -5801,7 +5796,7 @@
         <v>228</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E101" s="9" t="s">
         <v>228</v>
@@ -5841,7 +5836,7 @@
         <v>188</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E103" s="9" t="s">
         <v>188</v>
@@ -5861,7 +5856,7 @@
         <v>234</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E104" s="9" t="s">
         <v>234</v>
@@ -5878,594 +5873,594 @@
         <v>235</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="106" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
+      <c r="A106" s="8">
+        <v>102159</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>980</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>982</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>981</v>
+      </c>
     </row>
     <row r="107" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="1">
-        <v>105001</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="F107" s="5" t="s">
-        <v>359</v>
-      </c>
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
     </row>
     <row r="108" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
-        <v>105002</v>
+        <v>105001</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>744</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>650</v>
+        <v>359</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>744</v>
+        <v>359</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>744</v>
+        <v>359</v>
       </c>
     </row>
     <row r="109" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
-        <v>105003</v>
+        <v>105002</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>360</v>
+        <v>255</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>741</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>360</v>
+        <v>648</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="110" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
-        <v>105004</v>
+        <v>105003</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>651</v>
+        <v>257</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="111" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
-        <v>105005</v>
+        <v>105004</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>362</v>
+        <v>1001</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>258</v>
+        <v>1007</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>362</v>
+        <v>1001</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>362</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="112" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
-        <v>105006</v>
+        <v>105005</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>480</v>
+        <v>265</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>361</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>652</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="F112" s="5" t="s">
-        <v>480</v>
+        <v>258</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="113" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
-        <v>105051</v>
+        <v>105006</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>363</v>
+        <v>480</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="114" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
-        <v>105101</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>238</v>
+        <v>105051</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="115" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
-        <v>105102</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>260</v>
+        <v>105101</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>238</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="116" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
-        <v>105103</v>
+        <v>105102</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="D116" s="5" t="s">
-        <v>656</v>
+        <v>364</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>652</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="117" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
-        <v>105201</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>239</v>
+        <v>105103</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>261</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>657</v>
+        <v>365</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>653</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="118" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
-        <v>105202</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>262</v>
+        <v>105201</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>239</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>236</v>
+        <v>654</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="119" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
-        <v>105203</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>240</v>
+        <v>105202</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>262</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>658</v>
+        <v>236</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="120" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
-        <v>105204</v>
+        <v>105203</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="121" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
-        <v>105205</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>371</v>
+        <v>105204</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="122" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
-        <v>105206</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>372</v>
+        <v>105205</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>370</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="E122" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="F122" s="5" t="s">
-        <v>372</v>
+        <v>253</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="123" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
-        <v>105301</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>337</v>
+        <v>105206</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>242</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>552</v>
+        <v>371</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>738</v>
+        <v>252</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>552</v>
+        <v>371</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>552</v>
+        <v>371</v>
       </c>
     </row>
     <row r="124" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
-        <v>105302</v>
+        <v>105301</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>576</v>
+        <v>551</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>576</v>
+        <v>551</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>576</v>
+        <v>551</v>
       </c>
     </row>
     <row r="125" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
-        <v>105303</v>
+        <v>105302</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>479</v>
+        <v>575</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>660</v>
+        <v>736</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>479</v>
+        <v>575</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>479</v>
+        <v>575</v>
       </c>
     </row>
     <row r="126" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
-        <v>105304</v>
+        <v>105303</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>373</v>
+        <v>478</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>373</v>
+        <v>478</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>373</v>
+        <v>478</v>
       </c>
     </row>
     <row r="127" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
-        <v>105401</v>
+        <v>105304</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="128" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
-        <v>105402</v>
+        <v>105401</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="129" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
-        <v>105403</v>
+        <v>105402</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="130" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
-        <v>105404</v>
+        <v>105403</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>661</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="131" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
-        <v>105405</v>
+        <v>105404</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>344</v>
+        <v>658</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="132" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
-        <v>105406</v>
+        <v>105405</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="133" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
-        <v>105407</v>
+        <v>105406</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>665</v>
+        <v>345</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="134" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
-        <v>105501</v>
+        <v>105407</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>463</v>
+        <v>349</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>469</v>
+        <v>378</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>466</v>
+        <v>662</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>469</v>
+        <v>378</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>469</v>
+        <v>378</v>
       </c>
     </row>
     <row r="135" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
-        <v>105502</v>
+        <v>105501</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>468</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E135" s="5" t="s">
         <v>468</v>
@@ -6476,3625 +6471,3644 @@
     </row>
     <row r="136" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
-        <v>105503</v>
+        <v>105502</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>666</v>
+        <v>466</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
     </row>
     <row r="137" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
+        <v>105503</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="1">
         <v>105504</v>
       </c>
-      <c r="B137" s="6" t="s">
-        <v>737</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>745</v>
-      </c>
-      <c r="D137" s="5" t="s">
-        <v>746</v>
-      </c>
-      <c r="E137" s="5" t="s">
-        <v>745</v>
-      </c>
-      <c r="F137" s="5" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="1"/>
-      <c r="B138" s="6"/>
-      <c r="C138" s="5"/>
-      <c r="D138" s="5"/>
+      <c r="B138" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>1002</v>
+      </c>
     </row>
     <row r="139" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="1">
-        <v>105601</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="C139" s="2" t="str">
-        <f>I139&amp;$G$139</f>
-        <v>Vigilant Flame Modragon</v>
-      </c>
-      <c r="D139" s="2" t="str">
-        <f>J139&amp;$H$139</f>
-        <v>機警的火焰龍娘</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>910</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>910</v>
-      </c>
-      <c r="G139" s="5" t="s">
-        <v>565</v>
-      </c>
-      <c r="H139" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="I139" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="J139" s="2" t="s">
-        <v>600</v>
-      </c>
+      <c r="A139" s="1"/>
+      <c r="B139" s="6"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
     </row>
     <row r="140" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
-        <v>105602</v>
+        <v>105601</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C140" s="2" t="str">
-        <f>I140&amp;$G$139</f>
-        <v>Grumpy Flame Modragon</v>
+        <f>I140&amp;$G$140</f>
+        <v>Vigilant Flame Modragon</v>
       </c>
       <c r="D140" s="2" t="str">
-        <f>J140&amp;$H$139</f>
-        <v>暴躁的火焰龍娘</v>
+        <f>J140&amp;$H$140</f>
+        <v>機警的火焰龍娘</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>911</v>
+        <v>878</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>911</v>
+        <v>878</v>
       </c>
       <c r="G140" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>71</v>
+        <v>357</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>72</v>
+        <v>599</v>
       </c>
     </row>
     <row r="141" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
-        <v>105603</v>
+        <v>105602</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C141" s="2" t="str">
-        <f>I141&amp;$G$139</f>
-        <v>Timid Flame Modragon</v>
+        <f>I141&amp;$G$140</f>
+        <v>Grumpy Flame Modragon</v>
       </c>
       <c r="D141" s="2" t="str">
-        <f>J141&amp;$H$139</f>
-        <v>膽小的火焰龍娘</v>
+        <f>J141&amp;$H$140</f>
+        <v>暴躁的火焰龍娘</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>912</v>
+        <v>879</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>912</v>
+        <v>879</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>601</v>
+        <v>72</v>
       </c>
     </row>
     <row r="142" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
-        <v>105604</v>
+        <v>105603</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C142" s="2" t="str">
-        <f>I142&amp;$G$139</f>
-        <v>Irritable Flame Modragon</v>
+        <f>I142&amp;$G$140</f>
+        <v>Timid Flame Modragon</v>
       </c>
       <c r="D142" s="2" t="str">
-        <f>J142&amp;$H$139</f>
-        <v>易怒的火焰龍娘</v>
+        <f>J142&amp;$H$140</f>
+        <v>膽小的火焰龍娘</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>913</v>
+        <v>880</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>913</v>
+        <v>880</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>568</v>
-      </c>
-      <c r="H142" s="2" t="s">
-        <v>606</v>
+        <v>566</v>
+      </c>
+      <c r="H142" s="5" t="s">
+        <v>792</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>81</v>
+        <v>600</v>
       </c>
     </row>
     <row r="143" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
-        <v>105605</v>
+        <v>105604</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C143" s="2" t="str">
-        <f>I143&amp;$G$139</f>
-        <v>Gentle Flame Modragon</v>
+        <f>I143&amp;$G$140</f>
+        <v>Irritable Flame Modragon</v>
       </c>
       <c r="D143" s="2" t="str">
-        <f>J143&amp;$H$139</f>
-        <v>溫和的火焰龍娘</v>
+        <f>J143&amp;$H$140</f>
+        <v>易怒的火焰龍娘</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>914</v>
+        <v>881</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>914</v>
+        <v>881</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>358</v>
+        <v>80</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>602</v>
+        <v>81</v>
       </c>
     </row>
     <row r="144" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
-        <v>105606</v>
+        <v>105605</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C144" s="2" t="str">
-        <f>I139&amp;$G$140</f>
-        <v>Vigilant Aqua Modragon</v>
+        <f>I144&amp;$G$140</f>
+        <v>Gentle Flame Modragon</v>
       </c>
       <c r="D144" s="2" t="str">
-        <f>J139&amp;$H$140</f>
-        <v>機警的水浪龍娘</v>
+        <f>J144&amp;$H$140</f>
+        <v>溫和的火焰龍娘</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>915</v>
+        <v>882</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>915</v>
+        <v>882</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>608</v>
+        <v>605</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="J144" s="2" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="145" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
-        <v>105607</v>
+        <v>105606</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C145" s="2" t="str">
-        <f>I140&amp;$G$140</f>
-        <v>Grumpy Aqua Modragon</v>
+        <f>I140&amp;$G$141</f>
+        <v>Vigilant Aqua Modragon</v>
       </c>
       <c r="D145" s="2" t="str">
-        <f>J140&amp;$H$140</f>
-        <v>暴躁的水浪龍娘</v>
+        <f>J140&amp;$H$141</f>
+        <v>機警的水浪龍娘</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>916</v>
+        <v>883</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>916</v>
+        <v>883</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="146" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
-        <v>105608</v>
+        <v>105607</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C146" s="2" t="str">
-        <f>I141&amp;$G$140</f>
-        <v>Timid Aqua Modragon</v>
+        <f>I141&amp;$G$141</f>
+        <v>Grumpy Aqua Modragon</v>
       </c>
       <c r="D146" s="2" t="str">
-        <f>J141&amp;$H$140</f>
-        <v>膽小的水浪龍娘</v>
+        <f>J141&amp;$H$141</f>
+        <v>暴躁的水浪龍娘</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>917</v>
+        <v>884</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>917</v>
+        <v>884</v>
       </c>
       <c r="G146" s="5" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="147" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
-        <v>105609</v>
+        <v>105608</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C147" s="2" t="str">
-        <f>I142&amp;$G$140</f>
-        <v>Irritable Aqua Modragon</v>
+        <f>I142&amp;$G$141</f>
+        <v>Timid Aqua Modragon</v>
       </c>
       <c r="D147" s="2" t="str">
-        <f>J142&amp;$H$140</f>
-        <v>易怒的水浪龍娘</v>
+        <f>J142&amp;$H$141</f>
+        <v>膽小的水浪龍娘</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>918</v>
+        <v>885</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>918</v>
+        <v>885</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="148" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
-        <v>105610</v>
+        <v>105609</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C148" s="2" t="str">
-        <f>I143&amp;$G$140</f>
-        <v>Gentle Aqua Modragon</v>
+        <f>I143&amp;$G$141</f>
+        <v>Irritable Aqua Modragon</v>
       </c>
       <c r="D148" s="2" t="str">
-        <f>J143&amp;$H$140</f>
-        <v>溫和的水浪龍娘</v>
+        <f>J143&amp;$H$141</f>
+        <v>易怒的水浪龍娘</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>919</v>
+        <v>886</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>919</v>
+        <v>886</v>
       </c>
       <c r="G148" s="5" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="149" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
-        <v>105611</v>
+        <v>105610</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="C149" s="5" t="str">
-        <f>I139&amp;$G$141</f>
-        <v>Vigilant Hibiscus Modragon</v>
-      </c>
-      <c r="D149" s="5" t="str">
-        <f>J139&amp;$H$141</f>
-        <v>機警的木槿龍娘</v>
+        <v>490</v>
+      </c>
+      <c r="C149" s="2" t="str">
+        <f>I144&amp;$G$141</f>
+        <v>Gentle Aqua Modragon</v>
+      </c>
+      <c r="D149" s="2" t="str">
+        <f>J144&amp;$H$141</f>
+        <v>溫和的水浪龍娘</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>920</v>
+        <v>887</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>920</v>
+        <v>887</v>
+      </c>
+      <c r="G149" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="150" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
-        <v>105612</v>
+        <v>105611</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C150" s="5" t="str">
-        <f>I140&amp;$G$141</f>
-        <v>Grumpy Hibiscus Modragon</v>
+        <f>I140&amp;$G$142</f>
+        <v>Vigilant Hibiscus Modragon</v>
       </c>
       <c r="D150" s="5" t="str">
-        <f>J140&amp;$H$141</f>
-        <v>暴躁的木槿龍娘</v>
+        <f>J140&amp;$H$142</f>
+        <v>機警的木槿龍少</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>921</v>
+        <v>888</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>921</v>
+        <v>888</v>
       </c>
     </row>
     <row r="151" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
-        <v>105613</v>
+        <v>105612</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C151" s="5" t="str">
-        <f>I141&amp;$G$141</f>
-        <v>Timid Hibiscus Modragon</v>
+        <f>I141&amp;$G$142</f>
+        <v>Grumpy Hibiscus Modragon</v>
       </c>
       <c r="D151" s="5" t="str">
-        <f>J141&amp;$H$141</f>
-        <v>膽小的木槿龍娘</v>
+        <f>J141&amp;$H$142</f>
+        <v>暴躁的木槿龍少</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>922</v>
+        <v>889</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>922</v>
+        <v>889</v>
       </c>
     </row>
     <row r="152" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
-        <v>105614</v>
+        <v>105613</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C152" s="5" t="str">
-        <f>I142&amp;$G$141</f>
-        <v>Irritable Hibiscus Modragon</v>
+        <f>I142&amp;$G$142</f>
+        <v>Timid Hibiscus Modragon</v>
       </c>
       <c r="D152" s="5" t="str">
-        <f>J142&amp;$H$141</f>
-        <v>易怒的木槿龍娘</v>
+        <f>J142&amp;$H$142</f>
+        <v>膽小的木槿龍少</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>923</v>
+        <v>890</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>923</v>
+        <v>890</v>
       </c>
     </row>
     <row r="153" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
-        <v>105615</v>
+        <v>105614</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C153" s="5" t="str">
-        <f>I143&amp;$G$141</f>
-        <v>Gentle Hibiscus Modragon</v>
+        <f>I143&amp;$G$142</f>
+        <v>Irritable Hibiscus Modragon</v>
       </c>
       <c r="D153" s="5" t="str">
-        <f>J143&amp;$H$141</f>
-        <v>溫和的木槿龍娘</v>
+        <f>J143&amp;$H$142</f>
+        <v>易怒的木槿龍少</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>924</v>
+        <v>891</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>924</v>
+        <v>891</v>
       </c>
     </row>
     <row r="154" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
-        <v>105616</v>
+        <v>105615</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="C154" s="2" t="str">
-        <f>I139&amp;$G$142</f>
-        <v>Vigilant Megalithic Modragon</v>
+        <v>495</v>
+      </c>
+      <c r="C154" s="5" t="str">
+        <f>I144&amp;$G$142</f>
+        <v>Gentle Hibiscus Modragon</v>
       </c>
       <c r="D154" s="5" t="str">
-        <f>J139&amp;$H$142</f>
-        <v>機警的岩石龍娘</v>
+        <f>J144&amp;$H$142</f>
+        <v>溫和的木槿龍少</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>925</v>
+        <v>892</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>925</v>
+        <v>892</v>
       </c>
     </row>
     <row r="155" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
-        <v>105617</v>
+        <v>105616</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C155" s="2" t="str">
-        <f>I140&amp;$G$142</f>
-        <v>Grumpy Megalithic Modragon</v>
+        <f>I140&amp;$G$143</f>
+        <v>Vigilant Megalithic Modragon</v>
       </c>
       <c r="D155" s="5" t="str">
-        <f>J140&amp;$H$142</f>
-        <v>暴躁的岩石龍娘</v>
+        <f>J140&amp;$H$143</f>
+        <v>機警的岩石龍娘</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>926</v>
+        <v>893</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>926</v>
+        <v>893</v>
       </c>
     </row>
     <row r="156" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
-        <v>105618</v>
+        <v>105617</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C156" s="2" t="str">
-        <f>I141&amp;$G$142</f>
-        <v>Timid Megalithic Modragon</v>
+        <f>I141&amp;$G$143</f>
+        <v>Grumpy Megalithic Modragon</v>
       </c>
       <c r="D156" s="5" t="str">
-        <f>J141&amp;$H$142</f>
-        <v>膽小的岩石龍娘</v>
+        <f>J141&amp;$H$143</f>
+        <v>暴躁的岩石龍娘</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>927</v>
+        <v>894</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>927</v>
+        <v>894</v>
       </c>
     </row>
     <row r="157" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
-        <v>105619</v>
+        <v>105618</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C157" s="2" t="str">
-        <f>I142&amp;$G$142</f>
-        <v>Irritable Megalithic Modragon</v>
+        <f>I142&amp;$G$143</f>
+        <v>Timid Megalithic Modragon</v>
       </c>
       <c r="D157" s="5" t="str">
-        <f>J142&amp;$H$142</f>
-        <v>易怒的岩石龍娘</v>
+        <f>J142&amp;$H$143</f>
+        <v>膽小的岩石龍娘</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>928</v>
+        <v>895</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>928</v>
+        <v>895</v>
       </c>
     </row>
     <row r="158" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
-        <v>105620</v>
+        <v>105619</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C158" s="2" t="str">
-        <f>I143&amp;$G$142</f>
-        <v>Gentle Megalithic Modragon</v>
+        <f>I143&amp;$G$143</f>
+        <v>Irritable Megalithic Modragon</v>
       </c>
       <c r="D158" s="5" t="str">
-        <f>J143&amp;$H$142</f>
-        <v>溫和的岩石龍娘</v>
+        <f>J143&amp;$H$143</f>
+        <v>易怒的岩石龍娘</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>929</v>
+        <v>896</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>929</v>
+        <v>896</v>
       </c>
     </row>
     <row r="159" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
-        <v>105621</v>
+        <v>105620</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C159" s="2" t="str">
-        <f>I139&amp;$G$143</f>
-        <v>Vigilant Infernal Modragon</v>
-      </c>
-      <c r="D159" s="2" t="str">
-        <f>J139&amp;$H$143</f>
-        <v>機警的煉獄龍娘</v>
+        <f>I144&amp;$G$143</f>
+        <v>Gentle Megalithic Modragon</v>
+      </c>
+      <c r="D159" s="5" t="str">
+        <f>J144&amp;$H$143</f>
+        <v>溫和的岩石龍娘</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>930</v>
+        <v>897</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>930</v>
+        <v>897</v>
       </c>
     </row>
     <row r="160" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
-        <v>105622</v>
+        <v>105621</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C160" s="2" t="str">
-        <f>I140&amp;$G$143</f>
-        <v>Grumpy Infernal Modragon</v>
+        <f>I140&amp;$G$144</f>
+        <v>Vigilant Infernal Modragon</v>
       </c>
       <c r="D160" s="2" t="str">
-        <f>J140&amp;$H$143</f>
-        <v>暴躁的煉獄龍娘</v>
+        <f>J140&amp;$H$144</f>
+        <v>機警的煉獄龍娘</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>931</v>
+        <v>898</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>931</v>
+        <v>898</v>
       </c>
     </row>
     <row r="161" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
-        <v>105623</v>
+        <v>105622</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C161" s="2" t="str">
-        <f>I141&amp;$G$143</f>
-        <v>Timid Infernal Modragon</v>
+        <f>I141&amp;$G$144</f>
+        <v>Grumpy Infernal Modragon</v>
       </c>
       <c r="D161" s="2" t="str">
-        <f>J141&amp;$H$143</f>
-        <v>膽小的煉獄龍娘</v>
+        <f>J141&amp;$H$144</f>
+        <v>暴躁的煉獄龍娘</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>932</v>
+        <v>899</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>932</v>
+        <v>899</v>
       </c>
     </row>
     <row r="162" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
-        <v>105624</v>
+        <v>105623</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C162" s="2" t="str">
-        <f>I142&amp;$G$143</f>
-        <v>Irritable Infernal Modragon</v>
+        <f>I142&amp;$G$144</f>
+        <v>Timid Infernal Modragon</v>
       </c>
       <c r="D162" s="2" t="str">
-        <f>J142&amp;$H$143</f>
-        <v>易怒的煉獄龍娘</v>
+        <f>J142&amp;$H$144</f>
+        <v>膽小的煉獄龍娘</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>933</v>
+        <v>900</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>933</v>
+        <v>900</v>
       </c>
     </row>
     <row r="163" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
-        <v>105625</v>
+        <v>105624</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C163" s="2" t="str">
-        <f>I143&amp;$G$143</f>
-        <v>Gentle Infernal Modragon</v>
+        <f>I143&amp;$G$144</f>
+        <v>Irritable Infernal Modragon</v>
       </c>
       <c r="D163" s="2" t="str">
-        <f>J143&amp;$H$143</f>
-        <v>溫和的煉獄龍娘</v>
+        <f>J143&amp;$H$144</f>
+        <v>易怒的煉獄龍娘</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>934</v>
+        <v>901</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>934</v>
+        <v>901</v>
       </c>
     </row>
     <row r="164" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
-        <v>105626</v>
+        <v>105625</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C164" s="2" t="str">
-        <f>I139&amp;$G$144</f>
-        <v>Vigilant Ocean Modragon</v>
+        <f>I144&amp;$G$144</f>
+        <v>Gentle Infernal Modragon</v>
       </c>
       <c r="D164" s="2" t="str">
-        <f>J139&amp;$H$144</f>
-        <v>機警的海洋龍娘</v>
+        <f>J144&amp;$H$144</f>
+        <v>溫和的煉獄龍娘</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>935</v>
+        <v>902</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>935</v>
+        <v>902</v>
       </c>
     </row>
     <row r="165" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
-        <v>105627</v>
+        <v>105626</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C165" s="2" t="str">
-        <f>I140&amp;$G$144</f>
-        <v>Grumpy Ocean Modragon</v>
+        <f>I140&amp;$G$145</f>
+        <v>Vigilant Ocean Modragon</v>
       </c>
       <c r="D165" s="2" t="str">
-        <f>J140&amp;$H$144</f>
-        <v>暴躁的海洋龍娘</v>
+        <f>J140&amp;$H$145</f>
+        <v>機警的海洋龍娘</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>936</v>
+        <v>903</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>936</v>
+        <v>903</v>
       </c>
     </row>
     <row r="166" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
-        <v>105628</v>
+        <v>105627</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C166" s="2" t="str">
-        <f>I141&amp;$G$144</f>
-        <v>Timid Ocean Modragon</v>
+        <f>I141&amp;$G$145</f>
+        <v>Grumpy Ocean Modragon</v>
       </c>
       <c r="D166" s="2" t="str">
-        <f>J141&amp;$H$144</f>
-        <v>膽小的海洋龍娘</v>
+        <f>J141&amp;$H$145</f>
+        <v>暴躁的海洋龍娘</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>937</v>
+        <v>904</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>937</v>
+        <v>904</v>
       </c>
     </row>
     <row r="167" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
-        <v>105629</v>
+        <v>105628</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C167" s="2" t="str">
-        <f>I142&amp;$G$144</f>
-        <v>Irritable Ocean Modragon</v>
+        <f>I142&amp;$G$145</f>
+        <v>Timid Ocean Modragon</v>
       </c>
       <c r="D167" s="2" t="str">
-        <f>J142&amp;$H$144</f>
-        <v>易怒的海洋龍娘</v>
+        <f>J142&amp;$H$145</f>
+        <v>膽小的海洋龍娘</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>938</v>
+        <v>905</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>938</v>
+        <v>905</v>
       </c>
     </row>
     <row r="168" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
-        <v>105630</v>
+        <v>105629</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C168" s="2" t="str">
-        <f>I143&amp;$G$144</f>
-        <v>Gentle Ocean Modragon</v>
+        <f>I143&amp;$G$145</f>
+        <v>Irritable Ocean Modragon</v>
       </c>
       <c r="D168" s="2" t="str">
-        <f>J143&amp;$H$144</f>
-        <v>溫和的海洋龍娘</v>
+        <f>J143&amp;$H$145</f>
+        <v>易怒的海洋龍娘</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>939</v>
+        <v>906</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>939</v>
+        <v>906</v>
       </c>
     </row>
     <row r="169" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
-        <v>105631</v>
+        <v>105630</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="C169" s="5" t="str">
-        <f>I139&amp;$G$145</f>
-        <v>Vigilant Forest Modragon</v>
-      </c>
-      <c r="D169" s="5" t="str">
-        <f>J139&amp;$H$145</f>
-        <v>機警的森林龍娘</v>
+        <v>512</v>
+      </c>
+      <c r="C169" s="2" t="str">
+        <f>I144&amp;$G$145</f>
+        <v>Gentle Ocean Modragon</v>
+      </c>
+      <c r="D169" s="2" t="str">
+        <f>J144&amp;$H$145</f>
+        <v>溫和的海洋龍娘</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>940</v>
+        <v>907</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>940</v>
+        <v>907</v>
       </c>
     </row>
     <row r="170" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
-        <v>105632</v>
+        <v>105631</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C170" s="5" t="str">
-        <f>I140&amp;$G$145</f>
-        <v>Grumpy Forest Modragon</v>
+        <f>I140&amp;$G$146</f>
+        <v>Vigilant Forest Modragon</v>
       </c>
       <c r="D170" s="5" t="str">
-        <f>J140&amp;$H$145</f>
-        <v>暴躁的森林龍娘</v>
+        <f>J140&amp;$H$146</f>
+        <v>機警的森林龍娘</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>941</v>
+        <v>908</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>941</v>
+        <v>908</v>
       </c>
     </row>
     <row r="171" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
-        <v>105633</v>
+        <v>105632</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C171" s="5" t="str">
-        <f>I141&amp;$G$145</f>
-        <v>Timid Forest Modragon</v>
+        <f>I141&amp;$G$146</f>
+        <v>Grumpy Forest Modragon</v>
       </c>
       <c r="D171" s="5" t="str">
-        <f>J141&amp;$H$145</f>
-        <v>膽小的森林龍娘</v>
+        <f>J141&amp;$H$146</f>
+        <v>暴躁的森林龍娘</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>942</v>
+        <v>909</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>942</v>
+        <v>909</v>
       </c>
     </row>
     <row r="172" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
-        <v>105634</v>
+        <v>105633</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C172" s="5" t="str">
-        <f>I142&amp;$G$145</f>
-        <v>Irritable Forest Modragon</v>
+        <f>I142&amp;$G$146</f>
+        <v>Timid Forest Modragon</v>
       </c>
       <c r="D172" s="5" t="str">
-        <f>J142&amp;$H$145</f>
-        <v>易怒的森林龍娘</v>
+        <f>J142&amp;$H$146</f>
+        <v>膽小的森林龍娘</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>943</v>
+        <v>910</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>943</v>
+        <v>910</v>
       </c>
     </row>
     <row r="173" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
-        <v>105635</v>
+        <v>105634</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C173" s="5" t="str">
-        <f>I143&amp;$G$145</f>
-        <v>Gentle Forest Modragon</v>
+        <f>I143&amp;$G$146</f>
+        <v>Irritable Forest Modragon</v>
       </c>
       <c r="D173" s="5" t="str">
-        <f>J143&amp;$H$145</f>
-        <v>溫和的森林龍娘</v>
+        <f>J143&amp;$H$146</f>
+        <v>易怒的森林龍娘</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>944</v>
+        <v>911</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>944</v>
+        <v>911</v>
       </c>
     </row>
     <row r="174" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
-        <v>105636</v>
+        <v>105635</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="C174" s="2" t="str">
-        <f>I139&amp;$G$146</f>
-        <v>Vigilant Mountain Modragon</v>
+        <v>517</v>
+      </c>
+      <c r="C174" s="5" t="str">
+        <f>I144&amp;$G$146</f>
+        <v>Gentle Forest Modragon</v>
       </c>
       <c r="D174" s="5" t="str">
-        <f>J139&amp;$H$146</f>
-        <v>機警的山脈龍娘</v>
+        <f>J144&amp;$H$146</f>
+        <v>溫和的森林龍娘</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>945</v>
+        <v>912</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>945</v>
+        <v>912</v>
       </c>
     </row>
     <row r="175" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
-        <v>105637</v>
+        <v>105636</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C175" s="2" t="str">
-        <f>I140&amp;$G$146</f>
-        <v>Grumpy Mountain Modragon</v>
+        <f>I140&amp;$G$147</f>
+        <v>Vigilant Mountain Modragon</v>
       </c>
       <c r="D175" s="5" t="str">
-        <f>J140&amp;$H$146</f>
-        <v>暴躁的山脈龍娘</v>
+        <f>J140&amp;$H$147</f>
+        <v>機警的山脈龍娘</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>946</v>
+        <v>913</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>946</v>
+        <v>913</v>
       </c>
     </row>
     <row r="176" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
-        <v>105638</v>
+        <v>105637</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C176" s="2" t="str">
-        <f>I141&amp;$G$146</f>
-        <v>Timid Mountain Modragon</v>
+        <f>I141&amp;$G$147</f>
+        <v>Grumpy Mountain Modragon</v>
       </c>
       <c r="D176" s="5" t="str">
-        <f>J141&amp;$H$146</f>
-        <v>膽小的山脈龍娘</v>
+        <f>J141&amp;$H$147</f>
+        <v>暴躁的山脈龍娘</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>947</v>
+        <v>914</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>947</v>
+        <v>914</v>
       </c>
     </row>
     <row r="177" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
-        <v>105639</v>
+        <v>105638</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C177" s="2" t="str">
-        <f>I142&amp;$G$146</f>
-        <v>Irritable Mountain Modragon</v>
+        <f>I142&amp;$G$147</f>
+        <v>Timid Mountain Modragon</v>
       </c>
       <c r="D177" s="5" t="str">
-        <f>J142&amp;$H$146</f>
-        <v>易怒的山脈龍娘</v>
+        <f>J142&amp;$H$147</f>
+        <v>膽小的山脈龍娘</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>948</v>
+        <v>915</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>948</v>
+        <v>915</v>
       </c>
     </row>
     <row r="178" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
-        <v>105640</v>
+        <v>105639</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C178" s="2" t="str">
-        <f>I143&amp;$G$146</f>
-        <v>Gentle Mountain Modragon</v>
+        <f>I143&amp;$G$147</f>
+        <v>Irritable Mountain Modragon</v>
       </c>
       <c r="D178" s="5" t="str">
-        <f>J143&amp;$H$146</f>
-        <v>溫和的山脈龍娘</v>
+        <f>J143&amp;$H$147</f>
+        <v>易怒的山脈龍娘</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>949</v>
+        <v>916</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>949</v>
+        <v>916</v>
       </c>
     </row>
     <row r="179" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
-        <v>105641</v>
+        <v>105640</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="C179" s="5" t="str">
-        <f>I139&amp;$G$147</f>
-        <v>Vigilant Light Modragon</v>
+        <v>522</v>
+      </c>
+      <c r="C179" s="2" t="str">
+        <f>I144&amp;$G$147</f>
+        <v>Gentle Mountain Modragon</v>
       </c>
       <c r="D179" s="5" t="str">
-        <f>J139&amp;$H$147</f>
-        <v>機警的聖光龍娘</v>
+        <f>J144&amp;$H$147</f>
+        <v>溫和的山脈龍娘</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>950</v>
+        <v>917</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>950</v>
+        <v>917</v>
       </c>
     </row>
     <row r="180" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
-        <v>105642</v>
+        <v>105641</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C180" s="5" t="str">
-        <f>I140&amp;$G$147</f>
-        <v>Grumpy Light Modragon</v>
+        <f>I140&amp;$G$148</f>
+        <v>Vigilant Light Modragon</v>
       </c>
       <c r="D180" s="5" t="str">
-        <f>J140&amp;$H$147</f>
-        <v>暴躁的聖光龍娘</v>
+        <f>J140&amp;$H$148</f>
+        <v>機警的聖光龍娘</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>951</v>
+        <v>918</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>951</v>
+        <v>918</v>
       </c>
     </row>
     <row r="181" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
-        <v>105643</v>
+        <v>105642</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C181" s="5" t="str">
-        <f>I141&amp;$G$147</f>
-        <v>Timid Light Modragon</v>
+        <f>I141&amp;$G$148</f>
+        <v>Grumpy Light Modragon</v>
       </c>
       <c r="D181" s="5" t="str">
-        <f>J141&amp;$H$147</f>
-        <v>膽小的聖光龍娘</v>
+        <f>J141&amp;$H$148</f>
+        <v>暴躁的聖光龍娘</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>952</v>
+        <v>919</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>952</v>
+        <v>919</v>
       </c>
     </row>
     <row r="182" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
-        <v>105644</v>
+        <v>105643</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C182" s="5" t="str">
-        <f>I142&amp;$G$147</f>
-        <v>Irritable Light Modragon</v>
+        <f>I142&amp;$G$148</f>
+        <v>Timid Light Modragon</v>
       </c>
       <c r="D182" s="5" t="str">
-        <f>J142&amp;$H$147</f>
-        <v>易怒的聖光龍娘</v>
+        <f>J142&amp;$H$148</f>
+        <v>膽小的聖光龍娘</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>953</v>
+        <v>920</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>953</v>
+        <v>920</v>
       </c>
     </row>
     <row r="183" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
-        <v>105645</v>
+        <v>105644</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C183" s="5" t="str">
-        <f>I143&amp;$G$147</f>
-        <v>Gentle Light Modragon</v>
+        <f>I143&amp;$G$148</f>
+        <v>Irritable Light Modragon</v>
       </c>
       <c r="D183" s="5" t="str">
-        <f>J143&amp;$H$147</f>
-        <v>溫和的聖光龍娘</v>
+        <f>J143&amp;$H$148</f>
+        <v>易怒的聖光龍娘</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>954</v>
+        <v>921</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>954</v>
+        <v>921</v>
       </c>
     </row>
     <row r="184" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
-        <v>105646</v>
+        <v>105645</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="C184" s="2" t="str">
-        <f>I139&amp;$G$148</f>
-        <v>Vigilant Shadow Modragon</v>
+        <v>527</v>
+      </c>
+      <c r="C184" s="5" t="str">
+        <f>I144&amp;$G$148</f>
+        <v>Gentle Light Modragon</v>
       </c>
       <c r="D184" s="5" t="str">
-        <f>J139&amp;$H$148</f>
-        <v>機警的暗影龍娘</v>
+        <f>J144&amp;$H$148</f>
+        <v>溫和的聖光龍娘</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>955</v>
+        <v>922</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>955</v>
+        <v>922</v>
       </c>
     </row>
     <row r="185" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
-        <v>105647</v>
+        <v>105646</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C185" s="2" t="str">
-        <f>I140&amp;$G$148</f>
-        <v>Grumpy Shadow Modragon</v>
+        <f>I140&amp;$G$149</f>
+        <v>Vigilant Shadow Modragon</v>
       </c>
       <c r="D185" s="5" t="str">
-        <f>J140&amp;$H$148</f>
-        <v>暴躁的暗影龍娘</v>
+        <f>J140&amp;$H$149</f>
+        <v>機警的暗影龍娘</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>956</v>
+        <v>923</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>956</v>
+        <v>923</v>
       </c>
     </row>
     <row r="186" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
-        <v>105648</v>
+        <v>105647</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C186" s="2" t="str">
-        <f>I141&amp;$G$148</f>
-        <v>Timid Shadow Modragon</v>
+        <f>I141&amp;$G$149</f>
+        <v>Grumpy Shadow Modragon</v>
       </c>
       <c r="D186" s="5" t="str">
-        <f>J141&amp;$H$148</f>
-        <v>膽小的暗影龍娘</v>
+        <f>J141&amp;$H$149</f>
+        <v>暴躁的暗影龍娘</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>957</v>
+        <v>924</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>957</v>
+        <v>924</v>
       </c>
     </row>
     <row r="187" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
-        <v>105649</v>
+        <v>105648</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C187" s="2" t="str">
-        <f>I142&amp;$G$148</f>
-        <v>Irritable Shadow Modragon</v>
+        <f>I142&amp;$G$149</f>
+        <v>Timid Shadow Modragon</v>
       </c>
       <c r="D187" s="5" t="str">
-        <f>J142&amp;$H$148</f>
-        <v>易怒的暗影龍娘</v>
+        <f>J142&amp;$H$149</f>
+        <v>膽小的暗影龍娘</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>958</v>
+        <v>925</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>958</v>
+        <v>925</v>
       </c>
     </row>
     <row r="188" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
+        <v>105649</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="C188" s="2" t="str">
+        <f>I143&amp;$G$149</f>
+        <v>Irritable Shadow Modragon</v>
+      </c>
+      <c r="D188" s="5" t="str">
+        <f>J143&amp;$H$149</f>
+        <v>易怒的暗影龍娘</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="1">
         <v>105650</v>
       </c>
-      <c r="B188" s="6" t="s">
-        <v>533</v>
-      </c>
-      <c r="C188" s="2" t="str">
-        <f>I143&amp;$G$148</f>
+      <c r="B189" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="C189" s="2" t="str">
+        <f>I144&amp;$G$149</f>
         <v>Gentle Shadow Modragon</v>
       </c>
-      <c r="D188" s="5" t="str">
-        <f>J143&amp;$H$148</f>
+      <c r="D189" s="5" t="str">
+        <f>J144&amp;$H$149</f>
         <v>溫和的暗影龍娘</v>
       </c>
-      <c r="E188" s="2" t="s">
-        <v>959</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C189"/>
-      <c r="D189"/>
+      <c r="E189" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>927</v>
+      </c>
     </row>
     <row r="190" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A190" s="6">
-        <v>200001</v>
-      </c>
-      <c r="B190" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="C190" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="D190" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>960</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>960</v>
-      </c>
+      <c r="C190"/>
+      <c r="D190"/>
     </row>
     <row r="191" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="6">
+        <v>200001</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D191" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="6">
         <v>200002</v>
       </c>
-      <c r="B191" s="6" t="s">
+      <c r="B192" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C191" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="D191" s="7" t="s">
+      <c r="C192" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="D192" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A193" s="6">
+        <v>200003</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D193" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A194" s="6">
+        <v>200004</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D194" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A195" s="6">
+        <v>200005</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D195" s="7" t="s">
         <v>668</v>
       </c>
-      <c r="E191" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A192" s="6">
-        <v>200003</v>
-      </c>
-      <c r="B192" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="C192" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="D192" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>961</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A193" s="6">
-        <v>200004</v>
-      </c>
-      <c r="B193" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="C193" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="D193" s="7" t="s">
-        <v>670</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>962</v>
-      </c>
-      <c r="F193" s="2" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A194" s="6">
-        <v>200005</v>
-      </c>
-      <c r="B194" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="C194" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="D194" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>963</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A195" s="6">
-        <v>200006</v>
-      </c>
-      <c r="B195" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="C195" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="D195" s="7" t="s">
-        <v>672</v>
-      </c>
       <c r="E195" s="2" t="s">
-        <v>964</v>
+        <v>931</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>964</v>
+        <v>931</v>
       </c>
     </row>
     <row r="196" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="6">
-        <v>200007</v>
+        <v>200006</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>965</v>
+        <v>932</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>965</v>
+        <v>932</v>
       </c>
     </row>
     <row r="197" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="6">
-        <v>200008</v>
+        <v>200007</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>966</v>
+        <v>933</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>966</v>
+        <v>933</v>
       </c>
     </row>
     <row r="198" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="6">
-        <v>200009</v>
+        <v>200008</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D198" s="7" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>967</v>
+        <v>934</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>967</v>
+        <v>934</v>
       </c>
     </row>
     <row r="199" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="6">
-        <v>200010</v>
+        <v>200009</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>968</v>
+        <v>935</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>968</v>
+        <v>935</v>
       </c>
     </row>
     <row r="200" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="6">
-        <v>200011</v>
+        <v>200010</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D200" s="7" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>969</v>
+        <v>936</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>969</v>
+        <v>936</v>
       </c>
     </row>
     <row r="201" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="6">
-        <v>200012</v>
+        <v>200011</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>970</v>
+        <v>937</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>970</v>
+        <v>937</v>
       </c>
     </row>
     <row r="202" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="6">
-        <v>200013</v>
+        <v>200012</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>971</v>
+        <v>938</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>971</v>
+        <v>938</v>
       </c>
     </row>
     <row r="203" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="6">
-        <v>200014</v>
+        <v>200013</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>459</v>
+        <v>291</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>459</v>
+        <v>939</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>459</v>
+        <v>939</v>
       </c>
     </row>
     <row r="204" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="6">
-        <v>200015</v>
+        <v>200014</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>294</v>
+        <v>458</v>
       </c>
       <c r="D204" s="7" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>972</v>
+        <v>458</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>972</v>
+        <v>458</v>
       </c>
     </row>
     <row r="205" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="6">
-        <v>200016</v>
+        <v>200015</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>460</v>
+        <v>294</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>460</v>
+        <v>940</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>460</v>
+        <v>940</v>
       </c>
     </row>
     <row r="206" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="6">
+        <v>200016</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D206" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A207" s="6">
         <v>200017</v>
       </c>
-      <c r="B206" s="6" t="s">
+      <c r="B207" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="C206" s="7" t="s">
+      <c r="C207" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="D206" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>973</v>
-      </c>
-      <c r="F206" s="2" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A207" s="6">
+      <c r="D207" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A208" s="6">
         <v>200018</v>
       </c>
-      <c r="B207" s="6" t="s">
+      <c r="B208" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="C207" s="7" t="s">
+      <c r="C208" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="D207" s="7" t="s">
-        <v>684</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>974</v>
-      </c>
-      <c r="F207" s="2" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A208" s="6">
-        <v>200019</v>
-      </c>
-      <c r="B208" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="C208" s="7" t="s">
-        <v>301</v>
-      </c>
       <c r="D208" s="7" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>975</v>
+        <v>942</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>975</v>
+        <v>942</v>
       </c>
     </row>
     <row r="209" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="6">
-        <v>200020</v>
+        <v>200019</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>976</v>
+        <v>943</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>976</v>
+        <v>943</v>
       </c>
     </row>
     <row r="210" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="6">
-        <v>200021</v>
+        <v>200020</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>741</v>
+        <v>303</v>
       </c>
       <c r="D210" s="7" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>741</v>
+        <v>944</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>741</v>
+        <v>944</v>
       </c>
     </row>
     <row r="211" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="6">
-        <v>200022</v>
+        <v>200021</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
     </row>
     <row r="212" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="6">
+        <v>200022</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="D212" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A213" s="6">
         <v>200023</v>
       </c>
-      <c r="B212" s="6" t="s">
+      <c r="B213" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="C212" s="7" t="s">
-        <v>743</v>
-      </c>
-      <c r="D212" s="7" t="s">
-        <v>689</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>743</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A213" s="6">
+      <c r="C213" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="D213" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A214" s="6">
         <v>200024</v>
       </c>
-      <c r="B213" s="6" t="s">
+      <c r="B214" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="C213" s="7" t="s">
+      <c r="C214" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="D213" s="7" t="s">
-        <v>690</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>977</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A214" s="6">
-        <v>200025</v>
-      </c>
-      <c r="B214" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="C214" s="7" t="s">
-        <v>310</v>
-      </c>
       <c r="D214" s="7" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>978</v>
+        <v>945</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>978</v>
+        <v>945</v>
       </c>
     </row>
     <row r="215" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="6">
-        <v>200026</v>
+        <v>200025</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>979</v>
+        <v>946</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>979</v>
+        <v>946</v>
       </c>
     </row>
     <row r="216" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="6">
-        <v>200027</v>
+        <v>200026</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>980</v>
+        <v>947</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>980</v>
+        <v>947</v>
       </c>
     </row>
     <row r="217" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="6">
-        <v>200028</v>
+        <v>200027</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>981</v>
+        <v>948</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>981</v>
+        <v>948</v>
       </c>
     </row>
     <row r="218" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="6">
-        <v>200029</v>
+        <v>200028</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>982</v>
+        <v>949</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>982</v>
+        <v>949</v>
       </c>
     </row>
     <row r="219" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="6">
-        <v>200030</v>
+        <v>200029</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>983</v>
+        <v>950</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>983</v>
+        <v>950</v>
       </c>
     </row>
     <row r="220" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="6">
-        <v>200031</v>
+        <v>200030</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>984</v>
+        <v>951</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>984</v>
+        <v>951</v>
       </c>
     </row>
     <row r="221" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="6">
-        <v>200032</v>
+        <v>200031</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>985</v>
+        <v>952</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>985</v>
+        <v>952</v>
       </c>
     </row>
     <row r="222" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="6">
-        <v>200033</v>
+        <v>200032</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>461</v>
+        <v>324</v>
       </c>
       <c r="D222" s="7" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>461</v>
+        <v>953</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>461</v>
+        <v>953</v>
       </c>
     </row>
     <row r="223" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="6">
-        <v>200034</v>
+        <v>200033</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>327</v>
+        <v>460</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>986</v>
+        <v>460</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>986</v>
+        <v>460</v>
       </c>
     </row>
     <row r="224" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="6">
-        <v>200035</v>
+        <v>200034</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>987</v>
+        <v>954</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>987</v>
+        <v>954</v>
       </c>
     </row>
     <row r="225" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="6">
-        <v>200036</v>
+        <v>200035</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>462</v>
+        <v>329</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>462</v>
+        <v>955</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>462</v>
+        <v>955</v>
       </c>
     </row>
     <row r="226" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="6">
-        <v>200037</v>
+        <v>200036</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>332</v>
+        <v>461</v>
       </c>
       <c r="D226" s="7" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>988</v>
+        <v>461</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>988</v>
+        <v>461</v>
       </c>
     </row>
     <row r="227" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="6">
-        <v>200038</v>
+        <v>200037</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D227" s="7" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>989</v>
+        <v>956</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>989</v>
+        <v>956</v>
       </c>
     </row>
     <row r="228" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="6">
-        <v>200039</v>
+        <v>200038</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D228" s="7" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>990</v>
+        <v>957</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>990</v>
+        <v>957</v>
       </c>
     </row>
     <row r="229" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="6">
+        <v>200039</v>
+      </c>
+      <c r="B229" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="C229" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="D229" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A230" s="6">
         <v>200040</v>
       </c>
-      <c r="B229" s="6" t="s">
+      <c r="B230" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D230" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A231" s="6">
+        <v>200041</v>
+      </c>
+      <c r="B231" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="C229" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="D229" s="5" t="s">
-        <v>706</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="F229" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A230" s="6">
-        <v>200041</v>
-      </c>
-      <c r="B230" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="C230" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="D230" s="5" t="s">
-        <v>707</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A231" s="6">
-        <v>200042</v>
-      </c>
-      <c r="B231" s="6" t="s">
-        <v>392</v>
-      </c>
       <c r="C231" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>708</v>
+        <v>407</v>
+      </c>
+      <c r="D231" s="5" t="s">
+        <v>704</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
     </row>
     <row r="232" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="6">
-        <v>200043</v>
+        <v>200042</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>403</v>
+        <v>391</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>401</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="233" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="6">
-        <v>200044</v>
+        <v>200043</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="234" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="6">
-        <v>200045</v>
+        <v>200044</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="235" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="6">
-        <v>200046</v>
+        <v>200045</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="236" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="6">
-        <v>200047</v>
+        <v>200046</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="C236" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="D236" s="5" t="s">
-        <v>713</v>
+        <v>395</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>709</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>991</v>
+        <v>405</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>991</v>
+        <v>405</v>
       </c>
     </row>
     <row r="237" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="6">
-        <v>200048</v>
+        <v>200047</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>714</v>
+        <v>396</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="D237" s="5" t="s">
+        <v>710</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>407</v>
+        <v>959</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>407</v>
+        <v>959</v>
       </c>
     </row>
     <row r="238" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="6">
+        <v>200048</v>
+      </c>
+      <c r="B238" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A239" s="6">
         <v>200049</v>
       </c>
-      <c r="B238" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="C238" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="D238" s="5" t="s">
-        <v>715</v>
-      </c>
-      <c r="E238" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="F238" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A239" s="6">
-        <v>200050</v>
-      </c>
       <c r="B239" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="D239" s="5" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
     </row>
     <row r="240" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A240" s="6">
+        <v>200050</v>
+      </c>
+      <c r="B240" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="D240" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A241" s="6">
         <v>200051</v>
       </c>
-      <c r="B240" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="E240" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="F240" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A241" s="6">
-        <v>200052</v>
-      </c>
       <c r="B241" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="242" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="6">
+        <v>200052</v>
+      </c>
+      <c r="B242" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A243" s="6">
         <v>200053</v>
       </c>
-      <c r="B242" s="6" t="s">
+      <c r="B243" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A244" s="6">
+        <v>200054</v>
+      </c>
+      <c r="B244" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="C242" s="2" t="s">
+      <c r="C244" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="D242" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="E242" s="2" t="s">
+      <c r="D244" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="E244" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="F242" s="2" t="s">
+      <c r="F244" s="2" t="s">
         <v>413</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A243" s="6">
-        <v>200054</v>
-      </c>
-      <c r="B243" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="E243" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="F243" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A244" s="6">
-        <v>200055</v>
-      </c>
-      <c r="B244" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="E244" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="F244" s="2" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="245" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="6">
-        <v>200056</v>
+        <v>200055</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="C245" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="D245" s="5" t="s">
-        <v>722</v>
+        <v>422</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>718</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="246" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="6">
-        <v>200057</v>
+        <v>200056</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>723</v>
+        <v>423</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="D246" s="5" t="s">
+        <v>719</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="247" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="6">
-        <v>200058</v>
+        <v>200057</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="C247" s="5" t="s">
-        <v>747</v>
-      </c>
-      <c r="D247" s="5" t="s">
-        <v>724</v>
+        <v>424</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>720</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>992</v>
+        <v>415</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>992</v>
+        <v>415</v>
       </c>
     </row>
     <row r="248" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="6">
-        <v>200059</v>
+        <v>200058</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>429</v>
+        <v>743</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>429</v>
+        <v>960</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>429</v>
+        <v>960</v>
       </c>
     </row>
     <row r="249" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="6">
-        <v>200060</v>
+        <v>200059</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>426</v>
+        <v>430</v>
+      </c>
+      <c r="C249" s="5" t="s">
+        <v>428</v>
       </c>
       <c r="D249" s="5" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="250" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="6">
-        <v>200061</v>
+        <v>200060</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>727</v>
+        <v>425</v>
+      </c>
+      <c r="D250" s="5" t="s">
+        <v>723</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="251" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="6">
-        <v>200062</v>
+        <v>200061</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="D251" s="5" t="s">
-        <v>728</v>
+        <v>426</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>724</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="252" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="6">
-        <v>200063</v>
+        <v>200062</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="C252" s="5" t="s">
-        <v>729</v>
+        <v>433</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>427</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>993</v>
+        <v>427</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>993</v>
+        <v>427</v>
       </c>
     </row>
     <row r="253" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="6">
-        <v>200064</v>
+        <v>200063</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>438</v>
+        <v>726</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>994</v>
+        <v>961</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>994</v>
+        <v>961</v>
       </c>
     </row>
     <row r="254" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="6">
-        <v>200065</v>
+        <v>200064</v>
       </c>
       <c r="B254" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C254" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="C254" s="5" t="s">
-        <v>439</v>
-      </c>
       <c r="D254" s="5" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>439</v>
+        <v>962</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>439</v>
+        <v>962</v>
       </c>
     </row>
     <row r="255" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="6">
-        <v>200066</v>
+        <v>200065</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D255" s="5" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="256" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="6">
-        <v>200067</v>
+        <v>200066</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>440</v>
+        <v>442</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="257" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="6">
-        <v>200068</v>
+        <v>200067</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="D257" s="2" t="s">
-        <v>734</v>
+        <v>439</v>
+      </c>
+      <c r="D257" s="5" t="s">
+        <v>730</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="258" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="6">
-        <v>200069</v>
+        <v>200068</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="C258" s="5" t="s">
-        <v>729</v>
-      </c>
-      <c r="D258" s="5" t="s">
-        <v>722</v>
+        <v>444</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>731</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>993</v>
+        <v>440</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>993</v>
+        <v>440</v>
       </c>
     </row>
     <row r="259" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="6">
-        <v>200070</v>
+        <v>200069</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>575</v>
+        <v>726</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>735</v>
+        <v>719</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>575</v>
+        <v>961</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>575</v>
+        <v>961</v>
       </c>
     </row>
     <row r="260" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="6">
-        <v>200071</v>
+        <v>200070</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>502</v>
+        <v>446</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>503</v>
+        <v>574</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>995</v>
+        <v>574</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>995</v>
+        <v>574</v>
       </c>
     </row>
     <row r="261" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" s="6">
-        <v>200072</v>
+        <v>200071</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>748</v>
+        <v>501</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>761</v>
+        <v>502</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>757</v>
+        <v>733</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>996</v>
+        <v>963</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>996</v>
+        <v>963</v>
       </c>
     </row>
     <row r="262" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="6">
-        <v>200073</v>
+        <v>200072</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="D262" s="5" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>997</v>
+        <v>964</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>997</v>
+        <v>964</v>
       </c>
     </row>
     <row r="263" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="6">
-        <v>200074</v>
+        <v>200073</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>802</v>
+        <v>754</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>998</v>
+        <v>965</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>998</v>
+        <v>965</v>
       </c>
     </row>
     <row r="264" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="6">
-        <v>200075</v>
+        <v>200074</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>759</v>
+        <v>798</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>835</v>
+        <v>966</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>835</v>
+        <v>966</v>
       </c>
     </row>
     <row r="265" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="6">
-        <v>200076</v>
+        <v>200075</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="D265" s="5" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>999</v>
+        <v>823</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>999</v>
+        <v>823</v>
       </c>
     </row>
     <row r="266" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="6">
-        <v>200077</v>
+        <v>200076</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>1000</v>
+        <v>967</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>1000</v>
+        <v>967</v>
       </c>
     </row>
     <row r="267" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="6">
-        <v>200078</v>
+        <v>200077</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="D267" s="5" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>1001</v>
+        <v>968</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>1001</v>
+        <v>968</v>
       </c>
     </row>
     <row r="268" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="6">
-        <v>200079</v>
+        <v>200078</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="D268" s="5" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>1002</v>
+        <v>969</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>1002</v>
+        <v>969</v>
       </c>
     </row>
     <row r="269" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="6">
-        <v>200080</v>
+        <v>200079</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="C269" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="D269" s="5" t="s">
         <v>764</v>
       </c>
-      <c r="D269" s="5" t="s">
-        <v>759</v>
-      </c>
       <c r="E269" s="2" t="s">
-        <v>835</v>
+        <v>970</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>835</v>
+        <v>970</v>
       </c>
     </row>
     <row r="270" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="6">
-        <v>200081</v>
+        <v>200080</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>770</v>
+        <v>752</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>774</v>
+        <v>760</v>
       </c>
       <c r="D270" s="5" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>1003</v>
+        <v>823</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>1003</v>
+        <v>823</v>
       </c>
     </row>
     <row r="271" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="6">
-        <v>200082</v>
+        <v>200081</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
       <c r="D271" s="5" t="s">
-        <v>797</v>
+        <v>765</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>1004</v>
+        <v>971</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>1004</v>
+        <v>971</v>
       </c>
     </row>
     <row r="272" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="6">
-        <v>200083</v>
+        <v>200082</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="C272" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="D272" s="5" t="s">
         <v>793</v>
       </c>
-      <c r="D272" s="5" t="s">
-        <v>798</v>
-      </c>
       <c r="E272" s="2" t="s">
-        <v>1005</v>
+        <v>972</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>1005</v>
+        <v>972</v>
       </c>
     </row>
     <row r="273" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="6">
-        <v>200084</v>
+        <v>200083</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="C273" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="D273" s="5" t="s">
         <v>794</v>
       </c>
-      <c r="D273" s="5" t="s">
-        <v>799</v>
-      </c>
       <c r="E273" s="2" t="s">
-        <v>1006</v>
+        <v>973</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>1006</v>
+        <v>973</v>
       </c>
     </row>
     <row r="274" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="6">
-        <v>200085</v>
+        <v>200084</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>764</v>
+        <v>790</v>
       </c>
       <c r="D274" s="5" t="s">
-        <v>759</v>
+        <v>795</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>835</v>
+        <v>974</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>835</v>
+        <v>974</v>
       </c>
     </row>
     <row r="275" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="6">
+        <v>200085</v>
+      </c>
+      <c r="B275" s="6" t="s">
+        <v>775</v>
+      </c>
+      <c r="C275" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="D275" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="E275" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="F275" s="2" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A276" s="6">
         <v>200086</v>
       </c>
-      <c r="B275" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="C275" s="5" t="s">
-        <v>795</v>
-      </c>
-      <c r="D275" s="5" t="s">
-        <v>775</v>
-      </c>
-      <c r="E275" s="2" t="s">
-        <v>1007</v>
-      </c>
-      <c r="F275" s="2" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A276" s="6">
-        <v>200087</v>
-      </c>
       <c r="B276" s="6" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="D276" s="5" t="s">
-        <v>790</v>
+        <v>771</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>1008</v>
+        <v>975</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>1008</v>
+        <v>975</v>
       </c>
     </row>
     <row r="277" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A277" s="6">
-        <v>200088</v>
+        <v>200087</v>
       </c>
       <c r="B277" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="C277" s="5" t="s">
         <v>782</v>
       </c>
-      <c r="C277" s="5" t="s">
-        <v>787</v>
-      </c>
       <c r="D277" s="5" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>1009</v>
+        <v>976</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>1009</v>
+        <v>976</v>
       </c>
     </row>
     <row r="278" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A278" s="6">
-        <v>200089</v>
+        <v>200088</v>
       </c>
       <c r="B278" s="6" t="s">
+        <v>778</v>
+      </c>
+      <c r="C278" s="5" t="s">
         <v>783</v>
       </c>
-      <c r="C278" s="5" t="s">
-        <v>788</v>
-      </c>
       <c r="D278" s="5" t="s">
-        <v>800</v>
+        <v>787</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>1010</v>
+        <v>977</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>1010</v>
+        <v>977</v>
       </c>
     </row>
     <row r="279" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A279" s="6">
-        <v>200090</v>
+        <v>200089</v>
       </c>
       <c r="B279" s="6" t="s">
+        <v>779</v>
+      </c>
+      <c r="C279" s="5" t="s">
         <v>784</v>
       </c>
-      <c r="C279" s="5" t="s">
-        <v>764</v>
-      </c>
       <c r="D279" s="5" t="s">
-        <v>759</v>
+        <v>796</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>835</v>
+        <v>978</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>835</v>
+        <v>978</v>
       </c>
     </row>
     <row r="280" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A280" s="6">
-        <v>200091</v>
+        <v>200090</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>789</v>
+        <v>760</v>
       </c>
       <c r="D280" s="5" t="s">
-        <v>801</v>
+        <v>755</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>1011</v>
+        <v>823</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>1011</v>
+        <v>823</v>
       </c>
     </row>
     <row r="281" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A281" s="6">
-        <v>200092</v>
+        <v>200091</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>812</v>
+        <v>781</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>822</v>
+        <v>785</v>
       </c>
       <c r="D281" s="5" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>821</v>
+        <v>979</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>821</v>
+        <v>979</v>
       </c>
     </row>
     <row r="282" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A282" s="6">
-        <v>200093</v>
+        <v>200092</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>813</v>
+        <v>800</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>824</v>
+        <v>810</v>
       </c>
       <c r="D282" s="5" t="s">
-        <v>810</v>
+        <v>983</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>823</v>
+        <v>809</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>823</v>
+        <v>809</v>
       </c>
     </row>
     <row r="283" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A283" s="6">
-        <v>200094</v>
+        <v>200093</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>814</v>
+        <v>801</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>826</v>
+        <v>812</v>
       </c>
       <c r="D283" s="5" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>825</v>
+        <v>811</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>825</v>
+        <v>811</v>
       </c>
     </row>
     <row r="284" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A284" s="6">
-        <v>200095</v>
+        <v>200094</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>815</v>
+        <v>802</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>828</v>
+        <v>814</v>
       </c>
       <c r="D284" s="5" t="s">
-        <v>808</v>
+        <v>984</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>827</v>
+        <v>813</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>827</v>
+        <v>813</v>
       </c>
     </row>
     <row r="285" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A285" s="6">
-        <v>200096</v>
+        <v>200095</v>
       </c>
       <c r="B285" s="6" t="s">
+        <v>803</v>
+      </c>
+      <c r="C285" s="5" t="s">
         <v>816</v>
       </c>
-      <c r="C285" s="5" t="s">
-        <v>830</v>
-      </c>
       <c r="D285" s="5" t="s">
-        <v>807</v>
+        <v>985</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>829</v>
+        <v>815</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>829</v>
+        <v>815</v>
       </c>
     </row>
     <row r="286" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A286" s="6">
-        <v>200097</v>
+        <v>200096</v>
       </c>
       <c r="B286" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="C286" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="D286" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="E286" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="C286" s="5" t="s">
-        <v>832</v>
-      </c>
-      <c r="D286" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="E286" s="2" t="s">
-        <v>831</v>
-      </c>
       <c r="F286" s="2" t="s">
-        <v>831</v>
+        <v>817</v>
       </c>
     </row>
     <row r="287" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A287" s="6">
-        <v>200098</v>
+        <v>200097</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>834</v>
+        <v>820</v>
       </c>
       <c r="D287" s="5" t="s">
-        <v>805</v>
+        <v>987</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>833</v>
+        <v>819</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>833</v>
+        <v>819</v>
       </c>
     </row>
     <row r="288" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A288" s="6">
-        <v>200099</v>
+        <v>200098</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>764</v>
+        <v>822</v>
       </c>
       <c r="D288" s="5" t="s">
-        <v>804</v>
+        <v>988</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>835</v>
+        <v>821</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>835</v>
+        <v>821</v>
       </c>
     </row>
     <row r="289" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A289" s="6">
-        <v>200100</v>
+        <v>200099</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>820</v>
+        <v>807</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>837</v>
+        <v>760</v>
       </c>
       <c r="D289" s="5" t="s">
-        <v>803</v>
+        <v>755</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>836</v>
+        <v>823</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>836</v>
+        <v>823</v>
       </c>
     </row>
     <row r="290" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A290" s="6">
-        <v>200101</v>
+        <v>200100</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>868</v>
+        <v>808</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>840</v>
+        <v>825</v>
       </c>
       <c r="D290" s="5" t="s">
-        <v>838</v>
+        <v>989</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>839</v>
+        <v>824</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>839</v>
+        <v>824</v>
       </c>
     </row>
     <row r="291" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A291" s="6">
-        <v>200102</v>
+        <v>200101</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>869</v>
+        <v>849</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>851</v>
+        <v>827</v>
       </c>
       <c r="D291" s="5" t="s">
-        <v>841</v>
+        <v>990</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>850</v>
+        <v>826</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>850</v>
+        <v>826</v>
       </c>
     </row>
     <row r="292" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A292" s="6">
-        <v>200103</v>
+        <v>200102</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>870</v>
+        <v>850</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>853</v>
+        <v>832</v>
       </c>
       <c r="D292" s="5" t="s">
-        <v>842</v>
+        <v>828</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>852</v>
+        <v>831</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>852</v>
+        <v>831</v>
       </c>
     </row>
     <row r="293" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A293" s="6">
-        <v>200104</v>
+        <v>200103</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>871</v>
+        <v>851</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>855</v>
+        <v>834</v>
       </c>
       <c r="D293" s="5" t="s">
-        <v>843</v>
+        <v>991</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>854</v>
+        <v>833</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>854</v>
+        <v>833</v>
       </c>
     </row>
     <row r="294" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A294" s="6">
-        <v>200105</v>
+        <v>200104</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>872</v>
+        <v>852</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>857</v>
+        <v>836</v>
       </c>
       <c r="D294" s="5" t="s">
-        <v>844</v>
+        <v>992</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>856</v>
+        <v>835</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>856</v>
+        <v>835</v>
       </c>
     </row>
     <row r="295" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A295" s="6">
-        <v>200106</v>
+        <v>200105</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>873</v>
+        <v>853</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>859</v>
+        <v>838</v>
       </c>
       <c r="D295" s="5" t="s">
-        <v>845</v>
+        <v>993</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>858</v>
+        <v>837</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>858</v>
+        <v>837</v>
       </c>
     </row>
     <row r="296" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A296" s="6">
-        <v>200107</v>
+        <v>200106</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>874</v>
+        <v>854</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>861</v>
+        <v>840</v>
       </c>
       <c r="D296" s="5" t="s">
-        <v>846</v>
+        <v>829</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>860</v>
+        <v>839</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>860</v>
+        <v>839</v>
       </c>
     </row>
     <row r="297" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A297" s="6">
-        <v>200108</v>
+        <v>200107</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>875</v>
+        <v>855</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>863</v>
+        <v>842</v>
       </c>
       <c r="D297" s="5" t="s">
-        <v>847</v>
+        <v>994</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>862</v>
+        <v>841</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>862</v>
+        <v>841</v>
       </c>
     </row>
     <row r="298" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A298" s="6">
-        <v>200109</v>
+        <v>200108</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>876</v>
+        <v>856</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>865</v>
+        <v>844</v>
       </c>
       <c r="D298" s="5" t="s">
-        <v>848</v>
+        <v>830</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>864</v>
+        <v>843</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>864</v>
+        <v>843</v>
       </c>
     </row>
     <row r="299" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A299" s="6">
-        <v>200110</v>
+        <v>200109</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>877</v>
+        <v>857</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>764</v>
+        <v>846</v>
       </c>
       <c r="D299" s="5" t="s">
-        <v>804</v>
+        <v>995</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>835</v>
+        <v>845</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>835</v>
+        <v>845</v>
       </c>
     </row>
     <row r="300" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A300" s="6">
-        <v>200111</v>
+        <v>200110</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>878</v>
+        <v>858</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>867</v>
+        <v>760</v>
       </c>
       <c r="D300" s="5" t="s">
-        <v>849</v>
+        <v>755</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>866</v>
+        <v>823</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>866</v>
+        <v>823</v>
       </c>
     </row>
     <row r="301" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A301" s="6">
-        <v>200112</v>
+        <v>200111</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>889</v>
+        <v>859</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>895</v>
+        <v>848</v>
       </c>
       <c r="D301" s="5" t="s">
-        <v>879</v>
+        <v>996</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>894</v>
+        <v>847</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>894</v>
+        <v>847</v>
       </c>
     </row>
     <row r="302" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A302" s="6">
-        <v>200113</v>
+        <v>200112</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>890</v>
+        <v>866</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>884</v>
+        <v>872</v>
       </c>
       <c r="D302" s="5" t="s">
-        <v>880</v>
+        <v>997</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>883</v>
+        <v>871</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>883</v>
+        <v>871</v>
       </c>
     </row>
     <row r="303" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A303" s="6">
-        <v>200114</v>
+        <v>200113</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>891</v>
+        <v>867</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D303" s="5" t="s">
-        <v>881</v>
+        <v>998</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>885</v>
+        <v>860</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>885</v>
+        <v>860</v>
       </c>
     </row>
     <row r="304" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A304" s="6">
-        <v>200115</v>
+        <v>200114</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>892</v>
+        <v>868</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>764</v>
+        <v>863</v>
       </c>
       <c r="D304" s="5" t="s">
-        <v>804</v>
+        <v>999</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>835</v>
+        <v>862</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>835</v>
+        <v>862</v>
       </c>
     </row>
     <row r="305" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A305" s="6">
-        <v>200116</v>
+        <v>200115</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>893</v>
+        <v>869</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>888</v>
+        <v>760</v>
       </c>
       <c r="D305" s="5" t="s">
-        <v>882</v>
+        <v>755</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>887</v>
+        <v>823</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>887</v>
+        <v>823</v>
       </c>
     </row>
     <row r="306" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A306" s="6">
-        <v>200117</v>
+        <v>200116</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>905</v>
+        <v>870</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>900</v>
+        <v>865</v>
       </c>
       <c r="D306" s="5" t="s">
-        <v>896</v>
+        <v>1000</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>899</v>
+        <v>864</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>899</v>
+        <v>864</v>
       </c>
     </row>
     <row r="307" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A307" s="6">
-        <v>200118</v>
+        <v>200117</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>906</v>
+        <v>873</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>902</v>
+        <v>1003</v>
       </c>
       <c r="D307" s="5" t="s">
-        <v>897</v>
-      </c>
-      <c r="E307" s="2" t="s">
-        <v>901</v>
-      </c>
-      <c r="F307" s="2" t="s">
-        <v>901</v>
+        <v>1008</v>
+      </c>
+      <c r="E307" s="5" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F307" s="5" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="308" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A308" s="6">
+        <v>200118</v>
+      </c>
+      <c r="B308" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="C308" s="5" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D308" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E308" s="5" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F308" s="5" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A309" s="6">
         <v>200119</v>
       </c>
-      <c r="B308" s="6" t="s">
-        <v>907</v>
-      </c>
-      <c r="C308" s="5" t="s">
-        <v>904</v>
-      </c>
-      <c r="D308" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E308" s="2" t="s">
-        <v>903</v>
-      </c>
-      <c r="F308" s="2" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+      <c r="B309" s="6" t="s">
+        <v>875</v>
+      </c>
+      <c r="C309" s="5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D309" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E309" s="5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F309" s="5" t="s">
+        <v>1005</v>
+      </c>
+    </row>
     <row r="310" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="311" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="312" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -10327,13 +10341,13 @@
     <row r="539" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="540" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="541" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="542" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="542" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="543" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="544" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="545" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="546" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="547" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="548" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="548" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="549" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="550" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="551" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -10400,8 +10414,8 @@
     <row r="612" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="613" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="614" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="615" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="616" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="615" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="616" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="617" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="618" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="619" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -10410,26 +10424,27 @@
     <row r="622" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="623" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="624" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="625" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="626" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="627" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="628" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="629" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="630" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="631" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="632" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="633" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="634" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="635" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="636" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="637" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="638" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="639" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="640" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C640"/>
-    </row>
+    <row r="625" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="626" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="627" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="628" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="629" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="630" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="631" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="632" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="633" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="634" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="635" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="636" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="637" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="638" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="639" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="640" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="641" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C641"/>
+    </row>
+    <row r="642" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C642"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/Excels/Language_多语言表.xlsx
+++ b/Excels/Language_多语言表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5957BA77-129A-4E06-8413-4C954A3C54E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676FA679-B7A9-4678-B4F5-CA06DD545F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="1010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="1022">
   <si>
     <t>int</t>
   </si>
@@ -3458,6 +3458,54 @@
   </si>
   <si>
     <t>前往Snapshot進行投票，聚集社區的共識方可解鎖新的遊戲內容。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireMonolithTips001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaterMonolithTips002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>WoodMonolithTips003</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>EarthMonolithTips004</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>The flame-forged runes are dangling on the surface of the Monolith, releasing substantial heat around the Monolith</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aqueous encarvings are flowing on the surface of the Monolith, delighted with watery breeze</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>The encarving on this Monolith shows vitality, surrounded by the fragrance of nature.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>The veins of stone interlace on the surface of this Monolith, feels like the mighty power of Earth</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰般的符文在柱子上跳動，散發出炙熱的氛圍。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水般的圖案在這根柱子上流動，帶來清涼的感覺。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>這根柱子上刻滿了樹木和生命的圖騰，散發著清新的自然氣息。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨石紋路在這根柱子上交錯，仿佛感受到大地的沉穩力量。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3829,10 +3877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J642"/>
+  <dimension ref="A1:J646"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="D111" sqref="D111"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -6530,3589 +6578,3665 @@
       </c>
     </row>
     <row r="139" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="1"/>
-      <c r="B139" s="6"/>
-      <c r="C139" s="5"/>
-      <c r="D139" s="5"/>
+      <c r="A139" s="1">
+        <v>105505</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>1014</v>
+      </c>
     </row>
     <row r="140" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
-        <v>105601</v>
+        <v>105506</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="C140" s="2" t="str">
-        <f>I140&amp;$G$140</f>
-        <v>Vigilant Flame Modragon</v>
-      </c>
-      <c r="D140" s="2" t="str">
-        <f>J140&amp;$H$140</f>
-        <v>機警的火焰龍娘</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="G140" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="H140" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="I140" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="J140" s="2" t="s">
-        <v>599</v>
+        <v>1011</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>1015</v>
       </c>
     </row>
     <row r="141" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
-        <v>105602</v>
+        <v>105507</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="C141" s="2" t="str">
-        <f>I141&amp;$G$140</f>
-        <v>Grumpy Flame Modragon</v>
-      </c>
-      <c r="D141" s="2" t="str">
-        <f>J141&amp;$H$140</f>
-        <v>暴躁的火焰龍娘</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>879</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>879</v>
-      </c>
-      <c r="G141" s="5" t="s">
-        <v>565</v>
-      </c>
-      <c r="H141" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="I141" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J141" s="2" t="s">
-        <v>72</v>
+        <v>1012</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>1016</v>
       </c>
     </row>
     <row r="142" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
-        <v>105603</v>
+        <v>105508</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="C142" s="2" t="str">
-        <f>I142&amp;$G$140</f>
-        <v>Timid Flame Modragon</v>
-      </c>
-      <c r="D142" s="2" t="str">
-        <f>J142&amp;$H$140</f>
-        <v>膽小的火焰龍娘</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>880</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>880</v>
-      </c>
-      <c r="G142" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="H142" s="5" t="s">
-        <v>792</v>
-      </c>
-      <c r="I142" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J142" s="2" t="s">
-        <v>600</v>
+        <v>1013</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>1017</v>
       </c>
     </row>
     <row r="143" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="1">
-        <v>105604</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="C143" s="2" t="str">
-        <f>I143&amp;$G$140</f>
-        <v>Irritable Flame Modragon</v>
-      </c>
-      <c r="D143" s="2" t="str">
-        <f>J143&amp;$H$140</f>
-        <v>易怒的火焰龍娘</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>881</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>881</v>
-      </c>
-      <c r="G143" s="5" t="s">
-        <v>567</v>
-      </c>
-      <c r="H143" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="I143" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J143" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="A143" s="1"/>
+      <c r="B143" s="6"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
     </row>
     <row r="144" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
+        <v>105601</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="C144" s="2" t="str">
+        <f>I144&amp;$G$144</f>
+        <v>Vigilant Flame Modragon</v>
+      </c>
+      <c r="D144" s="2" t="str">
+        <f>J144&amp;$H$144</f>
+        <v>機警的火焰龍娘</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="G144" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="J144" s="2" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="1">
+        <v>105602</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C145" s="2" t="str">
+        <f>I145&amp;$G$144</f>
+        <v>Grumpy Flame Modragon</v>
+      </c>
+      <c r="D145" s="2" t="str">
+        <f>J145&amp;$H$144</f>
+        <v>暴躁的火焰龍娘</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="G145" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J145" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="1">
+        <v>105603</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C146" s="2" t="str">
+        <f>I146&amp;$G$144</f>
+        <v>Timid Flame Modragon</v>
+      </c>
+      <c r="D146" s="2" t="str">
+        <f>J146&amp;$H$144</f>
+        <v>膽小的火焰龍娘</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="G146" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="H146" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="I146" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J146" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="1">
+        <v>105604</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C147" s="2" t="str">
+        <f>I147&amp;$G$144</f>
+        <v>Irritable Flame Modragon</v>
+      </c>
+      <c r="D147" s="2" t="str">
+        <f>J147&amp;$H$144</f>
+        <v>易怒的火焰龍娘</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="G147" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="I147" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J147" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="1">
         <v>105605</v>
       </c>
-      <c r="B144" s="6" t="s">
+      <c r="B148" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="C144" s="2" t="str">
-        <f>I144&amp;$G$140</f>
+      <c r="C148" s="2" t="str">
+        <f>I148&amp;$G$144</f>
         <v>Gentle Flame Modragon</v>
       </c>
-      <c r="D144" s="2" t="str">
-        <f>J144&amp;$H$140</f>
+      <c r="D148" s="2" t="str">
+        <f>J148&amp;$H$144</f>
         <v>溫和的火焰龍娘</v>
       </c>
-      <c r="E144" s="2" t="s">
+      <c r="E148" s="2" t="s">
         <v>882</v>
       </c>
-      <c r="F144" s="2" t="s">
+      <c r="F148" s="2" t="s">
         <v>882</v>
       </c>
-      <c r="G144" s="5" t="s">
+      <c r="G148" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="H144" s="2" t="s">
+      <c r="H148" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="I144" s="2" t="s">
+      <c r="I148" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="J144" s="2" t="s">
+      <c r="J148" s="2" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="145" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="1">
+    <row r="149" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="1">
         <v>105606</v>
       </c>
-      <c r="B145" s="6" t="s">
+      <c r="B149" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="C145" s="2" t="str">
-        <f>I140&amp;$G$141</f>
+      <c r="C149" s="2" t="str">
+        <f>I144&amp;$G$145</f>
         <v>Vigilant Aqua Modragon</v>
       </c>
-      <c r="D145" s="2" t="str">
-        <f>J140&amp;$H$141</f>
+      <c r="D149" s="2" t="str">
+        <f>J144&amp;$H$145</f>
         <v>機警的水浪龍娘</v>
       </c>
-      <c r="E145" s="2" t="s">
+      <c r="E149" s="2" t="s">
         <v>883</v>
       </c>
-      <c r="F145" s="2" t="s">
+      <c r="F149" s="2" t="s">
         <v>883</v>
       </c>
-      <c r="G145" s="5" t="s">
+      <c r="G149" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="H145" s="2" t="s">
+      <c r="H149" s="2" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="146" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="1">
+    <row r="150" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="1">
         <v>105607</v>
       </c>
-      <c r="B146" s="6" t="s">
+      <c r="B150" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="C146" s="2" t="str">
-        <f>I141&amp;$G$141</f>
+      <c r="C150" s="2" t="str">
+        <f>I145&amp;$G$145</f>
         <v>Grumpy Aqua Modragon</v>
       </c>
-      <c r="D146" s="2" t="str">
-        <f>J141&amp;$H$141</f>
+      <c r="D150" s="2" t="str">
+        <f>J145&amp;$H$145</f>
         <v>暴躁的水浪龍娘</v>
       </c>
-      <c r="E146" s="2" t="s">
+      <c r="E150" s="2" t="s">
         <v>884</v>
       </c>
-      <c r="F146" s="2" t="s">
+      <c r="F150" s="2" t="s">
         <v>884</v>
       </c>
-      <c r="G146" s="5" t="s">
+      <c r="G150" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="H146" s="2" t="s">
+      <c r="H150" s="2" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="147" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="1">
+    <row r="151" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="1">
         <v>105608</v>
       </c>
-      <c r="B147" s="6" t="s">
+      <c r="B151" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="C147" s="2" t="str">
-        <f>I142&amp;$G$141</f>
+      <c r="C151" s="2" t="str">
+        <f>I146&amp;$G$145</f>
         <v>Timid Aqua Modragon</v>
       </c>
-      <c r="D147" s="2" t="str">
-        <f>J142&amp;$H$141</f>
+      <c r="D151" s="2" t="str">
+        <f>J146&amp;$H$145</f>
         <v>膽小的水浪龍娘</v>
       </c>
-      <c r="E147" s="2" t="s">
+      <c r="E151" s="2" t="s">
         <v>885</v>
       </c>
-      <c r="F147" s="2" t="s">
+      <c r="F151" s="2" t="s">
         <v>885</v>
       </c>
-      <c r="G147" s="5" t="s">
+      <c r="G151" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="H147" s="2" t="s">
+      <c r="H151" s="2" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="148" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="1">
+    <row r="152" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="1">
         <v>105609</v>
       </c>
-      <c r="B148" s="6" t="s">
+      <c r="B152" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="C148" s="2" t="str">
-        <f>I143&amp;$G$141</f>
+      <c r="C152" s="2" t="str">
+        <f>I147&amp;$G$145</f>
         <v>Irritable Aqua Modragon</v>
       </c>
-      <c r="D148" s="2" t="str">
-        <f>J143&amp;$H$141</f>
+      <c r="D152" s="2" t="str">
+        <f>J147&amp;$H$145</f>
         <v>易怒的水浪龍娘</v>
       </c>
-      <c r="E148" s="2" t="s">
+      <c r="E152" s="2" t="s">
         <v>886</v>
       </c>
-      <c r="F148" s="2" t="s">
+      <c r="F152" s="2" t="s">
         <v>886</v>
       </c>
-      <c r="G148" s="5" t="s">
+      <c r="G152" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="H148" s="2" t="s">
+      <c r="H152" s="2" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="149" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="1">
+    <row r="153" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="1">
         <v>105610</v>
       </c>
-      <c r="B149" s="6" t="s">
+      <c r="B153" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="C149" s="2" t="str">
-        <f>I144&amp;$G$141</f>
+      <c r="C153" s="2" t="str">
+        <f>I148&amp;$G$145</f>
         <v>Gentle Aqua Modragon</v>
       </c>
-      <c r="D149" s="2" t="str">
-        <f>J144&amp;$H$141</f>
+      <c r="D153" s="2" t="str">
+        <f>J148&amp;$H$145</f>
         <v>溫和的水浪龍娘</v>
       </c>
-      <c r="E149" s="2" t="s">
+      <c r="E153" s="2" t="s">
         <v>887</v>
       </c>
-      <c r="F149" s="2" t="s">
+      <c r="F153" s="2" t="s">
         <v>887</v>
       </c>
-      <c r="G149" s="5" t="s">
+      <c r="G153" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="H149" s="2" t="s">
+      <c r="H153" s="2" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="150" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="1">
+    <row r="154" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="1">
         <v>105611</v>
       </c>
-      <c r="B150" s="6" t="s">
+      <c r="B154" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="C150" s="5" t="str">
-        <f>I140&amp;$G$142</f>
+      <c r="C154" s="5" t="str">
+        <f>I144&amp;$G$146</f>
         <v>Vigilant Hibiscus Modragon</v>
       </c>
-      <c r="D150" s="5" t="str">
-        <f>J140&amp;$H$142</f>
+      <c r="D154" s="5" t="str">
+        <f>J144&amp;$H$146</f>
         <v>機警的木槿龍少</v>
       </c>
-      <c r="E150" s="2" t="s">
+      <c r="E154" s="2" t="s">
         <v>888</v>
       </c>
-      <c r="F150" s="2" t="s">
+      <c r="F154" s="2" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="151" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="1">
+    <row r="155" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="1">
         <v>105612</v>
       </c>
-      <c r="B151" s="6" t="s">
+      <c r="B155" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="C151" s="5" t="str">
-        <f>I141&amp;$G$142</f>
+      <c r="C155" s="5" t="str">
+        <f>I145&amp;$G$146</f>
         <v>Grumpy Hibiscus Modragon</v>
       </c>
-      <c r="D151" s="5" t="str">
-        <f>J141&amp;$H$142</f>
+      <c r="D155" s="5" t="str">
+        <f>J145&amp;$H$146</f>
         <v>暴躁的木槿龍少</v>
       </c>
-      <c r="E151" s="2" t="s">
+      <c r="E155" s="2" t="s">
         <v>889</v>
       </c>
-      <c r="F151" s="2" t="s">
+      <c r="F155" s="2" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="152" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="1">
+    <row r="156" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="1">
         <v>105613</v>
       </c>
-      <c r="B152" s="6" t="s">
+      <c r="B156" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="C152" s="5" t="str">
-        <f>I142&amp;$G$142</f>
+      <c r="C156" s="5" t="str">
+        <f>I146&amp;$G$146</f>
         <v>Timid Hibiscus Modragon</v>
       </c>
-      <c r="D152" s="5" t="str">
-        <f>J142&amp;$H$142</f>
+      <c r="D156" s="5" t="str">
+        <f>J146&amp;$H$146</f>
         <v>膽小的木槿龍少</v>
       </c>
-      <c r="E152" s="2" t="s">
+      <c r="E156" s="2" t="s">
         <v>890</v>
       </c>
-      <c r="F152" s="2" t="s">
+      <c r="F156" s="2" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="153" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="1">
+    <row r="157" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="1">
         <v>105614</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="B157" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="C153" s="5" t="str">
-        <f>I143&amp;$G$142</f>
+      <c r="C157" s="5" t="str">
+        <f>I147&amp;$G$146</f>
         <v>Irritable Hibiscus Modragon</v>
       </c>
-      <c r="D153" s="5" t="str">
-        <f>J143&amp;$H$142</f>
+      <c r="D157" s="5" t="str">
+        <f>J147&amp;$H$146</f>
         <v>易怒的木槿龍少</v>
       </c>
-      <c r="E153" s="2" t="s">
+      <c r="E157" s="2" t="s">
         <v>891</v>
       </c>
-      <c r="F153" s="2" t="s">
+      <c r="F157" s="2" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="154" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="1">
+    <row r="158" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="1">
         <v>105615</v>
       </c>
-      <c r="B154" s="6" t="s">
+      <c r="B158" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="C154" s="5" t="str">
-        <f>I144&amp;$G$142</f>
+      <c r="C158" s="5" t="str">
+        <f>I148&amp;$G$146</f>
         <v>Gentle Hibiscus Modragon</v>
       </c>
-      <c r="D154" s="5" t="str">
-        <f>J144&amp;$H$142</f>
+      <c r="D158" s="5" t="str">
+        <f>J148&amp;$H$146</f>
         <v>溫和的木槿龍少</v>
       </c>
-      <c r="E154" s="2" t="s">
+      <c r="E158" s="2" t="s">
         <v>892</v>
       </c>
-      <c r="F154" s="2" t="s">
+      <c r="F158" s="2" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="155" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="1">
+    <row r="159" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="1">
         <v>105616</v>
       </c>
-      <c r="B155" s="6" t="s">
+      <c r="B159" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="C155" s="2" t="str">
-        <f>I140&amp;$G$143</f>
+      <c r="C159" s="2" t="str">
+        <f>I144&amp;$G$147</f>
         <v>Vigilant Megalithic Modragon</v>
       </c>
-      <c r="D155" s="5" t="str">
-        <f>J140&amp;$H$143</f>
+      <c r="D159" s="5" t="str">
+        <f>J144&amp;$H$147</f>
         <v>機警的岩石龍娘</v>
       </c>
-      <c r="E155" s="2" t="s">
+      <c r="E159" s="2" t="s">
         <v>893</v>
       </c>
-      <c r="F155" s="2" t="s">
+      <c r="F159" s="2" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="156" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="1">
+    <row r="160" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="1">
         <v>105617</v>
       </c>
-      <c r="B156" s="6" t="s">
+      <c r="B160" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="C156" s="2" t="str">
-        <f>I141&amp;$G$143</f>
+      <c r="C160" s="2" t="str">
+        <f>I145&amp;$G$147</f>
         <v>Grumpy Megalithic Modragon</v>
       </c>
-      <c r="D156" s="5" t="str">
-        <f>J141&amp;$H$143</f>
+      <c r="D160" s="5" t="str">
+        <f>J145&amp;$H$147</f>
         <v>暴躁的岩石龍娘</v>
       </c>
-      <c r="E156" s="2" t="s">
+      <c r="E160" s="2" t="s">
         <v>894</v>
       </c>
-      <c r="F156" s="2" t="s">
+      <c r="F160" s="2" t="s">
         <v>894</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="1">
-        <v>105618</v>
-      </c>
-      <c r="B157" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="C157" s="2" t="str">
-        <f>I142&amp;$G$143</f>
-        <v>Timid Megalithic Modragon</v>
-      </c>
-      <c r="D157" s="5" t="str">
-        <f>J142&amp;$H$143</f>
-        <v>膽小的岩石龍娘</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>895</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="1">
-        <v>105619</v>
-      </c>
-      <c r="B158" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="C158" s="2" t="str">
-        <f>I143&amp;$G$143</f>
-        <v>Irritable Megalithic Modragon</v>
-      </c>
-      <c r="D158" s="5" t="str">
-        <f>J143&amp;$H$143</f>
-        <v>易怒的岩石龍娘</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>896</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="1">
-        <v>105620</v>
-      </c>
-      <c r="B159" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="C159" s="2" t="str">
-        <f>I144&amp;$G$143</f>
-        <v>Gentle Megalithic Modragon</v>
-      </c>
-      <c r="D159" s="5" t="str">
-        <f>J144&amp;$H$143</f>
-        <v>溫和的岩石龍娘</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>897</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="1">
-        <v>105621</v>
-      </c>
-      <c r="B160" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="C160" s="2" t="str">
-        <f>I140&amp;$G$144</f>
-        <v>Vigilant Infernal Modragon</v>
-      </c>
-      <c r="D160" s="2" t="str">
-        <f>J140&amp;$H$144</f>
-        <v>機警的煉獄龍娘</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>898</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="161" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
-        <v>105622</v>
+        <v>105618</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="C161" s="2" t="str">
-        <f>I141&amp;$G$144</f>
-        <v>Grumpy Infernal Modragon</v>
-      </c>
-      <c r="D161" s="2" t="str">
-        <f>J141&amp;$H$144</f>
-        <v>暴躁的煉獄龍娘</v>
+        <f>I146&amp;$G$147</f>
+        <v>Timid Megalithic Modragon</v>
+      </c>
+      <c r="D161" s="5" t="str">
+        <f>J146&amp;$H$147</f>
+        <v>膽小的岩石龍娘</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
     </row>
     <row r="162" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
-        <v>105623</v>
+        <v>105619</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="C162" s="2" t="str">
-        <f>I142&amp;$G$144</f>
-        <v>Timid Infernal Modragon</v>
-      </c>
-      <c r="D162" s="2" t="str">
-        <f>J142&amp;$H$144</f>
-        <v>膽小的煉獄龍娘</v>
+        <f>I147&amp;$G$147</f>
+        <v>Irritable Megalithic Modragon</v>
+      </c>
+      <c r="D162" s="5" t="str">
+        <f>J147&amp;$H$147</f>
+        <v>易怒的岩石龍娘</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
     </row>
     <row r="163" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
-        <v>105624</v>
+        <v>105620</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="C163" s="2" t="str">
-        <f>I143&amp;$G$144</f>
-        <v>Irritable Infernal Modragon</v>
-      </c>
-      <c r="D163" s="2" t="str">
-        <f>J143&amp;$H$144</f>
-        <v>易怒的煉獄龍娘</v>
+        <f>I148&amp;$G$147</f>
+        <v>Gentle Megalithic Modragon</v>
+      </c>
+      <c r="D163" s="5" t="str">
+        <f>J148&amp;$H$147</f>
+        <v>溫和的岩石龍娘</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
     </row>
     <row r="164" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
-        <v>105625</v>
+        <v>105621</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C164" s="2" t="str">
-        <f>I144&amp;$G$144</f>
-        <v>Gentle Infernal Modragon</v>
+        <f>I144&amp;$G$148</f>
+        <v>Vigilant Infernal Modragon</v>
       </c>
       <c r="D164" s="2" t="str">
-        <f>J144&amp;$H$144</f>
-        <v>溫和的煉獄龍娘</v>
+        <f>J144&amp;$H$148</f>
+        <v>機警的煉獄龍娘</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
     </row>
     <row r="165" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
-        <v>105626</v>
+        <v>105622</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C165" s="2" t="str">
-        <f>I140&amp;$G$145</f>
-        <v>Vigilant Ocean Modragon</v>
+        <f>I145&amp;$G$148</f>
+        <v>Grumpy Infernal Modragon</v>
       </c>
       <c r="D165" s="2" t="str">
-        <f>J140&amp;$H$145</f>
-        <v>機警的海洋龍娘</v>
+        <f>J145&amp;$H$148</f>
+        <v>暴躁的煉獄龍娘</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
     </row>
     <row r="166" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
-        <v>105627</v>
+        <v>105623</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C166" s="2" t="str">
-        <f>I141&amp;$G$145</f>
-        <v>Grumpy Ocean Modragon</v>
+        <f>I146&amp;$G$148</f>
+        <v>Timid Infernal Modragon</v>
       </c>
       <c r="D166" s="2" t="str">
-        <f>J141&amp;$H$145</f>
-        <v>暴躁的海洋龍娘</v>
+        <f>J146&amp;$H$148</f>
+        <v>膽小的煉獄龍娘</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
     </row>
     <row r="167" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
-        <v>105628</v>
+        <v>105624</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C167" s="2" t="str">
-        <f>I142&amp;$G$145</f>
-        <v>Timid Ocean Modragon</v>
+        <f>I147&amp;$G$148</f>
+        <v>Irritable Infernal Modragon</v>
       </c>
       <c r="D167" s="2" t="str">
-        <f>J142&amp;$H$145</f>
-        <v>膽小的海洋龍娘</v>
+        <f>J147&amp;$H$148</f>
+        <v>易怒的煉獄龍娘</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
     </row>
     <row r="168" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
-        <v>105629</v>
+        <v>105625</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C168" s="2" t="str">
-        <f>I143&amp;$G$145</f>
-        <v>Irritable Ocean Modragon</v>
+        <f>I148&amp;$G$148</f>
+        <v>Gentle Infernal Modragon</v>
       </c>
       <c r="D168" s="2" t="str">
-        <f>J143&amp;$H$145</f>
-        <v>易怒的海洋龍娘</v>
+        <f>J148&amp;$H$148</f>
+        <v>溫和的煉獄龍娘</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
     </row>
     <row r="169" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
-        <v>105630</v>
+        <v>105626</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C169" s="2" t="str">
-        <f>I144&amp;$G$145</f>
-        <v>Gentle Ocean Modragon</v>
+        <f>I144&amp;$G$149</f>
+        <v>Vigilant Ocean Modragon</v>
       </c>
       <c r="D169" s="2" t="str">
-        <f>J144&amp;$H$145</f>
-        <v>溫和的海洋龍娘</v>
+        <f>J144&amp;$H$149</f>
+        <v>機警的海洋龍娘</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="170" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
-        <v>105631</v>
+        <v>105627</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="C170" s="5" t="str">
-        <f>I140&amp;$G$146</f>
-        <v>Vigilant Forest Modragon</v>
-      </c>
-      <c r="D170" s="5" t="str">
-        <f>J140&amp;$H$146</f>
-        <v>機警的森林龍娘</v>
+        <v>509</v>
+      </c>
+      <c r="C170" s="2" t="str">
+        <f>I145&amp;$G$149</f>
+        <v>Grumpy Ocean Modragon</v>
+      </c>
+      <c r="D170" s="2" t="str">
+        <f>J145&amp;$H$149</f>
+        <v>暴躁的海洋龍娘</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="171" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
-        <v>105632</v>
+        <v>105628</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="C171" s="5" t="str">
-        <f>I141&amp;$G$146</f>
-        <v>Grumpy Forest Modragon</v>
-      </c>
-      <c r="D171" s="5" t="str">
-        <f>J141&amp;$H$146</f>
-        <v>暴躁的森林龍娘</v>
+        <v>510</v>
+      </c>
+      <c r="C171" s="2" t="str">
+        <f>I146&amp;$G$149</f>
+        <v>Timid Ocean Modragon</v>
+      </c>
+      <c r="D171" s="2" t="str">
+        <f>J146&amp;$H$149</f>
+        <v>膽小的海洋龍娘</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
     </row>
     <row r="172" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
-        <v>105633</v>
+        <v>105629</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="C172" s="5" t="str">
-        <f>I142&amp;$G$146</f>
-        <v>Timid Forest Modragon</v>
-      </c>
-      <c r="D172" s="5" t="str">
-        <f>J142&amp;$H$146</f>
-        <v>膽小的森林龍娘</v>
+        <v>511</v>
+      </c>
+      <c r="C172" s="2" t="str">
+        <f>I147&amp;$G$149</f>
+        <v>Irritable Ocean Modragon</v>
+      </c>
+      <c r="D172" s="2" t="str">
+        <f>J147&amp;$H$149</f>
+        <v>易怒的海洋龍娘</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
     </row>
     <row r="173" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
-        <v>105634</v>
+        <v>105630</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="C173" s="5" t="str">
-        <f>I143&amp;$G$146</f>
-        <v>Irritable Forest Modragon</v>
-      </c>
-      <c r="D173" s="5" t="str">
-        <f>J143&amp;$H$146</f>
-        <v>易怒的森林龍娘</v>
+        <v>512</v>
+      </c>
+      <c r="C173" s="2" t="str">
+        <f>I148&amp;$G$149</f>
+        <v>Gentle Ocean Modragon</v>
+      </c>
+      <c r="D173" s="2" t="str">
+        <f>J148&amp;$H$149</f>
+        <v>溫和的海洋龍娘</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
     </row>
     <row r="174" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
-        <v>105635</v>
+        <v>105631</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C174" s="5" t="str">
-        <f>I144&amp;$G$146</f>
-        <v>Gentle Forest Modragon</v>
+        <f>I144&amp;$G$150</f>
+        <v>Vigilant Forest Modragon</v>
       </c>
       <c r="D174" s="5" t="str">
-        <f>J144&amp;$H$146</f>
-        <v>溫和的森林龍娘</v>
+        <f>J144&amp;$H$150</f>
+        <v>機警的森林龍娘</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
     </row>
     <row r="175" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
-        <v>105636</v>
+        <v>105632</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="C175" s="2" t="str">
-        <f>I140&amp;$G$147</f>
-        <v>Vigilant Mountain Modragon</v>
+        <v>514</v>
+      </c>
+      <c r="C175" s="5" t="str">
+        <f>I145&amp;$G$150</f>
+        <v>Grumpy Forest Modragon</v>
       </c>
       <c r="D175" s="5" t="str">
-        <f>J140&amp;$H$147</f>
-        <v>機警的山脈龍娘</v>
+        <f>J145&amp;$H$150</f>
+        <v>暴躁的森林龍娘</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="176" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
-        <v>105637</v>
+        <v>105633</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="C176" s="2" t="str">
-        <f>I141&amp;$G$147</f>
-        <v>Grumpy Mountain Modragon</v>
+        <v>515</v>
+      </c>
+      <c r="C176" s="5" t="str">
+        <f>I146&amp;$G$150</f>
+        <v>Timid Forest Modragon</v>
       </c>
       <c r="D176" s="5" t="str">
-        <f>J141&amp;$H$147</f>
-        <v>暴躁的山脈龍娘</v>
+        <f>J146&amp;$H$150</f>
+        <v>膽小的森林龍娘</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
     </row>
     <row r="177" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
-        <v>105638</v>
+        <v>105634</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="C177" s="2" t="str">
-        <f>I142&amp;$G$147</f>
-        <v>Timid Mountain Modragon</v>
+        <v>516</v>
+      </c>
+      <c r="C177" s="5" t="str">
+        <f>I147&amp;$G$150</f>
+        <v>Irritable Forest Modragon</v>
       </c>
       <c r="D177" s="5" t="str">
-        <f>J142&amp;$H$147</f>
-        <v>膽小的山脈龍娘</v>
+        <f>J147&amp;$H$150</f>
+        <v>易怒的森林龍娘</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
     </row>
     <row r="178" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
-        <v>105639</v>
+        <v>105635</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="C178" s="2" t="str">
-        <f>I143&amp;$G$147</f>
-        <v>Irritable Mountain Modragon</v>
+        <v>517</v>
+      </c>
+      <c r="C178" s="5" t="str">
+        <f>I148&amp;$G$150</f>
+        <v>Gentle Forest Modragon</v>
       </c>
       <c r="D178" s="5" t="str">
-        <f>J143&amp;$H$147</f>
-        <v>易怒的山脈龍娘</v>
+        <f>J148&amp;$H$150</f>
+        <v>溫和的森林龍娘</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
     </row>
     <row r="179" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
-        <v>105640</v>
+        <v>105636</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C179" s="2" t="str">
-        <f>I144&amp;$G$147</f>
-        <v>Gentle Mountain Modragon</v>
+        <f>I144&amp;$G$151</f>
+        <v>Vigilant Mountain Modragon</v>
       </c>
       <c r="D179" s="5" t="str">
-        <f>J144&amp;$H$147</f>
-        <v>溫和的山脈龍娘</v>
+        <f>J144&amp;$H$151</f>
+        <v>機警的山脈龍娘</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
     </row>
     <row r="180" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
-        <v>105641</v>
+        <v>105637</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="C180" s="5" t="str">
-        <f>I140&amp;$G$148</f>
-        <v>Vigilant Light Modragon</v>
+        <v>519</v>
+      </c>
+      <c r="C180" s="2" t="str">
+        <f>I145&amp;$G$151</f>
+        <v>Grumpy Mountain Modragon</v>
       </c>
       <c r="D180" s="5" t="str">
-        <f>J140&amp;$H$148</f>
-        <v>機警的聖光龍娘</v>
+        <f>J145&amp;$H$151</f>
+        <v>暴躁的山脈龍娘</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
     </row>
     <row r="181" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
-        <v>105642</v>
+        <v>105638</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="C181" s="5" t="str">
-        <f>I141&amp;$G$148</f>
-        <v>Grumpy Light Modragon</v>
+        <v>520</v>
+      </c>
+      <c r="C181" s="2" t="str">
+        <f>I146&amp;$G$151</f>
+        <v>Timid Mountain Modragon</v>
       </c>
       <c r="D181" s="5" t="str">
-        <f>J141&amp;$H$148</f>
-        <v>暴躁的聖光龍娘</v>
+        <f>J146&amp;$H$151</f>
+        <v>膽小的山脈龍娘</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
     </row>
     <row r="182" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
-        <v>105643</v>
+        <v>105639</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="C182" s="5" t="str">
-        <f>I142&amp;$G$148</f>
-        <v>Timid Light Modragon</v>
+        <v>521</v>
+      </c>
+      <c r="C182" s="2" t="str">
+        <f>I147&amp;$G$151</f>
+        <v>Irritable Mountain Modragon</v>
       </c>
       <c r="D182" s="5" t="str">
-        <f>J142&amp;$H$148</f>
-        <v>膽小的聖光龍娘</v>
+        <f>J147&amp;$H$151</f>
+        <v>易怒的山脈龍娘</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
     </row>
     <row r="183" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
-        <v>105644</v>
+        <v>105640</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="C183" s="5" t="str">
-        <f>I143&amp;$G$148</f>
-        <v>Irritable Light Modragon</v>
+        <v>522</v>
+      </c>
+      <c r="C183" s="2" t="str">
+        <f>I148&amp;$G$151</f>
+        <v>Gentle Mountain Modragon</v>
       </c>
       <c r="D183" s="5" t="str">
-        <f>J143&amp;$H$148</f>
-        <v>易怒的聖光龍娘</v>
+        <f>J148&amp;$H$151</f>
+        <v>溫和的山脈龍娘</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
     </row>
     <row r="184" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
-        <v>105645</v>
+        <v>105641</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C184" s="5" t="str">
-        <f>I144&amp;$G$148</f>
-        <v>Gentle Light Modragon</v>
+        <f>I144&amp;$G$152</f>
+        <v>Vigilant Light Modragon</v>
       </c>
       <c r="D184" s="5" t="str">
-        <f>J144&amp;$H$148</f>
-        <v>溫和的聖光龍娘</v>
+        <f>J144&amp;$H$152</f>
+        <v>機警的聖光龍娘</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
     </row>
     <row r="185" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
-        <v>105646</v>
+        <v>105642</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="C185" s="2" t="str">
-        <f>I140&amp;$G$149</f>
-        <v>Vigilant Shadow Modragon</v>
+        <v>524</v>
+      </c>
+      <c r="C185" s="5" t="str">
+        <f>I145&amp;$G$152</f>
+        <v>Grumpy Light Modragon</v>
       </c>
       <c r="D185" s="5" t="str">
-        <f>J140&amp;$H$149</f>
-        <v>機警的暗影龍娘</v>
+        <f>J145&amp;$H$152</f>
+        <v>暴躁的聖光龍娘</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
     </row>
     <row r="186" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
-        <v>105647</v>
+        <v>105643</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="C186" s="2" t="str">
-        <f>I141&amp;$G$149</f>
-        <v>Grumpy Shadow Modragon</v>
+        <v>525</v>
+      </c>
+      <c r="C186" s="5" t="str">
+        <f>I146&amp;$G$152</f>
+        <v>Timid Light Modragon</v>
       </c>
       <c r="D186" s="5" t="str">
-        <f>J141&amp;$H$149</f>
-        <v>暴躁的暗影龍娘</v>
+        <f>J146&amp;$H$152</f>
+        <v>膽小的聖光龍娘</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
     </row>
     <row r="187" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
-        <v>105648</v>
+        <v>105644</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>530</v>
-      </c>
-      <c r="C187" s="2" t="str">
-        <f>I142&amp;$G$149</f>
-        <v>Timid Shadow Modragon</v>
+        <v>526</v>
+      </c>
+      <c r="C187" s="5" t="str">
+        <f>I147&amp;$G$152</f>
+        <v>Irritable Light Modragon</v>
       </c>
       <c r="D187" s="5" t="str">
-        <f>J142&amp;$H$149</f>
-        <v>膽小的暗影龍娘</v>
+        <f>J147&amp;$H$152</f>
+        <v>易怒的聖光龍娘</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
     </row>
     <row r="188" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
-        <v>105649</v>
+        <v>105645</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>531</v>
-      </c>
-      <c r="C188" s="2" t="str">
-        <f>I143&amp;$G$149</f>
-        <v>Irritable Shadow Modragon</v>
+        <v>527</v>
+      </c>
+      <c r="C188" s="5" t="str">
+        <f>I148&amp;$G$152</f>
+        <v>Gentle Light Modragon</v>
       </c>
       <c r="D188" s="5" t="str">
-        <f>J143&amp;$H$149</f>
-        <v>易怒的暗影龍娘</v>
+        <f>J148&amp;$H$152</f>
+        <v>溫和的聖光龍娘</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="189" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
+        <v>105646</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="C189" s="2" t="str">
+        <f>I144&amp;$G$153</f>
+        <v>Vigilant Shadow Modragon</v>
+      </c>
+      <c r="D189" s="5" t="str">
+        <f>J144&amp;$H$153</f>
+        <v>機警的暗影龍娘</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="1">
+        <v>105647</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="C190" s="2" t="str">
+        <f>I145&amp;$G$153</f>
+        <v>Grumpy Shadow Modragon</v>
+      </c>
+      <c r="D190" s="5" t="str">
+        <f>J145&amp;$H$153</f>
+        <v>暴躁的暗影龍娘</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="1">
+        <v>105648</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="C191" s="2" t="str">
+        <f>I146&amp;$G$153</f>
+        <v>Timid Shadow Modragon</v>
+      </c>
+      <c r="D191" s="5" t="str">
+        <f>J146&amp;$H$153</f>
+        <v>膽小的暗影龍娘</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="1">
+        <v>105649</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="C192" s="2" t="str">
+        <f>I147&amp;$G$153</f>
+        <v>Irritable Shadow Modragon</v>
+      </c>
+      <c r="D192" s="5" t="str">
+        <f>J147&amp;$H$153</f>
+        <v>易怒的暗影龍娘</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A193" s="1">
         <v>105650</v>
       </c>
-      <c r="B189" s="6" t="s">
+      <c r="B193" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="C189" s="2" t="str">
-        <f>I144&amp;$G$149</f>
+      <c r="C193" s="2" t="str">
+        <f>I148&amp;$G$153</f>
         <v>Gentle Shadow Modragon</v>
       </c>
-      <c r="D189" s="5" t="str">
-        <f>J144&amp;$H$149</f>
+      <c r="D193" s="5" t="str">
+        <f>J148&amp;$H$153</f>
         <v>溫和的暗影龍娘</v>
       </c>
-      <c r="E189" s="2" t="s">
+      <c r="E193" s="2" t="s">
         <v>927</v>
       </c>
-      <c r="F189" s="2" t="s">
+      <c r="F193" s="2" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="190" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C190"/>
-      <c r="D190"/>
-    </row>
-    <row r="191" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A191" s="6">
+    <row r="194" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C194"/>
+      <c r="D194"/>
+    </row>
+    <row r="195" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A195" s="6">
         <v>200001</v>
       </c>
-      <c r="B191" s="6" t="s">
+      <c r="B195" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C191" s="7" t="s">
+      <c r="C195" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="D191" s="7" t="s">
+      <c r="D195" s="7" t="s">
         <v>664</v>
       </c>
-      <c r="E191" s="2" t="s">
+      <c r="E195" s="2" t="s">
         <v>928</v>
       </c>
-      <c r="F191" s="2" t="s">
+      <c r="F195" s="2" t="s">
         <v>928</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A192" s="6">
-        <v>200002</v>
-      </c>
-      <c r="B192" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="C192" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="D192" s="7" t="s">
-        <v>665</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A193" s="6">
-        <v>200003</v>
-      </c>
-      <c r="B193" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="C193" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="D193" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>929</v>
-      </c>
-      <c r="F193" s="2" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A194" s="6">
-        <v>200004</v>
-      </c>
-      <c r="B194" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="C194" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="D194" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>930</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A195" s="6">
-        <v>200005</v>
-      </c>
-      <c r="B195" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="C195" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="D195" s="7" t="s">
-        <v>668</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>931</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="196" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="6">
-        <v>200006</v>
+        <v>200002</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>277</v>
+        <v>457</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>932</v>
+        <v>457</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A197" s="6">
-        <v>200007</v>
+        <v>200003</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
     </row>
     <row r="198" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="6">
-        <v>200008</v>
+        <v>200004</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D198" s="7" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A199" s="6">
-        <v>200009</v>
+        <v>200005</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
     </row>
     <row r="200" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="6">
-        <v>200010</v>
+        <v>200006</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="D200" s="7" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
     </row>
     <row r="201" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="6">
-        <v>200011</v>
+        <v>200007</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
     </row>
     <row r="202" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="6">
-        <v>200012</v>
+        <v>200008</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
     </row>
     <row r="203" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="6">
-        <v>200013</v>
+        <v>200009</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
     </row>
     <row r="204" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="6">
-        <v>200014</v>
+        <v>200010</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>458</v>
+        <v>285</v>
       </c>
       <c r="D204" s="7" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>458</v>
+        <v>936</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>458</v>
+        <v>936</v>
       </c>
     </row>
     <row r="205" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="6">
-        <v>200015</v>
+        <v>200011</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
     </row>
     <row r="206" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="6">
-        <v>200016</v>
+        <v>200012</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>459</v>
+        <v>289</v>
       </c>
       <c r="D206" s="7" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>459</v>
+        <v>938</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>459</v>
+        <v>938</v>
       </c>
     </row>
     <row r="207" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="6">
-        <v>200017</v>
+        <v>200013</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="6">
-        <v>200018</v>
+        <v>200014</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>299</v>
+        <v>458</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>942</v>
+        <v>458</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>942</v>
+        <v>458</v>
       </c>
     </row>
     <row r="209" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="6">
-        <v>200019</v>
+        <v>200015</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="210" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="6">
-        <v>200020</v>
+        <v>200016</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>303</v>
+        <v>459</v>
       </c>
       <c r="D210" s="7" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>944</v>
+        <v>459</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>944</v>
+        <v>459</v>
       </c>
     </row>
     <row r="211" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="6">
-        <v>200021</v>
+        <v>200017</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>738</v>
+        <v>297</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>738</v>
+        <v>941</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A212" s="6">
-        <v>200022</v>
+        <v>200018</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C212" s="7" t="s">
-        <v>739</v>
+        <v>299</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>739</v>
+        <v>942</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>739</v>
+        <v>942</v>
       </c>
     </row>
     <row r="213" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="6">
-        <v>200023</v>
+        <v>200019</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>740</v>
+        <v>301</v>
       </c>
       <c r="D213" s="7" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>740</v>
+        <v>943</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="6">
-        <v>200024</v>
+        <v>200020</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="215" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="6">
-        <v>200025</v>
+        <v>200021</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>310</v>
+        <v>738</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>946</v>
+        <v>738</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>946</v>
+        <v>738</v>
       </c>
     </row>
     <row r="216" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="6">
-        <v>200026</v>
+        <v>200022</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>312</v>
+        <v>739</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>947</v>
+        <v>739</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>947</v>
+        <v>739</v>
       </c>
     </row>
     <row r="217" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="6">
-        <v>200027</v>
+        <v>200023</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>314</v>
+        <v>740</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>948</v>
+        <v>740</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A218" s="6">
-        <v>200028</v>
+        <v>200024</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
     </row>
     <row r="219" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="6">
-        <v>200029</v>
+        <v>200025</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
     </row>
     <row r="220" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="6">
-        <v>200030</v>
+        <v>200026</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
     </row>
     <row r="221" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="6">
-        <v>200031</v>
+        <v>200027</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
     </row>
     <row r="222" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="6">
-        <v>200032</v>
+        <v>200028</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="D222" s="7" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
     </row>
     <row r="223" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="6">
-        <v>200033</v>
+        <v>200029</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>460</v>
+        <v>318</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>460</v>
+        <v>950</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>460</v>
+        <v>950</v>
       </c>
     </row>
     <row r="224" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="6">
-        <v>200034</v>
+        <v>200030</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
     </row>
     <row r="225" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="6">
-        <v>200035</v>
+        <v>200031</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="226" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="6">
-        <v>200036</v>
+        <v>200032</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>461</v>
+        <v>324</v>
       </c>
       <c r="D226" s="7" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>461</v>
+        <v>953</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>461</v>
+        <v>953</v>
       </c>
     </row>
     <row r="227" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="6">
-        <v>200037</v>
+        <v>200033</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>332</v>
+        <v>460</v>
       </c>
       <c r="D227" s="7" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>956</v>
+        <v>460</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>956</v>
+        <v>460</v>
       </c>
     </row>
     <row r="228" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="6">
-        <v>200038</v>
+        <v>200034</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D228" s="7" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="229" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="6">
-        <v>200039</v>
+        <v>200035</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
     </row>
     <row r="230" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="6">
-        <v>200040</v>
+        <v>200036</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="D230" s="5" t="s">
-        <v>703</v>
+        <v>330</v>
+      </c>
+      <c r="C230" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="D230" s="7" t="s">
+        <v>699</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>400</v>
+        <v>461</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="6">
-        <v>200041</v>
+        <v>200037</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="C231" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="D231" s="5" t="s">
-        <v>704</v>
+        <v>331</v>
+      </c>
+      <c r="C231" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="D231" s="7" t="s">
+        <v>700</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>407</v>
+        <v>956</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>407</v>
+        <v>956</v>
       </c>
     </row>
     <row r="232" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="6">
-        <v>200042</v>
+        <v>200038</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="C232" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>705</v>
+        <v>333</v>
+      </c>
+      <c r="C232" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="D232" s="7" t="s">
+        <v>701</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>401</v>
+        <v>957</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>401</v>
+        <v>957</v>
       </c>
     </row>
     <row r="233" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="6">
-        <v>200043</v>
+        <v>200039</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>706</v>
+        <v>335</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="D233" s="7" t="s">
+        <v>702</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>402</v>
+        <v>958</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>402</v>
+        <v>958</v>
       </c>
     </row>
     <row r="234" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="6">
-        <v>200044</v>
+        <v>200040</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>707</v>
+        <v>400</v>
+      </c>
+      <c r="D234" s="5" t="s">
+        <v>703</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A235" s="6">
-        <v>200045</v>
+        <v>200041</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>708</v>
+        <v>390</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="D235" s="5" t="s">
+        <v>704</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="236" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="6">
-        <v>200046</v>
+        <v>200042</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>405</v>
+        <v>391</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>401</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="237" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="6">
-        <v>200047</v>
+        <v>200043</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="C237" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="D237" s="5" t="s">
-        <v>710</v>
+        <v>392</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>706</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>959</v>
+        <v>402</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>959</v>
+        <v>402</v>
       </c>
     </row>
     <row r="238" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="6">
-        <v>200048</v>
+        <v>200044</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="239" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="6">
-        <v>200049</v>
+        <v>200045</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="C239" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="D239" s="5" t="s">
-        <v>712</v>
+        <v>394</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>708</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="6">
-        <v>200050</v>
+        <v>200046</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="C240" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="D240" s="5" t="s">
-        <v>713</v>
+        <v>395</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>709</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="6">
-        <v>200051</v>
+        <v>200047</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>714</v>
+        <v>396</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="D241" s="5" t="s">
+        <v>710</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>410</v>
+        <v>959</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>410</v>
+        <v>959</v>
       </c>
     </row>
     <row r="242" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="6">
-        <v>200052</v>
+        <v>200048</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>419</v>
+        <v>397</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="243" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="6">
-        <v>200053</v>
+        <v>200049</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>716</v>
+        <v>398</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="D243" s="5" t="s">
+        <v>712</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="244" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A244" s="6">
-        <v>200054</v>
+        <v>200050</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>717</v>
+        <v>399</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="D244" s="5" t="s">
+        <v>713</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A245" s="6">
-        <v>200055</v>
+        <v>200051</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="246" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="6">
-        <v>200056</v>
+        <v>200052</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="C246" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="D246" s="5" t="s">
-        <v>719</v>
+        <v>419</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>715</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="247" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="6">
-        <v>200057</v>
+        <v>200053</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A248" s="6">
-        <v>200058</v>
+        <v>200054</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="C248" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="D248" s="5" t="s">
-        <v>721</v>
+        <v>421</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>717</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>960</v>
+        <v>413</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>960</v>
+        <v>413</v>
       </c>
     </row>
     <row r="249" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="6">
-        <v>200059</v>
+        <v>200055</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="C249" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="D249" s="5" t="s">
-        <v>722</v>
+        <v>422</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>718</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
     </row>
     <row r="250" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="6">
-        <v>200060</v>
+        <v>200056</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>417</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="251" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="6">
-        <v>200061</v>
+        <v>200057</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
     </row>
     <row r="252" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="6">
-        <v>200062</v>
+        <v>200058</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>427</v>
+        <v>429</v>
+      </c>
+      <c r="C252" s="5" t="s">
+        <v>743</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>427</v>
+        <v>960</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>427</v>
+        <v>960</v>
       </c>
     </row>
     <row r="253" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="6">
-        <v>200063</v>
+        <v>200059</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>726</v>
+        <v>428</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>961</v>
+        <v>428</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>961</v>
+        <v>428</v>
       </c>
     </row>
     <row r="254" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="6">
-        <v>200064</v>
+        <v>200060</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="C254" s="5" t="s">
-        <v>437</v>
+        <v>431</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>425</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>962</v>
+        <v>425</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>962</v>
+        <v>425</v>
       </c>
     </row>
     <row r="255" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="6">
-        <v>200065</v>
+        <v>200061</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="C255" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="D255" s="5" t="s">
-        <v>728</v>
+        <v>432</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>724</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
     </row>
     <row r="256" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="6">
-        <v>200066</v>
+        <v>200062</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="C256" s="5" t="s">
-        <v>441</v>
+        <v>433</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>427</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
     </row>
     <row r="257" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="6">
-        <v>200067</v>
+        <v>200063</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
+      </c>
+      <c r="C257" s="5" t="s">
+        <v>726</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>439</v>
+        <v>961</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>439</v>
+        <v>961</v>
       </c>
     </row>
     <row r="258" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="6">
-        <v>200068</v>
+        <v>200064</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="D258" s="2" t="s">
-        <v>731</v>
+        <v>435</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="D258" s="5" t="s">
+        <v>727</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>440</v>
+        <v>962</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>440</v>
+        <v>962</v>
       </c>
     </row>
     <row r="259" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="6">
-        <v>200069</v>
+        <v>200065</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>726</v>
+        <v>438</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>719</v>
+        <v>728</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>961</v>
+        <v>438</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>961</v>
+        <v>438</v>
       </c>
     </row>
     <row r="260" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="6">
-        <v>200070</v>
+        <v>200066</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>574</v>
+        <v>441</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>574</v>
+        <v>441</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>574</v>
+        <v>441</v>
       </c>
     </row>
     <row r="261" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" s="6">
-        <v>200071</v>
+        <v>200067</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="C261" s="5" t="s">
-        <v>502</v>
+        <v>443</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>439</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>963</v>
+        <v>439</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>963</v>
+        <v>439</v>
       </c>
     </row>
     <row r="262" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="6">
-        <v>200072</v>
+        <v>200068</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>744</v>
-      </c>
-      <c r="C262" s="5" t="s">
-        <v>757</v>
-      </c>
-      <c r="D262" s="5" t="s">
-        <v>753</v>
+        <v>444</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>731</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>964</v>
+        <v>440</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>964</v>
+        <v>440</v>
       </c>
     </row>
     <row r="263" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="6">
-        <v>200073</v>
+        <v>200069</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>745</v>
+        <v>445</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>758</v>
+        <v>726</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>754</v>
+        <v>719</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
     </row>
     <row r="264" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="6">
-        <v>200074</v>
+        <v>200070</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>746</v>
+        <v>446</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>759</v>
+        <v>574</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>798</v>
+        <v>732</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>966</v>
+        <v>574</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>966</v>
+        <v>574</v>
       </c>
     </row>
     <row r="265" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="6">
-        <v>200075</v>
+        <v>200071</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>747</v>
+        <v>501</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>760</v>
+        <v>502</v>
       </c>
       <c r="D265" s="5" t="s">
-        <v>755</v>
+        <v>733</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>823</v>
+        <v>963</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>823</v>
+        <v>963</v>
       </c>
     </row>
     <row r="266" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="6">
-        <v>200076</v>
+        <v>200072</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="267" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="6">
-        <v>200077</v>
+        <v>200073</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="D267" s="5" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="268" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="6">
-        <v>200078</v>
+        <v>200074</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="D268" s="5" t="s">
-        <v>763</v>
+        <v>798</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="269" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="6">
-        <v>200079</v>
+        <v>200075</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="D269" s="5" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>970</v>
+        <v>823</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>970</v>
+        <v>823</v>
       </c>
     </row>
     <row r="270" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="6">
-        <v>200080</v>
+        <v>200076</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D270" s="5" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>823</v>
+        <v>967</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>823</v>
+        <v>967</v>
       </c>
     </row>
     <row r="271" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="6">
-        <v>200081</v>
+        <v>200077</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>766</v>
+        <v>749</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="D271" s="5" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="272" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="6">
-        <v>200082</v>
+        <v>200078</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>772</v>
+        <v>750</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="D272" s="5" t="s">
-        <v>793</v>
+        <v>763</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="273" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="6">
-        <v>200083</v>
+        <v>200079</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>773</v>
+        <v>751</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="D273" s="5" t="s">
-        <v>794</v>
+        <v>764</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="274" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="6">
-        <v>200084</v>
+        <v>200080</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>774</v>
+        <v>752</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>790</v>
+        <v>760</v>
       </c>
       <c r="D274" s="5" t="s">
-        <v>795</v>
+        <v>755</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>974</v>
+        <v>823</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>974</v>
+        <v>823</v>
       </c>
     </row>
     <row r="275" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="6">
-        <v>200085</v>
+        <v>200081</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="D275" s="5" t="s">
-        <v>755</v>
+        <v>765</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>823</v>
+        <v>971</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>823</v>
+        <v>971</v>
       </c>
     </row>
     <row r="276" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" s="6">
+        <v>200082</v>
+      </c>
+      <c r="B276" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="C276" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="D276" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="E276" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="F276" s="2" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A277" s="6">
+        <v>200083</v>
+      </c>
+      <c r="B277" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="C277" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="D277" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="E277" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="F277" s="2" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A278" s="6">
+        <v>200084</v>
+      </c>
+      <c r="B278" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="D278" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="F278" s="2" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A279" s="6">
+        <v>200085</v>
+      </c>
+      <c r="B279" s="6" t="s">
+        <v>775</v>
+      </c>
+      <c r="C279" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="D279" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="E279" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="F279" s="2" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A280" s="6">
         <v>200086</v>
       </c>
-      <c r="B276" s="6" t="s">
+      <c r="B280" s="6" t="s">
         <v>776</v>
       </c>
-      <c r="C276" s="5" t="s">
+      <c r="C280" s="5" t="s">
         <v>791</v>
       </c>
-      <c r="D276" s="5" t="s">
+      <c r="D280" s="5" t="s">
         <v>771</v>
       </c>
-      <c r="E276" s="2" t="s">
+      <c r="E280" s="2" t="s">
         <v>975</v>
       </c>
-      <c r="F276" s="2" t="s">
+      <c r="F280" s="2" t="s">
         <v>975</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A277" s="6">
-        <v>200087</v>
-      </c>
-      <c r="B277" s="6" t="s">
-        <v>777</v>
-      </c>
-      <c r="C277" s="5" t="s">
-        <v>782</v>
-      </c>
-      <c r="D277" s="5" t="s">
-        <v>786</v>
-      </c>
-      <c r="E277" s="2" t="s">
-        <v>976</v>
-      </c>
-      <c r="F277" s="2" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A278" s="6">
-        <v>200088</v>
-      </c>
-      <c r="B278" s="6" t="s">
-        <v>778</v>
-      </c>
-      <c r="C278" s="5" t="s">
-        <v>783</v>
-      </c>
-      <c r="D278" s="5" t="s">
-        <v>787</v>
-      </c>
-      <c r="E278" s="2" t="s">
-        <v>977</v>
-      </c>
-      <c r="F278" s="2" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A279" s="6">
-        <v>200089</v>
-      </c>
-      <c r="B279" s="6" t="s">
-        <v>779</v>
-      </c>
-      <c r="C279" s="5" t="s">
-        <v>784</v>
-      </c>
-      <c r="D279" s="5" t="s">
-        <v>796</v>
-      </c>
-      <c r="E279" s="2" t="s">
-        <v>978</v>
-      </c>
-      <c r="F279" s="2" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A280" s="6">
-        <v>200090</v>
-      </c>
-      <c r="B280" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="C280" s="5" t="s">
-        <v>760</v>
-      </c>
-      <c r="D280" s="5" t="s">
-        <v>755</v>
-      </c>
-      <c r="E280" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="F280" s="2" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="281" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A281" s="6">
-        <v>200091</v>
+        <v>200087</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="D281" s="5" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
     </row>
     <row r="282" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A282" s="6">
-        <v>200092</v>
+        <v>200088</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>810</v>
+        <v>783</v>
       </c>
       <c r="D282" s="5" t="s">
-        <v>983</v>
+        <v>787</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>809</v>
+        <v>977</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>809</v>
+        <v>977</v>
       </c>
     </row>
     <row r="283" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A283" s="6">
-        <v>200093</v>
+        <v>200089</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>801</v>
+        <v>779</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>812</v>
+        <v>784</v>
       </c>
       <c r="D283" s="5" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>811</v>
+        <v>978</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>811</v>
+        <v>978</v>
       </c>
     </row>
     <row r="284" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A284" s="6">
-        <v>200094</v>
+        <v>200090</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>802</v>
+        <v>780</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>814</v>
+        <v>760</v>
       </c>
       <c r="D284" s="5" t="s">
-        <v>984</v>
+        <v>755</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>813</v>
+        <v>823</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>813</v>
+        <v>823</v>
       </c>
     </row>
     <row r="285" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A285" s="6">
-        <v>200095</v>
+        <v>200091</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>803</v>
+        <v>781</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>816</v>
+        <v>785</v>
       </c>
       <c r="D285" s="5" t="s">
-        <v>985</v>
+        <v>797</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>815</v>
+        <v>979</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>815</v>
+        <v>979</v>
       </c>
     </row>
     <row r="286" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A286" s="6">
-        <v>200096</v>
+        <v>200092</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="D286" s="5" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
     </row>
     <row r="287" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A287" s="6">
-        <v>200097</v>
+        <v>200093</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="D287" s="5" t="s">
-        <v>987</v>
+        <v>799</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
     </row>
     <row r="288" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A288" s="6">
-        <v>200098</v>
+        <v>200094</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="D288" s="5" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
     </row>
     <row r="289" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A289" s="6">
-        <v>200099</v>
+        <v>200095</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>760</v>
+        <v>816</v>
       </c>
       <c r="D289" s="5" t="s">
-        <v>755</v>
+        <v>985</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
     </row>
     <row r="290" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A290" s="6">
-        <v>200100</v>
+        <v>200096</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="D290" s="5" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
     </row>
     <row r="291" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A291" s="6">
-        <v>200101</v>
+        <v>200097</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>849</v>
+        <v>805</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="D291" s="5" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
     </row>
     <row r="292" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A292" s="6">
-        <v>200102</v>
+        <v>200098</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>850</v>
+        <v>806</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="D292" s="5" t="s">
-        <v>828</v>
+        <v>988</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
     </row>
     <row r="293" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A293" s="6">
-        <v>200103</v>
+        <v>200099</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>851</v>
+        <v>807</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>834</v>
+        <v>760</v>
       </c>
       <c r="D293" s="5" t="s">
-        <v>991</v>
+        <v>755</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
     </row>
     <row r="294" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A294" s="6">
-        <v>200104</v>
+        <v>200100</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>852</v>
+        <v>808</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>836</v>
+        <v>825</v>
       </c>
       <c r="D294" s="5" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>835</v>
+        <v>824</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>835</v>
+        <v>824</v>
       </c>
     </row>
     <row r="295" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A295" s="6">
-        <v>200105</v>
+        <v>200101</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>838</v>
+        <v>827</v>
       </c>
       <c r="D295" s="5" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>837</v>
+        <v>826</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>837</v>
+        <v>826</v>
       </c>
     </row>
     <row r="296" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A296" s="6">
-        <v>200106</v>
+        <v>200102</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="D296" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
     </row>
     <row r="297" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A297" s="6">
-        <v>200107</v>
+        <v>200103</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="D297" s="5" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
     </row>
     <row r="298" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A298" s="6">
-        <v>200108</v>
+        <v>200104</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="D298" s="5" t="s">
-        <v>830</v>
+        <v>992</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
     </row>
     <row r="299" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A299" s="6">
-        <v>200109</v>
+        <v>200105</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="D299" s="5" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
     </row>
     <row r="300" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A300" s="6">
-        <v>200110</v>
+        <v>200106</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>760</v>
+        <v>840</v>
       </c>
       <c r="D300" s="5" t="s">
-        <v>755</v>
+        <v>829</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>823</v>
+        <v>839</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>823</v>
+        <v>839</v>
       </c>
     </row>
     <row r="301" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A301" s="6">
-        <v>200111</v>
+        <v>200107</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="D301" s="5" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
     </row>
     <row r="302" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A302" s="6">
-        <v>200112</v>
+        <v>200108</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>872</v>
+        <v>844</v>
       </c>
       <c r="D302" s="5" t="s">
-        <v>997</v>
+        <v>830</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>871</v>
+        <v>843</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>871</v>
+        <v>843</v>
       </c>
     </row>
     <row r="303" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A303" s="6">
-        <v>200113</v>
+        <v>200109</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>861</v>
+        <v>846</v>
       </c>
       <c r="D303" s="5" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
     </row>
     <row r="304" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A304" s="6">
-        <v>200114</v>
+        <v>200110</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>863</v>
+        <v>760</v>
       </c>
       <c r="D304" s="5" t="s">
-        <v>999</v>
+        <v>755</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>862</v>
+        <v>823</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>862</v>
+        <v>823</v>
       </c>
     </row>
     <row r="305" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A305" s="6">
-        <v>200115</v>
+        <v>200111</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>760</v>
+        <v>848</v>
       </c>
       <c r="D305" s="5" t="s">
-        <v>755</v>
+        <v>996</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>823</v>
+        <v>847</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>823</v>
+        <v>847</v>
       </c>
     </row>
     <row r="306" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A306" s="6">
-        <v>200116</v>
+        <v>200112</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>865</v>
+        <v>872</v>
       </c>
       <c r="D306" s="5" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>864</v>
+        <v>871</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>864</v>
+        <v>871</v>
       </c>
     </row>
     <row r="307" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A307" s="6">
-        <v>200117</v>
+        <v>200113</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>1003</v>
+        <v>861</v>
       </c>
       <c r="D307" s="5" t="s">
-        <v>1008</v>
-      </c>
-      <c r="E307" s="5" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F307" s="5" t="s">
-        <v>1003</v>
+        <v>998</v>
+      </c>
+      <c r="E307" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="F307" s="2" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="308" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A308" s="6">
-        <v>200118</v>
+        <v>200114</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>1004</v>
+        <v>863</v>
       </c>
       <c r="D308" s="5" t="s">
-        <v>1006</v>
-      </c>
-      <c r="E308" s="5" t="s">
-        <v>1004</v>
-      </c>
-      <c r="F308" s="5" t="s">
-        <v>1004</v>
+        <v>999</v>
+      </c>
+      <c r="E308" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="F308" s="2" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="309" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A309" s="6">
+        <v>200115</v>
+      </c>
+      <c r="B309" s="6" t="s">
+        <v>869</v>
+      </c>
+      <c r="C309" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="D309" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="E309" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="F309" s="2" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A310" s="6">
+        <v>200116</v>
+      </c>
+      <c r="B310" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="C310" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="D310" s="5" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E310" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="F310" s="2" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A311" s="6">
+        <v>200117</v>
+      </c>
+      <c r="B311" s="6" t="s">
+        <v>873</v>
+      </c>
+      <c r="C311" s="5" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D311" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E311" s="5" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F311" s="5" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A312" s="6">
+        <v>200118</v>
+      </c>
+      <c r="B312" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="C312" s="5" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D312" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E312" s="5" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F312" s="5" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A313" s="6">
         <v>200119</v>
       </c>
-      <c r="B309" s="6" t="s">
+      <c r="B313" s="6" t="s">
         <v>875</v>
       </c>
-      <c r="C309" s="5" t="s">
+      <c r="C313" s="5" t="s">
         <v>1005</v>
       </c>
-      <c r="D309" s="5" t="s">
+      <c r="D313" s="5" t="s">
         <v>1009</v>
       </c>
-      <c r="E309" s="5" t="s">
+      <c r="E313" s="5" t="s">
         <v>1005</v>
       </c>
-      <c r="F309" s="5" t="s">
+      <c r="F313" s="5" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="310" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="311" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="312" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="313" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="314" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="315" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="316" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -10342,16 +10466,16 @@
     <row r="540" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="541" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="542" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="543" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="544" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="545" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="546" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="543" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="544" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="545" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="546" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="547" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="548" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="549" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="550" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="551" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="552" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="549" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="550" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="551" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="552" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="553" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="554" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="555" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -10415,11 +10539,11 @@
     <row r="613" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="614" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="615" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="616" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="616" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="617" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="618" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="619" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="620" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="620" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="621" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="622" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="623" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -10440,11 +10564,15 @@
     <row r="638" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="639" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="640" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="641" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C641"/>
-    </row>
-    <row r="642" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C642"/>
+    <row r="641" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="642" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="643" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="644" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="645" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C645"/>
+    </row>
+    <row r="646" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C646"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/Excels/Language_多语言表.xlsx
+++ b/Excels/Language_多语言表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676FA679-B7A9-4678-B4F5-CA06DD545F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B979FBFA-82DA-474F-8584-87E3F7AAFC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="1022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="1062">
   <si>
     <t>int</t>
   </si>
@@ -1868,36 +1868,6 @@
     <t>Shadow Modragon</t>
   </si>
   <si>
-    <t xml:space="preserve"> Flame Modragon</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aqua Modragon</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hibiscus Modragon</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Megalithic Modragon</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Infernal Modragon</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ocean Modragon</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Forest Modragon</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mountain Modragon</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Light Modragon</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Shadow Modragon</t>
-  </si>
-  <si>
     <t>When you can't complete a task alone, try summoning your Modragons for assistant!</t>
   </si>
   <si>
@@ -3507,6 +3477,156 @@
   <si>
     <t>巨石紋路在這根柱子上交錯，仿佛感受到大地的沉穩力量。</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>機警的火焰龍娘</t>
+  </si>
+  <si>
+    <t>暴躁的火焰龍娘</t>
+  </si>
+  <si>
+    <t>膽小的火焰龍娘</t>
+  </si>
+  <si>
+    <t>易怒的火焰龍娘</t>
+  </si>
+  <si>
+    <t>溫和的火焰龍娘</t>
+  </si>
+  <si>
+    <t>機警的水浪龍娘</t>
+  </si>
+  <si>
+    <t>暴躁的水浪龍娘</t>
+  </si>
+  <si>
+    <t>膽小的水浪龍娘</t>
+  </si>
+  <si>
+    <t>易怒的水浪龍娘</t>
+  </si>
+  <si>
+    <t>溫和的水浪龍娘</t>
+  </si>
+  <si>
+    <t>機警的木槿龍少</t>
+  </si>
+  <si>
+    <t>暴躁的木槿龍少</t>
+  </si>
+  <si>
+    <t>膽小的木槿龍少</t>
+  </si>
+  <si>
+    <t>易怒的木槿龍少</t>
+  </si>
+  <si>
+    <t>溫和的木槿龍少</t>
+  </si>
+  <si>
+    <t>機警的岩石龍娘</t>
+  </si>
+  <si>
+    <t>暴躁的岩石龍娘</t>
+  </si>
+  <si>
+    <t>膽小的岩石龍娘</t>
+  </si>
+  <si>
+    <t>易怒的岩石龍娘</t>
+  </si>
+  <si>
+    <t>溫和的岩石龍娘</t>
+  </si>
+  <si>
+    <t>機警的煉獄龍娘</t>
+  </si>
+  <si>
+    <t>暴躁的煉獄龍娘</t>
+  </si>
+  <si>
+    <t>膽小的煉獄龍娘</t>
+  </si>
+  <si>
+    <t>易怒的煉獄龍娘</t>
+  </si>
+  <si>
+    <t>溫和的煉獄龍娘</t>
+  </si>
+  <si>
+    <t>機警的海洋龍娘</t>
+  </si>
+  <si>
+    <t>暴躁的海洋龍娘</t>
+  </si>
+  <si>
+    <t>膽小的海洋龍娘</t>
+  </si>
+  <si>
+    <t>易怒的海洋龍娘</t>
+  </si>
+  <si>
+    <t>溫和的海洋龍娘</t>
+  </si>
+  <si>
+    <t>機警的森林龍娘</t>
+  </si>
+  <si>
+    <t>暴躁的森林龍娘</t>
+  </si>
+  <si>
+    <t>膽小的森林龍娘</t>
+  </si>
+  <si>
+    <t>易怒的森林龍娘</t>
+  </si>
+  <si>
+    <t>溫和的森林龍娘</t>
+  </si>
+  <si>
+    <t>機警的山脈龍娘</t>
+  </si>
+  <si>
+    <t>暴躁的山脈龍娘</t>
+  </si>
+  <si>
+    <t>膽小的山脈龍娘</t>
+  </si>
+  <si>
+    <t>易怒的山脈龍娘</t>
+  </si>
+  <si>
+    <t>溫和的山脈龍娘</t>
+  </si>
+  <si>
+    <t>機警的聖光龍娘</t>
+  </si>
+  <si>
+    <t>暴躁的聖光龍娘</t>
+  </si>
+  <si>
+    <t>膽小的聖光龍娘</t>
+  </si>
+  <si>
+    <t>易怒的聖光龍娘</t>
+  </si>
+  <si>
+    <t>溫和的聖光龍娘</t>
+  </si>
+  <si>
+    <t>機警的暗影龍娘</t>
+  </si>
+  <si>
+    <t>暴躁的暗影龍娘</t>
+  </si>
+  <si>
+    <t>膽小的暗影龍娘</t>
+  </si>
+  <si>
+    <t>易怒的暗影龍娘</t>
+  </si>
+  <si>
+    <t>溫和的暗影龍娘</t>
   </si>
 </sst>
 </file>
@@ -3877,10 +3997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J646"/>
+  <dimension ref="A1:H646"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="E146" sqref="E146"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="H156" sqref="H156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -3936,7 +4056,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -3980,7 +4100,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -4000,7 +4120,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>22</v>
@@ -4020,7 +4140,7 @@
         <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>26</v>
@@ -4040,13 +4160,13 @@
         <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -4060,7 +4180,7 @@
         <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>33</v>
@@ -4080,7 +4200,7 @@
         <v>533</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>447</v>
@@ -4100,7 +4220,7 @@
         <v>449</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>37</v>
@@ -4120,7 +4240,7 @@
         <v>534</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>451</v>
@@ -4140,10 +4260,10 @@
         <v>535</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>453</v>
@@ -4160,10 +4280,10 @@
         <v>536</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>41</v>
@@ -4183,7 +4303,7 @@
         <v>266</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>454</v>
@@ -4200,7 +4320,7 @@
         <v>477</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -4220,7 +4340,7 @@
         <v>455</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>47</v>
@@ -4260,7 +4380,7 @@
         <v>53</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>54</v>
@@ -4280,7 +4400,7 @@
         <v>57</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>58</v>
@@ -4300,10 +4420,10 @@
         <v>552</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>60</v>
@@ -4320,7 +4440,7 @@
         <v>553</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>62</v>
@@ -4340,7 +4460,7 @@
         <v>356</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>65</v>
@@ -4360,7 +4480,7 @@
         <v>357</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>68</v>
@@ -4400,7 +4520,7 @@
         <v>76</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>77</v>
@@ -4440,7 +4560,7 @@
         <v>358</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>85</v>
@@ -4460,7 +4580,7 @@
         <v>554</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>88</v>
@@ -4480,7 +4600,7 @@
         <v>555</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>91</v>
@@ -4500,7 +4620,7 @@
         <v>556</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>94</v>
@@ -4520,7 +4640,7 @@
         <v>557</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>98</v>
@@ -4540,7 +4660,7 @@
         <v>558</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>100</v>
@@ -4560,7 +4680,7 @@
         <v>559</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>103</v>
@@ -4580,7 +4700,7 @@
         <v>560</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>106</v>
@@ -4600,7 +4720,7 @@
         <v>561</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>109</v>
@@ -4620,7 +4740,7 @@
         <v>562</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>112</v>
@@ -4640,7 +4760,7 @@
         <v>563</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>115</v>
@@ -4700,7 +4820,7 @@
         <v>128</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>129</v>
@@ -4740,7 +4860,7 @@
         <v>137</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>138</v>
@@ -4760,7 +4880,7 @@
         <v>141</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>142</v>
@@ -4904,7 +5024,7 @@
         <v>247</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>247</v>
@@ -4924,7 +5044,7 @@
         <v>537</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>537</v>
@@ -4944,7 +5064,7 @@
         <v>538</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>538</v>
@@ -4984,7 +5104,7 @@
         <v>540</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>540</v>
@@ -5024,7 +5144,7 @@
         <v>543</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>543</v>
@@ -5044,7 +5164,7 @@
         <v>542</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>542</v>
@@ -5061,16 +5181,16 @@
         <v>383</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -5084,7 +5204,7 @@
         <v>544</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>544</v>
@@ -5104,7 +5224,7 @@
         <v>545</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>545</v>
@@ -5124,7 +5244,7 @@
         <v>546</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>546</v>
@@ -5144,7 +5264,7 @@
         <v>547</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>547</v>
@@ -5172,7 +5292,7 @@
         <v>548</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>548</v>
@@ -5192,7 +5312,7 @@
         <v>549</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>549</v>
@@ -5232,7 +5352,7 @@
         <v>471</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>471</v>
@@ -5252,7 +5372,7 @@
         <v>472</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>472</v>
@@ -5297,16 +5417,16 @@
         <v>249</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -5320,7 +5440,7 @@
         <v>251</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>251</v>
@@ -5364,7 +5484,7 @@
         <v>175</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>175</v>
@@ -5424,7 +5544,7 @@
         <v>183</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="E80" s="9" t="s">
         <v>183</v>
@@ -5464,7 +5584,7 @@
         <v>188</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="E82" s="9" t="s">
         <v>188</v>
@@ -5484,7 +5604,7 @@
         <v>190</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>190</v>
@@ -5504,7 +5624,7 @@
         <v>192</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="E84" s="9" t="s">
         <v>192</v>
@@ -5544,7 +5664,7 @@
         <v>197</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="E86" s="9" t="s">
         <v>197</v>
@@ -5564,7 +5684,7 @@
         <v>199</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="E87" s="9" t="s">
         <v>199</v>
@@ -5584,7 +5704,7 @@
         <v>201</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="E88" s="9" t="s">
         <v>201</v>
@@ -5604,7 +5724,7 @@
         <v>203</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="E89" s="9" t="s">
         <v>203</v>
@@ -5664,7 +5784,7 @@
         <v>210</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="E92" s="9" t="s">
         <v>210</v>
@@ -5684,7 +5804,7 @@
         <v>212</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="E93" s="9" t="s">
         <v>212</v>
@@ -5704,7 +5824,7 @@
         <v>214</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="E94" s="9" t="s">
         <v>214</v>
@@ -5724,7 +5844,7 @@
         <v>216</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>216</v>
@@ -5744,7 +5864,7 @@
         <v>218</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="E96" s="9" t="s">
         <v>218</v>
@@ -5784,7 +5904,7 @@
         <v>221</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="E98" s="9" t="s">
         <v>221</v>
@@ -5824,7 +5944,7 @@
         <v>226</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="E100" s="9" t="s">
         <v>226</v>
@@ -5844,7 +5964,7 @@
         <v>228</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="E101" s="9" t="s">
         <v>228</v>
@@ -5884,7 +6004,7 @@
         <v>188</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="E103" s="9" t="s">
         <v>188</v>
@@ -5904,7 +6024,7 @@
         <v>234</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="E104" s="9" t="s">
         <v>234</v>
@@ -5924,7 +6044,7 @@
         <v>550</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>550</v>
@@ -5938,19 +6058,19 @@
         <v>102159</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>981</v>
+        <v>971</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>982</v>
+        <v>972</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>981</v>
+        <v>971</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>981</v>
+        <v>971</v>
       </c>
     </row>
     <row r="107" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5985,16 +6105,16 @@
         <v>255</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
     </row>
     <row r="110" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -6025,16 +6145,16 @@
         <v>264</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>1001</v>
+        <v>991</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>1007</v>
+        <v>997</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>1001</v>
+        <v>991</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>1001</v>
+        <v>991</v>
       </c>
     </row>
     <row r="112" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -6068,7 +6188,7 @@
         <v>479</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="E113" s="5" t="s">
         <v>479</v>
@@ -6088,7 +6208,7 @@
         <v>362</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>362</v>
@@ -6108,7 +6228,7 @@
         <v>363</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>363</v>
@@ -6128,7 +6248,7 @@
         <v>364</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>364</v>
@@ -6148,7 +6268,7 @@
         <v>365</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>365</v>
@@ -6168,7 +6288,7 @@
         <v>366</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>366</v>
@@ -6208,7 +6328,7 @@
         <v>368</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>368</v>
@@ -6228,7 +6348,7 @@
         <v>369</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>369</v>
@@ -6288,7 +6408,7 @@
         <v>551</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="E124" s="5" t="s">
         <v>551</v>
@@ -6305,16 +6425,16 @@
         <v>338</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
     </row>
     <row r="126" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -6328,7 +6448,7 @@
         <v>478</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="E126" s="5" t="s">
         <v>478</v>
@@ -6348,7 +6468,7 @@
         <v>372</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="E127" s="5" t="s">
         <v>372</v>
@@ -6368,7 +6488,7 @@
         <v>373</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="E128" s="5" t="s">
         <v>373</v>
@@ -6377,7 +6497,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="129" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>105402</v>
       </c>
@@ -6388,7 +6508,7 @@
         <v>374</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="E129" s="5" t="s">
         <v>374</v>
@@ -6397,7 +6517,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="130" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>105403</v>
       </c>
@@ -6408,7 +6528,7 @@
         <v>375</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="E130" s="5" t="s">
         <v>375</v>
@@ -6417,7 +6537,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="131" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>105404</v>
       </c>
@@ -6428,7 +6548,7 @@
         <v>372</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="E131" s="5" t="s">
         <v>372</v>
@@ -6437,7 +6557,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="132" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>105405</v>
       </c>
@@ -6457,7 +6577,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="133" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>105406</v>
       </c>
@@ -6477,7 +6597,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="134" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>105407</v>
       </c>
@@ -6488,7 +6608,7 @@
         <v>378</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="E134" s="5" t="s">
         <v>378</v>
@@ -6497,7 +6617,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="135" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>105501</v>
       </c>
@@ -6517,7 +6637,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="136" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>105502</v>
       </c>
@@ -6537,7 +6657,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="137" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>105503</v>
       </c>
@@ -6548,7 +6668,7 @@
         <v>475</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="E137" s="5" t="s">
         <v>475</v>
@@ -6557,574 +6677,461 @@
         <v>475</v>
       </c>
     </row>
-    <row r="138" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>105504</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>1002</v>
+        <v>992</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>1002</v>
+        <v>992</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>105505</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>1014</v>
+        <v>1004</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>1018</v>
+        <v>1008</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>1014</v>
+        <v>1004</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>105506</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>105507</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>1012</v>
+        <v>1002</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>105508</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>1017</v>
+        <v>1007</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>1021</v>
+        <v>1011</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>1017</v>
+        <v>1007</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1007</v>
+      </c>
+    </row>
+    